--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95467223-63E8-4222-91B8-84CD6E377C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91905D02-13E5-4793-BD26-B757C3BA1CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2880" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分支服务价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,19 +355,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cart（购物车）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看购物车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post/get传入phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goodsInCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"001"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头图url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“https://”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支服务单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支服务单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post/get
+传入phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart
+（购物车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”升级版“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本项服务总价（后端建表比较方便）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceSum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,22 +538,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,37 +838,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="4" width="20.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="4" width="20.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="9" width="15.625" style="13" customWidth="1"/>
-    <col min="10" max="11" width="9" style="13"/>
-    <col min="12" max="12" width="17.75" style="13" customWidth="1"/>
+    <col min="6" max="9" width="15.625" style="10" customWidth="1"/>
+    <col min="10" max="11" width="9" style="10"/>
+    <col min="12" max="12" width="17.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>76</v>
+      <c r="E1" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -786,123 +883,123 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>60</v>
+      <c r="D2" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="I2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>0</v>
@@ -910,79 +1007,79 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>67</v>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="28.5">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="28.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
@@ -994,28 +1091,28 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>75</v>
+      <c r="E9" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>6</v>
@@ -1030,17 +1127,17 @@
         <v>8</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1054,17 +1151,17 @@
         <v>10</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1075,24 +1172,24 @@
         <v>7</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>36</v>
+      <c r="D12" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -1110,16 +1207,16 @@
         <v>19</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1136,18 +1233,18 @@
         <v>23</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10" t="s">
-        <v>74</v>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>6</v>
@@ -1162,17 +1259,17 @@
         <v>25</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1186,17 +1283,17 @@
         <v>28</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
@@ -1210,119 +1307,274 @@
         <v>31</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="I17" s="11">
         <v>100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10" t="s">
-        <v>73</v>
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="10">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="D12:D19"/>
     <mergeCell ref="C12:C19"/>
@@ -1332,14 +1584,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91905D02-13E5-4793-BD26-B757C3BA1CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BCAAC-2F5C-4CD8-B6EC-5384DC90C5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="123">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缺失手机号重复验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get
 参数为phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回管理员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,6 +458,74 @@
   </si>
   <si>
     <t>priceSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“个人健康”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回管理员信息，通过localstorage完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失手机号重复验证，通过msg完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可通过主路径+1.png建表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告头部上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告评价部分上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,6 +618,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -573,6 +642,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181018</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>160771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6B7FAC-83CB-4108-9A38-3DEB9A8F0826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8924925"/>
+          <a:ext cx="10925218" cy="5513821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181018</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>113146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F981D83A-1007-4FBA-B0A8-89E8F4976B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14487525"/>
+          <a:ext cx="10925218" cy="5513821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15755</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33092</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>17896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C15F1FB-94E2-49B3-B6A7-38CCB2F4EB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15755" y="20040600"/>
+          <a:ext cx="10761537" cy="5475721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -851,7 +1057,7 @@
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="9" width="15.625" style="10" customWidth="1"/>
     <col min="10" max="11" width="9" style="10"/>
-    <col min="12" max="12" width="17.75" style="10" customWidth="1"/>
+    <col min="12" max="12" width="47" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="9" customFormat="1">
@@ -859,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -868,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -893,16 +1099,16 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -929,10 +1135,10 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
@@ -957,10 +1163,10 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
@@ -985,10 +1191,10 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1004,22 +1210,26 @@
       <c r="I5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>66</v>
+      <c r="D6" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -1045,10 +1255,10 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1064,22 +1274,26 @@
       <c r="I7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="28.5">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
@@ -1099,20 +1313,20 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>74</v>
+      <c r="E9" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>6</v>
@@ -1129,15 +1343,17 @@
       <c r="J9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1153,84 +1369,90 @@
       <c r="J10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="7" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="K12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>43</v>
@@ -1239,24 +1461,24 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12" t="s">
-        <v>73</v>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>43</v>
@@ -1265,22 +1487,24 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>43</v>
@@ -1289,22 +1513,22 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>43</v>
@@ -1313,22 +1537,22 @@
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="11">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>43</v>
@@ -1337,24 +1561,22 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>43</v>
@@ -1363,22 +1585,24 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>43</v>
@@ -1386,207 +1610,313 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="G21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="H22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="G23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="8" t="s">
+      <c r="G25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="11">
         <v>100</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="J26" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="10">
+        <v>2</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="H28" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="10">
+      <c r="I28" s="10">
         <v>200</v>
       </c>
+      <c r="J28" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="15"/>
+      <c r="B32" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="A20:A27"/>
+  <mergeCells count="24">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="A9:A20"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B21:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BCAAC-2F5C-4CD8-B6EC-5384DC90C5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2F8F7-672C-483E-B68D-AB4F110D14DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10485" yWindow="3855" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,22 @@
   </si>
   <si>
     <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动图片url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["https://","https://"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,13 +635,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,13 +669,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>181018</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -694,13 +713,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>181018</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>113146</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -738,13 +757,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>15755</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>33092</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>17896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1044,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="E9" sqref="E9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1099,16 +1118,16 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1135,10 +1154,10 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1163,10 +1182,10 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1191,10 +1210,10 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1221,14 +1240,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1255,10 +1274,10 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1304,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="28.5">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
@@ -1313,16 +1332,16 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -1349,10 +1368,10 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -1375,10 +1394,10 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12" t="s">
         <v>106</v>
@@ -1401,10 +1420,10 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="7" t="s">
         <v>14</v>
@@ -1429,14 +1448,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1457,14 +1476,16 @@
       <c r="J13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1483,52 +1504,54 @@
       <c r="J14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>43</v>
@@ -1537,22 +1560,22 @@
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="17"/>
       <c r="F17" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>43</v>
@@ -1561,22 +1584,22 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="17"/>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="11">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>43</v>
@@ -1585,24 +1608,22 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="I19" s="11">
+        <v>100</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>43</v>
@@ -1611,242 +1632,258 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12" t="s">
+      <c r="J21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A21" s="15" t="s">
+    <row r="22" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D22" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8" t="s">
+      <c r="J22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="10" t="s">
+      <c r="J23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="10" t="s">
+      <c r="J24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="10" t="s">
+      <c r="J25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="12" t="s">
+      <c r="J26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="10" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="11">
-        <v>100</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
+        <v>100</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="10">
         <v>2</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="10" t="s">
+      <c r="J28" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I29" s="10">
         <v>200</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14" t="s">
+      <c r="J29" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1854,65 +1891,75 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="15"/>
-      <c r="B32" s="9" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="9" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="9" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="9" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2F8F7-672C-483E-B68D-AB4F110D14DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF738510-08FF-4697-BCAD-3ED97BB5B73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10485" yWindow="3855" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,10 +493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +538,14 @@
   </si>
   <si>
     <t>["https://","https://"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车/修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,13 +642,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1118,16 +1125,16 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1154,10 +1161,10 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1182,10 +1189,10 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1210,10 +1217,10 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1240,14 +1247,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1274,10 +1281,10 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1311,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="28.5">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
@@ -1332,19 +1339,19 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="19" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1368,11 +1375,11 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1394,11 +1401,11 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="12" t="s">
         <v>106</v>
       </c>
@@ -1420,11 +1427,11 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1448,14 +1455,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1482,10 +1489,10 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1510,35 +1517,35 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -1556,15 +1563,17 @@
       <c r="J16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="16"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1580,15 +1589,17 @@
       <c r="J17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1604,15 +1615,17 @@
       <c r="J18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
@@ -1628,15 +1641,17 @@
       <c r="J19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -1654,15 +1669,17 @@
       <c r="J20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="7" t="s">
         <v>36</v>
       </c>
@@ -1678,25 +1695,27 @@
       <c r="J21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="L21" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -1718,11 +1737,11 @@
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="8" t="s">
         <v>98</v>
       </c>
@@ -1742,11 +1761,11 @@
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="10" t="s">
         <v>81</v>
       </c>
@@ -1766,11 +1785,11 @@
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="10" t="s">
         <v>100</v>
       </c>
@@ -1790,11 +1809,11 @@
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="10" t="s">
         <v>87</v>
       </c>
@@ -1815,11 +1834,11 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="16"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="10" t="s">
         <v>90</v>
       </c>
@@ -1837,11 +1856,11 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="10" t="s">
         <v>94</v>
       </c>
@@ -1859,11 +1878,11 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="10" t="s">
         <v>105</v>
       </c>
@@ -1881,9 +1900,9 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1891,9 +1910,9 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -1901,52 +1920,41 @@
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="9" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="9" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="A32:A34"/>
@@ -1960,6 +1968,17 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="B22:B29"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF738510-08FF-4697-BCAD-3ED97BB5B73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00918072-45D1-4FF5-82DD-7E48312F7E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,11 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post/get
-无参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"add some words"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,11 +162,6 @@
   </si>
   <si>
     <t>“https://”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post/get
-传入主服务id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,14 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goodId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>imgurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>头图url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,16 +389,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post/get
-传入phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,18 +398,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goodTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>typeTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务类型标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,6 +507,89 @@
   </si>
   <si>
     <t>加入购物车/修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get
+传入phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get
+无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get
+传入主服务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据与“查看购物车”同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get
+传入id,detail_id,num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart（购物车）&amp;
+detail（商品详情页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart
+（购物车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post
+参数为id+user_name+user_phone+user_address+tot_num+pay_list(*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,6 +696,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1082,16 +1135,16 @@
     <col min="2" max="4" width="20.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="9" width="15.625" style="10" customWidth="1"/>
-    <col min="10" max="11" width="9" style="10"/>
-    <col min="12" max="12" width="47" style="10" customWidth="1"/>
+    <col min="10" max="12" width="9" style="10"/>
+    <col min="13" max="13" width="47" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1">
+    <row r="1" spans="1:13" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1100,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1115,211 +1168,220 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>59</v>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="I2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>65</v>
+        <v>101</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="I6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="28.5">
-      <c r="A8" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="28.5">
+      <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
@@ -1331,28 +1393,29 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>72</v>
+      <c r="D9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>6</v>
@@ -1367,19 +1430,20 @@
         <v>8</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1393,45 +1457,47 @@
         <v>10</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1442,28 +1508,29 @@
         <v>7</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>35</v>
+      <c r="D13" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -1481,18 +1548,19 @@
         <v>19</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1506,455 +1574,545 @@
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19" t="s">
-        <v>71</v>
+      <c r="L15" s="19"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="I19" s="11">
         <v>100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19" t="s">
-        <v>70</v>
+        <v>117</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="I22" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="8" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="10" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="10" t="s">
+      <c r="J26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="I27" s="11">
         <v>100</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="10" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I28" s="10">
         <v>2</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I29" s="10">
         <v>200</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="21"/>
       <c r="B30" s="14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="18"/>
+    <row r="31" spans="1:13">
+      <c r="A31" s="21"/>
       <c r="B31" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="18"/>
+    <row r="32" spans="1:13" ht="28.5">
+      <c r="A32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="J32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="71.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="21"/>
       <c r="B34" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="18" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="18"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="21"/>
       <c r="B36" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="A32:A34"/>
@@ -1968,17 +2126,6 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483CB0E9-9038-4560-AD54-9C6C44A1AD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7683027-2979-4E78-87CC-C87DC0362CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,14 +750,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,6 +774,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227405</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>36946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD57C57-F79F-4C88-95CA-F4E33B4F000D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="11658600"/>
+          <a:ext cx="11057330" cy="5580496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313130</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>17896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6618ABD-4925-4182-BE1B-5FCDC81C8B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8743950"/>
+          <a:ext cx="11057330" cy="5580496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313130</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>65521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70079078-8A39-4125-9F6D-382DC845C58E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16392525"/>
+          <a:ext cx="11057330" cy="5580496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236930</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>75046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B55515-83E4-477E-B27E-A8E96B8E53A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="19659600"/>
+          <a:ext cx="11057330" cy="5580496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313130</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>160771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39299A0-D647-4F98-9EAC-09A062DE4869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24088725"/>
+          <a:ext cx="11057330" cy="5580496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408380</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>151246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3DFAA1-9FF0-45C5-9F99-7BD05DADD5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="28603575"/>
+          <a:ext cx="11057330" cy="5580496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313130</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>141721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9535292D-212A-4C0D-8B93-C85FF59D9616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33299400"/>
+          <a:ext cx="11057330" cy="5580496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132155</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>160771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E39EBE-7A5C-44E7-8855-F8D5A487D1FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="37842825"/>
+          <a:ext cx="11057330" cy="5580496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1107,7 +1464,7 @@
       <c r="C2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1131,7 +1488,7 @@
       <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="25" t="s">
         <v>131</v>
       </c>
       <c r="M2" s="6"/>
@@ -1162,7 +1519,7 @@
       <c r="K3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
@@ -1191,7 +1548,7 @@
       <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
@@ -1220,7 +1577,7 @@
       <c r="K5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="6" t="s">
         <v>99</v>
       </c>
@@ -1233,7 +1590,7 @@
       <c r="C6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1257,7 +1614,7 @@
       <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="25" t="s">
         <v>133</v>
       </c>
       <c r="M6" s="6"/>
@@ -1288,7 +1645,7 @@
       <c r="K7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="6" t="s">
         <v>100</v>
       </c>
@@ -1328,13 +1685,13 @@
       <c r="A9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>122</v>
       </c>
       <c r="E9" s="24" t="s">
@@ -1358,7 +1715,7 @@
       <c r="K9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="25" t="s">
         <v>135</v>
       </c>
       <c r="M9" s="6"/>
@@ -1387,7 +1744,7 @@
       <c r="K10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
@@ -1414,7 +1771,7 @@
       <c r="K11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
@@ -1441,20 +1798,20 @@
       <c r="K12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>137</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -1478,16 +1835,16 @@
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="25" t="s">
         <v>134</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="19" t="s">
         <v>13</v>
       </c>
@@ -1509,14 +1866,14 @@
       <c r="K14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="19" t="s">
         <v>111</v>
       </c>
@@ -1534,14 +1891,14 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="23"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="24" t="s">
         <v>142</v>
       </c>
@@ -1563,14 +1920,14 @@
       <c r="K16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="23"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="24"/>
       <c r="F17" s="6" t="s">
         <v>25</v>
@@ -1590,14 +1947,14 @@
       <c r="K17" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="24"/>
       <c r="F18" s="6" t="s">
         <v>28</v>
@@ -1617,14 +1974,14 @@
       <c r="K18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="23"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="24"/>
       <c r="F19" s="6" t="s">
         <v>31</v>
@@ -1644,14 +2001,14 @@
       <c r="K19" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="24" t="s">
         <v>34</v>
       </c>
@@ -1673,14 +2030,14 @@
       <c r="K20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="6" t="s">
         <v>34</v>
@@ -1700,7 +2057,7 @@
       <c r="K21" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="11" t="s">
         <v>101</v>
       </c>
@@ -1712,10 +2069,10 @@
       <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>138</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -1739,7 +2096,7 @@
       <c r="K22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="25" t="s">
         <v>136</v>
       </c>
       <c r="M22" s="6"/>
@@ -1747,8 +2104,8 @@
     <row r="23" spans="1:13">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="24"/>
       <c r="F23" s="7" t="s">
         <v>117</v>
@@ -1768,14 +2125,14 @@
       <c r="K23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="9" t="s">
         <v>118</v>
@@ -1795,14 +2152,14 @@
       <c r="K24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="24"/>
       <c r="F25" s="9" t="s">
         <v>119</v>
@@ -1822,14 +2179,14 @@
       <c r="K25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="24"/>
       <c r="F26" s="9" t="s">
         <v>120</v>
@@ -1849,7 +2206,7 @@
       <c r="K26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="23"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="11" t="s">
         <v>101</v>
       </c>
@@ -1857,8 +2214,8 @@
     <row r="27" spans="1:13">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="24"/>
       <c r="F27" s="9" t="s">
         <v>82</v>
@@ -1878,13 +2235,13 @@
       <c r="K27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="23"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="24"/>
       <c r="F28" s="9" t="s">
         <v>121</v>
@@ -1904,13 +2261,13 @@
       <c r="K28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="23"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="24"/>
       <c r="F29" s="9" t="s">
         <v>93</v>
@@ -1930,7 +2287,7 @@
       <c r="K29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="23"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="24"/>
@@ -2046,17 +2403,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="A32:A34"/>
@@ -2070,14 +2421,21 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7683027-2979-4E78-87CC-C87DC0362CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE71DD1C-539E-464E-8F22-F8D75964E422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="205">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>档案编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,10 +463,6 @@
   </si>
   <si>
     <t>报告评价部分上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,6 +615,249 @@
   </si>
   <si>
     <t>get参数为exp（ 报告编号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get
+参数为phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名（可修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"aa"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“@”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile
+（个人信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“136”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“北京”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向手机发送验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码-获取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码-提交新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post
+参数为phone+newpass+verifycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post
+必备参数phone
+可选参数为user_name+user_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息编辑（非地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息编辑（地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post
+参数为id(phone)+name+phone+address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改地址是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改信息是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address主要有三个信息，任一改变都应更改数据库数据，因此前端会检查有无改变做出判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order
+（订单页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderInList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有，可作为唯一主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"001"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“pending”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识订单当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看这个orderID同userId(唯一)是否匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdfUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告pdf的Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“https://”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdfDownload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf的下载链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“https://"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get
+参数为id（phone）+orderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportInOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个orderId可能对应多份报告，也可以考虑用reportId建新表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,6 +994,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,13 +1023,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>227405</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>36946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -826,13 +1067,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>17896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -870,13 +1111,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>65521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -914,13 +1155,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>236930</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -958,13 +1199,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1002,13 +1243,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>408380</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1046,13 +1287,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1090,13 +1331,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>132155</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1396,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1448,23 +1689,23 @@
         <v>40</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1489,15 +1730,15 @@
         <v>41</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1523,10 +1764,10 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1552,10 +1793,10 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
@@ -1583,14 +1824,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="27" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1615,15 +1856,15 @@
         <v>41</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1892,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
@@ -1677,25 +1918,25 @@
         <v>41</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>141</v>
+      <c r="D9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>139</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>6</v>
@@ -1716,16 +1957,16 @@
         <v>98</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1748,11 +1989,11 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="11" t="s">
         <v>94</v>
       </c>
@@ -1775,11 +2016,11 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1804,15 +2045,15 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>137</v>
+      <c r="D13" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>13</v>
@@ -1836,15 +2077,15 @@
         <v>41</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="19" t="s">
         <v>13</v>
       </c>
@@ -1870,24 +2111,24 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -1895,12 +2136,12 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
-        <v>142</v>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>6</v>
@@ -1918,17 +2159,17 @@
         <v>41</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1945,17 +2186,17 @@
         <v>41</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1972,17 +2213,17 @@
         <v>41</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
@@ -1999,17 +2240,17 @@
         <v>41</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2028,17 +2269,17 @@
         <v>41</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="11" t="s">
@@ -2063,23 +2304,23 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="D22" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>75</v>
@@ -2097,18 +2338,18 @@
         <v>41</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>88</v>
@@ -2129,13 +2370,13 @@
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>76</v>
@@ -2156,13 +2397,13 @@
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>89</v>
@@ -2183,13 +2424,13 @@
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>80</v>
@@ -2212,11 +2453,11 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="9" t="s">
         <v>82</v>
       </c>
@@ -2238,13 +2479,13 @@
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>86</v>
@@ -2264,11 +2505,11 @@
       <c r="L28" s="25"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="9" t="s">
         <v>93</v>
       </c>
@@ -2289,138 +2530,627 @@
       </c>
       <c r="L29" s="25"/>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="24"/>
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="57">
+      <c r="A35" s="26"/>
+      <c r="B35" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="57">
+      <c r="A36" s="26"/>
+      <c r="B36" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="M36" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="28.5">
+      <c r="A37" s="26"/>
+      <c r="B37" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="M37" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="57">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:13" ht="28.5">
+      <c r="A39" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="71.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="24"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="24"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="24"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="24"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="24"/>
+      <c r="B50" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="24"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="24"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="24"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="24"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="24"/>
-      <c r="B31" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" ht="28.5">
-      <c r="A32" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="71.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="B55" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15">
+      <c r="A56" s="26"/>
+      <c r="B56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L33" s="22" t="s">
+      <c r="D56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L56" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="24"/>
-      <c r="B34" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15">
-      <c r="A36" s="24"/>
-      <c r="B36" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B22:B29"/>
+  <mergeCells count="41">
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C38"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -2432,6 +3162,24 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE71DD1C-539E-464E-8F22-F8D75964E422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAB9134-B01F-4E0C-A6C8-A589820B6491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16515" yWindow="1080" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="209">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"001"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,6 +854,26 @@
   </si>
   <si>
     <t>同一个orderId可能对应多份报告，也可以考虑用reportId建新表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“2020/9/1 10:00"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"A01"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,14 +1007,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,13 +1039,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>227405</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>36946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1067,13 +1083,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>17896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1111,13 +1127,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>65521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1155,13 +1171,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>236930</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1199,13 +1215,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1243,13 +1259,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>408380</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1287,14 +1303,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>141721</xdr:rowOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>141720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1331,13 +1347,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>132155</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1637,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1696,16 +1712,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1729,16 +1745,16 @@
       <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="27" t="s">
         <v>129</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1760,14 +1776,14 @@
       <c r="K3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1789,14 +1805,14 @@
       <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
@@ -1818,20 +1834,20 @@
       <c r="K5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="25"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1855,16 +1871,16 @@
       <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="27" t="s">
         <v>131</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1886,13 +1902,13 @@
       <c r="K7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
@@ -1923,19 +1939,19 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>139</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1956,17 +1972,17 @@
       <c r="K9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="27" t="s">
         <v>133</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1985,15 +2001,15 @@
       <c r="K10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="11" t="s">
         <v>94</v>
       </c>
@@ -2012,15 +2028,15 @@
       <c r="K11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2039,20 +2055,20 @@
       <c r="K12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -2076,16 +2092,16 @@
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="27" t="s">
         <v>132</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="19" t="s">
         <v>13</v>
       </c>
@@ -2107,14 +2123,14 @@
       <c r="K14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="19" t="s">
         <v>109</v>
       </c>
@@ -2132,15 +2148,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25" t="s">
         <v>140</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2161,15 +2177,15 @@
       <c r="K16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="25"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2188,15 +2204,15 @@
       <c r="K17" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L17" s="25"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
@@ -2215,15 +2231,15 @@
       <c r="K18" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
@@ -2242,15 +2258,15 @@
       <c r="K19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="26" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2271,15 +2287,15 @@
       <c r="K20" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="25"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2298,25 +2314,25 @@
       <c r="K21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="25"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2337,17 +2353,17 @@
       <c r="K22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="27" t="s">
         <v>134</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="7" t="s">
         <v>115</v>
       </c>
@@ -2366,15 +2382,15 @@
       <c r="K23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="25"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="9" t="s">
         <v>116</v>
       </c>
@@ -2393,15 +2409,15 @@
       <c r="K24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="25"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="9" t="s">
         <v>117</v>
       </c>
@@ -2420,15 +2436,15 @@
       <c r="K25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="25"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="9" t="s">
         <v>118</v>
       </c>
@@ -2447,17 +2463,17 @@
       <c r="K26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="25"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="9" t="s">
         <v>82</v>
       </c>
@@ -2476,14 +2492,14 @@
       <c r="K27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="9" t="s">
         <v>119</v>
       </c>
@@ -2502,14 +2518,14 @@
       <c r="K28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="25"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="9" t="s">
         <v>93</v>
       </c>
@@ -2528,17 +2544,17 @@
       <c r="K29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>146</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -2561,10 +2577,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="24" t="s">
         <v>156</v>
       </c>
@@ -2585,11 +2601,11 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="26" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="25" t="s">
         <v>161</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -2609,11 +2625,11 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="9" t="s">
         <v>160</v>
       </c>
@@ -2631,11 +2647,11 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="9" t="s">
         <v>159</v>
       </c>
@@ -2653,11 +2669,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="26"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="23" t="s">
         <v>174</v>
       </c>
@@ -2679,11 +2695,11 @@
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="23" t="s">
         <v>177</v>
       </c>
@@ -2708,11 +2724,11 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="12" t="s">
         <v>146</v>
       </c>
@@ -2732,7 +2748,7 @@
       <c r="B38" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="23" t="s">
         <v>173</v>
       </c>
@@ -2754,7 +2770,7 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="28.5">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -2783,7 +2799,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="71.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="17" t="s">
         <v>103</v>
       </c>
@@ -2819,17 +2835,17 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>182</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -2842,18 +2858,18 @@
         <v>149</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="24"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="18" t="s">
         <v>115</v>
       </c>
@@ -2868,30 +2884,30 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="24"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="9" t="s">
-        <v>116</v>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="24"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="9" t="s">
         <v>117</v>
       </c>
@@ -2906,266 +2922,283 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="24"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I46" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="24"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="9" t="s">
+    <row r="47" spans="1:13">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="9">
-        <v>2</v>
+      <c r="I47" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="9" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I48" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="9">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="24"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="9" t="s">
+    <row r="50" spans="1:13">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="24"/>
-      <c r="B50" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I50" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="24"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>149</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="24"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="F52" s="9" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="I52" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="24"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="26"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="25" t="s">
+        <v>202</v>
+      </c>
       <c r="F53" s="9" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>149</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>198</v>
+        <v>165</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="24"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="9" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>149</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15">
-      <c r="A56" s="26"/>
-      <c r="B56" s="8" t="s">
+    <row r="58" spans="1:13" ht="15">
+      <c r="A58" s="25"/>
+      <c r="B58" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="L56" s="22" t="s">
+      <c r="L58" s="22" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D13:D21"/>
@@ -3175,11 +3208,32 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B41:B51"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="D41:D51"/>
+    <mergeCell ref="E41:E51"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E53:E56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAB9134-B01F-4E0C-A6C8-A589820B6491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9813FA70-A6B5-4D89-B4DD-844AEDA28C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16515" yWindow="1080" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="220">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,15 +865,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“2020/9/1 10:00"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"A01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get参数为id(phone)+orderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“到达杨浦区"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport
+运输详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportEdit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,12 +959,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -935,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,14 +1057,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,13 +1092,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>227405</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>36946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1083,13 +1136,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>17896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1127,13 +1180,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>65521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1171,13 +1224,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>236930</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1215,13 +1268,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1259,13 +1312,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>408380</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1303,14 +1356,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>141720</xdr:rowOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1347,13 +1400,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>132155</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1653,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1712,16 +1765,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1745,16 +1798,16 @@
       <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="25" t="s">
         <v>129</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1776,14 +1829,14 @@
       <c r="K3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1805,14 +1858,14 @@
       <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="27"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
@@ -1834,20 +1887,20 @@
       <c r="K5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="27"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1871,16 +1924,16 @@
       <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="25" t="s">
         <v>131</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1902,13 +1955,13 @@
       <c r="K7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="27"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
@@ -1939,19 +1992,19 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>139</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1972,17 +2025,17 @@
       <c r="K9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="25" t="s">
         <v>133</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2001,15 +2054,15 @@
       <c r="K10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="11" t="s">
         <v>94</v>
       </c>
@@ -2028,15 +2081,15 @@
       <c r="K11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2055,20 +2108,20 @@
       <c r="K12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="27"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -2092,16 +2145,16 @@
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="25" t="s">
         <v>132</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="19" t="s">
         <v>13</v>
       </c>
@@ -2123,14 +2176,14 @@
       <c r="K14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="27"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="19" t="s">
         <v>109</v>
       </c>
@@ -2148,15 +2201,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="27"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26" t="s">
         <v>140</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2177,15 +2230,15 @@
       <c r="K16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="27"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2204,15 +2257,15 @@
       <c r="K17" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L17" s="27"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
@@ -2231,15 +2284,15 @@
       <c r="K18" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="27"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
@@ -2258,15 +2311,15 @@
       <c r="K19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="27"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2287,15 +2340,15 @@
       <c r="K20" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="27"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2314,25 +2367,25 @@
       <c r="K21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="27"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2353,17 +2406,17 @@
       <c r="K22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="25" t="s">
         <v>134</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="7" t="s">
         <v>115</v>
       </c>
@@ -2382,15 +2435,15 @@
       <c r="K23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="9" t="s">
         <v>116</v>
       </c>
@@ -2409,15 +2462,15 @@
       <c r="K24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="27"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="9" t="s">
         <v>117</v>
       </c>
@@ -2436,15 +2489,15 @@
       <c r="K25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="27"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="9" t="s">
         <v>118</v>
       </c>
@@ -2463,17 +2516,17 @@
       <c r="K26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="27"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="9" t="s">
         <v>82</v>
       </c>
@@ -2492,14 +2545,14 @@
       <c r="K27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="27"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="9" t="s">
         <v>119</v>
       </c>
@@ -2518,14 +2571,14 @@
       <c r="K28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="27"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="9" t="s">
         <v>93</v>
       </c>
@@ -2544,17 +2597,17 @@
       <c r="K29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="27"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="27" t="s">
         <v>146</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -2577,10 +2630,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="24" t="s">
         <v>156</v>
       </c>
@@ -2601,11 +2654,11 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="25" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="26" t="s">
         <v>161</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -2625,11 +2678,11 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="9" t="s">
         <v>160</v>
       </c>
@@ -2647,11 +2700,11 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="9" t="s">
         <v>159</v>
       </c>
@@ -2669,11 +2722,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="25"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="23" t="s">
         <v>174</v>
       </c>
@@ -2692,14 +2745,16 @@
       <c r="I35" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="18" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="25"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="23" t="s">
         <v>177</v>
       </c>
@@ -2718,17 +2773,19 @@
       <c r="I36" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="M36" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="25"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="12" t="s">
         <v>146</v>
       </c>
@@ -2748,7 +2805,7 @@
       <c r="B38" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="23" t="s">
         <v>173</v>
       </c>
@@ -2770,7 +2827,7 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="28.5">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>102</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -2799,7 +2856,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="71.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="17" t="s">
         <v>103</v>
       </c>
@@ -2825,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>123</v>
@@ -2835,17 +2892,17 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="26" t="s">
         <v>182</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -2858,18 +2915,21 @@
         <v>149</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="18" t="s">
         <v>115</v>
       </c>
@@ -2882,13 +2942,16 @@
       <c r="I42" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="J42" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="18" t="s">
         <v>114</v>
       </c>
@@ -2901,13 +2964,16 @@
       <c r="I43" s="18" t="s">
         <v>78</v>
       </c>
+      <c r="J43" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="9" t="s">
         <v>117</v>
       </c>
@@ -2920,13 +2986,16 @@
       <c r="I44" s="18" t="s">
         <v>90</v>
       </c>
+      <c r="J44" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="9" t="s">
         <v>116</v>
       </c>
@@ -2939,266 +3008,371 @@
       <c r="I45" s="18" t="s">
         <v>79</v>
       </c>
+      <c r="J45" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="25"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="I46" s="9">
+        <v>2</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="9" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="10">
-        <v>100</v>
+      <c r="I47" s="9">
+        <v>200</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="9" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="9">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="9" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="25"/>
+        <v>149</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="F50" s="9" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25" t="s">
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C55" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D55" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E55" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H55" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I52" s="18" t="b">
+      <c r="I55" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="M52" s="9" t="s">
+      <c r="M55" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="25" t="s">
+    <row r="56" spans="1:13">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F56" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>149</v>
       </c>
       <c r="I56" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="25" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="15">
-      <c r="A58" s="25"/>
-      <c r="B58" s="8" t="s">
+      <c r="C60" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15">
+      <c r="A61" s="26"/>
+      <c r="B61" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="L58" s="22" t="s">
+      <c r="J61" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L61" s="22" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="A57:A58"/>
+  <mergeCells count="45">
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="B41:B54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D13:D21"/>
@@ -3208,32 +3382,17 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="A39:A59"/>
     <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B41:B51"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="D41:D51"/>
-    <mergeCell ref="E41:E51"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9813FA70-A6B5-4D89-B4DD-844AEDA28C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629FC6DB-7743-469D-A0F9-90EE97CCB19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="222">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,10 +443,6 @@
   </si>
   <si>
     <t>购买管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -918,6 +914,18 @@
   </si>
   <si>
     <t>reportEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,6 +1065,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1092,13 +1109,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>227405</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>36946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1136,13 +1153,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>17896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1180,13 +1197,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>65521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1224,13 +1241,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>236930</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1268,13 +1285,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1312,13 +1329,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>408380</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1356,14 +1373,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>141721</xdr:rowOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>141720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1400,13 +1417,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>132155</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1706,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1758,23 +1775,23 @@
         <v>40</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="30" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1798,16 +1815,16 @@
       <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>129</v>
+      <c r="L2" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1829,14 +1846,14 @@
       <c r="K3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1858,14 +1875,14 @@
       <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
@@ -1887,20 +1904,20 @@
       <c r="K5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="25"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="30" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1924,16 +1941,16 @@
       <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>131</v>
+      <c r="L6" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1955,13 +1972,13 @@
       <c r="K7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="26"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
@@ -1987,25 +2004,25 @@
         <v>41</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>139</v>
+      <c r="D9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>6</v>
@@ -2025,17 +2042,17 @@
       <c r="K9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="25" t="s">
-        <v>133</v>
+      <c r="L9" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2054,15 +2071,15 @@
       <c r="K10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="11" t="s">
         <v>94</v>
       </c>
@@ -2081,15 +2098,15 @@
       <c r="K11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2108,21 +2125,21 @@
       <c r="K12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>135</v>
+      <c r="D13" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>13</v>
@@ -2145,16 +2162,16 @@
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="25" t="s">
-        <v>132</v>
+      <c r="L13" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="19" t="s">
         <v>13</v>
       </c>
@@ -2176,41 +2193,41 @@
       <c r="K14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26" t="s">
-        <v>140</v>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>6</v>
@@ -2228,17 +2245,17 @@
         <v>41</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="L16" s="28"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2255,17 +2272,17 @@
         <v>41</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="L17" s="28"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
@@ -2282,17 +2299,17 @@
         <v>41</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="L18" s="28"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
@@ -2309,17 +2326,17 @@
         <v>41</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="L19" s="28"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2338,17 +2355,17 @@
         <v>41</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="L20" s="28"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2365,31 +2382,31 @@
         <v>41</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="L21" s="28"/>
       <c r="M21" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>75</v>
@@ -2406,19 +2423,19 @@
       <c r="K22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="25" t="s">
-        <v>134</v>
+      <c r="L22" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>88</v>
@@ -2435,17 +2452,17 @@
       <c r="K23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="25"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>76</v>
@@ -2462,17 +2479,17 @@
       <c r="K24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="25"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>89</v>
@@ -2489,17 +2506,17 @@
       <c r="K25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="25"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>80</v>
@@ -2516,17 +2533,17 @@
       <c r="K26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="25"/>
+      <c r="L26" s="28"/>
       <c r="M26" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="9" t="s">
         <v>82</v>
       </c>
@@ -2545,16 +2562,16 @@
       <c r="K27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>86</v>
@@ -2571,14 +2588,14 @@
       <c r="K28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="25"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="9" t="s">
         <v>93</v>
       </c>
@@ -2597,229 +2614,229 @@
       <c r="K29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="D30" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="G34" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="9" t="s">
+      <c r="I34" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="9" t="s">
+    </row>
+    <row r="35" spans="1:13" ht="57">
+      <c r="A35" s="29"/>
+      <c r="B35" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="26"/>
-      <c r="B35" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I35" s="18" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="26"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="23" t="s">
-        <v>177</v>
-      </c>
       <c r="E36" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I36" s="18" t="b">
         <v>1</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="26"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="27"/>
+        <v>168</v>
+      </c>
+      <c r="C37" s="30"/>
       <c r="D37" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J37" s="11"/>
       <c r="M37" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="57">
       <c r="A38" s="24"/>
       <c r="B38" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="27"/>
+        <v>169</v>
+      </c>
+      <c r="C38" s="30"/>
       <c r="D38" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="I38" s="18" t="b">
         <v>1</v>
@@ -2827,56 +2844,56 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="28.5">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>74</v>
       </c>
       <c r="J39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="71.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="71.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="I40" s="18" t="b">
         <v>1</v>
@@ -2885,483 +2902,499 @@
         <v>41</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="26"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15">
+      <c r="A41" s="29"/>
       <c r="B41" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="I41" s="18"/>
+      <c r="L41" s="27"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="26" t="s">
+      <c r="F42" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="26"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="18" t="s">
         <v>114</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="9" t="s">
-        <v>117</v>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="9" t="s">
         <v>116</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I45" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="9">
-        <v>2</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I47" s="9">
+        <v>2</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="9">
         <v>200</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="H49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="H50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="26" t="s">
+    </row>
+    <row r="51" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="G51" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="18" t="b">
+      <c r="I51" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="9" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="G52" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="26" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="I54" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H55" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26" t="s">
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="D56" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="G56" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E55" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I55" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M55" s="9" t="s">
+      <c r="F57" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H59" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I58" s="9" t="s">
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="H60" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="26" t="s">
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="C61" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15">
+      <c r="A62" s="29"/>
+      <c r="B62" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15">
-      <c r="A61" s="26"/>
-      <c r="B61" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>143</v>
+      <c r="J62" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="B41:B54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B42:B55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E51:E53"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -3372,7 +3405,7 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D13:D21"/>
@@ -3382,7 +3415,7 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A39:A59"/>
+    <mergeCell ref="A39:A60"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="D30:D34"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629FC6DB-7743-469D-A0F9-90EE97CCB19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF82442-C464-456A-8228-A578EBDD9FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="230">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,10 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>address主要有三个信息，任一改变都应更改数据库数据，因此前端会检查有无改变做出判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order
 （订单页面）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -824,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“https://”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pdfDownload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,10 +872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +881,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -926,6 +910,56 @@
   </si>
   <si>
     <t xml:space="preserve">         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“122132131”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“SF123423244241”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的时候传值订单号和手机不匹配，传回的是空值
+有的时候传值会显示未查询到相关信息，希望后端做判断查询是否success（前端隐藏这部分逻辑有利于安全性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getExpressList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address主要有三个信息，任一改变都应更改数据库数据，
+因此前端会检查有无改变做出判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,17 +1108,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,7 +1165,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>227405</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
+      <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1160,7 +1209,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>17896</xdr:rowOff>
+      <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1204,7 +1253,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>65521</xdr:rowOff>
+      <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1380,7 +1429,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>141720</xdr:rowOff>
+      <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1725,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1791,7 +1840,7 @@
       <c r="C2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1815,7 +1864,7 @@
       <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="31" t="s">
         <v>128</v>
       </c>
       <c r="M2" s="6"/>
@@ -1846,7 +1895,7 @@
       <c r="K3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="28"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
@@ -1875,7 +1924,7 @@
       <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="L4" s="31"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
@@ -1904,7 +1953,7 @@
       <c r="K5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="6" t="s">
         <v>99</v>
       </c>
@@ -1917,7 +1966,7 @@
       <c r="C6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1941,7 +1990,7 @@
       <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="31" t="s">
         <v>130</v>
       </c>
       <c r="M6" s="6"/>
@@ -1972,7 +2021,7 @@
       <c r="K7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="6" t="s">
         <v>100</v>
       </c>
@@ -2012,13 +2061,13 @@
       <c r="A9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="28" t="s">
         <v>119</v>
       </c>
       <c r="E9" s="29" t="s">
@@ -2042,7 +2091,7 @@
       <c r="K9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="31" t="s">
         <v>132</v>
       </c>
       <c r="M9" s="6"/>
@@ -2071,7 +2120,7 @@
       <c r="K10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
@@ -2098,7 +2147,7 @@
       <c r="K11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="28"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
@@ -2125,20 +2174,20 @@
       <c r="K12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>134</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -2162,16 +2211,16 @@
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="31" t="s">
         <v>131</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="19" t="s">
         <v>13</v>
       </c>
@@ -2193,14 +2242,14 @@
       <c r="K14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="28"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="19" t="s">
         <v>108</v>
       </c>
@@ -2218,14 +2267,14 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="28"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="29" t="s">
         <v>139</v>
       </c>
@@ -2247,14 +2296,14 @@
       <c r="K16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="28"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="29"/>
       <c r="F17" s="6" t="s">
         <v>25</v>
@@ -2274,14 +2323,14 @@
       <c r="K17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="28"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="F18" s="6" t="s">
         <v>28</v>
@@ -2301,14 +2350,14 @@
       <c r="K18" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="28"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="29"/>
       <c r="F19" s="6" t="s">
         <v>31</v>
@@ -2328,14 +2377,14 @@
       <c r="K19" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="28"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="29" t="s">
         <v>34</v>
       </c>
@@ -2357,14 +2406,14 @@
       <c r="K20" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="28"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="F21" s="6" t="s">
         <v>34</v>
@@ -2384,7 +2433,7 @@
       <c r="K21" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="11" t="s">
         <v>101</v>
       </c>
@@ -2396,10 +2445,10 @@
       <c r="B22" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="29" t="s">
@@ -2423,7 +2472,7 @@
       <c r="K22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="31" t="s">
         <v>133</v>
       </c>
       <c r="M22" s="6"/>
@@ -2431,8 +2480,8 @@
     <row r="23" spans="1:13">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="29"/>
       <c r="F23" s="7" t="s">
         <v>114</v>
@@ -2452,14 +2501,14 @@
       <c r="K23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="F24" s="9" t="s">
         <v>115</v>
@@ -2479,14 +2528,14 @@
       <c r="K24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="28"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="F25" s="9" t="s">
         <v>116</v>
@@ -2506,14 +2555,14 @@
       <c r="K25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="28"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="29"/>
       <c r="F26" s="9" t="s">
         <v>117</v>
@@ -2533,7 +2582,7 @@
       <c r="K26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="28"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="11" t="s">
         <v>101</v>
       </c>
@@ -2541,8 +2590,8 @@
     <row r="27" spans="1:13">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="29"/>
       <c r="F27" s="9" t="s">
         <v>82</v>
@@ -2562,13 +2611,13 @@
       <c r="K27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="28"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="29"/>
       <c r="F28" s="9" t="s">
         <v>118</v>
@@ -2588,13 +2637,13 @@
       <c r="K28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="28"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="F29" s="9" t="s">
         <v>93</v>
@@ -2614,17 +2663,17 @@
       <c r="K29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="28"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="30" t="s">
         <v>145</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -2649,8 +2698,8 @@
     <row r="31" spans="1:13">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="24" t="s">
         <v>155</v>
       </c>
@@ -2673,8 +2722,8 @@
     <row r="32" spans="1:13">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="29" t="s">
         <v>160</v>
       </c>
@@ -2697,8 +2746,8 @@
     <row r="33" spans="1:13">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="29"/>
       <c r="F33" s="9" t="s">
         <v>159</v>
@@ -2719,8 +2768,8 @@
     <row r="34" spans="1:13">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="29"/>
       <c r="F34" s="9" t="s">
         <v>158</v>
@@ -2743,7 +2792,7 @@
       <c r="B35" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="23" t="s">
         <v>173</v>
       </c>
@@ -2763,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
@@ -2771,7 +2820,7 @@
       <c r="B36" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="30"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="23" t="s">
         <v>176</v>
       </c>
@@ -2791,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>179</v>
+        <v>206</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
@@ -2802,7 +2851,7 @@
       <c r="B37" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="30"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="12" t="s">
         <v>145</v>
       </c>
@@ -2822,7 +2871,7 @@
       <c r="B38" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="30"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="23" t="s">
         <v>172</v>
       </c>
@@ -2875,7 +2924,7 @@
     <row r="40" spans="1:13" ht="71.25">
       <c r="A40" s="29"/>
       <c r="B40" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>141</v>
@@ -2911,7 +2960,7 @@
     <row r="41" spans="1:13" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -2924,39 +2973,42 @@
       <c r="B42" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="29" t="s">
+      <c r="F42" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>148</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L42" s="36" t="s">
+        <v>228</v>
+      </c>
       <c r="M42" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="F43" s="18" t="s">
         <v>114</v>
@@ -2973,12 +3025,13 @@
       <c r="J43" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L43" s="36"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="F44" s="18" t="s">
         <v>113</v>
@@ -2995,12 +3048,13 @@
       <c r="J44" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L44" s="36"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="F45" s="9" t="s">
         <v>116</v>
@@ -3017,12 +3071,13 @@
       <c r="J45" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="F46" s="9" t="s">
         <v>115</v>
@@ -3039,12 +3094,13 @@
       <c r="J46" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="F47" s="9" t="s">
         <v>118</v>
@@ -3061,12 +3117,13 @@
       <c r="J47" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L47" s="36"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="29"/>
       <c r="F48" s="9" t="s">
         <v>93</v>
@@ -3083,176 +3140,213 @@
       <c r="J48" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L48" s="36"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="F49" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="L49" s="36"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="29"/>
       <c r="F50" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>148</v>
       </c>
       <c r="I50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="36"/>
+      <c r="M50" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="16.5" customHeight="1">
+    </row>
+    <row r="51" spans="1:13" ht="45.75" customHeight="1">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
-      <c r="C51" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="29" t="s">
+      <c r="C51" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H51" s="9" t="s">
+      <c r="G51" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="18" t="b">
+      <c r="I51" s="33" t="b">
         <v>1</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="M51" s="34" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="35" t="s">
+        <v>226</v>
+      </c>
       <c r="F52" s="9" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>164</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L52" s="36"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="9" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>165</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L53" s="36"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="29" t="s">
+      <c r="C54" s="30"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>213</v>
-      </c>
       <c r="I54" s="9" t="s">
-        <v>205</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L54" s="36"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="35"/>
       <c r="F55" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L55" s="36"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="29"/>
       <c r="B56" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>200</v>
+      <c r="D56" s="28" t="s">
+        <v>198</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>155</v>
       </c>
       <c r="F56" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>171</v>
@@ -3261,16 +3355,16 @@
         <v>1</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>146</v>
@@ -3285,14 +3379,14 @@
         <v>164</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="29"/>
       <c r="F58" s="9" t="s">
         <v>159</v>
@@ -3310,39 +3404,39 @@
     <row r="59" spans="1:13">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="29"/>
       <c r="F59" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>148</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="29"/>
       <c r="F60" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>148</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3353,7 +3447,7 @@
         <v>105</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15">
@@ -3368,7 +3462,7 @@
         <v>144</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L62" s="22" t="s">
         <v>142</v>
@@ -3376,35 +3470,18 @@
     </row>
     <row r="68" spans="11:11">
       <c r="K68" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B42:B55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="E42:E50"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
+  <mergeCells count="46">
+    <mergeCell ref="L51:L55"/>
+    <mergeCell ref="L42:L50"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
@@ -3421,11 +3498,29 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C30:C38"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B42:B55"/>
+    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF82442-C464-456A-8228-A578EBDD9FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250AC9D-2902-4B40-881A-9BED3D5B6145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="229">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,10 +463,6 @@
   </si>
   <si>
     <t>imgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1081,9 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,6 +1101,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,22 +1122,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1506,6 +1502,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1574539</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>106913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96104</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>43750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27FBE4D-9735-4635-AF58-05DBC4B5F9D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2264616" y="50628291"/>
+          <a:ext cx="10486131" cy="5292219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1774,18 +1814,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="4" width="20.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="30" customWidth="1"/>
     <col min="6" max="9" width="15.625" style="9" customWidth="1"/>
     <col min="10" max="11" width="9" style="9"/>
-    <col min="12" max="12" width="18.75" style="21" customWidth="1"/>
+    <col min="12" max="12" width="18.75" style="20" customWidth="1"/>
     <col min="13" max="13" width="47" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1802,7 +1842,7 @@
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="30" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1823,27 +1863,27 @@
       <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>127</v>
+      <c r="L1" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1864,17 +1904,17 @@
       <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>128</v>
+      <c r="L2" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1895,15 +1935,15 @@
       <c r="K3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="31"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="19" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1924,15 +1964,15 @@
       <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="19" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1953,23 +1993,23 @@
       <c r="K5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="31"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1990,17 +2030,17 @@
       <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>130</v>
+      <c r="L6" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="19" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -2021,13 +2061,13 @@
       <c r="K7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="31"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="29"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
@@ -2052,26 +2092,26 @@
       <c r="K8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>129</v>
+      <c r="L8" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>138</v>
+      <c r="D9" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>6</v>
@@ -2091,17 +2131,17 @@
       <c r="K9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="31" t="s">
-        <v>132</v>
+      <c r="L9" s="35" t="s">
+        <v>131</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2120,15 +2160,15 @@
       <c r="K10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="31"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="11" t="s">
         <v>94</v>
       </c>
@@ -2147,15 +2187,15 @@
       <c r="K11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2174,23 +2214,23 @@
       <c r="K12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2211,17 +2251,17 @@
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="31" t="s">
-        <v>131</v>
+      <c r="L13" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="19" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2242,41 +2282,41 @@
       <c r="K14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="19" t="s">
-        <v>108</v>
+      <c r="A15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>107</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="31"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
-        <v>139</v>
+      <c r="A16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>6</v>
@@ -2294,17 +2334,17 @@
         <v>41</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="L16" s="35"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="29"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2321,17 +2361,17 @@
         <v>41</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="L17" s="35"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
@@ -2348,17 +2388,17 @@
         <v>41</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="L18" s="35"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
@@ -2375,17 +2415,17 @@
         <v>41</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="L19" s="35"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="29"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2404,17 +2444,17 @@
         <v>41</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="L20" s="35"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2431,31 +2471,31 @@
         <v>41</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="L21" s="35"/>
       <c r="M21" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>75</v>
@@ -2472,19 +2512,19 @@
       <c r="K22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="31" t="s">
-        <v>133</v>
+      <c r="L22" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>88</v>
@@ -2501,17 +2541,17 @@
       <c r="K23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="31"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>76</v>
@@ -2528,17 +2568,17 @@
       <c r="K24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="31"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>89</v>
@@ -2555,17 +2595,17 @@
       <c r="K25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="31"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>80</v>
@@ -2582,17 +2622,17 @@
       <c r="K26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="31"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="9" t="s">
         <v>82</v>
       </c>
@@ -2611,16 +2651,16 @@
       <c r="K27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="31"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>86</v>
@@ -2637,14 +2677,14 @@
       <c r="K28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="31"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="9" t="s">
         <v>93</v>
       </c>
@@ -2663,229 +2703,229 @@
       <c r="K29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="31"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="D30" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="G34" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="9" t="s">
+      <c r="I34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I31" s="9" t="s">
+    </row>
+    <row r="35" spans="1:13" ht="57">
+      <c r="A35" s="32"/>
+      <c r="B35" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="29"/>
-      <c r="B35" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>155</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I35" s="18" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="29"/>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>155</v>
+      <c r="E36" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I36" s="18" t="b">
         <v>1</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="M36" s="34" t="s">
-        <v>229</v>
+        <v>205</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="29"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="28"/>
+        <v>167</v>
+      </c>
+      <c r="C37" s="31"/>
       <c r="D37" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>155</v>
+        <v>144</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J37" s="11"/>
       <c r="M37" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="57">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>155</v>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="I38" s="18" t="b">
         <v>1</v>
@@ -2893,56 +2933,56 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="28.5">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="32" t="s">
         <v>102</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="K39" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L39" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" s="9" t="s">
+      <c r="M39" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="71.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="71.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="I40" s="18" t="b">
         <v>1</v>
@@ -2951,67 +2991,66 @@
         <v>41</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>140</v>
+        <v>121</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="I41" s="18"/>
-      <c r="L41" s="27"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="29" t="s">
+      <c r="F42" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L42" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>88</v>
@@ -3025,16 +3064,16 @@
       <c r="J43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="36"/>
+      <c r="L43" s="34"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>75</v>
@@ -3048,16 +3087,16 @@
       <c r="J44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L44" s="36"/>
+      <c r="L44" s="34"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>89</v>
@@ -3071,16 +3110,16 @@
       <c r="J45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L45" s="36"/>
+      <c r="L45" s="34"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>76</v>
@@ -3094,16 +3133,16 @@
       <c r="J46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L46" s="36"/>
+      <c r="L46" s="34"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>86</v>
@@ -3117,14 +3156,14 @@
       <c r="J47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L47" s="36"/>
+      <c r="L47" s="34"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="9" t="s">
         <v>93</v>
       </c>
@@ -3140,337 +3179,337 @@
       <c r="J48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L48" s="36"/>
+      <c r="L48" s="34"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L49" s="36"/>
+      <c r="L49" s="34"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="34"/>
+      <c r="M50" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L50" s="36"/>
-      <c r="M50" s="9" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="51" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="H51" s="32" t="s">
+      <c r="G51" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="33" t="b">
+      <c r="I51" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="L51" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="M51" s="34" t="s">
+      <c r="L51" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="36" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="35" t="s">
-        <v>226</v>
-      </c>
       <c r="F52" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J52" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L52" s="34"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="L52" s="36"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L53" s="34"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L54" s="34"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="L53" s="36"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G54" s="9" t="s">
+      <c r="G55" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="L54" s="36"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G55" s="9" t="s">
+      <c r="I55" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="J55" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="L55" s="36"/>
+        <v>218</v>
+      </c>
+      <c r="L55" s="34"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="D56" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="H56" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I56" s="18" t="b">
         <v>1</v>
       </c>
       <c r="M56" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="H59" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="29"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="H60" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="32" t="s">
         <v>104</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15">
-      <c r="A62" s="29"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="J62" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="11:11">
       <c r="K68" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250AC9D-2902-4B40-881A-9BED3D5B6145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F894267-4110-480C-B91C-226E43506DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="320">
   <si>
     <t>应用页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -956,6 +952,369 @@
   <si>
     <t>address主要有三个信息，任一改变都应更改数据库数据，
 因此前端会检查有无改变做出判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“周”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“男”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“23”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送样日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“2020/9/1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“877283”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“平台”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“指尖血”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"209129"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取(传送)方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass_spectrogram_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质谱图</t>
+  </si>
+  <si>
+    <t>string(base64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质谱图解释文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_blood</t>
+  </si>
+  <si>
+    <t>total_plasma</t>
+  </si>
+  <si>
+    <t>plasma_color</t>
+  </si>
+  <si>
+    <t>qualify_1</t>
+  </si>
+  <si>
+    <t>platform_1</t>
+  </si>
+  <si>
+    <t>standard_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plasma_sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein_q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_abundance_removal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualify_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein_identification_q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualify_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全血总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血浆总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血浆颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液样本是否合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液样本操作平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液样本质控标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血浆上样量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高丰度去除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白提取是否合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白提取操作平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白提取质控标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上样量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白鉴定量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“全套餐”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”次世代非数据依赖采集蛋白质组检测技术“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"淡黄色“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”是”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thermo”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“血浆总量&gt;5μL”</t>
+  </si>
+  <si>
+    <t>base64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”2“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”100“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”是“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”蛋白质量&gt;30μg“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”5000“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”2561“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”蛋白测定量&gt;2000个；质量偏差&lt;5ppm"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*更换了url头
+头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
+api为update_report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,6 +1472,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,14 +1487,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,14 +1522,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>227405</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>36945</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>36946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1198,14 +1566,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>17895</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1242,14 +1610,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>65522</xdr:rowOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>65521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1286,13 +1654,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>236930</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1330,13 +1698,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1374,13 +1742,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>408380</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1418,14 +1786,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>141721</xdr:rowOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>141720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1462,13 +1830,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>132155</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1506,14 +1874,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1574539</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>106913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>96104</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>43750</xdr:rowOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>43749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1812,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75:F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1831,1101 +2199,1101 @@
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>127</v>
+        <v>40</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="35"/>
+        <v>40</v>
+      </c>
+      <c r="L3" s="38"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="38"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="6" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>129</v>
+        <v>40</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
+      <c r="A8" s="34"/>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D13" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31" t="s">
+      <c r="F14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="32"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="35"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="32"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
-        <v>138</v>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="32"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="32"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="32"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="I19" s="10">
         <v>100</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="L19" s="38"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="32"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="32"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="C22" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="F22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="H23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="H24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="I25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="M26" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="G27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="I27" s="10">
         <v>100</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="35"/>
+        <v>40</v>
+      </c>
+      <c r="L27" s="38"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9">
         <v>2</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" s="35"/>
+        <v>40</v>
+      </c>
+      <c r="L28" s="38"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="I29" s="9">
         <v>200</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="35"/>
+        <v>40</v>
+      </c>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="D30" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="G34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" s="9" t="s">
+      <c r="I34" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31" s="9" t="s">
+    </row>
+    <row r="35" spans="1:13" ht="57">
+      <c r="A35" s="34"/>
+      <c r="B35" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="32"/>
-      <c r="B35" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="F35" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I35" s="18" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="22" t="s">
+      <c r="E36" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="H36" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I36" s="18" t="b">
         <v>1</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="31"/>
+        <v>166</v>
+      </c>
+      <c r="C37" s="33"/>
       <c r="D37" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J37" s="11"/>
       <c r="M37" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="57">
       <c r="A38" s="23"/>
       <c r="B38" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="I38" s="18" t="b">
         <v>1</v>
@@ -2933,74 +3301,74 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="28.5">
-      <c r="A39" s="32" t="s">
-        <v>102</v>
+      <c r="A39" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="K39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L39" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" s="9" t="s">
+      <c r="M39" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="71.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="71.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="F40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="I40" s="18" t="b">
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -3008,512 +3376,1281 @@
       <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="33" t="s">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="32" t="s">
+      <c r="F42" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L42" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="37"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L43" s="34"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="18" t="s">
+      <c r="H46" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J44" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" s="34"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" s="34"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="J46" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L46" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="L46" s="37"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9">
         <v>2</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L47" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="L47" s="37"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9">
         <v>200</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L48" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="H49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="J49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="L49" s="37"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="37"/>
+      <c r="M50" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L50" s="34"/>
-      <c r="M50" s="9" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="51" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>206</v>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>205</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I51" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="L51" s="34" t="s">
-        <v>226</v>
+      <c r="L51" s="37" t="s">
+        <v>225</v>
       </c>
       <c r="M51" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="36" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="36" t="s">
-        <v>225</v>
-      </c>
       <c r="F52" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="K52" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L52" s="34"/>
+        <v>217</v>
+      </c>
+      <c r="L52" s="37"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="31"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="36"/>
       <c r="F53" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="H53" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L53" s="34"/>
+        <v>217</v>
+      </c>
+      <c r="L53" s="37"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="31"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="36"/>
       <c r="F54" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="I54" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L54" s="34"/>
+        <v>217</v>
+      </c>
+      <c r="L54" s="37"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="31"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="36"/>
       <c r="F55" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G55" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="J55" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L55" s="34"/>
+        <v>217</v>
+      </c>
+      <c r="L55" s="37"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="D56" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F56" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="H56" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I56" s="18" t="b">
         <v>1</v>
       </c>
+      <c r="J56" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="M56" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="9" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="H59" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="H60" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>196</v>
+      <c r="J60" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="37"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="37"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" s="37"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="37"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" s="37"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="37"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" s="37"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" s="37"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="37"/>
+    </row>
+    <row r="71" spans="1:13" s="3" customFormat="1">
+      <c r="A71" s="34"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" s="37"/>
+      <c r="M71" s="32"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" s="37"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="37"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="37"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" s="37"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" s="37"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L77" s="37"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L78" s="37"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L79" s="37"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L80" s="37"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L81" s="37"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L82" s="37"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L83" s="37"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L84" s="37"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L85" s="37"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L86" s="37"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L87" s="37"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L88" s="37"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L89" s="37"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L90" s="37"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L91" s="37"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" s="37"/>
+    </row>
+    <row r="93" spans="1:12" ht="15">
+      <c r="A93" s="34"/>
+      <c r="B93" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15">
-      <c r="A62" s="32"/>
-      <c r="B62" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="C93" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L62" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="11:11">
-      <c r="K68" s="9" t="s">
-        <v>216</v>
+      <c r="J93" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L93" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="50">
+    <mergeCell ref="C61:C92"/>
+    <mergeCell ref="D61:D92"/>
+    <mergeCell ref="E61:E92"/>
+    <mergeCell ref="L61:L92"/>
     <mergeCell ref="L51:L55"/>
     <mergeCell ref="L42:L50"/>
     <mergeCell ref="L2:L5"/>
@@ -3521,7 +4658,7 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="L13:L21"/>
     <mergeCell ref="L22:L29"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A61:A93"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D13:D21"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F894267-4110-480C-B91C-226E43506DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11976B93-CE1F-4102-B0EE-91461247E38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="319">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -851,9 +851,6 @@
   <si>
     <t>"A01"</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>-</t>
@@ -1322,7 +1319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,6 +1352,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1379,10 +1385,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1479,10 +1488,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1490,18 +1508,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1529,7 +1549,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>227405</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
+      <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1573,7 +1593,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>17896</xdr:rowOff>
+      <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1617,7 +1637,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>65521</xdr:rowOff>
+      <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1793,7 +1813,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
       <xdr:row>262</xdr:row>
-      <xdr:rowOff>141720</xdr:rowOff>
+      <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1881,7 +1901,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>96104</xdr:colOff>
       <xdr:row>313</xdr:row>
-      <xdr:rowOff>43749</xdr:rowOff>
+      <xdr:rowOff>43750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2182,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75:F92"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2208,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>67</v>
@@ -2239,16 +2259,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -2272,16 +2292,16 @@
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="36" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="30" t="s">
         <v>12</v>
       </c>
@@ -2303,14 +2323,14 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="38"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="30" t="s">
         <v>12</v>
       </c>
@@ -2332,14 +2352,14 @@
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
@@ -2361,20 +2381,20 @@
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="37" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="30" t="s">
@@ -2398,16 +2418,16 @@
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="36" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="30" t="s">
         <v>12</v>
       </c>
@@ -2429,13 +2449,13 @@
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2466,19 +2486,19 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2499,17 +2519,17 @@
       <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="36" t="s">
         <v>130</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2528,15 +2548,15 @@
       <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2555,15 +2575,15 @@
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2582,20 +2602,20 @@
       <c r="K12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="37" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="30" t="s">
@@ -2619,16 +2639,16 @@
       <c r="K13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="36" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="30" t="s">
         <v>12</v>
       </c>
@@ -2650,14 +2670,14 @@
       <c r="K14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="30" t="s">
         <v>12</v>
       </c>
@@ -2675,15 +2695,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="38"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="33" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2704,15 +2724,15 @@
       <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
@@ -2731,15 +2751,15 @@
       <c r="K17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="36"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
@@ -2758,15 +2778,15 @@
       <c r="K18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="36"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="34"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2785,15 +2805,15 @@
       <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="36"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="34"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2814,15 +2834,15 @@
       <c r="K20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
@@ -2841,25 +2861,25 @@
       <c r="K21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="38"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="33" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2880,17 +2900,17 @@
       <c r="K22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="36" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="7" t="s">
         <v>112</v>
       </c>
@@ -2909,15 +2929,15 @@
       <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
@@ -2936,15 +2956,15 @@
       <c r="K24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="9" t="s">
         <v>114</v>
       </c>
@@ -2963,15 +2983,15 @@
       <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
@@ -2990,17 +3010,17 @@
       <c r="K26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="38"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3019,14 +3039,14 @@
       <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="38"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3045,14 +3065,14 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="38"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3071,17 +3091,17 @@
       <c r="K29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="38"/>
+      <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="38" t="s">
         <v>143</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -3104,10 +3124,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="35"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="30" t="s">
         <v>12</v>
       </c>
@@ -3128,11 +3148,11 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="34" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="33" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3152,11 +3172,11 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3174,11 +3194,11 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="34"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3196,11 +3216,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="34"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="22" t="s">
         <v>171</v>
       </c>
@@ -3220,15 +3240,15 @@
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="22" t="s">
         <v>174</v>
       </c>
@@ -3248,18 +3268,18 @@
         <v>1</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="34"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
@@ -3279,7 +3299,7 @@
       <c r="B38" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="33"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="22" t="s">
         <v>170</v>
       </c>
@@ -3301,7 +3321,7 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="28.5">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -3330,9 +3350,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="71.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>139</v>
@@ -3366,9 +3386,9 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15">
-      <c r="A41" s="34"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -3376,17 +3396,17 @@
       <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="33" t="s">
         <v>178</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -3404,19 +3424,19 @@
       <c r="J42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L42" s="37" t="s">
-        <v>226</v>
+      <c r="L42" s="35" t="s">
+        <v>225</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="18" t="s">
         <v>112</v>
       </c>
@@ -3432,14 +3452,14 @@
       <c r="J43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="37"/>
+      <c r="L43" s="35"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="18" t="s">
         <v>111</v>
       </c>
@@ -3455,14 +3475,14 @@
       <c r="J44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="37"/>
+      <c r="L44" s="35"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="9" t="s">
         <v>114</v>
       </c>
@@ -3478,14 +3498,14 @@
       <c r="J45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="37"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="9" t="s">
         <v>113</v>
       </c>
@@ -3501,14 +3521,14 @@
       <c r="J46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="37"/>
+      <c r="L46" s="35"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="9" t="s">
         <v>116</v>
       </c>
@@ -3524,14 +3544,14 @@
       <c r="J47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="37"/>
+      <c r="L47" s="35"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="9" t="s">
         <v>92</v>
       </c>
@@ -3547,14 +3567,14 @@
       <c r="J48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="37"/>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="9" t="s">
         <v>199</v>
       </c>
@@ -3570,14 +3590,14 @@
       <c r="J49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="37"/>
+      <c r="L49" s="35"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="9" t="s">
         <v>182</v>
       </c>
@@ -3593,19 +3613,19 @@
       <c r="J50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="37"/>
+      <c r="L50" s="35"/>
       <c r="M50" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>205</v>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>204</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>12</v>
@@ -3622,23 +3642,23 @@
       <c r="I51" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="L51" s="37" t="s">
-        <v>225</v>
+      <c r="L51" s="35" t="s">
+        <v>224</v>
       </c>
       <c r="M51" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="39" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="36" t="s">
-        <v>224</v>
-      </c>
       <c r="F52" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>180</v>
@@ -3647,103 +3667,103 @@
         <v>6</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J52" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L52" s="35"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L52" s="37"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L53" s="37"/>
+        <v>216</v>
+      </c>
+      <c r="L53" s="35"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="36"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>201</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L54" s="37"/>
+        <v>216</v>
+      </c>
+      <c r="L54" s="35"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="36"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="39"/>
       <c r="F55" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G55" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="J55" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L55" s="37"/>
+        <v>216</v>
+      </c>
+      <c r="L55" s="35"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="37" t="s">
         <v>196</v>
       </c>
       <c r="E56" s="30" t="s">
@@ -3769,11 +3789,11 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="33" t="s">
         <v>197</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -3796,11 +3816,11 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="9" t="s">
         <v>157</v>
       </c>
@@ -3818,11 +3838,11 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="9" t="s">
         <v>191</v>
       </c>
@@ -3840,11 +3860,11 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="9" t="s">
         <v>193</v>
       </c>
@@ -3862,361 +3882,361 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D61" s="34" t="s">
+      <c r="C61" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="G61" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="35"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="35"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" s="35"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="35"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" s="35"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="35"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" s="35"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I69" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G61" s="9" t="s">
+      <c r="J69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" s="35"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H70" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="I70" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="35"/>
+    </row>
+    <row r="71" spans="1:13" s="3" customFormat="1">
+      <c r="A71" s="33"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" s="35"/>
+      <c r="M71" s="32"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L61" s="39" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L62" s="37"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L63" s="37"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64" s="37"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L65" s="37"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L66" s="37"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L67" s="37"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L68" s="37"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L69" s="37"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L70" s="37"/>
-    </row>
-    <row r="71" spans="1:13" s="3" customFormat="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L71" s="37"/>
-      <c r="M71" s="32"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" s="35"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="H72" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L72" s="37"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="9" t="s">
+      <c r="G73" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="I73" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="35"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L73" s="37"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>40</v>
@@ -4224,440 +4244,510 @@
       <c r="K74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L74" s="37"/>
+      <c r="L74" s="35"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
+      <c r="A75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
       <c r="F75" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="37"/>
+      <c r="K75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" s="35"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
+      <c r="A76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
       <c r="F76" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="37"/>
+      <c r="K76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" s="35"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
+      <c r="A77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
       <c r="F77" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="37"/>
+      <c r="K77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L77" s="35"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
+      <c r="A78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
       <c r="F78" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="37"/>
+      <c r="K78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L78" s="35"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
+      <c r="A79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
       <c r="F79" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="37"/>
+      <c r="K79" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L79" s="35"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
+      <c r="A80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
       <c r="F80" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="37"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
+      <c r="K80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L80" s="35"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
       <c r="F81" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="37"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
+      <c r="K81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L81" s="35"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
       <c r="F82" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="37"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
+      <c r="K82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L82" s="35"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
       <c r="F83" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="37"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
+      <c r="K83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L83" s="35"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
       <c r="F84" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="37"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
+      <c r="K84" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L84" s="35"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
       <c r="F85" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="37"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
+      <c r="K85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L85" s="35"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="37"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
+      <c r="K86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L86" s="35"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
       <c r="F87" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="37"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
+      <c r="K87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L87" s="35"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
       <c r="F88" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="37"/>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
+      <c r="K88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L88" s="35"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
       <c r="F89" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="37"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
+      <c r="K89" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L89" s="35"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
       <c r="F90" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="37"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
+      <c r="K90" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L90" s="35"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
       <c r="F91" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="37"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
+      <c r="K91" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L91" s="35"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
       <c r="F92" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L92" s="37"/>
-    </row>
-    <row r="93" spans="1:12" ht="15">
-      <c r="A93" s="34"/>
-      <c r="B93" s="8" t="s">
+      <c r="K92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" s="35"/>
+    </row>
+    <row r="93" spans="1:13" s="43" customFormat="1">
+      <c r="A93" s="33"/>
+      <c r="B93" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="J93" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L93" s="21" t="s">
+      <c r="E93" s="41"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="41" t="s">
         <v>140</v>
       </c>
+      <c r="M93" s="42"/>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C61:C92"/>
-    <mergeCell ref="D61:D92"/>
-    <mergeCell ref="E61:E92"/>
-    <mergeCell ref="L61:L92"/>
-    <mergeCell ref="L51:L55"/>
-    <mergeCell ref="L42:L50"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B42:B55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
     <mergeCell ref="A61:A93"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
@@ -4674,29 +4764,18 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C30:C38"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="L42:L50"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="C61:C92"/>
+    <mergeCell ref="D61:D92"/>
+    <mergeCell ref="E61:E92"/>
+    <mergeCell ref="L61:L92"/>
+    <mergeCell ref="L51:L55"/>
     <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B42:B55"/>
-    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11976B93-CE1F-4102-B0EE-91461247E38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4217E1-FD25-4335-AFFF-B3285E2B3423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="321">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,11 +713,6 @@
   </si>
   <si>
     <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post
-参数为phone+newpass+verifycode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1312,6 +1307,19 @@
     <t>*更换了url头
 头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
 api为update_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误保护未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendPasswordValidateCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post
+参数为phone+password+verifycode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +1369,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1391,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1487,25 +1509,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1518,6 +1522,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1546,8 +1580,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>227405</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3055747</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
@@ -1678,8 +1712,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>236930</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178614</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
@@ -1766,8 +1800,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>408380</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3236722</xdr:colOff>
       <xdr:row>236</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
@@ -1854,8 +1888,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>132155</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>73839</xdr:colOff>
       <xdr:row>287</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
@@ -2202,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:E92"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2213,7 +2247,7 @@
     <col min="5" max="5" width="23.25" style="30" customWidth="1"/>
     <col min="6" max="9" width="15.625" style="9" customWidth="1"/>
     <col min="10" max="11" width="9" style="9"/>
-    <col min="12" max="12" width="18.75" style="20" customWidth="1"/>
+    <col min="12" max="12" width="28.625" style="20" customWidth="1"/>
     <col min="13" max="13" width="47" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2228,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>67</v>
@@ -2259,16 +2293,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -2292,16 +2326,16 @@
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="43" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="30" t="s">
         <v>12</v>
       </c>
@@ -2323,14 +2357,14 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="36"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="30" t="s">
         <v>12</v>
       </c>
@@ -2352,14 +2386,14 @@
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="36"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
@@ -2381,20 +2415,20 @@
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="30" t="s">
@@ -2418,16 +2452,16 @@
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="43" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="30" t="s">
         <v>12</v>
       </c>
@@ -2449,13 +2483,13 @@
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="33"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2486,19 +2520,19 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="38" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2519,17 +2553,17 @@
       <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="43" t="s">
         <v>130</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2548,15 +2582,15 @@
       <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2575,15 +2609,15 @@
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2602,20 +2636,20 @@
       <c r="K12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="36"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="39" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="30" t="s">
@@ -2639,16 +2673,16 @@
       <c r="K13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="43" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="33"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="30" t="s">
         <v>12</v>
       </c>
@@ -2670,14 +2704,14 @@
       <c r="K14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="36"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="33"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="30" t="s">
         <v>12</v>
       </c>
@@ -2695,15 +2729,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="36"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="33"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="33" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2724,15 +2758,15 @@
       <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="36"/>
+      <c r="L16" s="43"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="33"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="33"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
@@ -2751,15 +2785,15 @@
       <c r="K17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="36"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="33"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="33"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
@@ -2778,15 +2812,15 @@
       <c r="K18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="36"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="33"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2805,15 +2839,15 @@
       <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="36"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="33"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="33" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2834,15 +2868,15 @@
       <c r="K20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="36"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="33"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
@@ -2861,25 +2895,25 @@
       <c r="K21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="36"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="38" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2900,17 +2934,17 @@
       <c r="K22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="43" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="7" t="s">
         <v>112</v>
       </c>
@@ -2929,15 +2963,15 @@
       <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="36"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
@@ -2956,15 +2990,15 @@
       <c r="K24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="36"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="9" t="s">
         <v>114</v>
       </c>
@@ -2983,15 +3017,15 @@
       <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="36"/>
+      <c r="L25" s="43"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3010,17 +3044,17 @@
       <c r="K26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="36"/>
+      <c r="L26" s="43"/>
       <c r="M26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3039,14 +3073,14 @@
       <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="36"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3065,14 +3099,14 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="36"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3091,17 +3125,17 @@
       <c r="K29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="36"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="40" t="s">
         <v>143</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -3124,10 +3158,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="30" t="s">
         <v>12</v>
       </c>
@@ -3148,11 +3182,11 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="33" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="38" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3172,11 +3206,11 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3194,11 +3228,11 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3216,13 +3250,13 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="33"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="C35" s="39"/>
       <c r="D35" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>153</v>
@@ -3231,7 +3265,7 @@
         <v>46</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>169</v>
@@ -3240,17 +3274,17 @@
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="33"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>153</v>
@@ -3259,7 +3293,7 @@
         <v>46</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>169</v>
@@ -3268,18 +3302,18 @@
         <v>1</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="33"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="37"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
@@ -3289,7 +3323,15 @@
       <c r="F37" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J37" s="11"/>
+      <c r="J37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>319</v>
+      </c>
       <c r="M37" s="9" t="s">
         <v>165</v>
       </c>
@@ -3299,29 +3341,37 @@
       <c r="B38" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="22" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="I38" s="18" t="b">
+      <c r="I38" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="28.5">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="38" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -3350,9 +3400,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="71.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>139</v>
@@ -3386,9 +3436,9 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15">
-      <c r="A41" s="33"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -3396,47 +3446,47 @@
       <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="33" t="s">
+      <c r="F42" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L42" s="35" t="s">
-        <v>225</v>
+      <c r="L42" s="42" t="s">
+        <v>224</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="18" t="s">
         <v>112</v>
       </c>
@@ -3452,14 +3502,14 @@
       <c r="J43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="35"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="18" t="s">
         <v>111</v>
       </c>
@@ -3475,14 +3525,14 @@
       <c r="J44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="35"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="9" t="s">
         <v>114</v>
       </c>
@@ -3498,14 +3548,14 @@
       <c r="J45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="35"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="33"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="9" t="s">
         <v>113</v>
       </c>
@@ -3521,14 +3571,14 @@
       <c r="J46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="35"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="9" t="s">
         <v>116</v>
       </c>
@@ -3544,14 +3594,14 @@
       <c r="J47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="35"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="33"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="9" t="s">
         <v>92</v>
       </c>
@@ -3567,65 +3617,65 @@
       <c r="J48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="35"/>
+      <c r="L48" s="42"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="33"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="35"/>
+      <c r="L49" s="42"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="33"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I50" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="42"/>
+      <c r="M50" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L50" s="35"/>
-      <c r="M50" s="9" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="51" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>204</v>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>12</v>
@@ -3634,7 +3684,7 @@
         <v>46</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H51" s="27" t="s">
         <v>48</v>
@@ -3642,138 +3692,138 @@
       <c r="I51" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="L51" s="35" t="s">
-        <v>224</v>
+      <c r="L51" s="42" t="s">
+        <v>223</v>
       </c>
       <c r="M51" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="41" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="39" t="s">
-        <v>223</v>
-      </c>
       <c r="F52" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J52" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L52" s="42"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L52" s="35"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I53" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L53" s="42"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L54" s="42"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L53" s="35"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54" s="9" t="s">
+      <c r="G55" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L54" s="35"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G55" s="9" t="s">
+      <c r="I55" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="J55" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L55" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="L55" s="42"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>196</v>
+      <c r="D56" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>153</v>
       </c>
       <c r="F56" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>169</v>
@@ -3785,16 +3835,16 @@
         <v>40</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="33" t="s">
-        <v>197</v>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>144</v>
@@ -3812,15 +3862,15 @@
         <v>40</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="33"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="9" t="s">
         <v>157</v>
       </c>
@@ -3838,16 +3888,16 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="38"/>
       <c r="F59" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>146</v>
@@ -3860,383 +3910,383 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="38"/>
       <c r="F60" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="38" t="s">
         <v>103</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="33" t="s">
+      <c r="C61" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="G61" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="42"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="42"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" s="42"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="42"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" s="42"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="42"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" s="42"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I69" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G61" s="9" t="s">
+      <c r="J69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" s="42"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H70" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="I70" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="42"/>
+    </row>
+    <row r="71" spans="1:13" s="3" customFormat="1">
+      <c r="A71" s="38"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" s="42"/>
+      <c r="M71" s="32"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L61" s="34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L62" s="35"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L63" s="35"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64" s="35"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L65" s="35"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L66" s="35"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L67" s="35"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L68" s="35"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L69" s="35"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L70" s="35"/>
-    </row>
-    <row r="71" spans="1:13" s="3" customFormat="1">
-      <c r="A71" s="33"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L71" s="35"/>
-      <c r="M71" s="32"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" s="42"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L72" s="35"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="9" t="s">
+      <c r="G73" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="I73" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="42"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L73" s="35"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>40</v>
@@ -4244,24 +4294,24 @@
       <c r="K74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L74" s="35"/>
+      <c r="L74" s="42"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="A75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>40</v>
@@ -4269,24 +4319,24 @@
       <c r="K75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="35"/>
+      <c r="L75" s="42"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
+      <c r="A76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
       <c r="F76" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>40</v>
@@ -4294,24 +4344,24 @@
       <c r="K76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="35"/>
+      <c r="L76" s="42"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
+      <c r="A77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
       <c r="F77" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>40</v>
@@ -4319,24 +4369,24 @@
       <c r="K77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="35"/>
+      <c r="L77" s="42"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
+      <c r="A78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>40</v>
@@ -4344,24 +4394,24 @@
       <c r="K78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="35"/>
+      <c r="L78" s="42"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
+      <c r="A79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>40</v>
@@ -4369,24 +4419,24 @@
       <c r="K79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="35"/>
+      <c r="L79" s="42"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="A80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>40</v>
@@ -4394,24 +4444,24 @@
       <c r="K80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="35"/>
+      <c r="L80" s="42"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="A81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>40</v>
@@ -4419,24 +4469,24 @@
       <c r="K81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="35"/>
+      <c r="L81" s="42"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
+      <c r="A82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
       <c r="F82" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>40</v>
@@ -4444,24 +4494,24 @@
       <c r="K82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="35"/>
+      <c r="L82" s="42"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
+      <c r="A83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
       <c r="F83" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>40</v>
@@ -4469,24 +4519,24 @@
       <c r="K83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="35"/>
+      <c r="L83" s="42"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
+      <c r="A84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
       <c r="F84" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>40</v>
@@ -4494,24 +4544,24 @@
       <c r="K84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="35"/>
+      <c r="L84" s="42"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
+      <c r="A85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
       <c r="F85" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>40</v>
@@ -4519,24 +4569,24 @@
       <c r="K85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="35"/>
+      <c r="L85" s="42"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
+      <c r="A86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
       <c r="F86" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>40</v>
@@ -4544,24 +4594,24 @@
       <c r="K86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="35"/>
+      <c r="L86" s="42"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
+      <c r="A87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
       <c r="F87" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>40</v>
@@ -4569,24 +4619,24 @@
       <c r="K87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="35"/>
+      <c r="L87" s="42"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
+      <c r="A88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
       <c r="F88" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>40</v>
@@ -4594,24 +4644,24 @@
       <c r="K88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="35"/>
+      <c r="L88" s="42"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
+      <c r="A89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
       <c r="F89" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>40</v>
@@ -4619,24 +4669,24 @@
       <c r="K89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="35"/>
+      <c r="L89" s="42"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
+      <c r="A90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
       <c r="F90" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>40</v>
@@ -4644,24 +4694,24 @@
       <c r="K90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="35"/>
+      <c r="L90" s="42"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
+      <c r="A91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
       <c r="F91" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>40</v>
@@ -4669,24 +4719,24 @@
       <c r="K91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="35"/>
+      <c r="L91" s="42"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
+      <c r="A92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
       <c r="F92" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>40</v>
@@ -4694,60 +4744,50 @@
       <c r="K92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L92" s="35"/>
-    </row>
-    <row r="93" spans="1:13" s="43" customFormat="1">
-      <c r="A93" s="33"/>
-      <c r="B93" s="40" t="s">
+      <c r="L92" s="42"/>
+    </row>
+    <row r="93" spans="1:13" s="37" customFormat="1">
+      <c r="A93" s="38"/>
+      <c r="B93" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="40" t="s">
+      <c r="D93" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E93" s="41"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="41" t="s">
+      <c r="E93" s="35"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="M93" s="42"/>
+      <c r="M93" s="36"/>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B42:B55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="E42:E50"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C61:C92"/>
+    <mergeCell ref="D61:D92"/>
+    <mergeCell ref="E61:E92"/>
+    <mergeCell ref="L61:L92"/>
+    <mergeCell ref="L51:L55"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="L42:L50"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
     <mergeCell ref="A61:A93"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
@@ -4764,18 +4804,28 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C30:C38"/>
-    <mergeCell ref="L42:L50"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="C61:C92"/>
-    <mergeCell ref="D61:D92"/>
-    <mergeCell ref="E61:E92"/>
-    <mergeCell ref="L61:L92"/>
-    <mergeCell ref="L51:L55"/>
-    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B42:B55"/>
+    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4217E1-FD25-4335-AFFF-B3285E2B3423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E0A0FD-B3C2-4DD7-B900-8E6BD4454BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="400">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1310,10 +1311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误保护未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sendPasswordValidateCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1321,13 +1318,260 @@
     <t>post
 参数为phone+password+verifycode</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code</t>
+  </si>
+  <si>
+    <t>Error Description(Chinese)</t>
+  </si>
+  <si>
+    <t>Error Description(English)</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>未知错误</t>
+  </si>
+  <si>
+    <t>Unknown error</t>
+  </si>
+  <si>
+    <t>服务暂不可用</t>
+  </si>
+  <si>
+    <t>Service temporarily unavailable</t>
+  </si>
+  <si>
+    <t>未知的方法</t>
+  </si>
+  <si>
+    <t>Unsupported openapi method</t>
+  </si>
+  <si>
+    <t>接口调用次数已达到设定的上限</t>
+  </si>
+  <si>
+    <t>Open api request limit reached</t>
+  </si>
+  <si>
+    <t>请求来自未经授权的IP地址</t>
+  </si>
+  <si>
+    <t>Unauthorized client IP address:%s</t>
+  </si>
+  <si>
+    <t>无权限访问该用户数据</t>
+  </si>
+  <si>
+    <t>No permission to access data</t>
+  </si>
+  <si>
+    <t>来自该refer的请求无访问权限</t>
+  </si>
+  <si>
+    <t>No permission to access data for this referer</t>
+  </si>
+  <si>
+    <t>请求参数无效</t>
+  </si>
+  <si>
+    <t>Invalid parameter</t>
+  </si>
+  <si>
+    <t>api key无效</t>
+  </si>
+  <si>
+    <t>Invalid API key</t>
+  </si>
+  <si>
+    <t>session key无效</t>
+  </si>
+  <si>
+    <t>Session key invalid or no longer valid</t>
+  </si>
+  <si>
+    <t>call_id参数无效</t>
+  </si>
+  <si>
+    <t>Invalid/Used call_id parameter</t>
+  </si>
+  <si>
+    <t>无效签名</t>
+  </si>
+  <si>
+    <t>Incorrect signature</t>
+  </si>
+  <si>
+    <t>请求参数过多</t>
+  </si>
+  <si>
+    <t>Too many parameters</t>
+  </si>
+  <si>
+    <t>未知的签名方法</t>
+  </si>
+  <si>
+    <t>Unsupported signature method</t>
+  </si>
+  <si>
+    <t>timestamp参数无效</t>
+  </si>
+  <si>
+    <t>Invalid/Used timestamp parameter</t>
+  </si>
+  <si>
+    <t>无效的user id</t>
+  </si>
+  <si>
+    <t>Invalid user id</t>
+  </si>
+  <si>
+    <t>无效的用户资料字段名</t>
+  </si>
+  <si>
+    <t>Invalid user info field</t>
+  </si>
+  <si>
+    <t>无效的access token</t>
+  </si>
+  <si>
+    <t>Access token invalid or no longer valid</t>
+  </si>
+  <si>
+    <t>access token过期</t>
+  </si>
+  <si>
+    <t>Access token expired</t>
+  </si>
+  <si>
+    <t>session key过期</t>
+  </si>
+  <si>
+    <t>Session key expired</t>
+  </si>
+  <si>
+    <t>无效的ip参数</t>
+  </si>
+  <si>
+    <t>Invalid Ip</t>
+  </si>
+  <si>
+    <t>用户不可见</t>
+  </si>
+  <si>
+    <t>User not visible</t>
+  </si>
+  <si>
+    <t>获取未授权的字段</t>
+  </si>
+  <si>
+    <t>Unsupported permission</t>
+  </si>
+  <si>
+    <t>没有权限获取用户的email</t>
+  </si>
+  <si>
+    <t>No permission to access user email</t>
+  </si>
+  <si>
+    <t>未知的存储操作错误</t>
+  </si>
+  <si>
+    <t>Unknown data store API error</t>
+  </si>
+  <si>
+    <t>无效的操作方法</t>
+  </si>
+  <si>
+    <t>Invalid operation</t>
+  </si>
+  <si>
+    <t>数据存储空间已超过设定的上限</t>
+  </si>
+  <si>
+    <t>Data store allowable quota was exceeded</t>
+  </si>
+  <si>
+    <t>指定的对象不存在</t>
+  </si>
+  <si>
+    <t>Specified object cannot be found</t>
+  </si>
+  <si>
+    <t>指定的对象已存在</t>
+  </si>
+  <si>
+    <t>Specified object already exists</t>
+  </si>
+  <si>
+    <t>数据库操作出错，请重试</t>
+  </si>
+  <si>
+    <t>A database error occurred. Please try again</t>
+  </si>
+  <si>
+    <t>访问的应用不存在</t>
+  </si>
+  <si>
+    <t>No such application exists</t>
+  </si>
+  <si>
+    <t>批量操作已开始，请先调用end_batch接口结束前一个批量操作</t>
+  </si>
+  <si>
+    <t>begin_batch already called, please make sure to call end_batch first</t>
+  </si>
+  <si>
+    <t>结束批量操作的接口调用不应该在start_batch接口之前被调用</t>
+  </si>
+  <si>
+    <t>end_batch called before start_batch</t>
+  </si>
+  <si>
+    <t>每个批量调用不能包含多于20个接口调用</t>
+  </si>
+  <si>
+    <t>Each batch API can not contain more than 20 items</t>
+  </si>
+  <si>
+    <t>该接口不适合在批量调用操作中被使用</t>
+  </si>
+  <si>
+    <t>Method is not allowed in batch mode</t>
+  </si>
+  <si>
+    <t>错误保护
+相关错误码请见sheet2（后续规范化需求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“用户不存在”
+“验证码错误”
+”IP拒绝访问“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetPassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1371,20 +1615,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,17 +1642,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF3F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1413,7 +1689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,12 +1767,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1525,32 +1795,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1576,14 +1856,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>36945</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>36946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1620,13 +1900,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1664,13 +1944,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1708,14 +1988,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>75046</xdr:rowOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>75045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1752,13 +2032,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1796,13 +2076,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1840,13 +2120,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1884,13 +2164,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1916,50 +2196,6 @@
         <a:xfrm>
           <a:off x="8077200" y="37842825"/>
           <a:ext cx="11057330" cy="5580496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1574539</xdr:colOff>
-      <xdr:row>284</xdr:row>
-      <xdr:rowOff>106913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>96104</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>43750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27FBE4D-9735-4635-AF58-05DBC4B5F9D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2264616" y="50628291"/>
-          <a:ext cx="10486131" cy="5292219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,17 +2470,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="4" width="20.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="30" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="28" customWidth="1"/>
     <col min="6" max="9" width="15.625" style="9" customWidth="1"/>
     <col min="10" max="11" width="9" style="9"/>
     <col min="12" max="12" width="28.625" style="20" customWidth="1"/>
@@ -2264,7 +2500,7 @@
       <c r="D1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2293,19 +2529,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2326,17 +2562,17 @@
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="40" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="30" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -2357,15 +2593,15 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="43"/>
+      <c r="L3" s="40"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="30" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2386,15 +2622,15 @@
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="30" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2415,23 +2651,23 @@
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="43"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2452,17 +2688,17 @@
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="40" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="30" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -2483,13 +2719,13 @@
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="43"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2520,7 +2756,7 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="39" t="s">
@@ -2532,7 +2768,7 @@
       <c r="D9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="36" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2553,17 +2789,17 @@
       <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="40" t="s">
         <v>130</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2582,15 +2818,15 @@
       <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="43"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2609,15 +2845,15 @@
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="43"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2636,13 +2872,13 @@
       <c r="K12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="43"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="39" t="s">
         <v>70</v>
       </c>
@@ -2652,7 +2888,7 @@
       <c r="D13" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2673,17 +2909,17 @@
       <c r="K13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="40" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2704,15 +2940,15 @@
       <c r="K14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="43"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -2729,15 +2965,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="43"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2758,15 +2994,15 @@
       <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="43"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
@@ -2785,15 +3021,15 @@
       <c r="K17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
@@ -2812,15 +3048,15 @@
       <c r="K18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="43"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="38"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2839,15 +3075,15 @@
       <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="43"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="38"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2868,15 +3104,15 @@
       <c r="K20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="43"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
@@ -2895,16 +3131,16 @@
       <c r="K21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="43"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -2913,7 +3149,7 @@
       <c r="D22" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="36" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2934,17 +3170,17 @@
       <c r="K22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="43" t="s">
+      <c r="L22" s="40" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="7" t="s">
         <v>112</v>
       </c>
@@ -2963,15 +3199,15 @@
       <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="43"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
@@ -2990,15 +3226,15 @@
       <c r="K24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="43"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3017,15 +3253,15 @@
       <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="43"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3044,17 +3280,17 @@
       <c r="K26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
+      <c r="L26" s="40"/>
       <c r="M26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3073,14 +3309,14 @@
       <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="43"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="38"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3099,14 +3335,14 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="43"/>
+      <c r="L28" s="40"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="38"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3125,20 +3361,20 @@
       <c r="K29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="43"/>
+      <c r="L29" s="40"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36" t="s">
         <v>154</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="30" t="s">
+      <c r="D30" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>153</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -3158,11 +3394,11 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="30" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3182,11 +3418,11 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="38" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="36" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3206,11 +3442,11 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3228,11 +3464,11 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3250,7 +3486,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="38"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="23" t="s">
         <v>171</v>
       </c>
@@ -3258,7 +3494,7 @@
       <c r="D35" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="28" t="s">
         <v>153</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -3278,7 +3514,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="38"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="23" t="s">
         <v>172</v>
       </c>
@@ -3286,7 +3522,7 @@
       <c r="D36" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="28" t="s">
         <v>153</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -3304,12 +3540,12 @@
       <c r="J36" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="29" t="s">
+      <c r="M36" s="27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="38"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
@@ -3317,7 +3553,7 @@
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="28" t="s">
         <v>153</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3329,421 +3565,427 @@
       <c r="K37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L37" s="33" t="s">
-        <v>319</v>
+      <c r="L37" s="31" t="s">
+        <v>318</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="57">
+    <row r="38" spans="1:13" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="36" t="s">
         <v>167</v>
       </c>
       <c r="C38" s="39"/>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="M38" s="49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="44" customFormat="1" ht="42.75">
+      <c r="A39" s="43"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="I38" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28.5">
-      <c r="A39" s="38" t="s">
+      <c r="F39" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="40"/>
+      <c r="M39" s="45"/>
+    </row>
+    <row r="40" spans="1:13" ht="28.5">
+      <c r="A40" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B40" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D40" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E40" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="71.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>120</v>
       </c>
       <c r="L40" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="71.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L41" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15">
-      <c r="A41" s="38"/>
-      <c r="B41" s="25" t="s">
+    <row r="42" spans="1:13" ht="15">
+      <c r="A42" s="36"/>
+      <c r="B42" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="I41" s="18"/>
-      <c r="L41" s="26"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="I42" s="18"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C43" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D43" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E43" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L42" s="42" t="s">
+      <c r="J43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="M43" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="18" t="s">
+    <row r="44" spans="1:13">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L43" s="42"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="42"/>
+      <c r="L44" s="38"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="40"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="9" t="s">
-        <v>114</v>
+      <c r="E45" s="36"/>
+      <c r="F45" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="42"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="40"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="38"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="38"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L46" s="42"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="38"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="9">
-        <v>2</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L47" s="42"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I48" s="9">
+        <v>2</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" s="38"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="9">
         <v>200</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L48" s="42"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="38"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I50" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L49" s="42"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="38"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I50" s="9" t="s">
+      <c r="H51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L50" s="42"/>
-      <c r="M50" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="38"/>
+      <c r="M51" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="40" t="s">
+    <row r="52" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D52" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E52" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F52" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G52" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="28" t="b">
+      <c r="I52" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="L51" s="42" t="s">
+      <c r="L52" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="M51" s="29" t="s">
+      <c r="M52" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="41" t="s">
+    <row r="53" spans="1:13">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L52" s="42"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>215</v>
@@ -3751,25 +3993,25 @@
       <c r="K53" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L53" s="42"/>
+      <c r="L53" s="38"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="41"/>
       <c r="F54" s="9" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>215</v>
@@ -3777,25 +4019,25 @@
       <c r="K54" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L54" s="42"/>
+      <c r="L54" s="38"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="41"/>
       <c r="F55" s="9" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>206</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>215</v>
@@ -3803,188 +4045,187 @@
       <c r="K55" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L55" s="42"/>
+      <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L56" s="38"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C57" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D57" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E57" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I56" s="18" t="b">
+      <c r="I57" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J56" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M56" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="38"/>
+      <c r="E58" s="36" t="s">
+        <v>196</v>
+      </c>
       <c r="F58" s="9" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="M58" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="38"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="9" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="38"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="38" t="s">
+      <c r="J61" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C62" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D62" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E62" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F62" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L61" s="44" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>40</v>
@@ -3992,24 +4233,26 @@
       <c r="K62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L62" s="42"/>
+      <c r="L62" s="37" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="A63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>40</v>
@@ -4017,24 +4260,24 @@
       <c r="K63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="42"/>
+      <c r="L63" s="38"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
+      <c r="A64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>40</v>
@@ -4042,24 +4285,24 @@
       <c r="K64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="42"/>
+      <c r="L64" s="38"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
+      <c r="A65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>40</v>
@@ -4067,24 +4310,24 @@
       <c r="K65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L65" s="42"/>
+      <c r="L65" s="38"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
+      <c r="A66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="9" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>40</v>
@@ -4092,24 +4335,24 @@
       <c r="K66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="42"/>
+      <c r="L66" s="38"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
+      <c r="A67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="9" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>40</v>
@@ -4117,24 +4360,24 @@
       <c r="K67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L67" s="42"/>
+      <c r="L67" s="38"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
+      <c r="A68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>40</v>
@@ -4142,24 +4385,24 @@
       <c r="K68" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="42"/>
+      <c r="L68" s="38"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
+      <c r="A69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="9" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>40</v>
@@ -4167,151 +4410,151 @@
       <c r="K69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L69" s="42"/>
+      <c r="L69" s="38"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
+      <c r="A70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="9" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I70" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="38"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L70" s="42"/>
-    </row>
-    <row r="71" spans="1:13" s="3" customFormat="1">
-      <c r="A71" s="38"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="32" t="s">
+      <c r="J71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" s="38"/>
+    </row>
+    <row r="72" spans="1:13" s="3" customFormat="1">
+      <c r="A72" s="36"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="G71" s="32" t="s">
+      <c r="G72" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="H71" s="32" t="s">
+      <c r="H72" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I71" s="32" t="s">
+      <c r="I72" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="J71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L71" s="42"/>
-      <c r="M71" s="32"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" s="38"/>
+      <c r="M72" s="30"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G73" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I73" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L72" s="42"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="9" t="s">
+      <c r="J73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="38"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L73" s="42"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="9" t="s">
+      <c r="J74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="38"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L74" s="42"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>40</v>
@@ -4319,18 +4562,18 @@
       <c r="K75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="42"/>
+      <c r="L75" s="38"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
+      <c r="A76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>6</v>
@@ -4344,24 +4587,24 @@
       <c r="K76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="42"/>
+      <c r="L76" s="38"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
+      <c r="A77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
       <c r="F77" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>40</v>
@@ -4369,24 +4612,24 @@
       <c r="K77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="42"/>
+      <c r="L77" s="38"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
+      <c r="A78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>40</v>
@@ -4394,24 +4637,24 @@
       <c r="K78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="42"/>
+      <c r="L78" s="38"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
+      <c r="A79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>40</v>
@@ -4419,24 +4662,24 @@
       <c r="K79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="42"/>
+      <c r="L79" s="38"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
+      <c r="A80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>40</v>
@@ -4444,24 +4687,24 @@
       <c r="K80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="42"/>
+      <c r="L80" s="38"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
+      <c r="A81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
       <c r="F81" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>40</v>
@@ -4469,24 +4712,24 @@
       <c r="K81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="42"/>
+      <c r="L81" s="38"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
+      <c r="A82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
       <c r="F82" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>40</v>
@@ -4494,24 +4737,24 @@
       <c r="K82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="42"/>
+      <c r="L82" s="38"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
+      <c r="A83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
       <c r="F83" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>40</v>
@@ -4519,18 +4762,18 @@
       <c r="K83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="42"/>
+      <c r="L83" s="38"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
+      <c r="A84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
       <c r="F84" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>6</v>
@@ -4544,24 +4787,24 @@
       <c r="K84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="42"/>
+      <c r="L84" s="38"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
+      <c r="A85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
       <c r="F85" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>40</v>
@@ -4569,24 +4812,24 @@
       <c r="K85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="42"/>
+      <c r="L85" s="38"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
+      <c r="A86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
       <c r="F86" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>40</v>
@@ -4594,24 +4837,24 @@
       <c r="K86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="42"/>
+      <c r="L86" s="38"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
+      <c r="A87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
       <c r="F87" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>40</v>
@@ -4619,24 +4862,24 @@
       <c r="K87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="42"/>
+      <c r="L87" s="38"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
+      <c r="A88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>40</v>
@@ -4644,24 +4887,24 @@
       <c r="K88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="42"/>
+      <c r="L88" s="38"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
+      <c r="A89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
       <c r="F89" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>40</v>
@@ -4669,24 +4912,24 @@
       <c r="K89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="42"/>
+      <c r="L89" s="38"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
+      <c r="A90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
       <c r="F90" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>40</v>
@@ -4694,15 +4937,15 @@
       <c r="K90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="42"/>
+      <c r="L90" s="38"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
+      <c r="A91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
       <c r="F91" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>300</v>
@@ -4711,7 +4954,7 @@
         <v>6</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>40</v>
@@ -4719,15 +4962,15 @@
       <c r="K91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="42"/>
+      <c r="L91" s="38"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
+      <c r="A92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
       <c r="F92" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>300</v>
@@ -4736,74 +4979,88 @@
         <v>6</v>
       </c>
       <c r="I92" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" s="38"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="J92" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L92" s="42"/>
-    </row>
-    <row r="93" spans="1:13" s="37" customFormat="1">
-      <c r="A93" s="38"/>
-      <c r="B93" s="34" t="s">
+      <c r="J93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L93" s="38"/>
+    </row>
+    <row r="94" spans="1:13" s="35" customFormat="1">
+      <c r="A94" s="36"/>
+      <c r="B94" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C94" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D94" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E93" s="35"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="35" t="s">
+      <c r="E94" s="33"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="M93" s="36"/>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99" s="9" t="s">
+      <c r="M94" s="34"/>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="9" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C61:C92"/>
-    <mergeCell ref="D61:D92"/>
-    <mergeCell ref="E61:E92"/>
-    <mergeCell ref="L61:L92"/>
-    <mergeCell ref="L51:L55"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="L42:L50"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="A61:A93"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A39:A60"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C38"/>
+  <mergeCells count="54">
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="B43:B56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D43:D51"/>
+    <mergeCell ref="E43:E51"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -4814,22 +5071,460 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="E42:E50"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B42:B55"/>
-    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="A62:A94"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A40:A61"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="L43:L51"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="C62:C93"/>
+    <mergeCell ref="D62:D93"/>
+    <mergeCell ref="E62:E93"/>
+    <mergeCell ref="L62:L93"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="C57:C61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9532180B-CF5A-443A-B670-DF0AC8AB044D}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60.75" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="47">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A3" s="48">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" thickBot="1">
+      <c r="A4" s="47">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A5" s="48">
+        <v>3</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A6" s="47">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" thickBot="1">
+      <c r="A7" s="48">
+        <v>5</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" thickBot="1">
+      <c r="A8" s="47">
+        <v>6</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="100.5" thickBot="1">
+      <c r="A9" s="48">
+        <v>7</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A10" s="47">
+        <v>100</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A11" s="48">
+        <v>101</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="72" thickBot="1">
+      <c r="A12" s="47">
+        <v>102</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A13" s="48">
+        <v>103</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A14" s="47">
+        <v>104</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A15" s="48">
+        <v>105</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A16" s="47">
+        <v>106</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72" thickBot="1">
+      <c r="A17" s="48">
+        <v>107</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A18" s="47">
+        <v>108</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A19" s="48">
+        <v>109</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72" thickBot="1">
+      <c r="A20" s="47">
+        <v>110</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A21" s="48">
+        <v>111</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A22" s="47">
+        <v>112</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A23" s="48">
+        <v>114</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A24" s="47">
+        <v>210</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A25" s="48">
+        <v>211</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="86.25" thickBot="1">
+      <c r="A26" s="47">
+        <v>212</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A27" s="48">
+        <v>800</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A28" s="47">
+        <v>801</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="72" thickBot="1">
+      <c r="A29" s="48">
+        <v>802</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A30" s="47">
+        <v>803</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A31" s="48">
+        <v>804</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="86.25" thickBot="1">
+      <c r="A32" s="47">
+        <v>805</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A33" s="48">
+        <v>900</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="129" thickBot="1">
+      <c r="A34" s="47">
+        <v>950</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="100.5" thickBot="1">
+      <c r="A35" s="48">
+        <v>951</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="86.25" thickBot="1">
+      <c r="A36" s="47">
+        <v>952</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="72" thickBot="1">
+      <c r="A37" s="48">
+        <v>953</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E0A0FD-B3C2-4DD7-B900-8E6BD4454BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9EA881-A298-43A6-A350-A0F0A55CCBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="405">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,6 +1565,26 @@
   </si>
   <si>
     <t>resetPassword</t>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单关联的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“133”（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1633,7 +1653,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,6 +1675,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1792,22 +1818,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1817,9 +1828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1831,6 +1839,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1856,14 +1888,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1900,14 +1932,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>17895</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>17896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1944,13 +1976,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1988,14 +2020,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>75045</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2032,13 +2064,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2076,13 +2108,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2120,14 +2152,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>141721</xdr:rowOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>141720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2164,13 +2196,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2470,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2529,16 +2561,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="47" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="28" t="s">
@@ -2562,16 +2594,16 @@
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="45" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="28" t="s">
         <v>12</v>
       </c>
@@ -2593,14 +2625,14 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="40"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="28" t="s">
         <v>12</v>
       </c>
@@ -2622,14 +2654,14 @@
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="28" t="s">
         <v>12</v>
       </c>
@@ -2651,20 +2683,20 @@
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="40"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="47" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -2688,16 +2720,16 @@
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="45" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="28" t="s">
         <v>12</v>
       </c>
@@ -2719,13 +2751,13 @@
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="36"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2756,19 +2788,19 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="46" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2789,17 +2821,17 @@
       <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="45" t="s">
         <v>130</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2818,15 +2850,15 @@
       <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="40"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2845,15 +2877,15 @@
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2872,20 +2904,20 @@
       <c r="K12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="40"/>
+      <c r="L12" s="45"/>
       <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="47" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -2909,16 +2941,16 @@
       <c r="K13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="45" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="28" t="s">
         <v>12</v>
       </c>
@@ -2940,14 +2972,14 @@
       <c r="K14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="28" t="s">
         <v>12</v>
       </c>
@@ -2965,15 +2997,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="40"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="36" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="46" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2994,15 +3026,15 @@
       <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="36"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3021,15 +3053,15 @@
       <c r="K17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="40"/>
+      <c r="L17" s="45"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3048,15 +3080,15 @@
       <c r="K18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="40"/>
+      <c r="L18" s="45"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="36"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="36"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3075,15 +3107,15 @@
       <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="40"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="36"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="36" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="46" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -3104,15 +3136,15 @@
       <c r="K20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="40"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3131,25 +3163,25 @@
       <c r="K21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="40"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="46" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3170,17 +3202,17 @@
       <c r="K22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="45" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="36"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3199,15 +3231,15 @@
       <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="40"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3226,15 +3258,15 @@
       <c r="K24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="40"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="36"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3253,15 +3285,15 @@
       <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="40"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="36"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3280,17 +3312,17 @@
       <c r="K26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="40"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="36"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3309,14 +3341,14 @@
       <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="40"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="36"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3335,14 +3367,14 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="40"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="36"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3361,17 +3393,17 @@
       <c r="K29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="40"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="47" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="28" t="s">
@@ -3394,10 +3426,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="28" t="s">
         <v>12</v>
       </c>
@@ -3418,11 +3450,11 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="36" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="46" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3442,11 +3474,11 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="36"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3464,11 +3496,11 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="36"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3486,11 +3518,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="36"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="39"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="22" t="s">
         <v>170</v>
       </c>
@@ -3514,11 +3546,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="36"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="39"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="22" t="s">
         <v>173</v>
       </c>
@@ -3545,11 +3577,11 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="36"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="39"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
@@ -3574,17 +3606,17 @@
     </row>
     <row r="38" spans="1:13" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="47" t="s">
         <v>319</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="37" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="9" t="s">
@@ -3602,22 +3634,22 @@
       <c r="K38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="40" t="s">
+      <c r="L38" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="M38" s="49" t="s">
+      <c r="M38" s="43" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="44" customFormat="1" ht="42.75">
-      <c r="A39" s="43"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="43" t="s">
+    <row r="39" spans="1:13" s="39" customFormat="1" ht="42.75">
+      <c r="A39" s="38"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="37" t="s">
         <v>321</v>
       </c>
       <c r="G39" s="9" t="s">
@@ -3635,11 +3667,11 @@
       <c r="K39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="44"/>
     </row>
     <row r="40" spans="1:13" ht="28.5">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="46" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3668,7 +3700,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="71.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="17" t="s">
         <v>211</v>
       </c>
@@ -3704,7 +3736,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15">
-      <c r="A42" s="36"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="25" t="s">
         <v>212</v>
       </c>
@@ -3714,17 +3746,17 @@
       <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="46" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -3742,7 +3774,7 @@
       <c r="J43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="38" t="s">
+      <c r="L43" s="49" t="s">
         <v>224</v>
       </c>
       <c r="M43" s="9" t="s">
@@ -3750,11 +3782,11 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="36"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="18" t="s">
         <v>112</v>
       </c>
@@ -3770,14 +3802,14 @@
       <c r="J44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="38"/>
+      <c r="L44" s="49"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="36"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="18" t="s">
         <v>111</v>
       </c>
@@ -3793,14 +3825,14 @@
       <c r="J45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="38"/>
+      <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="36"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="9" t="s">
         <v>114</v>
       </c>
@@ -3816,14 +3848,14 @@
       <c r="J46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="38"/>
+      <c r="L46" s="49"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="9" t="s">
         <v>113</v>
       </c>
@@ -3839,14 +3871,14 @@
       <c r="J47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="38"/>
+      <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="36"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="9" t="s">
         <v>116</v>
       </c>
@@ -3862,14 +3894,14 @@
       <c r="J48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="38"/>
+      <c r="L48" s="49"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="36"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="9" t="s">
         <v>92</v>
       </c>
@@ -3885,14 +3917,14 @@
       <c r="J49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="38"/>
+      <c r="L49" s="49"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="36"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="9" t="s">
         <v>198</v>
       </c>
@@ -3908,14 +3940,14 @@
       <c r="J50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="38"/>
+      <c r="L50" s="49"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="36"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="9" t="s">
         <v>181</v>
       </c>
@@ -3931,87 +3963,84 @@
       <c r="J51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L51" s="38"/>
+      <c r="L51" s="49"/>
       <c r="M51" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="39" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="L52" s="36"/>
+    </row>
+    <row r="53" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D53" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E53" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I52" s="9" t="b">
+      <c r="I53" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="L52" s="38" t="s">
+      <c r="L53" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="M52" s="27" t="s">
+      <c r="M53" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="41" t="s">
+    <row r="54" spans="1:13">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L53" s="38"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>215</v>
@@ -4019,25 +4048,25 @@
       <c r="K54" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L54" s="38"/>
+      <c r="L54" s="49"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="41"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="9" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>215</v>
@@ -4045,25 +4074,25 @@
       <c r="K55" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L55" s="38"/>
+      <c r="L55" s="49"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="41"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="9" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>206</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>215</v>
@@ -4071,188 +4100,187 @@
       <c r="K56" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L56" s="38"/>
+      <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L57" s="49"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C58" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D58" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E58" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I57" s="18" t="b">
+      <c r="I58" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J57" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M57" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="36" t="s">
+    <row r="59" spans="1:13">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F59" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="M59" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="36"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="9" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="36"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I61" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I62" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J61" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="36" t="s">
+      <c r="J62" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C63" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D63" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E63" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F63" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L62" s="37" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>40</v>
@@ -4260,24 +4288,26 @@
       <c r="K63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="38"/>
+      <c r="L63" s="50" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
+      <c r="A64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>40</v>
@@ -4285,24 +4315,24 @@
       <c r="K64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="38"/>
+      <c r="L64" s="49"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
+      <c r="A65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>40</v>
@@ -4310,24 +4340,24 @@
       <c r="K65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L65" s="38"/>
+      <c r="L65" s="49"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
+      <c r="A66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>40</v>
@@ -4335,24 +4365,24 @@
       <c r="K66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="38"/>
+      <c r="L66" s="49"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
+      <c r="A67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="9" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>40</v>
@@ -4360,24 +4390,24 @@
       <c r="K67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L67" s="38"/>
+      <c r="L67" s="49"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
+      <c r="A68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="9" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>40</v>
@@ -4385,24 +4415,24 @@
       <c r="K68" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="38"/>
+      <c r="L68" s="49"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
+      <c r="A69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>40</v>
@@ -4410,24 +4440,24 @@
       <c r="K69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L69" s="38"/>
+      <c r="L69" s="49"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
+      <c r="A70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="9" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>40</v>
@@ -4435,151 +4465,151 @@
       <c r="K70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L70" s="38"/>
+      <c r="L70" s="49"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
+      <c r="A71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="9" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I71" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" s="49"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L71" s="38"/>
-    </row>
-    <row r="72" spans="1:13" s="3" customFormat="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="30" t="s">
+      <c r="J72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" s="49"/>
+    </row>
+    <row r="73" spans="1:13" s="3" customFormat="1">
+      <c r="A73" s="46"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="G72" s="30" t="s">
+      <c r="G73" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="H72" s="30" t="s">
+      <c r="H73" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I72" s="30" t="s">
+      <c r="I73" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L72" s="38"/>
-      <c r="M72" s="30"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="9" t="s">
+      <c r="J73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="49"/>
+      <c r="M73" s="30"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L73" s="38"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="9" t="s">
+      <c r="J74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="49"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L74" s="38"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="9" t="s">
+      <c r="J75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" s="49"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L75" s="38"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>40</v>
@@ -4587,18 +4617,18 @@
       <c r="K76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="38"/>
+      <c r="L76" s="49"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
+      <c r="A77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>6</v>
@@ -4612,24 +4642,24 @@
       <c r="K77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="38"/>
+      <c r="L77" s="49"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
+      <c r="A78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>40</v>
@@ -4637,24 +4667,24 @@
       <c r="K78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="38"/>
+      <c r="L78" s="49"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
+      <c r="A79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>40</v>
@@ -4662,24 +4692,24 @@
       <c r="K79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="38"/>
+      <c r="L79" s="49"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
+      <c r="A80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
       <c r="F80" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>40</v>
@@ -4687,24 +4717,24 @@
       <c r="K80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="38"/>
+      <c r="L80" s="49"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
+      <c r="A81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
       <c r="F81" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>40</v>
@@ -4712,24 +4742,24 @@
       <c r="K81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="38"/>
+      <c r="L81" s="49"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
+      <c r="A82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
       <c r="F82" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>40</v>
@@ -4737,24 +4767,24 @@
       <c r="K82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="38"/>
+      <c r="L82" s="49"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
+      <c r="A83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
       <c r="F83" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>40</v>
@@ -4762,24 +4792,24 @@
       <c r="K83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="38"/>
+      <c r="L83" s="49"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
+      <c r="A84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
       <c r="F84" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>40</v>
@@ -4787,18 +4817,18 @@
       <c r="K84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="38"/>
+      <c r="L84" s="49"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
+      <c r="A85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
       <c r="F85" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>6</v>
@@ -4812,24 +4842,24 @@
       <c r="K85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="38"/>
+      <c r="L85" s="49"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
+      <c r="A86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
       <c r="F86" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>40</v>
@@ -4837,24 +4867,24 @@
       <c r="K86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="38"/>
+      <c r="L86" s="49"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
+      <c r="A87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
       <c r="F87" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>40</v>
@@ -4862,24 +4892,24 @@
       <c r="K87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="38"/>
+      <c r="L87" s="49"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
+      <c r="A88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
       <c r="F88" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>40</v>
@@ -4887,24 +4917,24 @@
       <c r="K88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="38"/>
+      <c r="L88" s="49"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
+      <c r="A89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
       <c r="F89" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>40</v>
@@ -4912,24 +4942,24 @@
       <c r="K89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="38"/>
+      <c r="L89" s="49"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
+      <c r="A90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
       <c r="F90" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>40</v>
@@ -4937,24 +4967,24 @@
       <c r="K90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="38"/>
+      <c r="L90" s="49"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
+      <c r="A91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
       <c r="F91" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>40</v>
@@ -4962,15 +4992,15 @@
       <c r="K91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="38"/>
+      <c r="L91" s="49"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
+      <c r="A92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
       <c r="F92" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>300</v>
@@ -4979,7 +5009,7 @@
         <v>6</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>40</v>
@@ -4987,15 +5017,15 @@
       <c r="K92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L92" s="38"/>
+      <c r="L92" s="49"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
+      <c r="A93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
       <c r="F93" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>300</v>
@@ -5004,63 +5034,98 @@
         <v>6</v>
       </c>
       <c r="I93" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L93" s="49"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="J93" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L93" s="38"/>
-    </row>
-    <row r="94" spans="1:13" s="35" customFormat="1">
-      <c r="A94" s="36"/>
-      <c r="B94" s="32" t="s">
+      <c r="J94" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L94" s="49"/>
+    </row>
+    <row r="95" spans="1:13" s="35" customFormat="1">
+      <c r="A95" s="46"/>
+      <c r="B95" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C95" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D95" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E94" s="33"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="33" t="s">
+      <c r="E95" s="33"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="M94" s="34"/>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100" s="9" t="s">
+      <c r="M95" s="34"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="9" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="B43:B56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C43:C51"/>
-    <mergeCell ref="D43:D51"/>
-    <mergeCell ref="E43:E51"/>
+    <mergeCell ref="D63:D94"/>
+    <mergeCell ref="E63:E94"/>
+    <mergeCell ref="L63:L94"/>
+    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="L43:L51"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="A63:A95"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A40:A62"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C63:C94"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -5071,33 +5136,23 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A62:A94"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A40:A61"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="L43:L51"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="C62:C93"/>
-    <mergeCell ref="D62:D93"/>
-    <mergeCell ref="E62:E93"/>
-    <mergeCell ref="L62:L93"/>
-    <mergeCell ref="L52:L56"/>
-    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5117,409 +5172,409 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="40" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
-      <c r="A2" s="47">
+      <c r="A2" s="41">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="41" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A3" s="48">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="42" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" thickBot="1">
-      <c r="A4" s="47">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="41" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A5" s="48">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="42" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A6" s="47">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="41" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" thickBot="1">
-      <c r="A7" s="48">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="42" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" thickBot="1">
-      <c r="A8" s="47">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="41" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="100.5" thickBot="1">
-      <c r="A9" s="48">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="42" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A10" s="47">
+      <c r="A10" s="41">
         <v>100</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="41" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A11" s="48">
+      <c r="A11" s="42">
         <v>101</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="42" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" thickBot="1">
-      <c r="A12" s="47">
+      <c r="A12" s="41">
         <v>102</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="41" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A13" s="48">
+      <c r="A13" s="42">
         <v>103</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="42" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A14" s="47">
+      <c r="A14" s="41">
         <v>104</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="41" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A15" s="48">
+      <c r="A15" s="42">
         <v>105</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="42" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A16" s="47">
+      <c r="A16" s="41">
         <v>106</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="41" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72" thickBot="1">
-      <c r="A17" s="48">
+      <c r="A17" s="42">
         <v>107</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="42" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A18" s="47">
+      <c r="A18" s="41">
         <v>108</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="41" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A19" s="48">
+      <c r="A19" s="42">
         <v>109</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="42" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" thickBot="1">
-      <c r="A20" s="47">
+      <c r="A20" s="41">
         <v>110</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="41" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A21" s="48">
+      <c r="A21" s="42">
         <v>111</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="42" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A22" s="47">
+      <c r="A22" s="41">
         <v>112</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="41" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A23" s="48">
+      <c r="A23" s="42">
         <v>114</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="42" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A24" s="47">
+      <c r="A24" s="41">
         <v>210</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="41" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A25" s="48">
+      <c r="A25" s="42">
         <v>211</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="42" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A26" s="47">
+      <c r="A26" s="41">
         <v>212</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="41" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A27" s="48">
+      <c r="A27" s="42">
         <v>800</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="42" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A28" s="47">
+      <c r="A28" s="41">
         <v>801</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="41" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="72" thickBot="1">
-      <c r="A29" s="48">
+      <c r="A29" s="42">
         <v>802</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="42" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A30" s="47">
+      <c r="A30" s="41">
         <v>803</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="41" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A31" s="48">
+      <c r="A31" s="42">
         <v>804</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="42" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A32" s="47">
+      <c r="A32" s="41">
         <v>805</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="41" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A33" s="48">
+      <c r="A33" s="42">
         <v>900</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="129" thickBot="1">
-      <c r="A34" s="47">
+      <c r="A34" s="41">
         <v>950</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="41" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="100.5" thickBot="1">
-      <c r="A35" s="48">
+      <c r="A35" s="42">
         <v>951</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A36" s="47">
+      <c r="A36" s="41">
         <v>952</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="41" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="72" thickBot="1">
-      <c r="A37" s="48">
+      <c r="A37" s="42">
         <v>953</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="42" t="s">
         <v>396</v>
       </c>
     </row>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9EA881-A298-43A6-A350-A0F0A55CCBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D60B69-E5BC-4361-8C06-DEBC7DB73272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="405">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,10 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标识订单当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1584,6 +1580,16 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识订单当前状态
+未付款unpaid
+未发货waiting
+运输中in_transit
+制备中producting
+检测中testing
+查看报告report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1653,7 +1659,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1675,12 +1681,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,31 +1838,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2505,7 +2505,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>67</v>
@@ -2561,13 +2561,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="47" t="s">
@@ -2594,16 +2594,16 @@
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="48" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="28" t="s">
         <v>12</v>
       </c>
@@ -2625,14 +2625,14 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="45"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="28" t="s">
         <v>12</v>
       </c>
@@ -2654,14 +2654,14 @@
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="28" t="s">
         <v>12</v>
       </c>
@@ -2683,17 +2683,17 @@
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="45"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="47" t="s">
@@ -2720,16 +2720,16 @@
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="48" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="28" t="s">
         <v>12</v>
       </c>
@@ -2751,13 +2751,13 @@
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="45"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -2800,7 +2800,7 @@
       <c r="D9" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="44" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2821,17 +2821,17 @@
       <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="48" t="s">
         <v>130</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2850,15 +2850,15 @@
       <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2877,15 +2877,15 @@
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="45"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2904,13 +2904,13 @@
       <c r="K12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="48"/>
       <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="46"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="47" t="s">
         <v>70</v>
       </c>
@@ -2941,13 +2941,13 @@
       <c r="K13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="48" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="46"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -2972,11 +2972,11 @@
       <c r="K14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="46"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -2997,15 +2997,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="45"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="46"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="44" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -3026,15 +3026,15 @@
       <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="46"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="46"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3053,15 +3053,15 @@
       <c r="K17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="45"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="46"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
-      <c r="E18" s="46"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3080,15 +3080,15 @@
       <c r="K18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="45"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="46"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3107,15 +3107,15 @@
       <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="45"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="46"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="44" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -3136,15 +3136,15 @@
       <c r="K20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="45"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="46"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3163,16 +3163,16 @@
       <c r="K21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="45"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="44" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="47" t="s">
@@ -3181,7 +3181,7 @@
       <c r="D22" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="44" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3202,17 +3202,17 @@
       <c r="K22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="45" t="s">
+      <c r="L22" s="48" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3231,15 +3231,15 @@
       <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="45"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3258,15 +3258,15 @@
       <c r="K24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="45"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
-      <c r="E25" s="46"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3285,15 +3285,15 @@
       <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="45"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="46"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3312,17 +3312,17 @@
       <c r="K26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="45"/>
+      <c r="L26" s="48"/>
       <c r="M26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
-      <c r="E27" s="46"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3341,14 +3341,14 @@
       <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="45"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="46"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3367,14 +3367,14 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="45"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
-      <c r="E29" s="46"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3393,11 +3393,11 @@
       <c r="K29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="48"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44" t="s">
         <v>154</v>
       </c>
       <c r="C30" s="47" t="s">
@@ -3426,8 +3426,8 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
       <c r="E31" s="28" t="s">
@@ -3450,11 +3450,11 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="44" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3474,11 +3474,11 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
-      <c r="E33" s="46"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3496,11 +3496,11 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
-      <c r="E34" s="46"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="46"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="23" t="s">
         <v>171</v>
       </c>
@@ -3542,11 +3542,11 @@
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="46"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="23" t="s">
         <v>172</v>
       </c>
@@ -3570,14 +3570,14 @@
         <v>1</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="46"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>40</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>165</v>
@@ -3606,12 +3606,12 @@
     </row>
     <row r="38" spans="1:13" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="44" t="s">
         <v>167</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>153</v>
@@ -3634,23 +3634,23 @@
       <c r="K38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="M38" s="43" t="s">
-        <v>397</v>
+      <c r="L38" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="39" customFormat="1" ht="42.75">
       <c r="A39" s="38"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" s="37" t="s">
         <v>320</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>321</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>59</v>
@@ -3659,7 +3659,7 @@
         <v>6</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>40</v>
@@ -3667,11 +3667,11 @@
       <c r="K39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="45"/>
-      <c r="M39" s="44"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="51"/>
     </row>
     <row r="40" spans="1:13" ht="28.5">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="44" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3700,9 +3700,9 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="71.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>139</v>
@@ -3736,9 +3736,9 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15">
-      <c r="A42" s="46"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -3746,17 +3746,17 @@
       <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46" t="s">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="44" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -3769,24 +3769,27 @@
         <v>146</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="49" t="s">
-        <v>224</v>
+      <c r="K43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="46" t="s">
+        <v>223</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="18" t="s">
         <v>112</v>
       </c>
@@ -3802,14 +3805,17 @@
       <c r="J44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="49"/>
+      <c r="K44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="46"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="18" t="s">
         <v>111</v>
       </c>
@@ -3825,14 +3831,17 @@
       <c r="J45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="49"/>
+      <c r="K45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="46"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="9" t="s">
         <v>114</v>
       </c>
@@ -3848,14 +3857,17 @@
       <c r="J46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="49"/>
+      <c r="K46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="9" t="s">
         <v>113</v>
       </c>
@@ -3871,14 +3883,17 @@
       <c r="J47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="49"/>
+      <c r="K47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="46"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
       <c r="F48" s="9" t="s">
         <v>116</v>
       </c>
@@ -3894,14 +3909,17 @@
       <c r="J48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="49"/>
+      <c r="K48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="9" t="s">
         <v>92</v>
       </c>
@@ -3917,37 +3935,43 @@
       <c r="J49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="49"/>
+      <c r="K49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="49"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
+      <c r="K50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="46"/>
+    </row>
+    <row r="51" spans="1:13" ht="99.75">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="9" t="s">
         <v>181</v>
       </c>
@@ -3963,42 +3987,48 @@
       <c r="J51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="9" t="s">
-        <v>184</v>
+      <c r="K51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="46"/>
+      <c r="M51" s="27" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="H52" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="J52" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>404</v>
+      <c r="K52" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="L52" s="36"/>
     </row>
     <row r="53" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>12</v>
@@ -4007,31 +4037,31 @@
         <v>46</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="9" t="b">
+      <c r="I53" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="L53" s="49" t="s">
-        <v>223</v>
+      <c r="L53" s="46" t="s">
+        <v>222</v>
       </c>
       <c r="M53" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
-      <c r="E54" s="48" t="s">
-        <v>222</v>
+      <c r="E54" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>179</v>
@@ -4040,113 +4070,113 @@
         <v>6</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L54" s="49"/>
+        <v>214</v>
+      </c>
+      <c r="L54" s="46"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L55" s="49"/>
+        <v>214</v>
+      </c>
+      <c r="L55" s="46"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="H56" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="I56" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L56" s="49"/>
+        <v>214</v>
+      </c>
+      <c r="L56" s="46"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
-      <c r="E57" s="48"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G57" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="J57" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L57" s="49"/>
+        <v>214</v>
+      </c>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="47" t="s">
-        <v>186</v>
-      </c>
       <c r="D58" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>153</v>
       </c>
       <c r="F58" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>169</v>
@@ -4158,16 +4188,16 @@
         <v>40</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
-      <c r="E59" s="46" t="s">
-        <v>196</v>
+      <c r="E59" s="44" t="s">
+        <v>195</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>144</v>
@@ -4185,15 +4215,15 @@
         <v>40</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
-      <c r="E60" s="46"/>
+      <c r="E60" s="44"/>
       <c r="F60" s="9" t="s">
         <v>157</v>
       </c>
@@ -4211,16 +4241,16 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="47"/>
       <c r="D61" s="47"/>
-      <c r="E61" s="46"/>
+      <c r="E61" s="44"/>
       <c r="F61" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>146</v>
@@ -4233,383 +4263,383 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="47"/>
       <c r="D62" s="47"/>
-      <c r="E62" s="46"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="44" t="s">
         <v>103</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="46" t="s">
+      <c r="C63" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="G63" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" s="46"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="46"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" s="46"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="46"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" s="46"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" s="46"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="46"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G63" s="9" t="s">
+      <c r="J71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" s="46"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H72" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="I72" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" s="46"/>
+    </row>
+    <row r="73" spans="1:13" s="3" customFormat="1">
+      <c r="A73" s="44"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I73" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="46"/>
+      <c r="M73" s="30"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I74" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L63" s="50" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64" s="49"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L65" s="49"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L66" s="49"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L67" s="49"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L68" s="49"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L69" s="49"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L70" s="49"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L71" s="49"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L72" s="49"/>
-    </row>
-    <row r="73" spans="1:13" s="3" customFormat="1">
-      <c r="A73" s="46"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L73" s="49"/>
-      <c r="M73" s="30"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="G74" s="9" t="s">
+      <c r="J74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="46"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L74" s="49"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="I75" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" s="46"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L75" s="49"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>40</v>
@@ -4617,24 +4647,24 @@
       <c r="K76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="49"/>
+      <c r="L76" s="46"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="46"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
+      <c r="A77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
       <c r="F77" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>40</v>
@@ -4642,24 +4672,24 @@
       <c r="K77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="49"/>
+      <c r="L77" s="46"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
+      <c r="A78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>40</v>
@@ -4667,24 +4697,24 @@
       <c r="K78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="49"/>
+      <c r="L78" s="46"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
+      <c r="A79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
       <c r="F79" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>40</v>
@@ -4692,24 +4722,24 @@
       <c r="K79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="49"/>
+      <c r="L79" s="46"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
+      <c r="A80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>40</v>
@@ -4717,24 +4747,24 @@
       <c r="K80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="49"/>
+      <c r="L80" s="46"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="46"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
+      <c r="A81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>40</v>
@@ -4742,24 +4772,24 @@
       <c r="K81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="49"/>
+      <c r="L81" s="46"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="46"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
+      <c r="A82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
       <c r="F82" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>40</v>
@@ -4767,24 +4797,24 @@
       <c r="K82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="49"/>
+      <c r="L82" s="46"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="46"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
+      <c r="A83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
       <c r="F83" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>40</v>
@@ -4792,24 +4822,24 @@
       <c r="K83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="49"/>
+      <c r="L83" s="46"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="46"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
+      <c r="A84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
       <c r="F84" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>40</v>
@@ -4817,24 +4847,24 @@
       <c r="K84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="49"/>
+      <c r="L84" s="46"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="46"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
+      <c r="A85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>40</v>
@@ -4842,24 +4872,24 @@
       <c r="K85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="49"/>
+      <c r="L85" s="46"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="46"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
+      <c r="A86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
       <c r="F86" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>40</v>
@@ -4867,24 +4897,24 @@
       <c r="K86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="49"/>
+      <c r="L86" s="46"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="46"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
+      <c r="A87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
       <c r="F87" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>40</v>
@@ -4892,24 +4922,24 @@
       <c r="K87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="49"/>
+      <c r="L87" s="46"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="46"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="46"/>
-      <c r="E88" s="46"/>
+      <c r="A88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
       <c r="F88" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>40</v>
@@ -4917,24 +4947,24 @@
       <c r="K88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="49"/>
+      <c r="L88" s="46"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="46"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
+      <c r="A89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
       <c r="F89" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>40</v>
@@ -4942,24 +4972,24 @@
       <c r="K89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="49"/>
+      <c r="L89" s="46"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
+      <c r="A90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
       <c r="F90" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>40</v>
@@ -4967,24 +4997,24 @@
       <c r="K90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="49"/>
+      <c r="L90" s="46"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="46"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
+      <c r="A91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
       <c r="F91" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>40</v>
@@ -4992,24 +5022,24 @@
       <c r="K91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="49"/>
+      <c r="L91" s="46"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="46"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
+      <c r="A92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
       <c r="F92" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>40</v>
@@ -5017,24 +5047,24 @@
       <c r="K92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L92" s="49"/>
+      <c r="L92" s="46"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="46"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
+      <c r="A93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
       <c r="F93" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>40</v>
@@ -5042,24 +5072,24 @@
       <c r="K93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L93" s="49"/>
+      <c r="L93" s="46"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="46"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
+      <c r="A94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
       <c r="F94" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>40</v>
@@ -5067,10 +5097,10 @@
       <c r="K94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L94" s="49"/>
+      <c r="L94" s="46"/>
     </row>
     <row r="95" spans="1:13" s="35" customFormat="1">
-      <c r="A95" s="46"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="32" t="s">
         <v>105</v>
       </c>
@@ -5094,22 +5124,38 @@
     </row>
     <row r="101" spans="11:11">
       <c r="K101" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D63:D94"/>
-    <mergeCell ref="E63:E94"/>
-    <mergeCell ref="L63:L94"/>
-    <mergeCell ref="L53:L57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="L43:L51"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
     <mergeCell ref="A63:A95"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
@@ -5126,33 +5172,17 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C63:C94"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="L43:L51"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="D63:D94"/>
+    <mergeCell ref="E63:E94"/>
+    <mergeCell ref="L63:L94"/>
+    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="C58:C62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5173,13 +5203,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" thickBot="1">
       <c r="A1" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>323</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
@@ -5187,10 +5217,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>325</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29.25" thickBot="1">
@@ -5198,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>327</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" thickBot="1">
@@ -5209,10 +5239,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>329</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.75" thickBot="1">
@@ -5220,10 +5250,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>331</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.75" thickBot="1">
@@ -5231,10 +5261,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>333</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" thickBot="1">
@@ -5242,10 +5272,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>335</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" thickBot="1">
@@ -5253,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>337</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="100.5" thickBot="1">
@@ -5264,10 +5294,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>339</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29.25" thickBot="1">
@@ -5275,10 +5305,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>341</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29.25" thickBot="1">
@@ -5286,10 +5316,10 @@
         <v>101</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>343</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" thickBot="1">
@@ -5297,10 +5327,10 @@
         <v>102</v>
       </c>
       <c r="B12" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>345</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" thickBot="1">
@@ -5308,10 +5338,10 @@
         <v>103</v>
       </c>
       <c r="B13" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>347</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29.25" thickBot="1">
@@ -5319,10 +5349,10 @@
         <v>104</v>
       </c>
       <c r="B14" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>349</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.5" thickBot="1">
@@ -5330,10 +5360,10 @@
         <v>105</v>
       </c>
       <c r="B15" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>351</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.75" thickBot="1">
@@ -5341,10 +5371,10 @@
         <v>106</v>
       </c>
       <c r="B16" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>353</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72" thickBot="1">
@@ -5352,10 +5382,10 @@
         <v>107</v>
       </c>
       <c r="B17" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>355</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.25" thickBot="1">
@@ -5363,10 +5393,10 @@
         <v>108</v>
       </c>
       <c r="B18" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>357</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.5" thickBot="1">
@@ -5374,10 +5404,10 @@
         <v>109</v>
       </c>
       <c r="B19" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>359</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" thickBot="1">
@@ -5385,10 +5415,10 @@
         <v>110</v>
       </c>
       <c r="B20" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>361</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="43.5" thickBot="1">
@@ -5396,10 +5426,10 @@
         <v>111</v>
       </c>
       <c r="B21" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>363</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.5" thickBot="1">
@@ -5407,10 +5437,10 @@
         <v>112</v>
       </c>
       <c r="B22" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>365</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29.25" thickBot="1">
@@ -5418,10 +5448,10 @@
         <v>114</v>
       </c>
       <c r="B23" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>367</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29.25" thickBot="1">
@@ -5429,10 +5459,10 @@
         <v>210</v>
       </c>
       <c r="B24" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>369</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="57.75" thickBot="1">
@@ -5440,10 +5470,10 @@
         <v>211</v>
       </c>
       <c r="B25" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>371</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.25" thickBot="1">
@@ -5451,10 +5481,10 @@
         <v>212</v>
       </c>
       <c r="B26" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>373</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.5" thickBot="1">
@@ -5462,10 +5492,10 @@
         <v>800</v>
       </c>
       <c r="B27" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>375</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="29.25" thickBot="1">
@@ -5473,10 +5503,10 @@
         <v>801</v>
       </c>
       <c r="B28" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>377</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="72" thickBot="1">
@@ -5484,10 +5514,10 @@
         <v>802</v>
       </c>
       <c r="B29" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>379</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="57.75" thickBot="1">
@@ -5495,10 +5525,10 @@
         <v>803</v>
       </c>
       <c r="B30" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>381</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57.75" thickBot="1">
@@ -5506,10 +5536,10 @@
         <v>804</v>
       </c>
       <c r="B31" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>383</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="86.25" thickBot="1">
@@ -5517,10 +5547,10 @@
         <v>805</v>
       </c>
       <c r="B32" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" s="41" t="s">
         <v>385</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.5" thickBot="1">
@@ -5528,10 +5558,10 @@
         <v>900</v>
       </c>
       <c r="B33" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" s="42" t="s">
         <v>387</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="129" thickBot="1">
@@ -5539,10 +5569,10 @@
         <v>950</v>
       </c>
       <c r="B34" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C34" s="41" t="s">
         <v>389</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="100.5" thickBot="1">
@@ -5550,10 +5580,10 @@
         <v>951</v>
       </c>
       <c r="B35" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>391</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="86.25" thickBot="1">
@@ -5561,10 +5591,10 @@
         <v>952</v>
       </c>
       <c r="B36" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>393</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="72" thickBot="1">
@@ -5572,10 +5602,10 @@
         <v>953</v>
       </c>
       <c r="B37" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" s="42" t="s">
         <v>395</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D60B69-E5BC-4361-8C06-DEBC7DB73272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C7FCC-9CFF-4E9F-92AA-9DCE6CDC3A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="406">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,6 +1590,10 @@
 制备中producting
 检测中testing
 查看报告report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得所有报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1715,7 +1719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1800,9 +1804,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1844,18 +1845,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1863,6 +1852,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1888,14 +1895,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>36945</xdr:rowOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>36946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1932,13 +1939,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>17896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1976,14 +1983,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>65522</xdr:rowOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>65521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2020,13 +2027,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2064,13 +2071,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2108,13 +2115,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2152,14 +2159,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>141720</xdr:rowOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2196,13 +2203,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2502,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2561,16 +2568,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="28" t="s">
@@ -2594,16 +2601,16 @@
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="47" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="28" t="s">
         <v>12</v>
       </c>
@@ -2625,14 +2632,14 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="48"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="28" t="s">
         <v>12</v>
       </c>
@@ -2654,14 +2661,14 @@
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="48"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="28" t="s">
         <v>12</v>
       </c>
@@ -2683,20 +2690,20 @@
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="49" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="28" t="s">
@@ -2720,16 +2727,16 @@
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="47" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="28" t="s">
         <v>12</v>
       </c>
@@ -2751,13 +2758,13 @@
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="48"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2788,19 +2795,19 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2821,17 +2828,17 @@
       <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="47" t="s">
         <v>130</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2850,15 +2857,15 @@
       <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="48"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2877,15 +2884,15 @@
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="48"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2904,20 +2911,20 @@
       <c r="K12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="48"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="49" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -2941,16 +2948,16 @@
       <c r="K13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="47" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="44"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="28" t="s">
         <v>12</v>
       </c>
@@ -2972,14 +2979,14 @@
       <c r="K14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="48"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="44"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="28" t="s">
         <v>12</v>
       </c>
@@ -2997,15 +3004,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="48"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="44" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -3026,15 +3033,15 @@
       <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="48"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="44"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3053,15 +3060,15 @@
       <c r="K17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="48"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="44"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="44"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3080,15 +3087,15 @@
       <c r="K18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="44"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="44"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3107,15 +3114,15 @@
       <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="48"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="44"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="44" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="48" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -3136,15 +3143,15 @@
       <c r="K20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="48"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="44"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="44"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3163,25 +3170,25 @@
       <c r="K21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="48"/>
+      <c r="L21" s="47"/>
       <c r="M21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="48" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3202,17 +3209,17 @@
       <c r="K22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="L22" s="47" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="44"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3231,15 +3238,15 @@
       <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="48"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="44"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3258,15 +3265,15 @@
       <c r="K24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="48"/>
+      <c r="L24" s="47"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="44"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3285,15 +3292,15 @@
       <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="48"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="44"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3312,17 +3319,17 @@
       <c r="K26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="44"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3341,14 +3348,14 @@
       <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="48"/>
+      <c r="L27" s="47"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="44"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3367,14 +3374,14 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="48"/>
+      <c r="L28" s="47"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="44"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3393,17 +3400,17 @@
       <c r="K29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="48"/>
+      <c r="L29" s="47"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="49" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="28" t="s">
@@ -3426,10 +3433,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="28" t="s">
         <v>12</v>
       </c>
@@ -3450,11 +3457,11 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="44" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="48" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3474,11 +3481,11 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="44"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3496,11 +3503,11 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="44"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3518,11 +3525,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="44"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="22" t="s">
         <v>170</v>
       </c>
@@ -3546,11 +3553,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="44"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="22" t="s">
         <v>173</v>
       </c>
@@ -3577,11 +3584,11 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="44"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="47"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
@@ -3597,7 +3604,7 @@
       <c r="K37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L37" s="31" t="s">
+      <c r="L37" s="30" t="s">
         <v>317</v>
       </c>
       <c r="M37" s="9" t="s">
@@ -3606,17 +3613,17 @@
     </row>
     <row r="38" spans="1:13" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="49" t="s">
         <v>318</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="36" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="9" t="s">
@@ -3634,22 +3641,22 @@
       <c r="K38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="48" t="s">
+      <c r="L38" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="M38" s="50" t="s">
+      <c r="M38" s="45" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="39" customFormat="1" ht="42.75">
-      <c r="A39" s="38"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="38" t="s">
+    <row r="39" spans="1:13" s="38" customFormat="1" ht="42.75">
+      <c r="A39" s="37"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="36" t="s">
         <v>320</v>
       </c>
       <c r="G39" s="9" t="s">
@@ -3667,11 +3674,11 @@
       <c r="K39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="48"/>
-      <c r="M39" s="51"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="46"/>
     </row>
     <row r="40" spans="1:13" ht="28.5">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="48" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3700,7 +3707,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="71.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="17" t="s">
         <v>210</v>
       </c>
@@ -3736,7 +3743,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15">
-      <c r="A42" s="44"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="25" t="s">
         <v>211</v>
       </c>
@@ -3746,17 +3753,17 @@
       <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="48" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -3777,7 +3784,7 @@
       <c r="K43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="50" t="s">
         <v>223</v>
       </c>
       <c r="M43" s="9" t="s">
@@ -3785,11 +3792,11 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="18" t="s">
         <v>112</v>
       </c>
@@ -3808,14 +3815,14 @@
       <c r="K44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="46"/>
+      <c r="L44" s="50"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="18" t="s">
         <v>111</v>
       </c>
@@ -3834,14 +3841,14 @@
       <c r="K45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="46"/>
+      <c r="L45" s="50"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="9" t="s">
         <v>114</v>
       </c>
@@ -3860,14 +3867,14 @@
       <c r="K46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="46"/>
+      <c r="L46" s="50"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="9" t="s">
         <v>113</v>
       </c>
@@ -3886,14 +3893,14 @@
       <c r="K47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="46"/>
+      <c r="L47" s="50"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="9" t="s">
         <v>116</v>
       </c>
@@ -3912,14 +3919,14 @@
       <c r="K48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="46"/>
+      <c r="L48" s="50"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="9" t="s">
         <v>92</v>
       </c>
@@ -3938,14 +3945,14 @@
       <c r="K49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="46"/>
+      <c r="L49" s="50"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="9" t="s">
         <v>197</v>
       </c>
@@ -3964,14 +3971,14 @@
       <c r="K50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="46"/>
+      <c r="L50" s="50"/>
     </row>
     <row r="51" spans="1:13" ht="99.75">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="9" t="s">
         <v>181</v>
       </c>
@@ -3990,17 +3997,17 @@
       <c r="K51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L51" s="46"/>
+      <c r="L51" s="50"/>
       <c r="M51" s="27" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="9" t="s">
         <v>399</v>
       </c>
@@ -4019,15 +4026,15 @@
       <c r="K52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L52" s="36"/>
+      <c r="L52" s="35"/>
     </row>
     <row r="53" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="47" t="s">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="49" t="s">
         <v>202</v>
       </c>
       <c r="E53" s="28" t="s">
@@ -4042,10 +4049,10 @@
       <c r="H53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="43" t="b">
+      <c r="I53" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="L53" s="46" t="s">
+      <c r="L53" s="50" t="s">
         <v>222</v>
       </c>
       <c r="M53" s="27" t="s">
@@ -4053,11 +4060,11 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="49" t="s">
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -4078,14 +4085,14 @@
       <c r="K54" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L54" s="46"/>
+      <c r="L54" s="50"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="49"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="9" t="s">
         <v>215</v>
       </c>
@@ -4104,14 +4111,14 @@
       <c r="K55" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L55" s="46"/>
+      <c r="L55" s="50"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="49"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="9" t="s">
         <v>203</v>
       </c>
@@ -4130,14 +4137,14 @@
       <c r="K56" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L56" s="46"/>
+      <c r="L56" s="50"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="49"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="9" t="s">
         <v>219</v>
       </c>
@@ -4156,17 +4163,17 @@
       <c r="K57" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L57" s="46"/>
+      <c r="L57" s="50"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="49" t="s">
         <v>194</v>
       </c>
       <c r="E58" s="28" t="s">
@@ -4192,11 +4199,11 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="44" t="s">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="48" t="s">
         <v>195</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -4219,11 +4226,11 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="44"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="9" t="s">
         <v>157</v>
       </c>
@@ -4241,11 +4248,11 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="44"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="9" t="s">
         <v>189</v>
       </c>
@@ -4263,11 +4270,11 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="44"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="48"/>
       <c r="F62" s="9" t="s">
         <v>191</v>
       </c>
@@ -4285,19 +4292,19 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E63" s="48" t="s">
         <v>300</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -4318,15 +4325,16 @@
       <c r="K63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="45" t="s">
+      <c r="L63" s="51" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
       <c r="F64" s="9" t="s">
         <v>231</v>
       </c>
@@ -4345,13 +4353,14 @@
       <c r="K64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="46"/>
+      <c r="L64" s="50"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="9" t="s">
         <v>232</v>
       </c>
@@ -4370,13 +4379,14 @@
       <c r="K65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L65" s="46"/>
+      <c r="L65" s="50"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
       <c r="F66" s="9" t="s">
         <v>233</v>
       </c>
@@ -4395,13 +4405,14 @@
       <c r="K66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="46"/>
+      <c r="L66" s="50"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="9" t="s">
         <v>234</v>
       </c>
@@ -4420,13 +4431,14 @@
       <c r="K67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L67" s="46"/>
+      <c r="L67" s="50"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
       <c r="F68" s="9" t="s">
         <v>244</v>
       </c>
@@ -4445,13 +4457,14 @@
       <c r="K68" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="46"/>
+      <c r="L68" s="50"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="9" t="s">
         <v>235</v>
       </c>
@@ -4470,13 +4483,14 @@
       <c r="K69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L69" s="46"/>
+      <c r="L69" s="50"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
       <c r="F70" s="9" t="s">
         <v>236</v>
       </c>
@@ -4495,13 +4509,14 @@
       <c r="K70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L70" s="46"/>
+      <c r="L70" s="50"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="9" t="s">
         <v>251</v>
       </c>
@@ -4520,13 +4535,14 @@
       <c r="K71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L71" s="46"/>
+      <c r="L71" s="50"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
       <c r="F72" s="9" t="s">
         <v>265</v>
       </c>
@@ -4545,24 +4561,24 @@
       <c r="K72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L72" s="46"/>
+      <c r="L72" s="50"/>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1">
-      <c r="A73" s="44"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="30" t="s">
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="G73" s="30" t="s">
+      <c r="G73" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H73" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="I73" s="30" t="s">
+      <c r="I73" s="29" t="s">
         <v>302</v>
       </c>
       <c r="J73" s="9" t="s">
@@ -4571,14 +4587,15 @@
       <c r="K73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L73" s="46"/>
-      <c r="M73" s="30"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="29"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
       <c r="F74" s="9" t="s">
         <v>258</v>
       </c>
@@ -4597,13 +4614,14 @@
       <c r="K74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L74" s="46"/>
+      <c r="L74" s="50"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
       <c r="F75" s="9" t="s">
         <v>260</v>
       </c>
@@ -4622,13 +4640,14 @@
       <c r="K75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="46"/>
+      <c r="L75" s="50"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
       <c r="F76" s="9" t="s">
         <v>263</v>
       </c>
@@ -4647,13 +4666,14 @@
       <c r="K76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="46"/>
+      <c r="L76" s="50"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
       <c r="F77" s="9" t="s">
         <v>266</v>
       </c>
@@ -4672,13 +4692,14 @@
       <c r="K77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="46"/>
+      <c r="L77" s="50"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
       <c r="F78" s="9" t="s">
         <v>267</v>
       </c>
@@ -4697,13 +4718,14 @@
       <c r="K78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="46"/>
+      <c r="L78" s="50"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
       <c r="F79" s="9" t="s">
         <v>268</v>
       </c>
@@ -4722,13 +4744,14 @@
       <c r="K79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="46"/>
+      <c r="L79" s="50"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
       <c r="F80" s="9" t="s">
         <v>269</v>
       </c>
@@ -4747,13 +4770,14 @@
       <c r="K80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="46"/>
+      <c r="L80" s="50"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
       <c r="F81" s="9" t="s">
         <v>270</v>
       </c>
@@ -4772,13 +4796,14 @@
       <c r="K81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="46"/>
+      <c r="L81" s="50"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
       <c r="F82" s="9" t="s">
         <v>271</v>
       </c>
@@ -4797,13 +4822,14 @@
       <c r="K82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="46"/>
+      <c r="L82" s="50"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
       <c r="F83" s="9" t="s">
         <v>272</v>
       </c>
@@ -4822,13 +4848,14 @@
       <c r="K83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="46"/>
+      <c r="L83" s="50"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
       <c r="F84" s="9" t="s">
         <v>273</v>
       </c>
@@ -4847,13 +4874,14 @@
       <c r="K84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="46"/>
+      <c r="L84" s="50"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
       <c r="F85" s="9" t="s">
         <v>274</v>
       </c>
@@ -4872,13 +4900,14 @@
       <c r="K85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="46"/>
+      <c r="L85" s="50"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
       <c r="F86" s="9" t="s">
         <v>275</v>
       </c>
@@ -4897,13 +4926,14 @@
       <c r="K86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="46"/>
+      <c r="L86" s="50"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
       <c r="F87" s="9" t="s">
         <v>276</v>
       </c>
@@ -4922,13 +4952,14 @@
       <c r="K87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="46"/>
+      <c r="L87" s="50"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
       <c r="F88" s="9" t="s">
         <v>277</v>
       </c>
@@ -4947,13 +4978,14 @@
       <c r="K88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="46"/>
+      <c r="L88" s="50"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
       <c r="F89" s="9" t="s">
         <v>278</v>
       </c>
@@ -4972,13 +5004,14 @@
       <c r="K89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="46"/>
+      <c r="L89" s="50"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
+      <c r="A90" s="48"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
       <c r="F90" s="9" t="s">
         <v>279</v>
       </c>
@@ -4997,13 +5030,14 @@
       <c r="K90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="46"/>
+      <c r="L90" s="50"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
       <c r="F91" s="9" t="s">
         <v>280</v>
       </c>
@@ -5022,13 +5056,14 @@
       <c r="K91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="46"/>
+      <c r="L91" s="50"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
+      <c r="A92" s="48"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
       <c r="F92" s="9" t="s">
         <v>282</v>
       </c>
@@ -5047,13 +5082,14 @@
       <c r="K92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L92" s="46"/>
+      <c r="L92" s="50"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
       <c r="F93" s="9" t="s">
         <v>281</v>
       </c>
@@ -5072,13 +5108,14 @@
       <c r="K93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L93" s="46"/>
+      <c r="L93" s="50"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
       <c r="F94" s="9" t="s">
         <v>283</v>
       </c>
@@ -5097,43 +5134,54 @@
       <c r="K94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L94" s="46"/>
-    </row>
-    <row r="95" spans="1:13" s="35" customFormat="1">
-      <c r="A95" s="44"/>
-      <c r="B95" s="32" t="s">
+      <c r="L94" s="50"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="48"/>
+      <c r="B95" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="L95" s="44"/>
+    </row>
+    <row r="96" spans="1:13" s="34" customFormat="1">
+      <c r="A96" s="48"/>
+      <c r="B96" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="C96" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D96" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="33" t="s">
+      <c r="E96" s="32"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="M95" s="34"/>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101" s="9" t="s">
+      <c r="M96" s="33"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="9" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
+  <mergeCells count="55">
+    <mergeCell ref="B63:B94"/>
+    <mergeCell ref="D63:D94"/>
+    <mergeCell ref="E63:E94"/>
+    <mergeCell ref="L63:L94"/>
+    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="C58:C62"/>
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="D58:D62"/>
     <mergeCell ref="E59:E62"/>
@@ -5141,22 +5189,13 @@
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="B43:B57"/>
     <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A63:A95"/>
+    <mergeCell ref="L43:L51"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="A63:A96"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D13:D21"/>
@@ -5172,17 +5211,26 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C63:C94"/>
-    <mergeCell ref="L43:L51"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="D63:D94"/>
-    <mergeCell ref="E63:E94"/>
-    <mergeCell ref="L63:L94"/>
-    <mergeCell ref="L53:L57"/>
-    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5196,415 +5244,418 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A3" s="42">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" thickBot="1">
-      <c r="A4" s="41">
+      <c r="A4" s="40">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" thickBot="1">
-      <c r="A7" s="42">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" thickBot="1">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="100.5" thickBot="1">
-      <c r="A9" s="42">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <v>100</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A11" s="42">
+      <c r="A11" s="41">
         <v>101</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" thickBot="1">
-      <c r="A12" s="41">
+      <c r="A12" s="40">
         <v>102</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A13" s="42">
+      <c r="A13" s="41">
         <v>103</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A14" s="41">
+      <c r="A14" s="40">
         <v>104</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A15" s="42">
+      <c r="A15" s="41">
         <v>105</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
         <v>106</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72" thickBot="1">
-      <c r="A17" s="42">
+      <c r="A17" s="41">
         <v>107</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A18" s="41">
+      <c r="A18" s="40">
         <v>108</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A19" s="42">
+      <c r="A19" s="41">
         <v>109</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" thickBot="1">
-      <c r="A20" s="41">
+      <c r="A20" s="40">
         <v>110</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A21" s="42">
+      <c r="A21" s="41">
         <v>111</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A22" s="41">
+      <c r="A22" s="40">
         <v>112</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A23" s="42">
+      <c r="A23" s="41">
         <v>114</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A24" s="41">
+      <c r="A24" s="40">
         <v>210</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A25" s="42">
+      <c r="A25" s="41">
         <v>211</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A26" s="41">
+      <c r="A26" s="40">
         <v>212</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="40" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A27" s="42">
+      <c r="A27" s="41">
         <v>800</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A28" s="41">
+      <c r="A28" s="40">
         <v>801</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="40" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="72" thickBot="1">
-      <c r="A29" s="42">
+      <c r="A29" s="41">
         <v>802</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A30" s="41">
+      <c r="A30" s="40">
         <v>803</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="40" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A31" s="42">
+      <c r="A31" s="41">
         <v>804</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A32" s="41">
+      <c r="A32" s="40">
         <v>805</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A33" s="42">
+      <c r="A33" s="41">
         <v>900</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="41" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="129" thickBot="1">
-      <c r="A34" s="41">
+      <c r="A34" s="40">
         <v>950</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="40" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="100.5" thickBot="1">
-      <c r="A35" s="42">
+      <c r="A35" s="41">
         <v>951</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="41" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A36" s="41">
+      <c r="A36" s="40">
         <v>952</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="40" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="72" thickBot="1">
-      <c r="A37" s="42">
+      <c r="A37" s="41">
         <v>953</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="41" t="s">
         <v>395</v>
       </c>
     </row>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C7FCC-9CFF-4E9F-92AA-9DCE6CDC3A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3F6CC5-CF15-43F4-83C7-817DFFE639DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24405" yWindow="2370" windowWidth="21600" windowHeight="11385" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="429">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1594,6 +1595,106 @@
   </si>
   <si>
     <t>获得所有报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCommonlyAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“李明”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商定如下
+new表示刚下单（无处理button）
+waiting表示等待填写表单
+finished表示报告已经生成（可查）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“new”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID对应的phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“11133333333”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampleiD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“EXP000000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post
+(要求接受一个id
+确认是否为adminId，
+否则返回空值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*更换了url头
+头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
+api为get_all_report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1764,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1685,6 +1786,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,7 +1826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1791,9 +1898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1848,13 +1952,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1862,14 +1972,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1895,14 +2008,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1939,14 +2052,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>17896</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1983,14 +2096,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>65521</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2027,14 +2140,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>75046</xdr:rowOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>75045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2071,13 +2184,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2115,13 +2228,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2159,13 +2272,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2203,13 +2316,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2509,17 +2622,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="E87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95:L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="4" width="20.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="27" customWidth="1"/>
     <col min="6" max="9" width="15.625" style="9" customWidth="1"/>
     <col min="10" max="11" width="9" style="9"/>
     <col min="12" max="12" width="28.625" style="20" customWidth="1"/>
@@ -2539,7 +2652,7 @@
       <c r="D1" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2568,19 +2681,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2601,17 +2714,17 @@
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="52" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="28" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -2632,15 +2745,15 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="47"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="28" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2661,15 +2774,15 @@
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="47"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="28" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2690,23 +2803,23 @@
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="47"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2727,17 +2840,17 @@
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="52" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="28" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -2758,13 +2871,13 @@
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="47"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2795,19 +2908,19 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2828,17 +2941,17 @@
       <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="52" t="s">
         <v>130</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2857,15 +2970,15 @@
       <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="47"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2884,15 +2997,15 @@
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,23 +3024,23 @@
       <c r="K12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="47"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2948,17 +3061,17 @@
       <c r="K13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="52" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="28" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2979,15 +3092,15 @@
       <c r="K14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="28" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -3004,15 +3117,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="47"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="49" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -3033,15 +3146,15 @@
       <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="47"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="48"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3060,15 +3173,15 @@
       <c r="K17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="47"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="48"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3087,15 +3200,15 @@
       <c r="K18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="47"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="48"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3114,15 +3227,15 @@
       <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="47"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="48" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="49" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -3143,15 +3256,15 @@
       <c r="K20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="47"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3170,25 +3283,25 @@
       <c r="K21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="47"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="49" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3209,17 +3322,17 @@
       <c r="K22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="47" t="s">
+      <c r="L22" s="52" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3238,15 +3351,15 @@
       <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="47"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3265,15 +3378,15 @@
       <c r="K24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="47"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="48"/>
+    <row r="25" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3292,15 +3405,15 @@
       <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="47"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="48"/>
+    <row r="26" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3319,17 +3432,17 @@
       <c r="K26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="47"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="48"/>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3348,14 +3461,14 @@
       <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="47"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="48"/>
+      <c r="L27" s="52"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3374,14 +3487,14 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="47"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="48"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3400,20 +3513,20 @@
       <c r="K29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="47"/>
+      <c r="L29" s="52"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>153</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -3431,13 +3544,19 @@
       <c r="J30" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="28" t="s">
+      <c r="K30" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="52" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3455,13 +3574,17 @@
       <c r="J31" s="18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="48" t="s">
+      <c r="K31" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3479,13 +3602,17 @@
       <c r="J32" s="18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="48"/>
+      <c r="K32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="52"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3501,13 +3628,17 @@
       <c r="J33" s="18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="48"/>
+      <c r="K33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="52"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3523,17 +3654,21 @@
       <c r="J34" s="18" t="s">
         <v>149</v>
       </c>
+      <c r="K34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="52"/>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="27" t="s">
         <v>153</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -3553,15 +3688,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="27" t="s">
         <v>153</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -3579,20 +3714,20 @@
       <c r="J36" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="M36" s="27" t="s">
+      <c r="M36" s="26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="27" t="s">
         <v>153</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -3604,7 +3739,7 @@
       <c r="K37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="29" t="s">
         <v>317</v>
       </c>
       <c r="M37" s="9" t="s">
@@ -3613,17 +3748,17 @@
     </row>
     <row r="38" spans="1:13" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49" t="s">
+      <c r="C38" s="50"/>
+      <c r="D38" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="35" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="9" t="s">
@@ -3641,22 +3776,22 @@
       <c r="K38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="47" t="s">
+      <c r="L38" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="M38" s="45" t="s">
+      <c r="M38" s="53" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="38" customFormat="1" ht="42.75">
-      <c r="A39" s="37"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="37" t="s">
+    <row r="39" spans="1:13" s="37" customFormat="1" ht="42.75">
+      <c r="A39" s="36"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="35" t="s">
         <v>320</v>
       </c>
       <c r="G39" s="9" t="s">
@@ -3665,7 +3800,7 @@
       <c r="H39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="26" t="s">
         <v>397</v>
       </c>
       <c r="J39" s="9" t="s">
@@ -3674,11 +3809,11 @@
       <c r="K39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="47"/>
-      <c r="M39" s="46"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="54"/>
     </row>
     <row r="40" spans="1:13" ht="28.5">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="49" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3690,7 +3825,7 @@
       <c r="D40" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="27" t="s">
         <v>73</v>
       </c>
       <c r="J40" s="9" t="s">
@@ -3707,7 +3842,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="71.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="17" t="s">
         <v>210</v>
       </c>
@@ -3717,7 +3852,7 @@
       <c r="D41" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="27" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -3743,27 +3878,27 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15">
-      <c r="A42" s="48"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="46" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="I42" s="18"/>
-      <c r="L42" s="26"/>
+      <c r="L42" s="25"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="49" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -3784,7 +3919,7 @@
       <c r="K43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="50" t="s">
+      <c r="L43" s="47" t="s">
         <v>223</v>
       </c>
       <c r="M43" s="9" t="s">
@@ -3792,11 +3927,11 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="18" t="s">
         <v>112</v>
       </c>
@@ -3815,14 +3950,14 @@
       <c r="K44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="50"/>
+      <c r="L44" s="47"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="18" t="s">
         <v>111</v>
       </c>
@@ -3841,14 +3976,14 @@
       <c r="K45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="50"/>
+      <c r="L45" s="47"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="9" t="s">
         <v>114</v>
       </c>
@@ -3867,14 +4002,14 @@
       <c r="K46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="50"/>
+      <c r="L46" s="47"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="9" t="s">
         <v>113</v>
       </c>
@@ -3893,14 +4028,14 @@
       <c r="K47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="50"/>
+      <c r="L47" s="47"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="9" t="s">
         <v>116</v>
       </c>
@@ -3919,14 +4054,14 @@
       <c r="K48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="50"/>
+      <c r="L48" s="47"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="9" t="s">
         <v>92</v>
       </c>
@@ -3945,14 +4080,14 @@
       <c r="K49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="50"/>
+      <c r="L49" s="47"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="9" t="s">
         <v>197</v>
       </c>
@@ -3971,14 +4106,14 @@
       <c r="K50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="50"/>
+      <c r="L50" s="47"/>
     </row>
     <row r="51" spans="1:13" ht="99.75">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="9" t="s">
         <v>181</v>
       </c>
@@ -3997,17 +4132,17 @@
       <c r="K51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="27" t="s">
+      <c r="L51" s="47"/>
+      <c r="M51" s="26" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="9" t="s">
         <v>399</v>
       </c>
@@ -4026,18 +4161,18 @@
       <c r="K52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L52" s="35"/>
+      <c r="L52" s="34"/>
     </row>
     <row r="53" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -4049,22 +4184,22 @@
       <c r="H53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="42" t="b">
+      <c r="I53" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="L53" s="50" t="s">
+      <c r="L53" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="M53" s="27" t="s">
+      <c r="M53" s="26" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="52" t="s">
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51" t="s">
         <v>221</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -4085,14 +4220,14 @@
       <c r="K54" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L54" s="50"/>
+      <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="52"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="9" t="s">
         <v>215</v>
       </c>
@@ -4111,14 +4246,14 @@
       <c r="K55" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L55" s="50"/>
+      <c r="L55" s="47"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="52"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="9" t="s">
         <v>203</v>
       </c>
@@ -4137,14 +4272,14 @@
       <c r="K56" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L56" s="50"/>
+      <c r="L56" s="47"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="52"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="9" t="s">
         <v>219</v>
       </c>
@@ -4163,20 +4298,20 @@
       <c r="K57" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L57" s="50"/>
+      <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="27" t="s">
         <v>153</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -4194,16 +4329,22 @@
       <c r="J58" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="47" t="s">
+        <v>407</v>
+      </c>
       <c r="M58" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="48" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="49" t="s">
         <v>195</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -4221,16 +4362,20 @@
       <c r="J59" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K59" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L59" s="47"/>
       <c r="M59" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="48"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="9" t="s">
         <v>157</v>
       </c>
@@ -4246,13 +4391,17 @@
       <c r="J60" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L60" s="47"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="48"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="49"/>
       <c r="F61" s="9" t="s">
         <v>189</v>
       </c>
@@ -4268,13 +4417,17 @@
       <c r="J61" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="47"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="48"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="49"/>
       <c r="F62" s="9" t="s">
         <v>191</v>
       </c>
@@ -4290,21 +4443,25 @@
       <c r="J62" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="47"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="49" t="s">
         <v>300</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -4325,16 +4482,16 @@
       <c r="K63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="51" t="s">
+      <c r="L63" s="48" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="9" t="s">
         <v>231</v>
       </c>
@@ -4353,14 +4510,14 @@
       <c r="K64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="50"/>
+      <c r="L64" s="47"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="9" t="s">
         <v>232</v>
       </c>
@@ -4379,14 +4536,14 @@
       <c r="K65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L65" s="50"/>
+      <c r="L65" s="47"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="9" t="s">
         <v>233</v>
       </c>
@@ -4405,14 +4562,14 @@
       <c r="K66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="50"/>
+      <c r="L66" s="47"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="9" t="s">
         <v>234</v>
       </c>
@@ -4431,14 +4588,14 @@
       <c r="K67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L67" s="50"/>
+      <c r="L67" s="47"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="9" t="s">
         <v>244</v>
       </c>
@@ -4457,14 +4614,14 @@
       <c r="K68" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="50"/>
+      <c r="L68" s="47"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
       <c r="F69" s="9" t="s">
         <v>235</v>
       </c>
@@ -4483,14 +4640,14 @@
       <c r="K69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L69" s="50"/>
+      <c r="L69" s="47"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="9" t="s">
         <v>236</v>
       </c>
@@ -4509,14 +4666,14 @@
       <c r="K70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L70" s="50"/>
+      <c r="L70" s="47"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="9" t="s">
         <v>251</v>
       </c>
@@ -4535,14 +4692,14 @@
       <c r="K71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L71" s="50"/>
+      <c r="L71" s="47"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
       <c r="F72" s="9" t="s">
         <v>265</v>
       </c>
@@ -4561,24 +4718,24 @@
       <c r="K72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L72" s="50"/>
+      <c r="L72" s="47"/>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="29" t="s">
+      <c r="A73" s="49"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G73" s="29" t="s">
+      <c r="G73" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="H73" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="I73" s="28" t="s">
         <v>302</v>
       </c>
       <c r="J73" s="9" t="s">
@@ -4587,15 +4744,15 @@
       <c r="K73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L73" s="50"/>
-      <c r="M73" s="29"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="28"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="48"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
       <c r="F74" s="9" t="s">
         <v>258</v>
       </c>
@@ -4614,14 +4771,14 @@
       <c r="K74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L74" s="50"/>
+      <c r="L74" s="47"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="48"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
       <c r="F75" s="9" t="s">
         <v>260</v>
       </c>
@@ -4640,14 +4797,14 @@
       <c r="K75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="50"/>
+      <c r="L75" s="47"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="48"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
       <c r="F76" s="9" t="s">
         <v>263</v>
       </c>
@@ -4666,14 +4823,14 @@
       <c r="K76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="50"/>
+      <c r="L76" s="47"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="48"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
       <c r="F77" s="9" t="s">
         <v>266</v>
       </c>
@@ -4692,14 +4849,14 @@
       <c r="K77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="50"/>
+      <c r="L77" s="47"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="48"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
       <c r="F78" s="9" t="s">
         <v>267</v>
       </c>
@@ -4718,14 +4875,14 @@
       <c r="K78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="50"/>
+      <c r="L78" s="47"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="48"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="9" t="s">
         <v>268</v>
       </c>
@@ -4744,14 +4901,14 @@
       <c r="K79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="50"/>
+      <c r="L79" s="47"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="48"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="9" t="s">
         <v>269</v>
       </c>
@@ -4770,14 +4927,14 @@
       <c r="K80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="50"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="48"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
+      <c r="L80" s="47"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
       <c r="F81" s="9" t="s">
         <v>270</v>
       </c>
@@ -4796,14 +4953,14 @@
       <c r="K81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="50"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="48"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
+      <c r="L81" s="47"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="49"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
       <c r="F82" s="9" t="s">
         <v>271</v>
       </c>
@@ -4822,14 +4979,14 @@
       <c r="K82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="50"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="48"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
+      <c r="L82" s="47"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="49"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
       <c r="F83" s="9" t="s">
         <v>272</v>
       </c>
@@ -4848,14 +5005,14 @@
       <c r="K83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="50"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="48"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
+      <c r="L83" s="47"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="49"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
       <c r="F84" s="9" t="s">
         <v>273</v>
       </c>
@@ -4874,14 +5031,14 @@
       <c r="K84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="50"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="48"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
+      <c r="L84" s="47"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
       <c r="F85" s="9" t="s">
         <v>274</v>
       </c>
@@ -4900,14 +5057,14 @@
       <c r="K85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="50"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="48"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
+      <c r="L85" s="47"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="49"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
       <c r="F86" s="9" t="s">
         <v>275</v>
       </c>
@@ -4926,14 +5083,14 @@
       <c r="K86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="50"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="48"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
+      <c r="L86" s="47"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="49"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="9" t="s">
         <v>276</v>
       </c>
@@ -4952,14 +5109,14 @@
       <c r="K87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="50"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="48"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
+      <c r="L87" s="47"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="49"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
       <c r="F88" s="9" t="s">
         <v>277</v>
       </c>
@@ -4978,14 +5135,14 @@
       <c r="K88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="50"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="48"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
+      <c r="L88" s="47"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="49"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
       <c r="F89" s="9" t="s">
         <v>278</v>
       </c>
@@ -5004,14 +5161,14 @@
       <c r="K89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="50"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="48"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
+      <c r="L89" s="47"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="49"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="9" t="s">
         <v>279</v>
       </c>
@@ -5030,14 +5187,14 @@
       <c r="K90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="50"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="48"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
+      <c r="L90" s="47"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="49"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
       <c r="F91" s="9" t="s">
         <v>280</v>
       </c>
@@ -5056,14 +5213,14 @@
       <c r="K91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="50"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="48"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
+      <c r="L91" s="47"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="49"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
       <c r="F92" s="9" t="s">
         <v>282</v>
       </c>
@@ -5082,14 +5239,14 @@
       <c r="K92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L92" s="50"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="48"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
+      <c r="L92" s="47"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="49"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="9" t="s">
         <v>281</v>
       </c>
@@ -5108,14 +5265,14 @@
       <c r="K93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L93" s="50"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="48"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
+      <c r="L93" s="47"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
       <c r="F94" s="9" t="s">
         <v>283</v>
       </c>
@@ -5134,68 +5291,225 @@
       <c r="K94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L94" s="50"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="48"/>
-      <c r="B95" s="43" t="s">
+      <c r="L94" s="47"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95" s="48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="49"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L96" s="47"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L97" s="47"/>
+    </row>
+    <row r="98" spans="1:13" ht="77.25" customHeight="1">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L98" s="47"/>
+      <c r="M98" s="45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L99" s="47"/>
+    </row>
+    <row r="100" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A100" s="49"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L100" s="47"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="49"/>
+      <c r="B101" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="L95" s="44"/>
-    </row>
-    <row r="96" spans="1:13" s="34" customFormat="1">
-      <c r="A96" s="48"/>
-      <c r="B96" s="31" t="s">
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="L101" s="43"/>
+    </row>
+    <row r="102" spans="1:13" s="33" customFormat="1">
+      <c r="A102" s="49"/>
+      <c r="B102" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C102" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D102" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E96" s="32"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="32" t="s">
+      <c r="E102" s="31"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="M96" s="33"/>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" s="9" t="s">
+      <c r="M102" s="32"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="K108" s="9" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B63:B94"/>
-    <mergeCell ref="D63:D94"/>
+  <mergeCells count="62">
     <mergeCell ref="E63:E94"/>
     <mergeCell ref="L63:L94"/>
     <mergeCell ref="L53:L57"/>
     <mergeCell ref="C58:C62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="L43:L51"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="A63:A96"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A63:A102"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D13:D21"/>
@@ -5211,26 +5525,27 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C63:C94"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="L43:L51"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="L95:L100"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="E95:E100"/>
+    <mergeCell ref="B63:B94"/>
+    <mergeCell ref="D63:D94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5252,410 +5567,410 @@
     <col min="1" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60.75" thickBot="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A1" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
-      <c r="A2" s="40">
+      <c r="A2" s="39">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A3" s="41">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" thickBot="1">
-      <c r="A4" s="40">
+    <row r="4" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A5" s="41">
+    <row r="5" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A6" s="40">
+    <row r="6" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" thickBot="1">
-      <c r="A7" s="41">
+    <row r="7" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A7" s="40">
         <v>5</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" thickBot="1">
-      <c r="A8" s="40">
+    <row r="8" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="100.5" thickBot="1">
-      <c r="A9" s="41">
+    <row r="9" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A9" s="40">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A10" s="40">
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="39">
         <v>100</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A11" s="41">
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="40">
         <v>101</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="72" thickBot="1">
-      <c r="A12" s="40">
+    <row r="12" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A12" s="39">
         <v>102</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A13" s="41">
+    <row r="13" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A13" s="40">
         <v>103</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A14" s="40">
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="39">
         <v>104</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A15" s="41">
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="40">
         <v>105</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A16" s="40">
+    <row r="16" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A16" s="39">
         <v>106</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72" thickBot="1">
-      <c r="A17" s="41">
+    <row r="17" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A17" s="40">
         <v>107</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="40" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A18" s="40">
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="39">
         <v>108</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A19" s="41">
+    <row r="19" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A19" s="40">
         <v>109</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="72" thickBot="1">
-      <c r="A20" s="40">
+    <row r="20" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A20" s="39">
         <v>110</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A21" s="41">
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="40">
         <v>111</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A22" s="40">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
+      <c r="A22" s="39">
         <v>112</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A23" s="41">
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23" s="40">
         <v>114</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A24" s="40">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="39">
         <v>210</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A25" s="41">
+    <row r="25" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A25" s="40">
         <v>211</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A26" s="40">
+    <row r="26" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A26" s="39">
         <v>212</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="39" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A27" s="41">
+    <row r="27" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A27" s="40">
         <v>800</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="40" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A28" s="40">
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="39">
         <v>801</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="72" thickBot="1">
-      <c r="A29" s="41">
+    <row r="29" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A29" s="40">
         <v>802</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="40" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A30" s="40">
+    <row r="30" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A30" s="39">
         <v>803</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A31" s="41">
+    <row r="31" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A31" s="40">
         <v>804</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="40" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A32" s="40">
+    <row r="32" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A32" s="39">
         <v>805</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="39" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A33" s="41">
+    <row r="33" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A33" s="40">
         <v>900</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="40" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="129" thickBot="1">
-      <c r="A34" s="40">
+    <row r="34" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A34" s="39">
         <v>950</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="39" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="100.5" thickBot="1">
-      <c r="A35" s="41">
+    <row r="35" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A35" s="40">
         <v>951</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="40" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A36" s="40">
+    <row r="36" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A36" s="39">
         <v>952</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="39" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="72" thickBot="1">
-      <c r="A37" s="41">
+    <row r="37" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A37" s="40">
         <v>953</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="40" t="s">
         <v>395</v>
       </c>
     </row>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3F6CC5-CF15-43F4-83C7-817DFFE639DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5BC9F2-25AB-4604-B7CD-9EBDF7C97AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24405" yWindow="2370" windowWidth="21600" windowHeight="11385" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="428">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1594,15 +1593,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得所有报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getCommonlyAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPDF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1695,6 +1686,12 @@
     <t>*更换了url头
 头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
 api为get_all_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*更换了url头
+头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
+api为get_pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1826,7 +1823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1946,12 +1943,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1960,29 +1951,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2008,13 +1999,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2052,13 +2043,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2096,13 +2087,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2140,13 +2131,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>75045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2184,13 +2175,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2228,13 +2219,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2272,13 +2263,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2316,13 +2307,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2622,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95:L100"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B101" sqref="A101:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2681,16 +2672,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="27" t="s">
@@ -2714,16 +2705,16 @@
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="51" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="27" t="s">
         <v>12</v>
       </c>
@@ -2745,14 +2736,14 @@
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="52"/>
+      <c r="L3" s="51"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="27" t="s">
         <v>12</v>
       </c>
@@ -2774,14 +2765,14 @@
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="52"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="27" t="s">
         <v>12</v>
       </c>
@@ -2803,20 +2794,20 @@
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="52"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="27" t="s">
@@ -2840,16 +2831,16 @@
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="51" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="27" t="s">
         <v>12</v>
       </c>
@@ -2871,13 +2862,13 @@
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="52"/>
+      <c r="L7" s="51"/>
       <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2908,19 +2899,19 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="45" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2941,17 +2932,17 @@
       <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="51" t="s">
         <v>130</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2970,15 +2961,15 @@
       <c r="K10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="52"/>
+      <c r="L10" s="51"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2997,15 +2988,15 @@
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="52"/>
+      <c r="L11" s="51"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3024,20 +3015,20 @@
       <c r="K12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="52"/>
+      <c r="L12" s="51"/>
       <c r="M12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="27" t="s">
@@ -3061,16 +3052,16 @@
       <c r="K13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="51" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="27" t="s">
         <v>12</v>
       </c>
@@ -3092,14 +3083,14 @@
       <c r="K14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="52"/>
+      <c r="L14" s="51"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="27" t="s">
         <v>12</v>
       </c>
@@ -3117,15 +3108,15 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="52"/>
+      <c r="L15" s="51"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="49" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -3146,15 +3137,15 @@
       <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="52"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="49"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3173,15 +3164,15 @@
       <c r="K17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="52"/>
+      <c r="L17" s="51"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="49"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3200,15 +3191,15 @@
       <c r="K18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="52"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="49"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3227,15 +3218,15 @@
       <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="52"/>
+      <c r="L19" s="51"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="49" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="45" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -3256,15 +3247,15 @@
       <c r="K20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="52"/>
+      <c r="L20" s="51"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3283,25 +3274,25 @@
       <c r="K21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="52"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="45" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3322,17 +3313,17 @@
       <c r="K22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="52" t="s">
+      <c r="L22" s="51" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="49"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3351,15 +3342,15 @@
       <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="52"/>
+      <c r="L23" s="51"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="49"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3378,15 +3369,15 @@
       <c r="K24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="52"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="49"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3405,15 +3396,15 @@
       <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="52"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3432,17 +3423,17 @@
       <c r="K26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="52"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="49"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3461,14 +3452,14 @@
       <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="52"/>
+      <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="49"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3487,14 +3478,14 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="52"/>
+      <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="49"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3513,17 +3504,17 @@
       <c r="K29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="52"/>
+      <c r="L29" s="51"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="27" t="s">
@@ -3544,18 +3535,18 @@
       <c r="J30" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K30" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="52" t="s">
-        <v>406</v>
+      <c r="K30" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="27" t="s">
         <v>12</v>
       </c>
@@ -3574,17 +3565,17 @@
       <c r="J31" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="K31" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="52"/>
+      <c r="K31" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="45" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -3602,17 +3593,17 @@
       <c r="J32" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="K32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="52"/>
+      <c r="K32" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="49"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3628,17 +3619,17 @@
       <c r="J33" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="K33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" s="52"/>
+      <c r="K33" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="49"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3654,17 +3645,17 @@
       <c r="J34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" s="52"/>
+      <c r="K34" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="22" t="s">
         <v>170</v>
       </c>
@@ -3688,11 +3679,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="22" t="s">
         <v>173</v>
       </c>
@@ -3719,11 +3710,11 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
@@ -3748,11 +3739,11 @@
     </row>
     <row r="38" spans="1:13" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="48" t="s">
         <v>318</v>
       </c>
       <c r="E38" s="27" t="s">
@@ -3776,18 +3767,18 @@
       <c r="K38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="52" t="s">
+      <c r="L38" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="M38" s="49" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="37" customFormat="1" ht="42.75">
       <c r="A39" s="36"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="36" t="s">
         <v>319</v>
       </c>
@@ -3809,11 +3800,11 @@
       <c r="K39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="52"/>
-      <c r="M39" s="54"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="50"/>
     </row>
     <row r="40" spans="1:13" ht="28.5">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="45" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3842,7 +3833,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="71.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="17" t="s">
         <v>210</v>
       </c>
@@ -3878,8 +3869,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15">
-      <c r="A42" s="49"/>
-      <c r="B42" s="46" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="44" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="24"/>
@@ -3888,17 +3879,17 @@
       <c r="L42" s="25"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="45" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -3927,11 +3918,11 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="18" t="s">
         <v>112</v>
       </c>
@@ -3953,11 +3944,11 @@
       <c r="L44" s="47"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="18" t="s">
         <v>111</v>
       </c>
@@ -3979,11 +3970,11 @@
       <c r="L45" s="47"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="9" t="s">
         <v>114</v>
       </c>
@@ -4005,11 +3996,11 @@
       <c r="L46" s="47"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="9" t="s">
         <v>113</v>
       </c>
@@ -4031,11 +4022,11 @@
       <c r="L47" s="47"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="9" t="s">
         <v>116</v>
       </c>
@@ -4057,11 +4048,11 @@
       <c r="L48" s="47"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="9" t="s">
         <v>92</v>
       </c>
@@ -4083,11 +4074,11 @@
       <c r="L49" s="47"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
       <c r="F50" s="9" t="s">
         <v>197</v>
       </c>
@@ -4109,11 +4100,11 @@
       <c r="L50" s="47"/>
     </row>
     <row r="51" spans="1:13" ht="99.75">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
       <c r="F51" s="9" t="s">
         <v>181</v>
       </c>
@@ -4138,11 +4129,11 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
       <c r="F52" s="9" t="s">
         <v>399</v>
       </c>
@@ -4164,12 +4155,12 @@
       <c r="L52" s="34"/>
     </row>
     <row r="53" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50" t="s">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="48" t="s">
         <v>202</v>
       </c>
       <c r="E53" s="27" t="s">
@@ -4195,11 +4186,11 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="51" t="s">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -4223,11 +4214,11 @@
       <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="9" t="s">
         <v>215</v>
       </c>
@@ -4249,11 +4240,11 @@
       <c r="L55" s="47"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="51"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="9" t="s">
         <v>203</v>
       </c>
@@ -4275,11 +4266,11 @@
       <c r="L56" s="47"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="51"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="9" t="s">
         <v>219</v>
       </c>
@@ -4301,14 +4292,14 @@
       <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="48" t="s">
         <v>194</v>
       </c>
       <c r="E58" s="27" t="s">
@@ -4332,19 +4323,19 @@
       <c r="K58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L58" s="47" t="s">
-        <v>407</v>
+      <c r="L58" s="46" t="s">
+        <v>427</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="49" t="s">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="45" t="s">
         <v>195</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -4371,11 +4362,11 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="49"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="45"/>
       <c r="F60" s="9" t="s">
         <v>157</v>
       </c>
@@ -4397,11 +4388,11 @@
       <c r="L60" s="47"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="49"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="45"/>
       <c r="F61" s="9" t="s">
         <v>189</v>
       </c>
@@ -4423,11 +4414,11 @@
       <c r="L61" s="47"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="49"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="45"/>
       <c r="F62" s="9" t="s">
         <v>191</v>
       </c>
@@ -4449,19 +4440,19 @@
       <c r="L62" s="47"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="45" t="s">
         <v>300</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -4482,16 +4473,16 @@
       <c r="K63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="48" t="s">
+      <c r="L63" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
       <c r="F64" s="9" t="s">
         <v>231</v>
       </c>
@@ -4513,11 +4504,11 @@
       <c r="L64" s="47"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="49"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
       <c r="F65" s="9" t="s">
         <v>232</v>
       </c>
@@ -4539,11 +4530,11 @@
       <c r="L65" s="47"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
       <c r="F66" s="9" t="s">
         <v>233</v>
       </c>
@@ -4565,11 +4556,11 @@
       <c r="L66" s="47"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
       <c r="F67" s="9" t="s">
         <v>234</v>
       </c>
@@ -4591,11 +4582,11 @@
       <c r="L67" s="47"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
       <c r="F68" s="9" t="s">
         <v>244</v>
       </c>
@@ -4617,11 +4608,11 @@
       <c r="L68" s="47"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="49"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
       <c r="F69" s="9" t="s">
         <v>235</v>
       </c>
@@ -4643,11 +4634,11 @@
       <c r="L69" s="47"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
       <c r="F70" s="9" t="s">
         <v>236</v>
       </c>
@@ -4669,11 +4660,11 @@
       <c r="L70" s="47"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
       <c r="F71" s="9" t="s">
         <v>251</v>
       </c>
@@ -4695,11 +4686,11 @@
       <c r="L71" s="47"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
       <c r="F72" s="9" t="s">
         <v>265</v>
       </c>
@@ -4721,11 +4712,11 @@
       <c r="L72" s="47"/>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1">
-      <c r="A73" s="49"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
       <c r="F73" s="28" t="s">
         <v>256</v>
       </c>
@@ -4748,11 +4739,11 @@
       <c r="M73" s="28"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
       <c r="F74" s="9" t="s">
         <v>258</v>
       </c>
@@ -4774,11 +4765,11 @@
       <c r="L74" s="47"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
       <c r="F75" s="9" t="s">
         <v>260</v>
       </c>
@@ -4800,11 +4791,11 @@
       <c r="L75" s="47"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
       <c r="F76" s="9" t="s">
         <v>263</v>
       </c>
@@ -4826,11 +4817,11 @@
       <c r="L76" s="47"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
       <c r="F77" s="9" t="s">
         <v>266</v>
       </c>
@@ -4852,11 +4843,11 @@
       <c r="L77" s="47"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
       <c r="F78" s="9" t="s">
         <v>267</v>
       </c>
@@ -4878,11 +4869,11 @@
       <c r="L78" s="47"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
       <c r="F79" s="9" t="s">
         <v>268</v>
       </c>
@@ -4904,11 +4895,11 @@
       <c r="L79" s="47"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
       <c r="F80" s="9" t="s">
         <v>269</v>
       </c>
@@ -4930,11 +4921,11 @@
       <c r="L80" s="47"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="9" t="s">
         <v>270</v>
       </c>
@@ -4956,11 +4947,11 @@
       <c r="L81" s="47"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
       <c r="F82" s="9" t="s">
         <v>271</v>
       </c>
@@ -4982,11 +4973,11 @@
       <c r="L82" s="47"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
       <c r="F83" s="9" t="s">
         <v>272</v>
       </c>
@@ -5008,11 +4999,11 @@
       <c r="L83" s="47"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
       <c r="F84" s="9" t="s">
         <v>273</v>
       </c>
@@ -5034,11 +5025,11 @@
       <c r="L84" s="47"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
       <c r="F85" s="9" t="s">
         <v>274</v>
       </c>
@@ -5060,11 +5051,11 @@
       <c r="L85" s="47"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
       <c r="F86" s="9" t="s">
         <v>275</v>
       </c>
@@ -5086,11 +5077,11 @@
       <c r="L86" s="47"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
       <c r="F87" s="9" t="s">
         <v>276</v>
       </c>
@@ -5112,11 +5103,11 @@
       <c r="L87" s="47"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
       <c r="F88" s="9" t="s">
         <v>277</v>
       </c>
@@ -5138,11 +5129,11 @@
       <c r="L88" s="47"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
       <c r="F89" s="9" t="s">
         <v>278</v>
       </c>
@@ -5164,11 +5155,11 @@
       <c r="L89" s="47"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
       <c r="F90" s="9" t="s">
         <v>279</v>
       </c>
@@ -5190,11 +5181,11 @@
       <c r="L90" s="47"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
       <c r="F91" s="9" t="s">
         <v>280</v>
       </c>
@@ -5216,11 +5207,11 @@
       <c r="L91" s="47"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
       <c r="F92" s="9" t="s">
         <v>282</v>
       </c>
@@ -5242,11 +5233,11 @@
       <c r="L92" s="47"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="49"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
       <c r="F93" s="9" t="s">
         <v>281</v>
       </c>
@@ -5268,11 +5259,11 @@
       <c r="L93" s="47"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
       <c r="F94" s="9" t="s">
         <v>283</v>
       </c>
@@ -5294,18 +5285,18 @@
       <c r="L94" s="47"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="45"/>
+      <c r="B95" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="E95" s="45" t="s">
         <v>408</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>409</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>410</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>213</v>
@@ -5322,47 +5313,53 @@
       <c r="J95" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L95" s="48" t="s">
-        <v>428</v>
+      <c r="K95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95" s="46" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
       <c r="F96" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="H96" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="I96" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="J96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L96" s="47"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="J96" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L96" s="47"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="49"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="H97" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>199</v>
@@ -5370,146 +5367,142 @@
       <c r="J97" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K97" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="L97" s="47"/>
     </row>
     <row r="98" spans="1:13" ht="77.25" customHeight="1">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
       <c r="F98" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L98" s="47"/>
+      <c r="M98" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="G98" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="I98" s="9" t="s">
+    </row>
+    <row r="99" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G99" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="J98" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L98" s="47"/>
-      <c r="M98" s="45" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="9" t="s">
+      <c r="H99" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="I99" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="J99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L99" s="47"/>
+    </row>
+    <row r="100" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="I99" s="9" t="s">
+      <c r="G100" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L99" s="47"/>
-    </row>
-    <row r="100" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A100" s="49"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="9" t="s">
+      <c r="H100" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="I100" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="G100" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>426</v>
-      </c>
       <c r="J100" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="K100" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="L100" s="47"/>
     </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="49"/>
-      <c r="B101" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="L101" s="43"/>
-    </row>
-    <row r="102" spans="1:13" s="33" customFormat="1">
-      <c r="A102" s="49"/>
-      <c r="B102" s="30" t="s">
+    <row r="101" spans="1:13" s="33" customFormat="1">
+      <c r="A101" s="45"/>
+      <c r="B101" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C101" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D101" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="31" t="s">
+      <c r="E101" s="31"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="M102" s="32"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="K108" s="9" t="s">
+      <c r="M101" s="32"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="K107" s="9" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="E63:E94"/>
-    <mergeCell ref="L63:L94"/>
-    <mergeCell ref="L53:L57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A63:A102"/>
+    <mergeCell ref="L95:L100"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="E95:E100"/>
+    <mergeCell ref="B63:B94"/>
+    <mergeCell ref="D63:D94"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L21"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="A63:A101"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D13:D21"/>
@@ -5525,27 +5518,33 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C63:C94"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E63:E94"/>
+    <mergeCell ref="L63:L94"/>
+    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="E43:E52"/>
     <mergeCell ref="L43:L51"/>
     <mergeCell ref="L58:L62"/>
-    <mergeCell ref="L95:L100"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="E95:E100"/>
-    <mergeCell ref="B63:B94"/>
-    <mergeCell ref="D63:D94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5BC9F2-25AB-4604-B7CD-9EBDF7C97AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74AFD04-91A7-483A-ABDC-F4629AD76FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="433">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1676,13 +1676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post
-(要求接受一个id
-确认是否为adminId，
-否则返回空值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*更换了url头
 头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
 api为get_all_report</t>
@@ -1692,6 +1685,31 @@
     <t>*更换了url头
 头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
 api为get_pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递参数及说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter(dict)
+通用域anyfield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort/property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort/direction(DESC/ASC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1823,7 +1841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1954,6 +1972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1961,19 +1982,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1997,13 +2021,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>36945</xdr:rowOff>
@@ -2047,8 +2071,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>313130</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1122755</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
@@ -2091,8 +2115,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>313130</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1122755</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
@@ -2129,13 +2153,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
       <xdr:row>164</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
       <xdr:row>195</xdr:row>
       <xdr:rowOff>75045</xdr:rowOff>
@@ -2179,8 +2203,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>313130</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1122755</xdr:colOff>
       <xdr:row>219</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
@@ -2217,13 +2241,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>214</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
       <xdr:row>244</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
@@ -2267,8 +2291,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>313130</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1122755</xdr:colOff>
       <xdr:row>270</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
@@ -2305,13 +2329,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
       <xdr:row>265</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
       <xdr:row>295</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
@@ -2613,24 +2637,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B101" sqref="A101:XFD101"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="4" width="20.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="27" customWidth="1"/>
-    <col min="6" max="9" width="15.625" style="9" customWidth="1"/>
-    <col min="10" max="11" width="9" style="9"/>
-    <col min="12" max="12" width="28.625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="47" style="9" customWidth="1"/>
+    <col min="2" max="5" width="20.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="27" customWidth="1"/>
+    <col min="7" max="10" width="15.625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="28.625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="47" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1">
+    <row r="1" spans="1:14" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
@@ -2643,232 +2667,241 @@
       <c r="D1" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="6" t="b">
+      <c r="J2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="27" t="s">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6" t="b">
+      <c r="J3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="27" t="s">
+      <c r="L3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="27" t="s">
+      <c r="L4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="J5" s="6" t="b">
         <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="J6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="27" t="s">
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="52"/>
+      <c r="N7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="28.5">
+      <c r="A8" s="49"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2878,933 +2911,965 @@
       <c r="D8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
+      <c r="A9" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="M9" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="49"/>
+      <c r="G11" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="L11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="52"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="52"/>
+      <c r="N12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48" t="s">
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="51" t="s">
+      <c r="K13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="27" t="s">
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="45"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="27" t="s">
+      <c r="K14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="52"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="J15" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="45"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="45" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="45"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="6" t="s">
+      <c r="M16" s="52"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="45"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="6" t="s">
+      <c r="M17" s="52"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="6" t="s">
+      <c r="M18" s="52"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="10">
+      <c r="J19" s="10">
         <v>100</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="45"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="45" t="s">
+      <c r="M19" s="52"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="6" t="s">
+      <c r="M20" s="52"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="52"/>
+      <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A22" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="51" t="s">
+      <c r="K22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="7" t="s">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="9" t="s">
+      <c r="K23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="52"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="9" t="s">
+      <c r="K24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="52"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="9" t="s">
+      <c r="K25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="52"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="11" t="s">
+      <c r="K26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="52"/>
+      <c r="N26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="9" t="s">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="10">
+      <c r="J27" s="10">
         <v>100</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="51"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="9" t="s">
+      <c r="K27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="52"/>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="9">
+      <c r="J28" s="9">
         <v>2</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" s="51"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="9" t="s">
+      <c r="K28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="52"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="9">
+      <c r="J29" s="9">
         <v>200</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" s="51"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45" t="s">
+      <c r="K29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="52"/>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="J30" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="K30" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K30" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="52" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="27" t="s">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="K31" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="K31" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="51"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="45" t="s">
+      <c r="L31" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="52"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="K32" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="K32" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="51"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="9" t="s">
+      <c r="L32" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="52"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="K33" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="K33" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" s="51"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="9" t="s">
+      <c r="L33" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="52"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="K34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" s="51"/>
-    </row>
-    <row r="35" spans="1:13" ht="57">
-      <c r="A35" s="45"/>
+      <c r="L34" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="52"/>
+    </row>
+    <row r="35" spans="1:14" ht="57">
+      <c r="A35" s="49"/>
       <c r="B35" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I35" s="18" t="b">
+      <c r="J35" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="K35" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="57">
-      <c r="A36" s="45"/>
+    <row r="36" spans="1:14" ht="57">
+      <c r="A36" s="49"/>
       <c r="B36" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="46"/>
+      <c r="F36" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="18" t="b">
+      <c r="J36" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="K36" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="M36" s="26" t="s">
+      <c r="N36" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="28.5">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:14" ht="28.5">
+      <c r="A37" s="49"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="48"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="46"/>
+      <c r="F37" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L37" s="29" t="s">
+      <c r="L37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="N37" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="57" customHeight="1">
+    <row r="38" spans="1:14" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48" t="s">
+      <c r="C38" s="50"/>
+      <c r="D38" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="G38" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="18" t="b">
+      <c r="J38" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="51" t="s">
+      <c r="L38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="M38" s="49" t="s">
+      <c r="N38" s="53" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="37" customFormat="1" ht="42.75">
+    <row r="39" spans="1:14" s="37" customFormat="1" ht="42.75">
       <c r="A39" s="36"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="36" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="G39" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="J39" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="51"/>
-      <c r="M39" s="50"/>
-    </row>
-    <row r="40" spans="1:13" ht="28.5">
-      <c r="A40" s="45" t="s">
+      <c r="L39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="52"/>
+      <c r="N39" s="54"/>
+    </row>
+    <row r="40" spans="1:14" ht="28.5">
+      <c r="A40" s="49" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3816,24 +3881,25 @@
       <c r="D40" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="21" t="s">
+      <c r="L40" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M40" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="N40" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="71.25">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:14" ht="71.25">
+      <c r="A41" s="49"/>
       <c r="B41" s="17" t="s">
         <v>210</v>
       </c>
@@ -3843,1618 +3909,1686 @@
       <c r="D41" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="G41" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I41" s="18" t="b">
+      <c r="J41" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="M41" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15">
-      <c r="A42" s="45"/>
+    <row r="42" spans="1:14" ht="15">
+      <c r="A42" s="49"/>
       <c r="B42" s="44" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
-      <c r="I42" s="18"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45" t="s">
+      <c r="E42" s="46"/>
+      <c r="J42" s="18"/>
+      <c r="M42" s="25"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="45"/>
+      <c r="F43" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="47" t="s">
+      <c r="L43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="N43" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+    <row r="44" spans="1:14">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="45"/>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="49"/>
+      <c r="G44" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="H44" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="I44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="J44" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="47"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="L44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" s="48"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="45"/>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="49"/>
+      <c r="G45" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="H45" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="I45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="J45" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="47"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="L45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" s="48"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="45"/>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="49"/>
+      <c r="G46" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="I46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="J46" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="47"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="L46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M46" s="48"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="45"/>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="49"/>
+      <c r="G47" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="H47" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="I47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="J47" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="47"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="L47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="48"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="45"/>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="49"/>
+      <c r="G48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="H48" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="I48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I48" s="9">
+      <c r="J48" s="9">
         <v>2</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="47"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="L48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="48"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="45"/>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="49"/>
+      <c r="G49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="H49" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="I49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="9">
+      <c r="J49" s="9">
         <v>200</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="47"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="L49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="48"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="45"/>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="49"/>
+      <c r="G50" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="I50" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="J50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="47"/>
-    </row>
-    <row r="51" spans="1:13" ht="99.75">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="L50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" s="48"/>
+    </row>
+    <row r="51" spans="1:14" ht="99.75">
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="45"/>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="49"/>
+      <c r="G51" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="H51" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="I51" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="J51" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L51" s="47"/>
-      <c r="M51" s="26" t="s">
+      <c r="L51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="48"/>
+      <c r="N51" s="26" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+    <row r="52" spans="1:14">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="45"/>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="49"/>
+      <c r="G52" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="H52" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="J52" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="K52" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="34"/>
-    </row>
-    <row r="53" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="48" t="s">
+      <c r="L52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="34"/>
+    </row>
+    <row r="53" spans="1:14" ht="45.75" customHeight="1">
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="46"/>
+      <c r="F53" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="41" t="b">
+      <c r="J53" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="L53" s="47" t="s">
+      <c r="M53" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="M53" s="26" t="s">
+      <c r="N53" s="26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="52" t="s">
+    <row r="54" spans="1:14">
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L54" s="47"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="9" t="s">
+      <c r="L54" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="M54" s="48"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="H55" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="I55" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="J55" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L55" s="47"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="9" t="s">
+      <c r="L55" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="M55" s="48"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="H56" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="I56" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L56" s="47"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="9" t="s">
+      <c r="L56" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="M56" s="48"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="I57" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="J57" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L57" s="47"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45" t="s">
+      <c r="L57" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="M57" s="48"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="49"/>
+      <c r="B58" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="46"/>
+      <c r="F58" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="I58" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I58" s="18" t="b">
+      <c r="J58" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J58" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L58" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="M58" s="9" t="s">
+      <c r="L58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="N58" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="45" t="s">
+    <row r="59" spans="1:14">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="H59" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="I59" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="J59" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L59" s="47"/>
-      <c r="M59" s="9" t="s">
+      <c r="L59" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" s="48"/>
+      <c r="N59" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="9" t="s">
+    <row r="60" spans="1:14">
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="I60" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L60" s="47"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="9" t="s">
+      <c r="L60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60" s="48"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J61" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K61" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L61" s="47"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="9" t="s">
+      <c r="L61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M61" s="48"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="H62" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="I62" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="J62" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L62" s="47"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="45" t="s">
+      <c r="L62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M62" s="48"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E63" s="45"/>
+      <c r="F63" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="H63" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="I63" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="J63" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="46" t="s">
+      <c r="L63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="47" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
+    <row r="64" spans="1:14">
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="45"/>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="49"/>
+      <c r="G64" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="H64" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="I64" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="J64" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="47"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
+      <c r="L64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" s="48"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="45"/>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="49"/>
+      <c r="G65" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="H65" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="I65" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="J65" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L65" s="47"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
+      <c r="L65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M65" s="48"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="45"/>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="49"/>
+      <c r="G66" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="H66" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="I66" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="J66" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J66" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="47"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
+      <c r="L66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M66" s="48"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="45"/>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="49"/>
+      <c r="G67" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="I67" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="J67" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L67" s="47"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
+      <c r="L67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M67" s="48"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="45"/>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="49"/>
+      <c r="G68" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="J68" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K68" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="47"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
+      <c r="L68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M68" s="48"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="49"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="45"/>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="49"/>
+      <c r="G69" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="I69" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="J69" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L69" s="47"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
+      <c r="L69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M69" s="48"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="49"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="45"/>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="49"/>
+      <c r="G70" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="I70" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="J70" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L70" s="47"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
+      <c r="L70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M70" s="48"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="49"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="45"/>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="49"/>
+      <c r="G71" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="I71" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="J71" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="J71" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L71" s="47"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
+      <c r="L71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M71" s="48"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="49"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="45"/>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="49"/>
+      <c r="G72" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="I72" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="J72" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L72" s="47"/>
-    </row>
-    <row r="73" spans="1:13" s="3" customFormat="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
+      <c r="L72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M72" s="48"/>
+    </row>
+    <row r="73" spans="1:14" s="3" customFormat="1">
+      <c r="A73" s="49"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="45"/>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="49"/>
+      <c r="G73" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G73" s="28" t="s">
+      <c r="H73" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="I73" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="I73" s="28" t="s">
+      <c r="J73" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="J73" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L73" s="47"/>
-      <c r="M73" s="28"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
+      <c r="L73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M73" s="48"/>
+      <c r="N73" s="28"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="45"/>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="49"/>
+      <c r="G74" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="J74" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J74" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L74" s="47"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
+      <c r="L74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M74" s="48"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="45"/>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="49"/>
+      <c r="G75" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="J75" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="J75" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="47"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
+      <c r="L75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M75" s="48"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
       <c r="E76" s="45"/>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="49"/>
+      <c r="G76" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="H76" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="I76" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="J76" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J76" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="47"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
+      <c r="L76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M76" s="48"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="45"/>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="49"/>
+      <c r="G77" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="H77" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="I77" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="J77" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="47"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
+      <c r="L77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M77" s="48"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
       <c r="E78" s="45"/>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="49"/>
+      <c r="G78" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="H78" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="I78" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="J78" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="47"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
+      <c r="L78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M78" s="48"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="45"/>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="49"/>
+      <c r="G79" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="H79" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="I79" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="J79" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="J79" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="47"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
+      <c r="L79" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M79" s="48"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="49"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
       <c r="E80" s="45"/>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="49"/>
+      <c r="G80" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="H80" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="I80" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="J80" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="J80" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="47"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
+      <c r="L80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80" s="48"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="45"/>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="49"/>
+      <c r="G81" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="J81" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="J81" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="47"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
+      <c r="L81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M81" s="48"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="49"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="45"/>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="49"/>
+      <c r="G82" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="J82" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="J82" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="47"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
+      <c r="L82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M82" s="48"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="49"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="45"/>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="49"/>
+      <c r="G83" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="H83" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="I83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="J83" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J83" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="47"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
+      <c r="L83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M83" s="48"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="49"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="45"/>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="49"/>
+      <c r="G84" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="H84" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="I84" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="J84" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="J84" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="47"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
+      <c r="L84" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M84" s="48"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="45"/>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="49"/>
+      <c r="G85" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="H85" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="I85" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="J85" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="J85" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="47"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
+      <c r="L85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M85" s="48"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="49"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="45"/>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="49"/>
+      <c r="G86" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="H86" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="I86" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="J86" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="J86" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="47"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
+      <c r="L86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M86" s="48"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="49"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="45"/>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="49"/>
+      <c r="G87" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="H87" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="I87" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="J87" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="J87" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="47"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
+      <c r="L87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M87" s="48"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="49"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="45"/>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="49"/>
+      <c r="G88" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="H88" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="I88" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="J88" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="J88" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="47"/>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
+      <c r="L88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M88" s="48"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="49"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="45"/>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="49"/>
+      <c r="G89" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="H89" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="I89" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="J89" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J89" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="47"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
+      <c r="L89" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M89" s="48"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="49"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="45"/>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="49"/>
+      <c r="G90" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="H90" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="I90" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="J90" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J90" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="47"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
+      <c r="L90" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M90" s="48"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="49"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="45"/>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="49"/>
+      <c r="G91" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="H91" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="I91" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="J91" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J91" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="47"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
+      <c r="L91" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M91" s="48"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="49"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="45"/>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="49"/>
+      <c r="G92" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="H92" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="I92" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="J92" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="J92" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L92" s="47"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
+      <c r="L92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M92" s="48"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="49"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="45"/>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="49"/>
+      <c r="G93" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="H93" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="I93" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="J93" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="J93" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L93" s="47"/>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
+      <c r="L93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M93" s="48"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="45"/>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="49"/>
+      <c r="G94" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="H94" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="I94" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="J94" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J94" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L94" s="47"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45" t="s">
+      <c r="L94" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M94" s="48"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="C95" s="45" t="s">
+      <c r="C95" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="D95" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="F95" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M95" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="E95" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K95" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L95" s="46" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="9" t="s">
+    </row>
+    <row r="96" spans="1:13" ht="28.5">
+      <c r="A96" s="49"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F96" s="49"/>
+      <c r="G96" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="H96" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="I96" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="J96" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="J96" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L96" s="47"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="9" t="s">
+      <c r="L96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M96" s="48"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="H97" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="I97" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="J97" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J97" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K97" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L97" s="47"/>
-    </row>
-    <row r="98" spans="1:13" ht="77.25" customHeight="1">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="9" t="s">
+      <c r="L97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M97" s="48"/>
+    </row>
+    <row r="98" spans="1:14" ht="77.25" customHeight="1">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="H98" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="I98" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="J98" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="J98" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L98" s="47"/>
-      <c r="M98" s="43" t="s">
+      <c r="L98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M98" s="48"/>
+      <c r="N98" s="43" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
+    <row r="99" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="45"/>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="49"/>
+      <c r="G99" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="H99" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="I99" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="J99" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L99" s="47"/>
-    </row>
-    <row r="100" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
+      <c r="L99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M99" s="48"/>
+    </row>
+    <row r="100" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A100" s="49"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="45"/>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="49"/>
+      <c r="G100" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="H100" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="I100" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="J100" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="J100" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L100" s="47"/>
-    </row>
-    <row r="101" spans="1:13" s="33" customFormat="1">
-      <c r="A101" s="45"/>
+      <c r="L100" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M100" s="48"/>
+    </row>
+    <row r="101" spans="1:14" s="33" customFormat="1">
+      <c r="A101" s="49"/>
       <c r="B101" s="30" t="s">
         <v>105</v>
       </c>
@@ -5464,60 +5598,41 @@
       <c r="D101" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="32"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="31"/>
       <c r="G101" s="32"/>
       <c r="H101" s="32"/>
       <c r="I101" s="32"/>
       <c r="J101" s="32"/>
       <c r="K101" s="32"/>
-      <c r="L101" s="31" t="s">
+      <c r="L101" s="32"/>
+      <c r="M101" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="M101" s="32"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="K107" s="9" t="s">
+      <c r="N101" s="32"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="L107" s="9" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="L95:L100"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="E95:E100"/>
-    <mergeCell ref="B63:B94"/>
-    <mergeCell ref="D63:D94"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="L13:L21"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="A63:A101"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A40:A62"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C63:C94"/>
+    <mergeCell ref="M53:M57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="M43:M51"/>
+    <mergeCell ref="M58:M62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F16:F19"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -5528,23 +5643,43 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E63:E94"/>
-    <mergeCell ref="L63:L94"/>
-    <mergeCell ref="L53:L57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="L43:L51"/>
-    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="A63:A101"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A40:A62"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C63:C94"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="M13:M21"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="M95:M100"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="B63:B94"/>
+    <mergeCell ref="D63:D94"/>
+    <mergeCell ref="F63:F94"/>
+    <mergeCell ref="M63:M94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74AFD04-91A7-483A-ABDC-F4629AD76FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8918D2-0F0C-4A56-92CF-B6A521941693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="434">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1696,11 +1696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>filter(dict)
-通用域anyfield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sort/property</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1710,6 +1705,14 @@
   </si>
   <si>
     <t>sort/direction(DESC/ASC)</t>
+  </si>
+  <si>
+    <t>filter/value
+通用域any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter/field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2640,7 +2643,7 @@
   <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="F95" sqref="F95:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5413,7 +5416,7 @@
         <v>407</v>
       </c>
       <c r="D95" s="50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E95" s="46" t="s">
         <v>428</v>
@@ -5449,7 +5452,7 @@
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
       <c r="E96" s="46" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="9" t="s">
@@ -5477,8 +5480,8 @@
       <c r="B97" s="49"/>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
-      <c r="E97" s="45" t="s">
-        <v>430</v>
+      <c r="E97" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="9" t="s">
@@ -5506,8 +5509,8 @@
       <c r="B98" s="49"/>
       <c r="C98" s="49"/>
       <c r="D98" s="49"/>
-      <c r="E98" s="46" t="s">
-        <v>432</v>
+      <c r="E98" s="45" t="s">
+        <v>429</v>
       </c>
       <c r="F98" s="49"/>
       <c r="G98" s="9" t="s">
@@ -5533,12 +5536,14 @@
         <v>417</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18.75" customHeight="1">
+    <row r="99" spans="1:14" ht="38.25" customHeight="1">
       <c r="A99" s="49"/>
       <c r="B99" s="49"/>
       <c r="C99" s="49"/>
       <c r="D99" s="49"/>
-      <c r="E99" s="45"/>
+      <c r="E99" s="46" t="s">
+        <v>431</v>
+      </c>
       <c r="F99" s="49"/>
       <c r="G99" s="9" t="s">
         <v>419</v>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8918D2-0F0C-4A56-92CF-B6A521941693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E800C892-53AA-4DE1-90B6-30FE87BFB843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1720,7 +1720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1781,8 +1781,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1813,6 +1821,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1838,13 +1851,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1979,22 +1995,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2002,8 +2006,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
@@ -2642,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95:F100"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2702,16 +2722,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="46"/>
@@ -2736,16 +2756,16 @@
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="51" t="s">
         <v>126</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="45"/>
       <c r="F3" s="27" t="s">
         <v>12</v>
@@ -2768,14 +2788,14 @@
       <c r="L3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="45"/>
       <c r="F4" s="27" t="s">
         <v>12</v>
@@ -2798,14 +2818,14 @@
       <c r="L4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="45"/>
       <c r="F5" s="27" t="s">
         <v>12</v>
@@ -2828,20 +2848,20 @@
       <c r="L5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="52"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="46"/>
@@ -2866,16 +2886,16 @@
       <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="51" t="s">
         <v>128</v>
       </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="45"/>
       <c r="F7" s="27" t="s">
         <v>12</v>
@@ -2898,13 +2918,13 @@
       <c r="L7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="49"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2936,20 +2956,20 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="46"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="52" t="s">
         <v>136</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2970,18 +2990,18 @@
       <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="M9" s="51" t="s">
         <v>130</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3000,16 +3020,16 @@
       <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="52"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="11" t="s">
         <v>93</v>
       </c>
@@ -3028,16 +3048,16 @@
       <c r="L11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="52"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3056,20 +3076,20 @@
       <c r="L12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="52"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="46"/>
@@ -3094,16 +3114,16 @@
       <c r="L13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="46"/>
       <c r="F14" s="27" t="s">
         <v>12</v>
@@ -3126,14 +3146,14 @@
       <c r="L14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="52"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="46"/>
       <c r="F15" s="27" t="s">
         <v>12</v>
@@ -3152,16 +3172,16 @@
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="52"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="46"/>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="52" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3182,16 +3202,16 @@
       <c r="L16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="52"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="49"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3210,16 +3230,16 @@
       <c r="L17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="52"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="46"/>
-      <c r="F18" s="49"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3238,16 +3258,16 @@
       <c r="L18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="52"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="49"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3266,16 +3286,16 @@
       <c r="L19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="52"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3296,16 +3316,16 @@
       <c r="L20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="52"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="49"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3324,26 +3344,26 @@
       <c r="L21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="52"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="48" t="s">
         <v>133</v>
       </c>
       <c r="E22" s="46"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="52" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3364,18 +3384,18 @@
       <c r="L22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="52" t="s">
+      <c r="M22" s="51" t="s">
         <v>131</v>
       </c>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="49"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3394,16 +3414,16 @@
       <c r="L23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="52"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="49"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3422,16 +3442,16 @@
       <c r="L24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="52"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="49"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3450,16 +3470,16 @@
       <c r="L25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="52"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="49"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3478,18 +3498,18 @@
       <c r="L26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="52"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="46"/>
-      <c r="F27" s="49"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3508,15 +3528,15 @@
       <c r="L27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="52"/>
+      <c r="M27" s="51"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="46"/>
-      <c r="F28" s="49"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3535,15 +3555,15 @@
       <c r="L28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="52"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="46"/>
-      <c r="F29" s="49"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3562,17 +3582,17 @@
       <c r="L29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="52"/>
+      <c r="M29" s="51"/>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="46"/>
@@ -3597,15 +3617,15 @@
       <c r="L30" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="M30" s="51" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="46"/>
       <c r="F31" s="27" t="s">
         <v>12</v>
@@ -3628,15 +3648,15 @@
       <c r="L31" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="52"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="46"/>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="52" t="s">
         <v>158</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -3657,15 +3677,15 @@
       <c r="L32" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="52"/>
+      <c r="M32" s="51"/>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="46"/>
-      <c r="F33" s="49"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="9" t="s">
         <v>157</v>
       </c>
@@ -3684,15 +3704,15 @@
       <c r="L33" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="52"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="46"/>
-      <c r="F34" s="49"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="9" t="s">
         <v>156</v>
       </c>
@@ -3711,14 +3731,14 @@
       <c r="L34" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="52"/>
+      <c r="M34" s="51"/>
     </row>
     <row r="35" spans="1:14" ht="57">
-      <c r="A35" s="49"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="22" t="s">
         <v>170</v>
       </c>
@@ -3743,11 +3763,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="57">
-      <c r="A36" s="49"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="22" t="s">
         <v>173</v>
       </c>
@@ -3775,11 +3795,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.5">
-      <c r="A37" s="49"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
@@ -3805,11 +3825,11 @@
     </row>
     <row r="38" spans="1:14" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="48" t="s">
         <v>318</v>
       </c>
       <c r="E38" s="46"/>
@@ -3834,18 +3854,18 @@
       <c r="L38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="52" t="s">
+      <c r="M38" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="N38" s="49" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="37" customFormat="1" ht="42.75">
       <c r="A39" s="36"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="46"/>
       <c r="F39" s="36" t="s">
         <v>319</v>
@@ -3868,11 +3888,11 @@
       <c r="L39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="52"/>
-      <c r="N39" s="54"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="50"/>
     </row>
     <row r="40" spans="1:14" ht="28.5">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="52" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3902,7 +3922,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="71.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="17" t="s">
         <v>210</v>
       </c>
@@ -3939,7 +3959,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15">
-      <c r="A42" s="49"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="44" t="s">
         <v>211</v>
       </c>
@@ -3950,18 +3970,18 @@
       <c r="M42" s="25"/>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="52" t="s">
         <v>143</v>
       </c>
       <c r="E43" s="45"/>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="52" t="s">
         <v>177</v>
       </c>
       <c r="G43" s="9" t="s">
@@ -3982,7 +4002,7 @@
       <c r="L43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="48" t="s">
+      <c r="M43" s="47" t="s">
         <v>223</v>
       </c>
       <c r="N43" s="9" t="s">
@@ -3990,12 +4010,12 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="45"/>
-      <c r="F44" s="49"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="18" t="s">
         <v>112</v>
       </c>
@@ -4014,15 +4034,15 @@
       <c r="L44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="48"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="45"/>
-      <c r="F45" s="49"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="18" t="s">
         <v>111</v>
       </c>
@@ -4041,15 +4061,15 @@
       <c r="L45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="48"/>
+      <c r="M45" s="47"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="45"/>
-      <c r="F46" s="49"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="9" t="s">
         <v>114</v>
       </c>
@@ -4068,15 +4088,15 @@
       <c r="L46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="48"/>
+      <c r="M46" s="47"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="45"/>
-      <c r="F47" s="49"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="9" t="s">
         <v>113</v>
       </c>
@@ -4095,15 +4115,15 @@
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="48"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="45"/>
-      <c r="F48" s="49"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="9" t="s">
         <v>116</v>
       </c>
@@ -4122,15 +4142,15 @@
       <c r="L48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="48"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="45"/>
-      <c r="F49" s="49"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="9" t="s">
         <v>92</v>
       </c>
@@ -4149,15 +4169,15 @@
       <c r="L49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="48"/>
+      <c r="M49" s="47"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="45"/>
-      <c r="F50" s="49"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="9" t="s">
         <v>197</v>
       </c>
@@ -4176,15 +4196,15 @@
       <c r="L50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="48"/>
+      <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:14" ht="99.75">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="45"/>
-      <c r="F51" s="49"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="9" t="s">
         <v>181</v>
       </c>
@@ -4203,18 +4223,18 @@
       <c r="L51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="48"/>
+      <c r="M51" s="47"/>
       <c r="N51" s="26" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="45"/>
-      <c r="F52" s="49"/>
+      <c r="F52" s="52"/>
       <c r="G52" s="9" t="s">
         <v>399</v>
       </c>
@@ -4236,12 +4256,12 @@
       <c r="M52" s="34"/>
     </row>
     <row r="53" spans="1:14" ht="45.75" customHeight="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="48" t="s">
         <v>202</v>
       </c>
       <c r="E53" s="46"/>
@@ -4260,7 +4280,7 @@
       <c r="J53" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="M53" s="48" t="s">
+      <c r="M53" s="55" t="s">
         <v>222</v>
       </c>
       <c r="N53" s="26" t="s">
@@ -4268,12 +4288,12 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="46"/>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="54" t="s">
         <v>221</v>
       </c>
       <c r="G54" s="9" t="s">
@@ -4294,15 +4314,15 @@
       <c r="L54" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M54" s="48"/>
+      <c r="M54" s="55"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="46"/>
-      <c r="F55" s="51"/>
+      <c r="F55" s="54"/>
       <c r="G55" s="9" t="s">
         <v>215</v>
       </c>
@@ -4321,15 +4341,15 @@
       <c r="L55" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M55" s="48"/>
+      <c r="M55" s="55"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="46"/>
-      <c r="F56" s="51"/>
+      <c r="F56" s="54"/>
       <c r="G56" s="9" t="s">
         <v>203</v>
       </c>
@@ -4348,15 +4368,15 @@
       <c r="L56" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M56" s="48"/>
+      <c r="M56" s="55"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="46"/>
-      <c r="F57" s="51"/>
+      <c r="F57" s="54"/>
       <c r="G57" s="9" t="s">
         <v>219</v>
       </c>
@@ -4375,17 +4395,17 @@
       <c r="L57" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M57" s="48"/>
+      <c r="M57" s="55"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="52"/>
+      <c r="B58" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="48" t="s">
         <v>194</v>
       </c>
       <c r="E58" s="46"/>
@@ -4410,7 +4430,7 @@
       <c r="L58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="47" t="s">
+      <c r="M58" s="53" t="s">
         <v>426</v>
       </c>
       <c r="N58" s="9" t="s">
@@ -4418,12 +4438,12 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="46"/>
-      <c r="F59" s="49" t="s">
+      <c r="F59" s="52" t="s">
         <v>195</v>
       </c>
       <c r="G59" s="9" t="s">
@@ -4444,18 +4464,18 @@
       <c r="L59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="48"/>
+      <c r="M59" s="47"/>
       <c r="N59" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="46"/>
-      <c r="F60" s="49"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="9" t="s">
         <v>157</v>
       </c>
@@ -4474,15 +4494,15 @@
       <c r="L60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M60" s="48"/>
+      <c r="M60" s="47"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="46"/>
-      <c r="F61" s="49"/>
+      <c r="F61" s="52"/>
       <c r="G61" s="9" t="s">
         <v>189</v>
       </c>
@@ -4501,15 +4521,15 @@
       <c r="L61" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M61" s="48"/>
+      <c r="M61" s="47"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
       <c r="E62" s="46"/>
-      <c r="F62" s="49"/>
+      <c r="F62" s="52"/>
       <c r="G62" s="9" t="s">
         <v>191</v>
       </c>
@@ -4528,23 +4548,23 @@
       <c r="L62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M62" s="48"/>
+      <c r="M62" s="47"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="52" t="s">
         <v>225</v>
       </c>
       <c r="E63" s="45"/>
-      <c r="F63" s="49" t="s">
+      <c r="F63" s="52" t="s">
         <v>300</v>
       </c>
       <c r="G63" s="9" t="s">
@@ -4565,17 +4585,17 @@
       <c r="L63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M63" s="47" t="s">
+      <c r="M63" s="53" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="45"/>
-      <c r="F64" s="49"/>
+      <c r="F64" s="52"/>
       <c r="G64" s="9" t="s">
         <v>231</v>
       </c>
@@ -4594,15 +4614,15 @@
       <c r="L64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M64" s="48"/>
+      <c r="M64" s="47"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="49"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="45"/>
-      <c r="F65" s="49"/>
+      <c r="F65" s="52"/>
       <c r="G65" s="9" t="s">
         <v>232</v>
       </c>
@@ -4621,15 +4641,15 @@
       <c r="L65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M65" s="48"/>
+      <c r="M65" s="47"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="45"/>
-      <c r="F66" s="49"/>
+      <c r="F66" s="52"/>
       <c r="G66" s="9" t="s">
         <v>233</v>
       </c>
@@ -4648,15 +4668,15 @@
       <c r="L66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M66" s="48"/>
+      <c r="M66" s="47"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="45"/>
-      <c r="F67" s="49"/>
+      <c r="F67" s="52"/>
       <c r="G67" s="9" t="s">
         <v>234</v>
       </c>
@@ -4675,15 +4695,15 @@
       <c r="L67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M67" s="48"/>
+      <c r="M67" s="47"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="45"/>
-      <c r="F68" s="49"/>
+      <c r="F68" s="52"/>
       <c r="G68" s="9" t="s">
         <v>244</v>
       </c>
@@ -4702,15 +4722,15 @@
       <c r="L68" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M68" s="48"/>
+      <c r="M68" s="47"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="49"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="45"/>
-      <c r="F69" s="49"/>
+      <c r="F69" s="52"/>
       <c r="G69" s="9" t="s">
         <v>235</v>
       </c>
@@ -4729,15 +4749,15 @@
       <c r="L69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="48"/>
+      <c r="M69" s="47"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="45"/>
-      <c r="F70" s="49"/>
+      <c r="F70" s="52"/>
       <c r="G70" s="9" t="s">
         <v>236</v>
       </c>
@@ -4756,15 +4776,15 @@
       <c r="L70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="48"/>
+      <c r="M70" s="47"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="45"/>
-      <c r="F71" s="49"/>
+      <c r="F71" s="52"/>
       <c r="G71" s="9" t="s">
         <v>251</v>
       </c>
@@ -4783,15 +4803,15 @@
       <c r="L71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M71" s="48"/>
+      <c r="M71" s="47"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="45"/>
-      <c r="F72" s="49"/>
+      <c r="F72" s="52"/>
       <c r="G72" s="9" t="s">
         <v>265</v>
       </c>
@@ -4810,15 +4830,15 @@
       <c r="L72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="48"/>
+      <c r="M72" s="47"/>
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1">
-      <c r="A73" s="49"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="45"/>
-      <c r="F73" s="49"/>
+      <c r="F73" s="52"/>
       <c r="G73" s="28" t="s">
         <v>256</v>
       </c>
@@ -4837,16 +4857,16 @@
       <c r="L73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M73" s="48"/>
+      <c r="M73" s="47"/>
       <c r="N73" s="28"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="45"/>
-      <c r="F74" s="49"/>
+      <c r="F74" s="52"/>
       <c r="G74" s="9" t="s">
         <v>258</v>
       </c>
@@ -4865,15 +4885,15 @@
       <c r="L74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M74" s="48"/>
+      <c r="M74" s="47"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="45"/>
-      <c r="F75" s="49"/>
+      <c r="F75" s="52"/>
       <c r="G75" s="9" t="s">
         <v>260</v>
       </c>
@@ -4892,15 +4912,15 @@
       <c r="L75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M75" s="48"/>
+      <c r="M75" s="47"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="45"/>
-      <c r="F76" s="49"/>
+      <c r="F76" s="52"/>
       <c r="G76" s="9" t="s">
         <v>263</v>
       </c>
@@ -4919,15 +4939,15 @@
       <c r="L76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M76" s="48"/>
+      <c r="M76" s="47"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="45"/>
-      <c r="F77" s="49"/>
+      <c r="F77" s="52"/>
       <c r="G77" s="9" t="s">
         <v>266</v>
       </c>
@@ -4946,15 +4966,15 @@
       <c r="L77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M77" s="48"/>
+      <c r="M77" s="47"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
       <c r="E78" s="45"/>
-      <c r="F78" s="49"/>
+      <c r="F78" s="52"/>
       <c r="G78" s="9" t="s">
         <v>267</v>
       </c>
@@ -4973,15 +4993,15 @@
       <c r="L78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M78" s="48"/>
+      <c r="M78" s="47"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="45"/>
-      <c r="F79" s="49"/>
+      <c r="F79" s="52"/>
       <c r="G79" s="9" t="s">
         <v>268</v>
       </c>
@@ -5000,15 +5020,15 @@
       <c r="L79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M79" s="48"/>
+      <c r="M79" s="47"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="45"/>
-      <c r="F80" s="49"/>
+      <c r="F80" s="52"/>
       <c r="G80" s="9" t="s">
         <v>269</v>
       </c>
@@ -5027,15 +5047,15 @@
       <c r="L80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M80" s="48"/>
+      <c r="M80" s="47"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="45"/>
-      <c r="F81" s="49"/>
+      <c r="F81" s="52"/>
       <c r="G81" s="9" t="s">
         <v>270</v>
       </c>
@@ -5054,15 +5074,15 @@
       <c r="L81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M81" s="48"/>
+      <c r="M81" s="47"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
       <c r="E82" s="45"/>
-      <c r="F82" s="49"/>
+      <c r="F82" s="52"/>
       <c r="G82" s="9" t="s">
         <v>271</v>
       </c>
@@ -5081,15 +5101,15 @@
       <c r="L82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M82" s="48"/>
+      <c r="M82" s="47"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="45"/>
-      <c r="F83" s="49"/>
+      <c r="F83" s="52"/>
       <c r="G83" s="9" t="s">
         <v>272</v>
       </c>
@@ -5108,15 +5128,15 @@
       <c r="L83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M83" s="48"/>
+      <c r="M83" s="47"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="45"/>
-      <c r="F84" s="49"/>
+      <c r="F84" s="52"/>
       <c r="G84" s="9" t="s">
         <v>273</v>
       </c>
@@ -5135,15 +5155,15 @@
       <c r="L84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M84" s="48"/>
+      <c r="M84" s="47"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="45"/>
-      <c r="F85" s="49"/>
+      <c r="F85" s="52"/>
       <c r="G85" s="9" t="s">
         <v>274</v>
       </c>
@@ -5162,15 +5182,15 @@
       <c r="L85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M85" s="48"/>
+      <c r="M85" s="47"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="45"/>
-      <c r="F86" s="49"/>
+      <c r="F86" s="52"/>
       <c r="G86" s="9" t="s">
         <v>275</v>
       </c>
@@ -5189,15 +5209,15 @@
       <c r="L86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M86" s="48"/>
+      <c r="M86" s="47"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="45"/>
-      <c r="F87" s="49"/>
+      <c r="F87" s="52"/>
       <c r="G87" s="9" t="s">
         <v>276</v>
       </c>
@@ -5216,15 +5236,15 @@
       <c r="L87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M87" s="48"/>
+      <c r="M87" s="47"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="45"/>
-      <c r="F88" s="49"/>
+      <c r="F88" s="52"/>
       <c r="G88" s="9" t="s">
         <v>277</v>
       </c>
@@ -5243,15 +5263,15 @@
       <c r="L88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="48"/>
+      <c r="M88" s="47"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="45"/>
-      <c r="F89" s="49"/>
+      <c r="F89" s="52"/>
       <c r="G89" s="9" t="s">
         <v>278</v>
       </c>
@@ -5270,15 +5290,15 @@
       <c r="L89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M89" s="48"/>
+      <c r="M89" s="47"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="45"/>
-      <c r="F90" s="49"/>
+      <c r="F90" s="52"/>
       <c r="G90" s="9" t="s">
         <v>279</v>
       </c>
@@ -5297,15 +5317,15 @@
       <c r="L90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M90" s="48"/>
+      <c r="M90" s="47"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="45"/>
-      <c r="F91" s="49"/>
+      <c r="F91" s="52"/>
       <c r="G91" s="9" t="s">
         <v>280</v>
       </c>
@@ -5324,15 +5344,15 @@
       <c r="L91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="48"/>
+      <c r="M91" s="47"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="45"/>
-      <c r="F92" s="49"/>
+      <c r="F92" s="52"/>
       <c r="G92" s="9" t="s">
         <v>282</v>
       </c>
@@ -5351,15 +5371,15 @@
       <c r="L92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M92" s="48"/>
+      <c r="M92" s="47"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="49"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
       <c r="E93" s="45"/>
-      <c r="F93" s="49"/>
+      <c r="F93" s="52"/>
       <c r="G93" s="9" t="s">
         <v>281</v>
       </c>
@@ -5378,15 +5398,15 @@
       <c r="L93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M93" s="48"/>
+      <c r="M93" s="47"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="45"/>
-      <c r="F94" s="49"/>
+      <c r="F94" s="52"/>
       <c r="G94" s="9" t="s">
         <v>283</v>
       </c>
@@ -5405,23 +5425,23 @@
       <c r="L94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M94" s="48"/>
+      <c r="M94" s="47"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="52" t="s">
         <v>407</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="48" t="s">
         <v>430</v>
       </c>
       <c r="E95" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="F95" s="49" t="s">
+      <c r="F95" s="52" t="s">
         <v>408</v>
       </c>
       <c r="G95" s="9" t="s">
@@ -5442,19 +5462,19 @@
       <c r="L95" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="47" t="s">
+      <c r="M95" s="53" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="28.5">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="F96" s="49"/>
+      <c r="F96" s="52"/>
       <c r="G96" s="9" t="s">
         <v>409</v>
       </c>
@@ -5473,17 +5493,17 @@
       <c r="L96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M96" s="48"/>
+      <c r="M96" s="47"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="49"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="F97" s="49"/>
+      <c r="F97" s="52"/>
       <c r="G97" s="9" t="s">
         <v>413</v>
       </c>
@@ -5502,17 +5522,17 @@
       <c r="L97" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M97" s="48"/>
+      <c r="M97" s="47"/>
     </row>
     <row r="98" spans="1:14" ht="77.25" customHeight="1">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="F98" s="49"/>
+      <c r="F98" s="52"/>
       <c r="G98" s="9" t="s">
         <v>415</v>
       </c>
@@ -5531,20 +5551,20 @@
       <c r="L98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M98" s="48"/>
+      <c r="M98" s="47"/>
       <c r="N98" s="43" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="38.25" customHeight="1">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="F99" s="49"/>
+      <c r="F99" s="52"/>
       <c r="G99" s="9" t="s">
         <v>419</v>
       </c>
@@ -5563,15 +5583,15 @@
       <c r="L99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M99" s="48"/>
+      <c r="M99" s="47"/>
     </row>
     <row r="100" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A100" s="49"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="45"/>
-      <c r="F100" s="49"/>
+      <c r="F100" s="52"/>
       <c r="G100" s="9" t="s">
         <v>422</v>
       </c>
@@ -5590,10 +5610,10 @@
       <c r="L100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="48"/>
+      <c r="M100" s="47"/>
     </row>
     <row r="101" spans="1:14" s="33" customFormat="1">
-      <c r="A101" s="49"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="30" t="s">
         <v>105</v>
       </c>
@@ -5623,31 +5643,27 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="M53:M57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="M43:M51"/>
-    <mergeCell ref="M58:M62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="M95:M100"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="B63:B94"/>
+    <mergeCell ref="D63:D94"/>
+    <mergeCell ref="F63:F94"/>
+    <mergeCell ref="M63:M94"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="M13:M21"/>
+    <mergeCell ref="M22:M29"/>
     <mergeCell ref="A63:A101"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="F20:F21"/>
@@ -5664,27 +5680,31 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C63:C94"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="M13:M21"/>
-    <mergeCell ref="M22:M29"/>
-    <mergeCell ref="M95:M100"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="B63:B94"/>
-    <mergeCell ref="D63:D94"/>
-    <mergeCell ref="F63:F94"/>
-    <mergeCell ref="M63:M94"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="M53:M57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="M43:M51"/>
+    <mergeCell ref="M58:M62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E800C892-53AA-4DE1-90B6-30FE87BFB843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA0309-4D4A-4D16-A19C-D33301B0401D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="465">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,10 +535,6 @@
   </si>
   <si>
     <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1298,12 +1294,6 @@
   </si>
   <si>
     <t>”蛋白测定量&gt;2000个；质量偏差&lt;5ppm"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*更换了url头
-头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
-api为update_report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1676,18 +1666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*更换了url头
-头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
-api为get_all_report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*更换了url头
-头部为https://phenomics.fudan.edu.cn/firmiana/health/api/
-api为get_pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传递参数及说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1713,6 +1691,147 @@
   </si>
   <si>
     <t>filter/field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副标题（详细内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买者的phone（唯一标识的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL（头部已经迁移至health/api）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_all_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询付款结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为paymentId+phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get
+参数为paymentID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QRcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentQRcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderIist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1790,7 +1909,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1812,12 +1931,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,11 +1969,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1930,12 +2043,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1957,9 +2064,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1985,7 +2089,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1994,7 +2110,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2009,16 +2134,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2046,13 +2168,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2090,13 +2212,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1122755</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313130</xdr:colOff>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2134,13 +2256,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1122755</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313130</xdr:colOff>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2178,13 +2300,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>75045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2222,13 +2344,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1122755</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313130</xdr:colOff>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2266,13 +2388,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2310,13 +2432,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1122755</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313130</xdr:colOff>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2354,13 +2476,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2660,17 +2782,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="5" width="20.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="27" customWidth="1"/>
+    <col min="2" max="4" width="20.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="25" customWidth="1"/>
     <col min="7" max="10" width="15.625" style="9" customWidth="1"/>
     <col min="11" max="12" width="9" style="9"/>
     <col min="13" max="13" width="28.625" style="20" customWidth="1"/>
@@ -2688,12 +2811,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="F1" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2715,27 +2838,27 @@
         <v>39</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -2756,18 +2879,18 @@
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>126</v>
+      <c r="M2" s="55" t="s">
+        <v>125</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="27" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -2788,16 +2911,16 @@
       <c r="L3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="27" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -2818,16 +2941,16 @@
       <c r="L4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="51"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="27" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -2848,24 +2971,24 @@
       <c r="L5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -2886,18 +3009,18 @@
       <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="51" t="s">
-        <v>128</v>
+      <c r="M6" s="55" t="s">
+        <v>127</v>
       </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="27" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -2918,13 +3041,13 @@
       <c r="L7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="55"/>
       <c r="N7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2951,26 +3074,26 @@
         <v>40</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="52" t="s">
-        <v>136</v>
+      <c r="E9" s="42"/>
+      <c r="F9" s="50" t="s">
+        <v>135</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>5</v>
@@ -2990,18 +3113,18 @@
       <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="51" t="s">
-        <v>130</v>
+      <c r="M9" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="52"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3020,16 +3143,16 @@
       <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="51"/>
+      <c r="M10" s="55"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="52"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="11" t="s">
         <v>93</v>
       </c>
@@ -3048,16 +3171,16 @@
       <c r="L11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="51"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="52"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3076,24 +3199,24 @@
       <c r="L12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="51"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="27" t="s">
+      <c r="D13" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3114,18 +3237,18 @@
       <c r="L13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>129</v>
+      <c r="M13" s="55" t="s">
+        <v>128</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="52"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="27" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -3146,16 +3269,16 @@
       <c r="L14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="55"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="52"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="27" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="14" t="s">
@@ -3172,17 +3295,17 @@
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="51"/>
+      <c r="M15" s="55"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="52" t="s">
-        <v>137</v>
+      <c r="A16" s="50"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="50" t="s">
+        <v>136</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>5</v>
@@ -3202,16 +3325,16 @@
       <c r="L16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="55"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="52"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="52"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3230,16 +3353,16 @@
       <c r="L17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="52"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="52"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3258,16 +3381,16 @@
       <c r="L18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="55"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="52"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3286,16 +3409,16 @@
       <c r="L19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="55"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="52"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="52" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="50" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3316,16 +3439,16 @@
       <c r="L20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="55"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="52"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="52"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3344,26 +3467,26 @@
       <c r="L21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="55"/>
       <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="52" t="s">
+      <c r="D22" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="50" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3384,18 +3507,18 @@
       <c r="L22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="51" t="s">
-        <v>131</v>
+      <c r="M22" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="52"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3414,16 +3537,16 @@
       <c r="L23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="55"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="52"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3442,16 +3565,16 @@
       <c r="L24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="55"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="52"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3470,16 +3593,16 @@
       <c r="L25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="55"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="52"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3498,18 +3621,18 @@
       <c r="L26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="55"/>
       <c r="N26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="52"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3528,15 +3651,15 @@
       <c r="L27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="51"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="52"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3555,15 +3678,15 @@
       <c r="L28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="51"/>
+      <c r="M28" s="55"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="52"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3582,233 +3705,233 @@
       <c r="L29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="D30" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="55"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="55"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="55"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="H34" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="J34" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="51" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="L34" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="55"/>
+    </row>
+    <row r="35" spans="1:14" ht="57">
+      <c r="A35" s="50"/>
+      <c r="B35" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="25" t="s">
         <v>152</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="51"/>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L32" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L33" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="51"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L34" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M34" s="51"/>
-    </row>
-    <row r="35" spans="1:14" ht="57">
-      <c r="A35" s="52"/>
-      <c r="B35" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="27" t="s">
-        <v>153</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J35" s="18" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="57">
-      <c r="A36" s="52"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="27" t="s">
-        <v>153</v>
+      <c r="E36" s="42"/>
+      <c r="F36" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J36" s="18" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="N36" s="26" t="s">
-        <v>224</v>
+        <v>200</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.5">
-      <c r="A37" s="52"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="48"/>
+        <v>165</v>
+      </c>
+      <c r="C37" s="52"/>
       <c r="D37" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="27" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>40</v>
@@ -3816,31 +3939,31 @@
       <c r="L37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="29" t="s">
-        <v>317</v>
+      <c r="M37" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>48</v>
@@ -3854,24 +3977,24 @@
       <c r="L38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="N38" s="49" t="s">
+      <c r="M38" s="55" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="37" customFormat="1" ht="42.75">
-      <c r="A39" s="36"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>320</v>
+      <c r="N38" s="53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="34" customFormat="1" ht="42.75">
+      <c r="A39" s="33"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>318</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>59</v>
@@ -3879,8 +4002,8 @@
       <c r="I39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="26" t="s">
-        <v>397</v>
+      <c r="J39" s="24" t="s">
+        <v>395</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>40</v>
@@ -3888,11 +4011,11 @@
       <c r="L39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="51"/>
-      <c r="N39" s="50"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="54"/>
     </row>
     <row r="40" spans="1:14" ht="28.5">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="50" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3902,10 +4025,10 @@
         <v>119</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="25" t="s">
         <v>73</v>
       </c>
       <c r="K40" s="9" t="s">
@@ -3915,25 +4038,25 @@
         <v>120</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="71.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="16" t="s">
+    <row r="41" spans="1:14" ht="71.25" customHeight="1">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="27" t="s">
+      <c r="E41" s="42"/>
+      <c r="F41" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G41" s="9" t="s">
@@ -3954,821 +4077,734 @@
       <c r="L41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15">
-      <c r="A42" s="52"/>
-      <c r="B42" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="46"/>
-      <c r="J42" s="18"/>
-      <c r="M42" s="25"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>176</v>
+      <c r="M41" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="J42" s="49">
+        <v>2</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="55"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>430</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="52" t="s">
-        <v>177</v>
+        <v>460</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>178</v>
+        <v>432</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>179</v>
+        <v>433</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>200</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="J43" s="44"/>
       <c r="K43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M43" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
+      <c r="M43" s="55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="J44" s="44"/>
       <c r="K44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M44" s="47"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
+      <c r="M44" s="55"/>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>77</v>
-      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="J45" s="44"/>
       <c r="K45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M45" s="47"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="M45" s="55"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="52"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>89</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="J46" s="44"/>
       <c r="K46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M46" s="47"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
+      <c r="M46" s="55"/>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="52"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>78</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="J47" s="44"/>
       <c r="K47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M47" s="47"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
+      <c r="M47" s="55"/>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="52"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="9" t="s">
-        <v>116</v>
+        <v>443</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>85</v>
+        <v>444</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="9">
-        <v>2</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="J48" s="44"/>
       <c r="K48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M48" s="47"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
+      <c r="M48" s="55"/>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="52"/>
       <c r="D49" s="52"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="52"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="45" t="s">
+        <v>446</v>
+      </c>
       <c r="G49" s="9" t="s">
-        <v>92</v>
+        <v>462</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>90</v>
+        <v>449</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="9">
-        <v>200</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="J49" s="44"/>
       <c r="K49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M49" s="47"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
+        <v>461</v>
+      </c>
+      <c r="M49" s="55"/>
+    </row>
+    <row r="50" spans="1:14" ht="28.5">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="52"/>
       <c r="D50" s="52"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="52"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="45" t="s">
+        <v>446</v>
+      </c>
       <c r="G50" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="J50" s="44"/>
+      <c r="K50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" s="55"/>
+    </row>
+    <row r="51" spans="1:14" ht="28.5">
+      <c r="A51" s="50"/>
+      <c r="B51" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="E51" s="47"/>
+      <c r="F51" s="46"/>
+      <c r="H51" s="24"/>
+      <c r="J51" s="49"/>
+      <c r="M51" s="48"/>
+    </row>
+    <row r="52" spans="1:14" ht="15">
+      <c r="A52" s="50"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="46"/>
+      <c r="H52" s="24"/>
+      <c r="J52" s="49"/>
+      <c r="M52" s="48"/>
+    </row>
+    <row r="53" spans="1:14" ht="15">
+      <c r="A53" s="50"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="46"/>
+      <c r="H53" s="24"/>
+      <c r="J53" s="49"/>
+      <c r="M53" s="48"/>
+    </row>
+    <row r="54" spans="1:14" ht="15">
+      <c r="A54" s="50"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="46"/>
+      <c r="H54" s="24"/>
+      <c r="J54" s="49"/>
+      <c r="M54" s="48"/>
+    </row>
+    <row r="55" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M55" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M56" s="56"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" s="56"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" s="56"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" s="56"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="9">
+        <v>2</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60" s="56"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9">
+        <v>200</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M61" s="56"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="I62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="K62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M62" s="56"/>
+    </row>
+    <row r="63" spans="1:14" ht="99.75">
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M50" s="47"/>
-    </row>
-    <row r="51" spans="1:14" ht="99.75">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H51" s="9" t="s">
+      <c r="J63" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="47"/>
-      <c r="N51" s="26" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="9" t="s">
+      <c r="K63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="56"/>
+      <c r="N63" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="I64" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="J64" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="K64" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="34"/>
-    </row>
-    <row r="53" spans="1:14" ht="45.75" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="27" t="s">
+      <c r="L64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" s="56"/>
+    </row>
+    <row r="65" spans="1:14" ht="45.75" customHeight="1">
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="42"/>
+      <c r="F65" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G65" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="I53" s="9" t="s">
+      <c r="H65" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I65" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J53" s="41" t="b">
+      <c r="J65" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M53" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="N53" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="54" t="s">
+      <c r="M65" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M54" s="55"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M55" s="55"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M56" s="55"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="9" t="s">
+      <c r="N65" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M57" s="55"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="46"/>
-      <c r="F58" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J58" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M58" s="53" t="s">
-        <v>426</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M59" s="47"/>
-      <c r="N59" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M60" s="47"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M61" s="47"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M62" s="47"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M63" s="53" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M64" s="47"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M65" s="47"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="52"/>
       <c r="D66" s="52"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="52"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="58" t="s">
+        <v>220</v>
+      </c>
       <c r="G66" s="9" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M66" s="47"/>
+        <v>213</v>
+      </c>
+      <c r="M66" s="51"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="52"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M67" s="47"/>
+        <v>213</v>
+      </c>
+      <c r="M67" s="51"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="52"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="9" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M68" s="47"/>
+        <v>213</v>
+      </c>
+      <c r="M68" s="51"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="52"/>
       <c r="D69" s="52"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="52"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="9" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M69" s="47"/>
+        <v>213</v>
+      </c>
+      <c r="M69" s="51"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="52"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="42"/>
+      <c r="F70" s="25" t="s">
+        <v>152</v>
+      </c>
       <c r="G70" s="9" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>250</v>
+        <v>168</v>
+      </c>
+      <c r="J70" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>40</v>
@@ -4776,26 +4812,33 @@
       <c r="L70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="47"/>
+      <c r="M70" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="52"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="50" t="s">
+        <v>194</v>
+      </c>
       <c r="G71" s="9" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="K71" s="9" t="s">
         <v>40</v>
@@ -4803,26 +4846,29 @@
       <c r="L71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M71" s="47"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="9" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="52"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="50"/>
       <c r="G72" s="9" t="s">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>40</v>
@@ -4830,26 +4876,26 @@
       <c r="L72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="47"/>
-    </row>
-    <row r="73" spans="1:14" s="3" customFormat="1">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
+      <c r="M72" s="56"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="J73" s="28" t="s">
-        <v>302</v>
+      <c r="E73" s="42"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>40</v>
@@ -4857,405 +4903,417 @@
       <c r="L73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M73" s="47"/>
-      <c r="N73" s="28"/>
+      <c r="M73" s="56"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="52"/>
       <c r="D74" s="52"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="52"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="50"/>
       <c r="G74" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M74" s="56"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" s="41"/>
+      <c r="F75" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M75" s="57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M76" s="56"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M77" s="56"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M78" s="56"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M79" s="56"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80" s="56"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M81" s="56"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M82" s="56"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M83" s="56"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="50"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M84" s="56"/>
+    </row>
+    <row r="85" spans="1:14" s="3" customFormat="1">
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M85" s="56"/>
+      <c r="N85" s="26"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="I86" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M86" s="56"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="50"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M74" s="47"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="9" t="s">
+      <c r="H87" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="I87" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="J87" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M87" s="56"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="50"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="J75" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M75" s="47"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="9" t="s">
+      <c r="H88" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M76" s="47"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M77" s="47"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="K78" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M78" s="47"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M79" s="47"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M80" s="47"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M81" s="47"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="K82" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L82" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M82" s="47"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M83" s="47"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="K84" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M84" s="47"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M85" s="47"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L86" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M86" s="47"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L87" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M87" s="47"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>40</v>
@@ -5263,26 +5321,26 @@
       <c r="L88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="47"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="52"/>
+      <c r="M88" s="56"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="50"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="50"/>
       <c r="G89" s="9" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>40</v>
@@ -5290,26 +5348,26 @@
       <c r="L89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M89" s="47"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="52"/>
+      <c r="M89" s="56"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="50"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="50"/>
       <c r="G90" s="9" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>40</v>
@@ -5317,26 +5375,26 @@
       <c r="L90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M90" s="47"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="52"/>
+      <c r="M90" s="56"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="50"/>
       <c r="G91" s="9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K91" s="9" t="s">
         <v>40</v>
@@ -5344,26 +5402,26 @@
       <c r="L91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="47"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="52"/>
+      <c r="M91" s="56"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="50"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="50"/>
       <c r="G92" s="9" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>40</v>
@@ -5371,26 +5429,26 @@
       <c r="L92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M92" s="47"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="52"/>
+      <c r="M92" s="56"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="50"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="50"/>
       <c r="G93" s="9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K93" s="9" t="s">
         <v>40</v>
@@ -5398,26 +5456,26 @@
       <c r="L93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M93" s="47"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="52"/>
+      <c r="M93" s="56"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="50"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="50"/>
       <c r="G94" s="9" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>40</v>
@@ -5425,36 +5483,26 @@
       <c r="L94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M94" s="47"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52" t="s">
-        <v>406</v>
-      </c>
-      <c r="C95" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="E95" s="46" t="s">
-        <v>428</v>
-      </c>
-      <c r="F95" s="52" t="s">
-        <v>408</v>
-      </c>
+      <c r="M94" s="56"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="50"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="50"/>
       <c r="G95" s="9" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="K95" s="9" t="s">
         <v>40</v>
@@ -5462,209 +5510,549 @@
       <c r="L95" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="53" t="s">
+      <c r="M95" s="56"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="50"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M96" s="56"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="50"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M97" s="56"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="50"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M98" s="56"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="50"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M99" s="56"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="50"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M100" s="56"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="50"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M101" s="56"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="50"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M102" s="56"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="50"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M103" s="56"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="50"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M104" s="56"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="50"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M105" s="56"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="50"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M106" s="56"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="50"/>
+      <c r="B107" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D107" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="F107" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M107" s="57" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="28.5">
+      <c r="A108" s="50"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="F108" s="50"/>
+      <c r="G108" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M108" s="56"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="50"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F109" s="50"/>
+      <c r="G109" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M109" s="56"/>
+    </row>
+    <row r="110" spans="1:14" ht="77.25" customHeight="1">
+      <c r="A110" s="50"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="41" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="28.5">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="46" t="s">
-        <v>432</v>
-      </c>
-      <c r="F96" s="52"/>
-      <c r="G96" s="9" t="s">
+      <c r="F110" s="50"/>
+      <c r="G110" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="I110" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L96" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M96" s="47"/>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F97" s="52"/>
-      <c r="G97" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="K97" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M97" s="47"/>
-    </row>
-    <row r="98" spans="1:14" ht="77.25" customHeight="1">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="F98" s="52"/>
-      <c r="G98" s="9" t="s">
+      <c r="J110" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M110" s="56"/>
+      <c r="N110" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="H98" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="J98" s="9" t="s">
+    </row>
+    <row r="111" spans="1:14" ht="38.25" customHeight="1">
+      <c r="A111" s="50"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="F111" s="50"/>
+      <c r="G111" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H111" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="K98" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L98" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M98" s="47"/>
-      <c r="N98" s="43" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="38.25" customHeight="1">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="46" t="s">
-        <v>431</v>
-      </c>
-      <c r="F99" s="52"/>
-      <c r="G99" s="9" t="s">
+      <c r="I111" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J111" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="K111" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M111" s="56"/>
+    </row>
+    <row r="112" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A112" s="50"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="I99" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="J99" s="9" t="s">
+      <c r="H112" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="K99" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L99" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M99" s="47"/>
-    </row>
-    <row r="100" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A100" s="52"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="9" t="s">
+      <c r="I112" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J112" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="K100" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L100" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M100" s="47"/>
-    </row>
-    <row r="101" spans="1:14" s="33" customFormat="1">
-      <c r="A101" s="52"/>
-      <c r="B101" s="30" t="s">
+      <c r="K112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M112" s="56"/>
+    </row>
+    <row r="113" spans="1:14" s="31" customFormat="1">
+      <c r="A113" s="50"/>
+      <c r="B113" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C113" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D101" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="N101" s="32"/>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="L107" s="9" t="s">
-        <v>212</v>
+      <c r="E113" s="28"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N113" s="30"/>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="L119" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="M95:M100"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="B63:B94"/>
-    <mergeCell ref="D63:D94"/>
-    <mergeCell ref="F63:F94"/>
-    <mergeCell ref="M63:M94"/>
+  <mergeCells count="71">
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="M55:M64"/>
+    <mergeCell ref="M43:M50"/>
+    <mergeCell ref="M107:M112"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="B55:B69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="F107:F112"/>
+    <mergeCell ref="B75:B106"/>
+    <mergeCell ref="D75:D106"/>
+    <mergeCell ref="F75:F106"/>
+    <mergeCell ref="M75:M106"/>
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M9:M12"/>
     <mergeCell ref="M13:M21"/>
     <mergeCell ref="M22:M29"/>
-    <mergeCell ref="A63:A101"/>
+    <mergeCell ref="A75:A113"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="D13:D21"/>
@@ -5674,15 +6062,12 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A40:A62"/>
+    <mergeCell ref="A40:A74"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C63:C94"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C75:C106"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
@@ -5690,21 +6075,27 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="M65:M69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="D55:D64"/>
+    <mergeCell ref="F55:F64"/>
+    <mergeCell ref="M70:M74"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="C43:C50"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C30:C39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="M53:M57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="M43:M51"/>
-    <mergeCell ref="M58:M62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5727,410 +6118,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="38" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="36">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
-      <c r="A2" s="39">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="37">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40" t="s">
+    <row r="4" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A4" s="39">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
+    <row r="5" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A5" s="37">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A5" s="40">
-        <v>3</v>
-      </c>
-      <c r="B5" s="40" t="s">
+    <row r="6" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A6" s="36">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A6" s="39">
-        <v>4</v>
-      </c>
-      <c r="B6" s="39" t="s">
+    <row r="7" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A7" s="37">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A7" s="40">
-        <v>5</v>
-      </c>
-      <c r="B7" s="40" t="s">
+    <row r="8" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A8" s="36">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A8" s="39">
-        <v>6</v>
-      </c>
-      <c r="B8" s="39" t="s">
+    <row r="9" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A9" s="37">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A9" s="40">
-        <v>7</v>
-      </c>
-      <c r="B9" s="40" t="s">
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="36">
+        <v>100</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C10" s="36" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="39">
-        <v>100</v>
-      </c>
-      <c r="B10" s="39" t="s">
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="37">
+        <v>101</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1">
-      <c r="A11" s="40">
-        <v>101</v>
-      </c>
-      <c r="B11" s="40" t="s">
+    <row r="12" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A12" s="36">
+        <v>102</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A12" s="39">
-        <v>102</v>
-      </c>
-      <c r="B12" s="39" t="s">
+    <row r="13" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A13" s="37">
+        <v>103</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C13" s="37" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A13" s="40">
-        <v>103</v>
-      </c>
-      <c r="B13" s="40" t="s">
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="36">
+        <v>104</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C14" s="36" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="39">
-        <v>104</v>
-      </c>
-      <c r="B14" s="39" t="s">
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="37">
+        <v>105</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C15" s="37" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1">
-      <c r="A15" s="40">
-        <v>105</v>
-      </c>
-      <c r="B15" s="40" t="s">
+    <row r="16" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A16" s="36">
+        <v>106</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C16" s="36" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A16" s="39">
-        <v>106</v>
-      </c>
-      <c r="B16" s="39" t="s">
+    <row r="17" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A17" s="37">
+        <v>107</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C17" s="37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A17" s="40">
-        <v>107</v>
-      </c>
-      <c r="B17" s="40" t="s">
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="36">
+        <v>108</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C18" s="36" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
-      <c r="A18" s="39">
-        <v>108</v>
-      </c>
-      <c r="B18" s="39" t="s">
+    <row r="19" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A19" s="37">
+        <v>109</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C19" s="37" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A19" s="40">
-        <v>109</v>
-      </c>
-      <c r="B19" s="40" t="s">
+    <row r="20" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A20" s="36">
+        <v>110</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C20" s="36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A20" s="39">
-        <v>110</v>
-      </c>
-      <c r="B20" s="39" t="s">
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="37">
+        <v>111</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C21" s="37" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
-      <c r="A21" s="40">
-        <v>111</v>
-      </c>
-      <c r="B21" s="40" t="s">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
+      <c r="A22" s="36">
+        <v>112</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C22" s="36" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
-      <c r="A22" s="39">
-        <v>112</v>
-      </c>
-      <c r="B22" s="39" t="s">
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23" s="37">
+        <v>114</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C23" s="37" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1">
-      <c r="A23" s="40">
-        <v>114</v>
-      </c>
-      <c r="B23" s="40" t="s">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="36">
+        <v>210</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C24" s="36" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
-      <c r="A24" s="39">
-        <v>210</v>
-      </c>
-      <c r="B24" s="39" t="s">
+    <row r="25" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A25" s="37">
+        <v>211</v>
+      </c>
+      <c r="B25" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A25" s="40">
-        <v>211</v>
-      </c>
-      <c r="B25" s="40" t="s">
+    <row r="26" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A26" s="36">
+        <v>212</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C26" s="36" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A26" s="39">
-        <v>212</v>
-      </c>
-      <c r="B26" s="39" t="s">
+    <row r="27" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A27" s="37">
+        <v>800</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C27" s="37" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A27" s="40">
-        <v>800</v>
-      </c>
-      <c r="B27" s="40" t="s">
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="36">
+        <v>801</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C28" s="36" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1">
-      <c r="A28" s="39">
-        <v>801</v>
-      </c>
-      <c r="B28" s="39" t="s">
+    <row r="29" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A29" s="37">
+        <v>802</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C29" s="37" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A29" s="40">
-        <v>802</v>
-      </c>
-      <c r="B29" s="40" t="s">
+    <row r="30" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A30" s="36">
+        <v>803</v>
+      </c>
+      <c r="B30" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C30" s="36" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A30" s="39">
-        <v>803</v>
-      </c>
-      <c r="B30" s="39" t="s">
+    <row r="31" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A31" s="37">
+        <v>804</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C31" s="37" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A31" s="40">
-        <v>804</v>
-      </c>
-      <c r="B31" s="40" t="s">
+    <row r="32" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A32" s="36">
+        <v>805</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C32" s="36" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A32" s="39">
-        <v>805</v>
-      </c>
-      <c r="B32" s="39" t="s">
+    <row r="33" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A33" s="37">
+        <v>900</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C33" s="37" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A33" s="40">
-        <v>900</v>
-      </c>
-      <c r="B33" s="40" t="s">
+    <row r="34" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A34" s="36">
+        <v>950</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C34" s="36" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A34" s="39">
-        <v>950</v>
-      </c>
-      <c r="B34" s="39" t="s">
+    <row r="35" spans="1:3" ht="57.75" thickBot="1">
+      <c r="A35" s="37">
+        <v>951</v>
+      </c>
+      <c r="B35" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C35" s="37" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="57.75" thickBot="1">
-      <c r="A35" s="40">
-        <v>951</v>
-      </c>
-      <c r="B35" s="40" t="s">
+    <row r="36" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A36" s="36">
+        <v>952</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C36" s="36" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A36" s="39">
-        <v>952</v>
-      </c>
-      <c r="B36" s="39" t="s">
+    <row r="37" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A37" s="37">
+        <v>953</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C37" s="37" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A37" s="40">
-        <v>953</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA0309-4D4A-4D16-A19C-D33301B0401D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A18FF2-6345-440A-AB32-7D408CE61617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="473">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,9 +545,6 @@
   </si>
   <si>
     <t>register/</t>
-  </si>
-  <si>
-    <t>getproductsdetail</t>
   </si>
   <si>
     <t xml:space="preserve">getProducts </t>
@@ -1832,6 +1829,46 @@
   </si>
   <si>
     <t>orderIist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getproductsdetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“13”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识账单当前状态
+未扫描 new
+已经扫描未付款 scanned
+已经支付 finished
+取消支付 cancelled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2168,13 +2205,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2212,13 +2249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2256,13 +2293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2300,13 +2337,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>75045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2344,13 +2381,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2388,13 +2425,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2432,13 +2469,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2476,13 +2513,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2782,10 +2819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:F48"/>
+    <sheetView tabSelected="1" topLeftCell="C39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2811,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>67</v>
@@ -2838,7 +2875,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>41</v>
@@ -3093,7 +3130,7 @@
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>5</v>
@@ -3114,7 +3151,7 @@
         <v>97</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N9" s="6"/>
     </row>
@@ -3213,7 +3250,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="25" t="s">
@@ -3238,7 +3275,7 @@
         <v>40</v>
       </c>
       <c r="M13" s="55" t="s">
-        <v>128</v>
+        <v>464</v>
       </c>
       <c r="N13" s="6"/>
     </row>
@@ -3305,7 +3342,7 @@
       <c r="D16" s="52"/>
       <c r="E16" s="42"/>
       <c r="F16" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>5</v>
@@ -3483,7 +3520,7 @@
         <v>86</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="50" t="s">
@@ -3508,7 +3545,7 @@
         <v>40</v>
       </c>
       <c r="M22" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N22" s="6"/>
     </row>
@@ -3710,38 +3747,38 @@
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
       <c r="A30" s="50"/>
       <c r="B30" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>153</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>154</v>
       </c>
       <c r="D30" s="52" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="K30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="L30" s="39" t="s">
         <v>40</v>
       </c>
       <c r="M30" s="55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
@@ -3754,19 +3791,19 @@
         <v>12</v>
       </c>
       <c r="G31" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="K31" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L31" s="39" t="s">
         <v>40</v>
@@ -3780,22 +3817,22 @@
       <c r="D32" s="52"/>
       <c r="E32" s="42"/>
       <c r="F32" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="I32" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L32" s="39" t="s">
         <v>40</v>
@@ -3810,19 +3847,19 @@
       <c r="E33" s="42"/>
       <c r="F33" s="50"/>
       <c r="G33" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L33" s="39" t="s">
         <v>40</v>
@@ -3837,19 +3874,19 @@
       <c r="E34" s="42"/>
       <c r="F34" s="50"/>
       <c r="G34" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L34" s="39" t="s">
         <v>40</v>
@@ -3859,79 +3896,79 @@
     <row r="35" spans="1:14" ht="57">
       <c r="A35" s="50"/>
       <c r="B35" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J35" s="18" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="57">
       <c r="A36" s="50"/>
       <c r="B36" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J36" s="18" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.5">
       <c r="A37" s="50"/>
       <c r="B37" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>40</v>
@@ -3940,30 +3977,30 @@
         <v>40</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="57" customHeight="1">
       <c r="A38" s="23"/>
       <c r="B38" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>46</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>48</v>
@@ -3978,10 +4015,10 @@
         <v>40</v>
       </c>
       <c r="M38" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N38" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="34" customFormat="1" ht="42.75">
@@ -3991,10 +4028,10 @@
       <c r="D39" s="52"/>
       <c r="E39" s="42"/>
       <c r="F39" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>318</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>59</v>
@@ -4003,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>40</v>
@@ -4025,7 +4062,7 @@
         <v>119</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="25" t="s">
@@ -4038,7 +4075,7 @@
         <v>120</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>118</v>
@@ -4047,10 +4084,10 @@
     <row r="41" spans="1:14" ht="71.25" customHeight="1">
       <c r="A41" s="50"/>
       <c r="B41" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="52" t="s">
         <v>121</v>
@@ -4078,7 +4115,7 @@
         <v>120</v>
       </c>
       <c r="M41" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
@@ -4088,16 +4125,16 @@
       <c r="D42" s="52"/>
       <c r="E42" s="47"/>
       <c r="F42" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G42" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="J42" s="49">
         <v>2</v>
@@ -4113,33 +4150,33 @@
     <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="50"/>
       <c r="B43" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G43" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>433</v>
-      </c>
       <c r="I43" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J43" s="44"/>
       <c r="K43" s="9" t="s">
         <v>40</v>
       </c>
       <c r="M43" s="55" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
@@ -4150,13 +4187,13 @@
       <c r="E44" s="43"/>
       <c r="F44" s="50"/>
       <c r="G44" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>438</v>
-      </c>
       <c r="I44" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J44" s="44"/>
       <c r="K44" s="9" t="s">
@@ -4172,13 +4209,13 @@
       <c r="E45" s="43"/>
       <c r="F45" s="50"/>
       <c r="G45" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>435</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>436</v>
       </c>
       <c r="J45" s="44"/>
       <c r="K45" s="9" t="s">
@@ -4194,13 +4231,13 @@
       <c r="E46" s="43"/>
       <c r="F46" s="50"/>
       <c r="G46" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>440</v>
-      </c>
       <c r="I46" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J46" s="44"/>
       <c r="K46" s="9" t="s">
@@ -4216,13 +4253,13 @@
       <c r="E47" s="43"/>
       <c r="F47" s="50"/>
       <c r="G47" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>442</v>
-      </c>
       <c r="I47" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J47" s="44"/>
       <c r="K47" s="9" t="s">
@@ -4238,13 +4275,13 @@
       <c r="E48" s="43"/>
       <c r="F48" s="50"/>
       <c r="G48" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="I48" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="J48" s="44"/>
       <c r="K48" s="9" t="s">
@@ -4259,23 +4296,23 @@
       <c r="D49" s="52"/>
       <c r="E49" s="43"/>
       <c r="F49" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J49" s="44"/>
       <c r="K49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M49" s="55"/>
     </row>
@@ -4286,16 +4323,16 @@
       <c r="D50" s="52"/>
       <c r="E50" s="43"/>
       <c r="F50" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="H50" s="24" t="s">
-        <v>448</v>
-      </c>
       <c r="I50" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J50" s="44"/>
       <c r="K50" s="9" t="s">
@@ -4303,80 +4340,152 @@
       </c>
       <c r="M50" s="55"/>
     </row>
-    <row r="51" spans="1:14" ht="28.5">
+    <row r="51" spans="1:14" ht="28.5" customHeight="1">
       <c r="A51" s="50"/>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52" t="s">
         <v>458</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47" t="s">
-        <v>459</v>
-      </c>
       <c r="E51" s="47"/>
-      <c r="F51" s="46"/>
-      <c r="H51" s="24"/>
-      <c r="J51" s="49"/>
+      <c r="F51" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="J51" s="49" t="s">
+        <v>415</v>
+      </c>
       <c r="M51" s="48"/>
+      <c r="N51" s="24" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="15">
       <c r="A52" s="50"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="47"/>
-      <c r="F52" s="46"/>
-      <c r="H52" s="24"/>
-      <c r="J52" s="49"/>
+      <c r="F52" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="J52" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="M52" s="48"/>
     </row>
     <row r="53" spans="1:14" ht="15">
       <c r="A53" s="50"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="47"/>
-      <c r="F53" s="46"/>
-      <c r="H53" s="24"/>
-      <c r="J53" s="49"/>
+      <c r="F53" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="J53" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="M53" s="48"/>
     </row>
-    <row r="54" spans="1:14" ht="15">
+    <row r="54" spans="1:14" ht="14.25" customHeight="1">
       <c r="A54" s="50"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="46"/>
-      <c r="H54" s="24"/>
-      <c r="J54" s="49"/>
-      <c r="M54" s="48"/>
-    </row>
-    <row r="55" spans="1:14" ht="14.25" customHeight="1">
+      <c r="B54" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="41"/>
+      <c r="F54" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="50"/>
-      <c r="B55" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>142</v>
-      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>199</v>
+      <c r="F55" s="50"/>
+      <c r="G55" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>40</v>
@@ -4384,12 +4493,7 @@
       <c r="L55" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>179</v>
-      </c>
+      <c r="M55" s="56"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="50"/>
@@ -4399,16 +4503,16 @@
       <c r="E56" s="41"/>
       <c r="F56" s="50"/>
       <c r="G56" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>6</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>40</v>
@@ -4425,17 +4529,17 @@
       <c r="D57" s="50"/>
       <c r="E57" s="41"/>
       <c r="F57" s="50"/>
-      <c r="G57" s="18" t="s">
-        <v>111</v>
+      <c r="G57" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>6</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>40</v>
@@ -4453,16 +4557,16 @@
       <c r="E58" s="41"/>
       <c r="F58" s="50"/>
       <c r="G58" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>6</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>40</v>
@@ -4480,16 +4584,16 @@
       <c r="E59" s="41"/>
       <c r="F59" s="50"/>
       <c r="G59" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>78</v>
+        <v>116</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" s="9">
+        <v>2</v>
       </c>
       <c r="K59" s="9" t="s">
         <v>40</v>
@@ -4507,16 +4611,16 @@
       <c r="E60" s="41"/>
       <c r="F60" s="50"/>
       <c r="G60" s="9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J60" s="9">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>40</v>
@@ -4534,16 +4638,16 @@
       <c r="E61" s="41"/>
       <c r="F61" s="50"/>
       <c r="G61" s="9" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61" s="9">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="K61" s="9" t="s">
         <v>40</v>
@@ -4553,7 +4657,7 @@
       </c>
       <c r="M61" s="56"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" ht="99.75">
       <c r="A62" s="50"/>
       <c r="B62" s="50"/>
       <c r="C62" s="50"/>
@@ -4561,16 +4665,16 @@
       <c r="E62" s="41"/>
       <c r="F62" s="50"/>
       <c r="G62" s="9" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>40</v>
@@ -4579,8 +4683,11 @@
         <v>40</v>
       </c>
       <c r="M62" s="56"/>
-    </row>
-    <row r="63" spans="1:14" ht="99.75">
+      <c r="N62" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="50"/>
       <c r="B63" s="50"/>
       <c r="C63" s="50"/>
@@ -4588,86 +4695,85 @@
       <c r="E63" s="41"/>
       <c r="F63" s="50"/>
       <c r="G63" s="9" t="s">
-        <v>180</v>
+        <v>396</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>181</v>
+        <v>397</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>40</v>
       </c>
       <c r="M63" s="56"/>
-      <c r="N63" s="24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+    </row>
+    <row r="64" spans="1:14" ht="45.75" customHeight="1">
       <c r="A64" s="50"/>
       <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="50"/>
+      <c r="C64" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="42"/>
+      <c r="F64" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="G64" s="9" t="s">
-        <v>397</v>
+        <v>46</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>398</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M64" s="56"/>
-    </row>
-    <row r="65" spans="1:14" ht="45.75" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="J64" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="N64" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="50"/>
       <c r="B65" s="50"/>
-      <c r="C65" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>201</v>
-      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="25" t="s">
-        <v>12</v>
+      <c r="F65" s="58" t="s">
+        <v>219</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J65" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="N65" s="24" t="s">
-        <v>219</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="M65" s="51"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="50"/>
@@ -4675,14 +4781,12 @@
       <c r="C66" s="52"/>
       <c r="D66" s="52"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="58" t="s">
-        <v>220</v>
-      </c>
+      <c r="F66" s="58"/>
       <c r="G66" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>6</v>
@@ -4691,10 +4795,10 @@
         <v>216</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M66" s="51"/>
     </row>
@@ -4706,22 +4810,22 @@
       <c r="E67" s="42"/>
       <c r="F67" s="58"/>
       <c r="G67" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M67" s="51"/>
     </row>
@@ -4733,78 +4837,85 @@
       <c r="E68" s="42"/>
       <c r="F68" s="58"/>
       <c r="G68" s="9" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H68" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I68" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="J68" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M68" s="51"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>192</v>
+      </c>
       <c r="E69" s="42"/>
-      <c r="F69" s="58"/>
+      <c r="F69" s="25" t="s">
+        <v>151</v>
+      </c>
       <c r="G69" s="9" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>206</v>
+        <v>167</v>
+      </c>
+      <c r="J69" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M69" s="51"/>
+        <v>40</v>
+      </c>
+      <c r="M69" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="50"/>
-      <c r="B70" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" s="52" t="s">
+      <c r="B70" s="50"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E70" s="42"/>
-      <c r="F70" s="25" t="s">
-        <v>152</v>
-      </c>
       <c r="G70" s="9" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J70" s="18" t="b">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>40</v>
@@ -4812,11 +4923,9 @@
       <c r="L70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="57" t="s">
-        <v>453</v>
-      </c>
+      <c r="M70" s="56"/>
       <c r="N70" s="9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4825,17 +4934,15 @@
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
       <c r="E71" s="42"/>
-      <c r="F71" s="50" t="s">
-        <v>194</v>
-      </c>
+      <c r="F71" s="50"/>
       <c r="G71" s="9" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>158</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>161</v>
@@ -4847,9 +4954,6 @@
         <v>40</v>
       </c>
       <c r="M71" s="56"/>
-      <c r="N71" s="9" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="50"/>
@@ -4859,16 +4963,16 @@
       <c r="E72" s="42"/>
       <c r="F72" s="50"/>
       <c r="G72" s="9" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>40</v>
@@ -4886,16 +4990,16 @@
       <c r="E73" s="42"/>
       <c r="F73" s="50"/>
       <c r="G73" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>40</v>
@@ -4906,23 +5010,33 @@
       <c r="M73" s="56"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="50"/>
+      <c r="A74" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="41"/>
+      <c r="F74" s="50" t="s">
+        <v>298</v>
+      </c>
       <c r="G74" s="9" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>40</v>
@@ -4930,36 +5044,28 @@
       <c r="L74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M74" s="56"/>
+      <c r="M74" s="57" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="D75" s="50" t="s">
-        <v>224</v>
-      </c>
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="50" t="s">
-        <v>299</v>
-      </c>
+      <c r="F75" s="50"/>
       <c r="G75" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H75" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I75" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>227</v>
-      </c>
       <c r="J75" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K75" s="9" t="s">
         <v>40</v>
@@ -4967,9 +5073,7 @@
       <c r="L75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M75" s="57" t="s">
-        <v>452</v>
-      </c>
+      <c r="M75" s="56"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="50"/>
@@ -4982,13 +5086,13 @@
         <v>230</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>40</v>
@@ -5009,13 +5113,13 @@
         <v>231</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I77" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J77" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="K77" s="9" t="s">
         <v>40</v>
@@ -5039,10 +5143,10 @@
         <v>240</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>40</v>
@@ -5060,16 +5164,16 @@
       <c r="E79" s="41"/>
       <c r="F79" s="50"/>
       <c r="G79" s="9" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K79" s="9" t="s">
         <v>40</v>
@@ -5087,16 +5191,16 @@
       <c r="E80" s="41"/>
       <c r="F80" s="50"/>
       <c r="G80" s="9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K80" s="9" t="s">
         <v>40</v>
@@ -5120,7 +5224,7 @@
         <v>246</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>248</v>
@@ -5141,16 +5245,16 @@
       <c r="E82" s="41"/>
       <c r="F82" s="50"/>
       <c r="G82" s="9" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>40</v>
@@ -5168,16 +5272,16 @@
       <c r="E83" s="41"/>
       <c r="F83" s="50"/>
       <c r="G83" s="9" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>251</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="K83" s="9" t="s">
         <v>40</v>
@@ -5187,24 +5291,24 @@
       </c>
       <c r="M83" s="56"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" s="3" customFormat="1">
       <c r="A84" s="50"/>
       <c r="B84" s="50"/>
       <c r="C84" s="50"/>
       <c r="D84" s="50"/>
       <c r="E84" s="41"/>
       <c r="F84" s="50"/>
-      <c r="G84" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>253</v>
+      <c r="G84" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>40</v>
@@ -5213,26 +5317,27 @@
         <v>40</v>
       </c>
       <c r="M84" s="56"/>
-    </row>
-    <row r="85" spans="1:14" s="3" customFormat="1">
+      <c r="N84" s="26"/>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="50"/>
       <c r="B85" s="50"/>
       <c r="C85" s="50"/>
       <c r="D85" s="50"/>
       <c r="E85" s="41"/>
       <c r="F85" s="50"/>
-      <c r="G85" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="H85" s="26" t="s">
+      <c r="G85" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="I85" s="26" t="s">
+      <c r="H85" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J85" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="J85" s="26" t="s">
-        <v>301</v>
-      </c>
       <c r="K85" s="9" t="s">
         <v>40</v>
       </c>
@@ -5240,7 +5345,6 @@
         <v>40</v>
       </c>
       <c r="M85" s="56"/>
-      <c r="N85" s="26"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="50"/>
@@ -5250,16 +5354,16 @@
       <c r="E86" s="41"/>
       <c r="F86" s="50"/>
       <c r="G86" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>40</v>
@@ -5277,16 +5381,16 @@
       <c r="E87" s="41"/>
       <c r="F87" s="50"/>
       <c r="G87" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="K87" s="9" t="s">
         <v>40</v>
@@ -5304,16 +5408,16 @@
       <c r="E88" s="41"/>
       <c r="F88" s="50"/>
       <c r="G88" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>40</v>
@@ -5340,7 +5444,7 @@
         <v>6</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>40</v>
@@ -5475,7 +5579,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>40</v>
@@ -5556,7 +5660,7 @@
         <v>6</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K97" s="9" t="s">
         <v>40</v>
@@ -5583,7 +5687,7 @@
         <v>6</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K98" s="9" t="s">
         <v>40</v>
@@ -5610,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K99" s="9" t="s">
         <v>40</v>
@@ -5691,7 +5795,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>40</v>
@@ -5709,7 +5813,7 @@
       <c r="E103" s="41"/>
       <c r="F103" s="50"/>
       <c r="G103" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>297</v>
@@ -5718,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K103" s="9" t="s">
         <v>40</v>
@@ -5736,16 +5840,16 @@
       <c r="E104" s="41"/>
       <c r="F104" s="50"/>
       <c r="G104" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>40</v>
@@ -5763,16 +5867,16 @@
       <c r="E105" s="41"/>
       <c r="F105" s="50"/>
       <c r="G105" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K105" s="9" t="s">
         <v>40</v>
@@ -5784,22 +5888,32 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="50"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="50"/>
+      <c r="B106" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="C106" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="E106" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="F106" s="50" t="s">
+        <v>405</v>
+      </c>
       <c r="G106" s="9" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>40</v>
@@ -5807,36 +5921,30 @@
       <c r="L106" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M106" s="56"/>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="M106" s="57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="28.5">
       <c r="A107" s="50"/>
-      <c r="B107" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="C107" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="D107" s="52" t="s">
-        <v>426</v>
-      </c>
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
       <c r="E107" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="F107" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="F107" s="50"/>
+      <c r="G107" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="H107" s="9" t="s">
-        <v>178</v>
+        <v>407</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>6</v>
+        <v>408</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>216</v>
+        <v>409</v>
       </c>
       <c r="K107" s="9" t="s">
         <v>40</v>
@@ -5844,30 +5952,28 @@
       <c r="L107" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M107" s="57" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="28.5">
+      <c r="M107" s="56"/>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="50"/>
       <c r="B108" s="50"/>
       <c r="C108" s="50"/>
       <c r="D108" s="50"/>
-      <c r="E108" s="42" t="s">
+      <c r="E108" s="8" t="s">
         <v>428</v>
       </c>
       <c r="F108" s="50"/>
       <c r="G108" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H108" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="I108" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="I108" s="9" t="s">
-        <v>409</v>
-      </c>
       <c r="J108" s="9" t="s">
-        <v>410</v>
+        <v>197</v>
       </c>
       <c r="K108" s="9" t="s">
         <v>40</v>
@@ -5877,26 +5983,26 @@
       </c>
       <c r="M108" s="56"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" ht="77.25" customHeight="1">
       <c r="A109" s="50"/>
       <c r="B109" s="50"/>
       <c r="C109" s="50"/>
       <c r="D109" s="50"/>
-      <c r="E109" s="8" t="s">
-        <v>429</v>
+      <c r="E109" s="41" t="s">
+        <v>424</v>
       </c>
       <c r="F109" s="50"/>
       <c r="G109" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>198</v>
+        <v>415</v>
       </c>
       <c r="K109" s="9" t="s">
         <v>40</v>
@@ -5905,27 +6011,30 @@
         <v>40</v>
       </c>
       <c r="M109" s="56"/>
-    </row>
-    <row r="110" spans="1:14" ht="77.25" customHeight="1">
+      <c r="N109" s="40" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="38.25" customHeight="1">
       <c r="A110" s="50"/>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
-      <c r="E110" s="41" t="s">
-        <v>425</v>
+      <c r="E110" s="42" t="s">
+        <v>426</v>
       </c>
       <c r="F110" s="50"/>
       <c r="G110" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K110" s="9" t="s">
         <v>40</v>
@@ -5934,30 +6043,25 @@
         <v>40</v>
       </c>
       <c r="M110" s="56"/>
-      <c r="N110" s="40" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="38.25" customHeight="1">
+    </row>
+    <row r="111" spans="1:14" ht="17.25" customHeight="1">
       <c r="A111" s="50"/>
       <c r="B111" s="50"/>
       <c r="C111" s="50"/>
       <c r="D111" s="50"/>
-      <c r="E111" s="42" t="s">
-        <v>427</v>
-      </c>
+      <c r="E111" s="41"/>
       <c r="F111" s="50"/>
       <c r="G111" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>40</v>
@@ -5967,92 +6071,68 @@
       </c>
       <c r="M111" s="56"/>
     </row>
-    <row r="112" spans="1:14" ht="17.25" customHeight="1">
+    <row r="112" spans="1:14" s="31" customFormat="1">
       <c r="A112" s="50"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="K112" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L112" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M112" s="56"/>
-    </row>
-    <row r="113" spans="1:14" s="31" customFormat="1">
-      <c r="A113" s="50"/>
-      <c r="B113" s="28" t="s">
+      <c r="B112" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C112" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D113" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E113" s="28"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="30"/>
-      <c r="K113" s="30"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="N113" s="30"/>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="L119" s="9" t="s">
-        <v>211</v>
+      <c r="E112" s="28"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="30"/>
+      <c r="M112" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="N112" s="30"/>
+    </row>
+    <row r="118" spans="12:12">
+      <c r="L118" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="73">
     <mergeCell ref="M41:M42"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="M55:M64"/>
+    <mergeCell ref="M54:M63"/>
     <mergeCell ref="M43:M50"/>
-    <mergeCell ref="M107:M112"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="B55:B69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="F107:F112"/>
-    <mergeCell ref="B75:B106"/>
-    <mergeCell ref="D75:D106"/>
-    <mergeCell ref="F75:F106"/>
-    <mergeCell ref="M75:M106"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="M106:M111"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="B54:B68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="F106:F111"/>
+    <mergeCell ref="B74:B105"/>
+    <mergeCell ref="D74:D105"/>
+    <mergeCell ref="F74:F105"/>
+    <mergeCell ref="M74:M105"/>
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M9:M12"/>
     <mergeCell ref="M13:M21"/>
     <mergeCell ref="M22:M29"/>
-    <mergeCell ref="A75:A113"/>
+    <mergeCell ref="A74:A112"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="D13:D21"/>
@@ -6062,12 +6142,12 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A40:A74"/>
+    <mergeCell ref="A40:A73"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C75:C106"/>
+    <mergeCell ref="C74:C105"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
@@ -6082,17 +6162,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B43:B50"/>
-    <mergeCell ref="M65:M69"/>
-    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="M64:M68"/>
+    <mergeCell ref="C69:C73"/>
     <mergeCell ref="N38:N39"/>
     <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="D55:D64"/>
-    <mergeCell ref="F55:F64"/>
-    <mergeCell ref="M70:M74"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="D54:D63"/>
+    <mergeCell ref="F54:F63"/>
+    <mergeCell ref="M69:M73"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="F43:F48"/>
-    <mergeCell ref="C43:C50"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C30:C39"/>
     <mergeCell ref="D38:D39"/>
@@ -6119,13 +6198,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" thickBot="1">
       <c r="A1" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>320</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
@@ -6133,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>322</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
@@ -6144,10 +6223,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>324</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" thickBot="1">
@@ -6155,10 +6234,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>326</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29.25" thickBot="1">
@@ -6166,10 +6245,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" thickBot="1">
@@ -6177,10 +6256,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>330</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" thickBot="1">
@@ -6188,10 +6267,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>332</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29.25" thickBot="1">
@@ -6199,10 +6278,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>334</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5" thickBot="1">
@@ -6210,10 +6289,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>336</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
@@ -6221,10 +6300,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>338</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1">
@@ -6232,10 +6311,10 @@
         <v>101</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>340</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" thickBot="1">
@@ -6243,10 +6322,10 @@
         <v>102</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>342</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.25" thickBot="1">
@@ -6254,10 +6333,10 @@
         <v>103</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>344</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
@@ -6265,10 +6344,10 @@
         <v>104</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>346</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1">
@@ -6276,10 +6355,10 @@
         <v>105</v>
       </c>
       <c r="B15" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>348</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29.25" thickBot="1">
@@ -6287,10 +6366,10 @@
         <v>106</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>350</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" thickBot="1">
@@ -6298,10 +6377,10 @@
         <v>107</v>
       </c>
       <c r="B17" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>352</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1">
@@ -6309,10 +6388,10 @@
         <v>108</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>354</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29.25" thickBot="1">
@@ -6320,10 +6399,10 @@
         <v>109</v>
       </c>
       <c r="B19" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>356</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29.25" thickBot="1">
@@ -6331,10 +6410,10 @@
         <v>110</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>358</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1">
@@ -6342,10 +6421,10 @@
         <v>111</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>360</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1">
@@ -6353,10 +6432,10 @@
         <v>112</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>362</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1">
@@ -6364,10 +6443,10 @@
         <v>114</v>
       </c>
       <c r="B23" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>364</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
@@ -6375,10 +6454,10 @@
         <v>210</v>
       </c>
       <c r="B24" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>366</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29.25" thickBot="1">
@@ -6386,10 +6465,10 @@
         <v>211</v>
       </c>
       <c r="B25" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>368</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29.25" thickBot="1">
@@ -6397,10 +6476,10 @@
         <v>212</v>
       </c>
       <c r="B26" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>370</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="29.25" thickBot="1">
@@ -6408,10 +6487,10 @@
         <v>800</v>
       </c>
       <c r="B27" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>372</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1">
@@ -6419,10 +6498,10 @@
         <v>801</v>
       </c>
       <c r="B28" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>374</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="29.25" thickBot="1">
@@ -6430,10 +6509,10 @@
         <v>802</v>
       </c>
       <c r="B29" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>376</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="29.25" thickBot="1">
@@ -6441,10 +6520,10 @@
         <v>803</v>
       </c>
       <c r="B30" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>378</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29.25" thickBot="1">
@@ -6452,10 +6531,10 @@
         <v>804</v>
       </c>
       <c r="B31" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>380</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.5" thickBot="1">
@@ -6463,10 +6542,10 @@
         <v>805</v>
       </c>
       <c r="B32" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>382</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="29.25" thickBot="1">
@@ -6474,10 +6553,10 @@
         <v>900</v>
       </c>
       <c r="B33" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>384</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="57.75" thickBot="1">
@@ -6485,10 +6564,10 @@
         <v>950</v>
       </c>
       <c r="B34" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" s="36" t="s">
         <v>386</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.75" thickBot="1">
@@ -6496,10 +6575,10 @@
         <v>951</v>
       </c>
       <c r="B35" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>388</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.5" thickBot="1">
@@ -6507,10 +6586,10 @@
         <v>952</v>
       </c>
       <c r="B36" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>390</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29.25" thickBot="1">
@@ -6518,10 +6597,10 @@
         <v>953</v>
       </c>
       <c r="B37" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>392</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A18FF2-6345-440A-AB32-7D408CE61617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221B2C0-A93E-496B-940E-601AB63146D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="479">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,10 +1228,6 @@
   </si>
   <si>
     <t>蛋白检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1869,6 +1865,35 @@
 已经扫描未付款 scanned
 已经支付 finished
 取消支付 cancelled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadGood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataForm
+(上传)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2010,7 +2035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2147,28 +2172,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2179,6 +2198,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2205,13 +2233,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2249,13 +2277,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2293,13 +2321,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2337,13 +2365,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>75045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2381,13 +2409,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2425,13 +2453,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2469,13 +2497,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2513,13 +2541,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2819,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2851,7 +2879,7 @@
         <v>253</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>67</v>
@@ -2875,20 +2903,20 @@
         <v>39</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="52" t="s">
@@ -2916,16 +2944,16 @@
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="51" t="s">
         <v>125</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="41"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -2948,14 +2976,14 @@
       <c r="L3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="41"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
@@ -2978,14 +3006,14 @@
       <c r="L4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="41"/>
       <c r="F5" s="25" t="s">
         <v>12</v>
@@ -3008,17 +3036,17 @@
       <c r="L5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="55"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="52" t="s">
@@ -3046,16 +3074,16 @@
       <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="51" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="47"/>
       <c r="F7" s="25" t="s">
         <v>12</v>
@@ -3078,13 +3106,13 @@
       <c r="L7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="50"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -3116,7 +3144,7 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="53" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="52" t="s">
@@ -3129,7 +3157,7 @@
         <v>117</v>
       </c>
       <c r="E9" s="42"/>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="53" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3150,18 +3178,18 @@
       <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="51" t="s">
         <v>128</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="50"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3180,16 +3208,16 @@
       <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="55"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="50"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="11" t="s">
         <v>93</v>
       </c>
@@ -3208,16 +3236,16 @@
       <c r="L11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="55"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="50"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3236,13 +3264,13 @@
       <c r="L12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="55"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="50"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="52" t="s">
         <v>70</v>
       </c>
@@ -3274,13 +3302,13 @@
       <c r="L13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="55" t="s">
-        <v>464</v>
+      <c r="M13" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="50"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -3306,11 +3334,11 @@
       <c r="L14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="55"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="50"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
@@ -3332,16 +3360,16 @@
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="55"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="50"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="53" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3362,16 +3390,16 @@
       <c r="L16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="55"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="50"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3390,16 +3418,16 @@
       <c r="L17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="55"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="50"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="50"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3418,16 +3446,16 @@
       <c r="L18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="55"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="50"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3446,16 +3474,16 @@
       <c r="L19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="55"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="50"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3476,16 +3504,16 @@
       <c r="L20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="55"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="50"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="50"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3504,16 +3532,16 @@
       <c r="L21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="55"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="53" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="52" t="s">
@@ -3523,7 +3551,7 @@
         <v>131</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="53" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3544,18 +3572,18 @@
       <c r="L22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="55" t="s">
+      <c r="M22" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="50"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3574,16 +3602,16 @@
       <c r="L23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="55"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="50"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3602,16 +3630,16 @@
       <c r="L24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="55"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="50"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3630,16 +3658,16 @@
       <c r="L25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="55"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="50"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3658,18 +3686,18 @@
       <c r="L26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="55"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="50"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3688,15 +3716,15 @@
       <c r="L27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="55"/>
+      <c r="M27" s="51"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="50"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3715,15 +3743,15 @@
       <c r="L28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="55"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="50"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3742,11 +3770,11 @@
       <c r="L29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="55"/>
+      <c r="M29" s="51"/>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="52" t="s">
@@ -3777,13 +3805,13 @@
       <c r="L30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="55" t="s">
-        <v>402</v>
+      <c r="M30" s="51" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
       <c r="E31" s="42"/>
@@ -3808,15 +3836,15 @@
       <c r="L31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="55"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="53" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -3837,15 +3865,15 @@
       <c r="L32" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="55"/>
+      <c r="M32" s="51"/>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="50"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="9" t="s">
         <v>155</v>
       </c>
@@ -3864,15 +3892,15 @@
       <c r="L33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="55"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="9" t="s">
         <v>154</v>
       </c>
@@ -3891,10 +3919,10 @@
       <c r="L34" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="55"/>
+      <c r="M34" s="51"/>
     </row>
     <row r="35" spans="1:14" ht="57">
-      <c r="A35" s="50"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="23" t="s">
         <v>169</v>
       </c>
@@ -3923,7 +3951,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="57">
-      <c r="A36" s="50"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="23" t="s">
         <v>170</v>
       </c>
@@ -3955,7 +3983,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.5">
-      <c r="A37" s="50"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="13" t="s">
         <v>164</v>
       </c>
@@ -3977,7 +4005,7 @@
         <v>40</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>163</v>
@@ -3985,12 +4013,12 @@
     </row>
     <row r="38" spans="1:14" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="53" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="25" t="s">
@@ -4014,24 +4042,24 @@
       <c r="L38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="N38" s="53" t="s">
-        <v>393</v>
+      <c r="M38" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="N38" s="58" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="34" customFormat="1" ht="42.75">
       <c r="A39" s="33"/>
-      <c r="B39" s="50"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
       <c r="E39" s="42"/>
       <c r="F39" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" s="32" t="s">
         <v>316</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>317</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>59</v>
@@ -4040,7 +4068,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>40</v>
@@ -4048,11 +4076,11 @@
       <c r="L39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="55"/>
-      <c r="N39" s="54"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="59"/>
     </row>
     <row r="40" spans="1:14" ht="28.5">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="53" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -4082,8 +4110,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="71.25" customHeight="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53" t="s">
         <v>208</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -4114,29 +4142,29 @@
       <c r="L41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="55" t="s">
+      <c r="M41" s="51" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
       <c r="E42" s="47"/>
       <c r="F42" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G42" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="J42" s="49">
+      <c r="J42" s="48">
         <v>2</v>
       </c>
       <c r="K42" s="9" t="s">
@@ -4145,302 +4173,325 @@
       <c r="L42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M42" s="55"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="53"/>
+      <c r="B43" s="53" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>459</v>
-      </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="50" t="s">
-        <v>463</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="J43" s="44"/>
       <c r="K43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="55" t="s">
-        <v>462</v>
+      <c r="L43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="51" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="50"/>
+      <c r="F44" s="53"/>
       <c r="G44" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>437</v>
-      </c>
       <c r="I44" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J44" s="44"/>
       <c r="K44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="55"/>
+      <c r="L44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" s="51"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="50"/>
+      <c r="F45" s="53"/>
       <c r="G45" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>435</v>
       </c>
       <c r="J45" s="44"/>
       <c r="K45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="55"/>
+      <c r="L45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="50"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>439</v>
-      </c>
       <c r="I46" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J46" s="44"/>
       <c r="K46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="55"/>
+      <c r="L46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M46" s="51"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>
       <c r="E47" s="43"/>
-      <c r="F47" s="50"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>441</v>
-      </c>
       <c r="I47" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J47" s="44"/>
       <c r="K47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="55"/>
+      <c r="L47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="51"/>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
       <c r="E48" s="43"/>
-      <c r="F48" s="50"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="I48" s="9" t="s">
         <v>443</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>444</v>
       </c>
       <c r="J48" s="44"/>
       <c r="K48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="55"/>
+      <c r="L48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="52"/>
       <c r="D49" s="52"/>
       <c r="E49" s="43"/>
       <c r="F49" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J49" s="44"/>
       <c r="K49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="M49" s="55"/>
+        <v>459</v>
+      </c>
+      <c r="M49" s="51"/>
     </row>
     <row r="50" spans="1:14" ht="28.5">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="52"/>
       <c r="D50" s="52"/>
       <c r="E50" s="43"/>
       <c r="F50" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="H50" s="24" t="s">
-        <v>447</v>
-      </c>
       <c r="I50" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J50" s="44"/>
       <c r="K50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="55"/>
-    </row>
-    <row r="51" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50" t="s">
-        <v>457</v>
+      <c r="M50" s="51"/>
+    </row>
+    <row r="51" spans="1:14" ht="83.25" customHeight="1">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53" t="s">
+        <v>456</v>
       </c>
       <c r="C51" s="52"/>
       <c r="D51" s="52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="J51" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="M51" s="48"/>
+        <v>454</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="M51" s="51" t="s">
+        <v>472</v>
+      </c>
       <c r="N51" s="24" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
       <c r="E52" s="47"/>
       <c r="F52" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H52" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="J52" s="49" t="b">
+      <c r="J52" s="48" t="b">
         <v>1</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="M52" s="48"/>
-    </row>
-    <row r="53" spans="1:14" ht="15">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
+        <v>459</v>
+      </c>
+      <c r="M52" s="51"/>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="52"/>
       <c r="D53" s="52"/>
       <c r="E53" s="47"/>
       <c r="F53" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H53" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="J53" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="J53" s="49" t="s">
-        <v>471</v>
-      </c>
       <c r="K53" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="M53" s="48"/>
+        <v>459</v>
+      </c>
+      <c r="M53" s="51"/>
     </row>
     <row r="54" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50" t="s">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="53" t="s">
         <v>141</v>
       </c>
       <c r="E54" s="41"/>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="53" t="s">
         <v>175</v>
       </c>
       <c r="G54" s="9" t="s">
@@ -4461,7 +4512,7 @@
       <c r="L54" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="56" t="s">
+      <c r="M54" s="54" t="s">
         <v>221</v>
       </c>
       <c r="N54" s="9" t="s">
@@ -4469,12 +4520,12 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="50"/>
+      <c r="F55" s="53"/>
       <c r="G55" s="18" t="s">
         <v>112</v>
       </c>
@@ -4493,15 +4544,15 @@
       <c r="L55" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="56"/>
+      <c r="M55" s="54"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="50"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="18" t="s">
         <v>111</v>
       </c>
@@ -4520,15 +4571,15 @@
       <c r="L56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="56"/>
+      <c r="M56" s="54"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="50"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="9" t="s">
         <v>114</v>
       </c>
@@ -4547,15 +4598,15 @@
       <c r="L57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="56"/>
+      <c r="M57" s="54"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="50"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="9" t="s">
         <v>113</v>
       </c>
@@ -4574,15 +4625,15 @@
       <c r="L58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="56"/>
+      <c r="M58" s="54"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="50"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="9" t="s">
         <v>116</v>
       </c>
@@ -4601,15 +4652,15 @@
       <c r="L59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="56"/>
+      <c r="M59" s="54"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="50"/>
+      <c r="F60" s="53"/>
       <c r="G60" s="9" t="s">
         <v>92</v>
       </c>
@@ -4628,15 +4679,15 @@
       <c r="L60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M60" s="56"/>
+      <c r="M60" s="54"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="50"/>
+      <c r="F61" s="53"/>
       <c r="G61" s="9" t="s">
         <v>195</v>
       </c>
@@ -4655,15 +4706,15 @@
       <c r="L61" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M61" s="56"/>
+      <c r="M61" s="54"/>
     </row>
     <row r="62" spans="1:14" ht="99.75">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="50"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="9" t="s">
         <v>179</v>
       </c>
@@ -4682,41 +4733,41 @@
       <c r="L62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M62" s="56"/>
+      <c r="M62" s="54"/>
       <c r="N62" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="50"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="I63" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="J63" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="K63" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="K63" s="9" t="s">
-        <v>400</v>
-      </c>
       <c r="L63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M63" s="56"/>
+      <c r="M63" s="54"/>
     </row>
     <row r="64" spans="1:14" ht="45.75" customHeight="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
       <c r="C64" s="52" t="s">
         <v>206</v>
       </c>
@@ -4739,7 +4790,7 @@
       <c r="J64" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M64" s="51" t="s">
+      <c r="M64" s="57" t="s">
         <v>220</v>
       </c>
       <c r="N64" s="24" t="s">
@@ -4747,12 +4798,12 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="58" t="s">
+      <c r="F65" s="56" t="s">
         <v>219</v>
       </c>
       <c r="G65" s="9" t="s">
@@ -4773,15 +4824,15 @@
       <c r="L65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M65" s="51"/>
+      <c r="M65" s="57"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="52"/>
       <c r="D66" s="52"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="58"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="9" t="s">
         <v>213</v>
       </c>
@@ -4800,15 +4851,15 @@
       <c r="L66" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M66" s="51"/>
+      <c r="M66" s="57"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
       <c r="E67" s="42"/>
-      <c r="F67" s="58"/>
+      <c r="F67" s="56"/>
       <c r="G67" s="9" t="s">
         <v>201</v>
       </c>
@@ -4827,15 +4878,15 @@
       <c r="L67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M67" s="51"/>
+      <c r="M67" s="57"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="53"/>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
       <c r="E68" s="42"/>
-      <c r="F68" s="58"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="9" t="s">
         <v>217</v>
       </c>
@@ -4854,11 +4905,11 @@
       <c r="L68" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M68" s="51"/>
+      <c r="M68" s="57"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="53" t="s">
         <v>182</v>
       </c>
       <c r="C69" s="52" t="s">
@@ -4889,20 +4940,20 @@
       <c r="L69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="57" t="s">
-        <v>452</v>
+      <c r="M69" s="55" t="s">
+        <v>451</v>
       </c>
       <c r="N69" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="50" t="s">
+      <c r="F70" s="53" t="s">
         <v>193</v>
       </c>
       <c r="G70" s="9" t="s">
@@ -4923,18 +4974,18 @@
       <c r="L70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="56"/>
+      <c r="M70" s="54"/>
       <c r="N70" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
       <c r="E71" s="42"/>
-      <c r="F71" s="50"/>
+      <c r="F71" s="53"/>
       <c r="G71" s="9" t="s">
         <v>155</v>
       </c>
@@ -4953,15 +5004,15 @@
       <c r="L71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M71" s="56"/>
+      <c r="M71" s="54"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
       <c r="E72" s="42"/>
-      <c r="F72" s="50"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="9" t="s">
         <v>187</v>
       </c>
@@ -4980,15 +5031,15 @@
       <c r="L72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="56"/>
+      <c r="M72" s="54"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
       <c r="E73" s="42"/>
-      <c r="F73" s="50"/>
+      <c r="F73" s="53"/>
       <c r="G73" s="9" t="s">
         <v>189</v>
       </c>
@@ -5007,24 +5058,24 @@
       <c r="L73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M73" s="56"/>
+      <c r="M73" s="54"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="53" t="s">
         <v>223</v>
       </c>
       <c r="E74" s="41"/>
-      <c r="F74" s="50" t="s">
-        <v>298</v>
+      <c r="F74" s="52" t="s">
+        <v>478</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>224</v>
@@ -5044,17 +5095,17 @@
       <c r="L74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M74" s="57" t="s">
-        <v>451</v>
+      <c r="M74" s="55" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="50"/>
+      <c r="F75" s="53"/>
       <c r="G75" s="9" t="s">
         <v>229</v>
       </c>
@@ -5073,15 +5124,15 @@
       <c r="L75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M75" s="56"/>
+      <c r="M75" s="54"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="41"/>
-      <c r="F76" s="50"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="9" t="s">
         <v>230</v>
       </c>
@@ -5100,15 +5151,15 @@
       <c r="L76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M76" s="56"/>
+      <c r="M76" s="54"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
       <c r="E77" s="41"/>
-      <c r="F77" s="50"/>
+      <c r="F77" s="53"/>
       <c r="G77" s="9" t="s">
         <v>231</v>
       </c>
@@ -5127,15 +5178,15 @@
       <c r="L77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M77" s="56"/>
+      <c r="M77" s="54"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
       <c r="E78" s="41"/>
-      <c r="F78" s="50"/>
+      <c r="F78" s="53"/>
       <c r="G78" s="9" t="s">
         <v>232</v>
       </c>
@@ -5154,15 +5205,15 @@
       <c r="L78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M78" s="56"/>
+      <c r="M78" s="54"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
       <c r="E79" s="41"/>
-      <c r="F79" s="50"/>
+      <c r="F79" s="53"/>
       <c r="G79" s="9" t="s">
         <v>242</v>
       </c>
@@ -5181,15 +5232,15 @@
       <c r="L79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M79" s="56"/>
+      <c r="M79" s="54"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="41"/>
-      <c r="F80" s="50"/>
+      <c r="F80" s="53"/>
       <c r="G80" s="9" t="s">
         <v>233</v>
       </c>
@@ -5208,15 +5259,15 @@
       <c r="L80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M80" s="56"/>
+      <c r="M80" s="54"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
       <c r="E81" s="41"/>
-      <c r="F81" s="50"/>
+      <c r="F81" s="53"/>
       <c r="G81" s="9" t="s">
         <v>234</v>
       </c>
@@ -5235,15 +5286,15 @@
       <c r="L81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M81" s="56"/>
+      <c r="M81" s="54"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="41"/>
-      <c r="F82" s="50"/>
+      <c r="F82" s="53"/>
       <c r="G82" s="9" t="s">
         <v>249</v>
       </c>
@@ -5254,7 +5305,7 @@
         <v>226</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>40</v>
@@ -5262,15 +5313,15 @@
       <c r="L82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M82" s="56"/>
+      <c r="M82" s="54"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
       <c r="E83" s="41"/>
-      <c r="F83" s="50"/>
+      <c r="F83" s="53"/>
       <c r="G83" s="9" t="s">
         <v>263</v>
       </c>
@@ -5289,15 +5340,15 @@
       <c r="L83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M83" s="56"/>
+      <c r="M83" s="54"/>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="41"/>
-      <c r="F84" s="50"/>
+      <c r="F84" s="53"/>
       <c r="G84" s="26" t="s">
         <v>254</v>
       </c>
@@ -5308,7 +5359,7 @@
         <v>226</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>40</v>
@@ -5316,16 +5367,16 @@
       <c r="L84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M84" s="56"/>
+      <c r="M84" s="54"/>
       <c r="N84" s="26"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
       <c r="E85" s="41"/>
-      <c r="F85" s="50"/>
+      <c r="F85" s="53"/>
       <c r="G85" s="9" t="s">
         <v>256</v>
       </c>
@@ -5344,15 +5395,15 @@
       <c r="L85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M85" s="56"/>
+      <c r="M85" s="54"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
       <c r="E86" s="41"/>
-      <c r="F86" s="50"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="9" t="s">
         <v>258</v>
       </c>
@@ -5363,7 +5414,7 @@
         <v>260</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>40</v>
@@ -5371,15 +5422,15 @@
       <c r="L86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M86" s="56"/>
+      <c r="M86" s="54"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="41"/>
-      <c r="F87" s="50"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="9" t="s">
         <v>261</v>
       </c>
@@ -5398,15 +5449,15 @@
       <c r="L87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M87" s="56"/>
+      <c r="M87" s="54"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="41"/>
-      <c r="F88" s="50"/>
+      <c r="F88" s="53"/>
       <c r="G88" s="9" t="s">
         <v>264</v>
       </c>
@@ -5417,7 +5468,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>40</v>
@@ -5425,15 +5476,15 @@
       <c r="L88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="56"/>
+      <c r="M88" s="54"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
       <c r="E89" s="41"/>
-      <c r="F89" s="50"/>
+      <c r="F89" s="53"/>
       <c r="G89" s="9" t="s">
         <v>265</v>
       </c>
@@ -5444,7 +5495,7 @@
         <v>6</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>40</v>
@@ -5452,15 +5503,15 @@
       <c r="L89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M89" s="56"/>
+      <c r="M89" s="54"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
       <c r="E90" s="41"/>
-      <c r="F90" s="50"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="9" t="s">
         <v>266</v>
       </c>
@@ -5471,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>40</v>
@@ -5479,15 +5530,15 @@
       <c r="L90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M90" s="56"/>
+      <c r="M90" s="54"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="50"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
       <c r="E91" s="41"/>
-      <c r="F91" s="50"/>
+      <c r="F91" s="53"/>
       <c r="G91" s="9" t="s">
         <v>267</v>
       </c>
@@ -5498,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K91" s="9" t="s">
         <v>40</v>
@@ -5506,15 +5557,15 @@
       <c r="L91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="56"/>
+      <c r="M91" s="54"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="50"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
       <c r="E92" s="41"/>
-      <c r="F92" s="50"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="9" t="s">
         <v>268</v>
       </c>
@@ -5525,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>40</v>
@@ -5533,15 +5584,15 @@
       <c r="L92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M92" s="56"/>
+      <c r="M92" s="54"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="50"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
       <c r="E93" s="41"/>
-      <c r="F93" s="50"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="9" t="s">
         <v>269</v>
       </c>
@@ -5552,7 +5603,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K93" s="9" t="s">
         <v>40</v>
@@ -5560,15 +5611,15 @@
       <c r="L93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M93" s="56"/>
+      <c r="M93" s="54"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
       <c r="E94" s="41"/>
-      <c r="F94" s="50"/>
+      <c r="F94" s="53"/>
       <c r="G94" s="9" t="s">
         <v>270</v>
       </c>
@@ -5579,7 +5630,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>40</v>
@@ -5587,15 +5638,15 @@
       <c r="L94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M94" s="56"/>
+      <c r="M94" s="54"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
       <c r="E95" s="41"/>
-      <c r="F95" s="50"/>
+      <c r="F95" s="53"/>
       <c r="G95" s="9" t="s">
         <v>271</v>
       </c>
@@ -5606,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K95" s="9" t="s">
         <v>40</v>
@@ -5614,15 +5665,15 @@
       <c r="L95" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="56"/>
+      <c r="M95" s="54"/>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="50"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
       <c r="E96" s="41"/>
-      <c r="F96" s="50"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="9" t="s">
         <v>272</v>
       </c>
@@ -5633,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K96" s="9" t="s">
         <v>40</v>
@@ -5641,15 +5692,15 @@
       <c r="L96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M96" s="56"/>
+      <c r="M96" s="54"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="50"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
       <c r="E97" s="41"/>
-      <c r="F97" s="50"/>
+      <c r="F97" s="53"/>
       <c r="G97" s="9" t="s">
         <v>273</v>
       </c>
@@ -5660,7 +5711,7 @@
         <v>6</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K97" s="9" t="s">
         <v>40</v>
@@ -5668,15 +5719,15 @@
       <c r="L97" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M97" s="56"/>
+      <c r="M97" s="54"/>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
       <c r="E98" s="41"/>
-      <c r="F98" s="50"/>
+      <c r="F98" s="53"/>
       <c r="G98" s="9" t="s">
         <v>274</v>
       </c>
@@ -5687,7 +5738,7 @@
         <v>6</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K98" s="9" t="s">
         <v>40</v>
@@ -5695,15 +5746,15 @@
       <c r="L98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M98" s="56"/>
+      <c r="M98" s="54"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
       <c r="E99" s="41"/>
-      <c r="F99" s="50"/>
+      <c r="F99" s="53"/>
       <c r="G99" s="9" t="s">
         <v>275</v>
       </c>
@@ -5714,7 +5765,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K99" s="9" t="s">
         <v>40</v>
@@ -5722,15 +5773,15 @@
       <c r="L99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M99" s="56"/>
+      <c r="M99" s="54"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="50"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
       <c r="E100" s="41"/>
-      <c r="F100" s="50"/>
+      <c r="F100" s="53"/>
       <c r="G100" s="9" t="s">
         <v>276</v>
       </c>
@@ -5741,7 +5792,7 @@
         <v>6</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K100" s="9" t="s">
         <v>40</v>
@@ -5749,15 +5800,15 @@
       <c r="L100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="56"/>
+      <c r="M100" s="54"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="50"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
+      <c r="A101" s="53"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="41"/>
-      <c r="F101" s="50"/>
+      <c r="F101" s="53"/>
       <c r="G101" s="9" t="s">
         <v>277</v>
       </c>
@@ -5768,7 +5819,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K101" s="9" t="s">
         <v>40</v>
@@ -5776,15 +5827,15 @@
       <c r="L101" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M101" s="56"/>
+      <c r="M101" s="54"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="50"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="50"/>
+      <c r="F102" s="53"/>
       <c r="G102" s="9" t="s">
         <v>278</v>
       </c>
@@ -5795,7 +5846,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>40</v>
@@ -5803,15 +5854,15 @@
       <c r="L102" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M102" s="56"/>
+      <c r="M102" s="54"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="50"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
+      <c r="A103" s="53"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
       <c r="E103" s="41"/>
-      <c r="F103" s="50"/>
+      <c r="F103" s="53"/>
       <c r="G103" s="9" t="s">
         <v>280</v>
       </c>
@@ -5822,7 +5873,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K103" s="9" t="s">
         <v>40</v>
@@ -5830,15 +5881,15 @@
       <c r="L103" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M103" s="56"/>
+      <c r="M103" s="54"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="50"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
       <c r="E104" s="41"/>
-      <c r="F104" s="50"/>
+      <c r="F104" s="53"/>
       <c r="G104" s="9" t="s">
         <v>279</v>
       </c>
@@ -5849,7 +5900,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>40</v>
@@ -5857,15 +5908,15 @@
       <c r="L104" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M104" s="56"/>
+      <c r="M104" s="54"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="50"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
       <c r="E105" s="41"/>
-      <c r="F105" s="50"/>
+      <c r="F105" s="53"/>
       <c r="G105" s="9" t="s">
         <v>281</v>
       </c>
@@ -5876,7 +5927,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K105" s="9" t="s">
         <v>40</v>
@@ -5884,24 +5935,24 @@
       <c r="L105" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M105" s="56"/>
+      <c r="M105" s="54"/>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="50"/>
-      <c r="B106" s="50" t="s">
+      <c r="A106" s="53"/>
+      <c r="B106" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="C106" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="C106" s="50" t="s">
+      <c r="D106" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="E106" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="F106" s="53" t="s">
         <v>404</v>
-      </c>
-      <c r="D106" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="E106" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="F106" s="50" t="s">
-        <v>405</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>211</v>
@@ -5921,56 +5972,56 @@
       <c r="L106" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M106" s="57" t="s">
-        <v>450</v>
+      <c r="M106" s="55" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="28.5">
-      <c r="A107" s="50"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
       <c r="E107" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="F107" s="53"/>
+      <c r="G107" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M107" s="54"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F107" s="50"/>
-      <c r="G107" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="H107" s="9" t="s">
+      <c r="F108" s="53"/>
+      <c r="G108" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="I108" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="K107" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L107" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M107" s="56"/>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" s="50"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="F108" s="50"/>
-      <c r="G108" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>197</v>
@@ -5981,136 +6032,229 @@
       <c r="L108" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M108" s="56"/>
+      <c r="M108" s="54"/>
     </row>
     <row r="109" spans="1:14" ht="77.25" customHeight="1">
-      <c r="A109" s="50"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
+      <c r="A109" s="53"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
       <c r="E109" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="F109" s="50"/>
+        <v>423</v>
+      </c>
+      <c r="F109" s="53"/>
       <c r="G109" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H109" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="I109" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M109" s="54"/>
+      <c r="N109" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="I109" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="J109" s="9" t="s">
+    </row>
+    <row r="110" spans="1:14" ht="38.25" customHeight="1">
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="F110" s="53"/>
+      <c r="G110" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="K109" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L109" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M109" s="56"/>
-      <c r="N109" s="40" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="38.25" customHeight="1">
-      <c r="A110" s="50"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
-      <c r="E110" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="F110" s="50"/>
-      <c r="G110" s="9" t="s">
+      <c r="H110" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="H110" s="9" t="s">
+      <c r="I110" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="J110" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="I110" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="J110" s="9" t="s">
+      <c r="K110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M110" s="54"/>
+    </row>
+    <row r="111" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A111" s="53"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="K110" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L110" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M110" s="56"/>
-    </row>
-    <row r="111" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A111" s="50"/>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="9" t="s">
+      <c r="H111" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="H111" s="9" t="s">
+      <c r="I111" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="J111" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="I111" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>421</v>
-      </c>
       <c r="K111" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L111" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M111" s="56"/>
-    </row>
-    <row r="112" spans="1:14" s="31" customFormat="1">
-      <c r="A112" s="50"/>
-      <c r="B112" s="28" t="s">
+      <c r="M111" s="54"/>
+    </row>
+    <row r="112" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A112" s="53"/>
+      <c r="B112" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="C112" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="M112" s="50"/>
+    </row>
+    <row r="113" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A113" s="53"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="M113" s="50"/>
+    </row>
+    <row r="114" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A114" s="53"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="M114" s="50"/>
+    </row>
+    <row r="115" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A115" s="53"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="M115" s="50"/>
+    </row>
+    <row r="116" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A116" s="53"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
+      <c r="M116" s="50"/>
+    </row>
+    <row r="117" spans="1:14" s="31" customFormat="1">
+      <c r="A117" s="53"/>
+      <c r="B117" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C117" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D117" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E112" s="28"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="30"/>
-      <c r="K112" s="30"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="29" t="s">
+      <c r="E117" s="28"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+      <c r="M117" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N112" s="30"/>
-    </row>
-    <row r="118" spans="12:12">
-      <c r="L118" s="9" t="s">
+      <c r="N117" s="30"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="L123" s="9" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="M54:M63"/>
-    <mergeCell ref="M43:M50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D51:D53"/>
+  <mergeCells count="74">
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="M64:M68"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="D54:D63"/>
+    <mergeCell ref="F54:F63"/>
+    <mergeCell ref="M69:M73"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A74:A117"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A40:A73"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C74:C105"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="M13:M21"/>
+    <mergeCell ref="M22:M29"/>
     <mergeCell ref="M106:M111"/>
     <mergeCell ref="B69:B73"/>
     <mergeCell ref="D69:D73"/>
@@ -6127,54 +6271,17 @@
     <mergeCell ref="D74:D105"/>
     <mergeCell ref="F74:F105"/>
     <mergeCell ref="M74:M105"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="M13:M21"/>
-    <mergeCell ref="M22:M29"/>
-    <mergeCell ref="A74:A112"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A40:A73"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C74:C105"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="M54:M63"/>
+    <mergeCell ref="M43:M50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="M51:M53"/>
     <mergeCell ref="B43:B50"/>
-    <mergeCell ref="M64:M68"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="D54:D63"/>
-    <mergeCell ref="F54:F63"/>
-    <mergeCell ref="M69:M73"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="F43:F48"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6198,13 +6305,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" thickBot="1">
       <c r="A1" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>319</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
@@ -6212,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>321</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
@@ -6223,10 +6330,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>323</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" thickBot="1">
@@ -6234,10 +6341,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>325</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29.25" thickBot="1">
@@ -6245,10 +6352,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>327</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" thickBot="1">
@@ -6256,10 +6363,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>329</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" thickBot="1">
@@ -6267,10 +6374,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>331</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29.25" thickBot="1">
@@ -6278,10 +6385,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>333</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5" thickBot="1">
@@ -6289,10 +6396,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>335</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
@@ -6300,10 +6407,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>337</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1">
@@ -6311,10 +6418,10 @@
         <v>101</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>339</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" thickBot="1">
@@ -6322,10 +6429,10 @@
         <v>102</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>341</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.25" thickBot="1">
@@ -6333,10 +6440,10 @@
         <v>103</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>343</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
@@ -6344,10 +6451,10 @@
         <v>104</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>345</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1">
@@ -6355,10 +6462,10 @@
         <v>105</v>
       </c>
       <c r="B15" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>347</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29.25" thickBot="1">
@@ -6366,10 +6473,10 @@
         <v>106</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>349</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" thickBot="1">
@@ -6377,10 +6484,10 @@
         <v>107</v>
       </c>
       <c r="B17" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>351</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1">
@@ -6388,10 +6495,10 @@
         <v>108</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>353</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29.25" thickBot="1">
@@ -6399,10 +6506,10 @@
         <v>109</v>
       </c>
       <c r="B19" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>355</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29.25" thickBot="1">
@@ -6410,10 +6517,10 @@
         <v>110</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>357</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1">
@@ -6421,10 +6528,10 @@
         <v>111</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>359</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1">
@@ -6432,10 +6539,10 @@
         <v>112</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>361</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1">
@@ -6443,10 +6550,10 @@
         <v>114</v>
       </c>
       <c r="B23" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>363</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
@@ -6454,10 +6561,10 @@
         <v>210</v>
       </c>
       <c r="B24" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>365</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29.25" thickBot="1">
@@ -6465,10 +6572,10 @@
         <v>211</v>
       </c>
       <c r="B25" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>367</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29.25" thickBot="1">
@@ -6476,10 +6583,10 @@
         <v>212</v>
       </c>
       <c r="B26" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>369</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="29.25" thickBot="1">
@@ -6487,10 +6594,10 @@
         <v>800</v>
       </c>
       <c r="B27" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>371</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1">
@@ -6498,10 +6605,10 @@
         <v>801</v>
       </c>
       <c r="B28" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>373</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="29.25" thickBot="1">
@@ -6509,10 +6616,10 @@
         <v>802</v>
       </c>
       <c r="B29" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>375</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="29.25" thickBot="1">
@@ -6520,10 +6627,10 @@
         <v>803</v>
       </c>
       <c r="B30" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>377</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29.25" thickBot="1">
@@ -6531,10 +6638,10 @@
         <v>804</v>
       </c>
       <c r="B31" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>379</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.5" thickBot="1">
@@ -6542,10 +6649,10 @@
         <v>805</v>
       </c>
       <c r="B32" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>381</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="29.25" thickBot="1">
@@ -6553,10 +6660,10 @@
         <v>900</v>
       </c>
       <c r="B33" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>383</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="57.75" thickBot="1">
@@ -6564,10 +6671,10 @@
         <v>950</v>
       </c>
       <c r="B34" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="36" t="s">
         <v>385</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.75" thickBot="1">
@@ -6575,10 +6682,10 @@
         <v>951</v>
       </c>
       <c r="B35" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>387</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.5" thickBot="1">
@@ -6586,10 +6693,10 @@
         <v>952</v>
       </c>
       <c r="B36" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>389</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29.25" thickBot="1">
@@ -6597,10 +6704,10 @@
         <v>953</v>
       </c>
       <c r="B37" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>391</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221B2C0-A93E-496B-940E-601AB63146D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BDEE84-672D-455B-8070-693F97A2175B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="502">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1876,14 +1876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1894,6 +1886,105 @@
   <si>
     <t>dataForm
 (上传)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“基础套餐”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”详细介绍“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支服务名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“基础版”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片分支名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”01“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post(upload)</t>
+  </si>
+  <si>
+    <t>post(upload)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回goodId，后端给detail分配detailId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slides为固有标签，作为滚播图片，滚播图片第一张作为头图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,7 +2126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2178,9 +2269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,13 +2321,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2277,13 +2365,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2321,13 +2409,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2365,13 +2453,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>75045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2409,13 +2497,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2453,13 +2541,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2497,13 +2585,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2541,13 +2629,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2847,17 +2935,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74:F105"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="4" width="20.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" style="25" customWidth="1"/>
     <col min="7" max="10" width="15.625" style="9" customWidth="1"/>
     <col min="11" max="12" width="9" style="9"/>
@@ -2910,16 +2998,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="42"/>
@@ -2944,16 +3032,16 @@
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>125</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="41"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -2976,14 +3064,14 @@
       <c r="L3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="41"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
@@ -3006,14 +3094,14 @@
       <c r="L4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="51"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="41"/>
       <c r="F5" s="25" t="s">
         <v>12</v>
@@ -3036,20 +3124,20 @@
       <c r="L5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="42"/>
@@ -3074,16 +3162,16 @@
       <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="50" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="47"/>
       <c r="F7" s="25" t="s">
         <v>12</v>
@@ -3106,13 +3194,13 @@
       <c r="L7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="50"/>
       <c r="N7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -3144,20 +3232,20 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="42"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3178,18 +3266,18 @@
       <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="50" t="s">
         <v>128</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="53"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3208,16 +3296,16 @@
       <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="51"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="53"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="11" t="s">
         <v>93</v>
       </c>
@@ -3236,16 +3324,16 @@
       <c r="L11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="51"/>
+      <c r="M11" s="50"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="53"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3264,20 +3352,20 @@
       <c r="L12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="51"/>
+      <c r="M12" s="50"/>
       <c r="N12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>130</v>
       </c>
       <c r="E13" s="42"/>
@@ -3302,16 +3390,16 @@
       <c r="L13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="51" t="s">
+      <c r="M13" s="50" t="s">
         <v>463</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="42"/>
       <c r="F14" s="25" t="s">
         <v>12</v>
@@ -3334,14 +3422,14 @@
       <c r="L14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="42"/>
       <c r="F15" s="25" t="s">
         <v>12</v>
@@ -3360,16 +3448,16 @@
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="51"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="53"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3390,16 +3478,16 @@
       <c r="L16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="50"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="53"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3418,16 +3506,16 @@
       <c r="L17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="53"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="53"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3446,16 +3534,16 @@
       <c r="L18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="50"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="53"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="53"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3474,16 +3562,16 @@
       <c r="L19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="50"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="53"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3504,16 +3592,16 @@
       <c r="L20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="53"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="53"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3532,26 +3620,26 @@
       <c r="L21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="51" t="s">
         <v>131</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="52" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3572,18 +3660,18 @@
       <c r="L22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="50" t="s">
         <v>129</v>
       </c>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="53"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3602,16 +3690,16 @@
       <c r="L23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="53"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3630,16 +3718,16 @@
       <c r="L24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="53"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3658,16 +3746,16 @@
       <c r="L25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="50"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="53"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3686,18 +3774,18 @@
       <c r="L26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="50"/>
       <c r="N26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="53"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3716,15 +3804,15 @@
       <c r="L27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="51"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="53"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3743,15 +3831,15 @@
       <c r="L28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="51"/>
+      <c r="M28" s="50"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="53"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3770,17 +3858,17 @@
       <c r="L29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="51" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="42"/>
@@ -3805,15 +3893,15 @@
       <c r="L30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="51" t="s">
+      <c r="M30" s="50" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="42"/>
       <c r="F31" s="25" t="s">
         <v>12</v>
@@ -3836,15 +3924,15 @@
       <c r="L31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="51"/>
+      <c r="M31" s="50"/>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="52" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -3865,15 +3953,15 @@
       <c r="L32" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="51"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="53"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="9" t="s">
         <v>155</v>
       </c>
@@ -3892,15 +3980,15 @@
       <c r="L33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="51"/>
+      <c r="M33" s="50"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="53"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="9" t="s">
         <v>154</v>
       </c>
@@ -3919,14 +4007,14 @@
       <c r="L34" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="51"/>
+      <c r="M34" s="50"/>
     </row>
     <row r="35" spans="1:14" ht="57">
-      <c r="A35" s="53"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="22" t="s">
         <v>168</v>
       </c>
@@ -3951,11 +4039,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="57">
-      <c r="A36" s="53"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="22" t="s">
         <v>171</v>
       </c>
@@ -3983,11 +4071,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.5">
-      <c r="A37" s="53"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="12" t="s">
         <v>141</v>
       </c>
@@ -4013,11 +4101,11 @@
     </row>
     <row r="38" spans="1:14" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="51" t="s">
         <v>314</v>
       </c>
       <c r="E38" s="42"/>
@@ -4042,18 +4130,18 @@
       <c r="L38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="51" t="s">
+      <c r="M38" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="N38" s="58" t="s">
+      <c r="N38" s="57" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="34" customFormat="1" ht="42.75">
       <c r="A39" s="33"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="42"/>
       <c r="F39" s="33" t="s">
         <v>315</v>
@@ -4076,11 +4164,11 @@
       <c r="L39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="51"/>
-      <c r="N39" s="59"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="58"/>
     </row>
     <row r="40" spans="1:14" ht="28.5">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="52" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -4110,14 +4198,14 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="71.25" customHeight="1">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="51" t="s">
         <v>121</v>
       </c>
       <c r="E41" s="42"/>
@@ -4142,15 +4230,15 @@
       <c r="L41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="51" t="s">
+      <c r="M41" s="50" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="47"/>
       <c r="F42" s="46" t="s">
         <v>455</v>
@@ -4173,21 +4261,21 @@
       <c r="L42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M42" s="51"/>
+      <c r="M42" s="50"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="51" t="s">
         <v>458</v>
       </c>
       <c r="E43" s="42"/>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="52" t="s">
         <v>462</v>
       </c>
       <c r="G43" s="9" t="s">
@@ -4206,17 +4294,17 @@
       <c r="L43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="51" t="s">
+      <c r="M43" s="50" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="53"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="9" t="s">
         <v>435</v>
       </c>
@@ -4233,15 +4321,15 @@
       <c r="L44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="51"/>
+      <c r="M44" s="50"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="53"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="9" t="s">
         <v>432</v>
       </c>
@@ -4258,15 +4346,15 @@
       <c r="L45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="51"/>
+      <c r="M45" s="50"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="53"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="9" t="s">
         <v>437</v>
       </c>
@@ -4283,15 +4371,15 @@
       <c r="L46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="51"/>
+      <c r="M46" s="50"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="43"/>
-      <c r="F47" s="53"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="9" t="s">
         <v>439</v>
       </c>
@@ -4308,15 +4396,15 @@
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="51"/>
+      <c r="M47" s="50"/>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="43"/>
-      <c r="F48" s="53"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="9" t="s">
         <v>441</v>
       </c>
@@ -4333,13 +4421,13 @@
       <c r="L48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="51"/>
+      <c r="M48" s="50"/>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="43"/>
       <c r="F49" s="45" t="s">
         <v>444</v>
@@ -4360,13 +4448,13 @@
       <c r="L49" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M49" s="51"/>
+      <c r="M49" s="50"/>
     </row>
     <row r="50" spans="1:14" ht="28.5">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="43"/>
       <c r="F50" s="45" t="s">
         <v>444</v>
@@ -4384,15 +4472,15 @@
       <c r="K50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="51"/>
+      <c r="M50" s="50"/>
     </row>
     <row r="51" spans="1:14" ht="83.25" customHeight="1">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="51" t="s">
         <v>457</v>
       </c>
       <c r="E51" s="47"/>
@@ -4414,7 +4502,7 @@
       <c r="L51" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="M51" s="51" t="s">
+      <c r="M51" s="50" t="s">
         <v>472</v>
       </c>
       <c r="N51" s="24" t="s">
@@ -4422,10 +4510,10 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="47"/>
       <c r="F52" s="46" t="s">
         <v>455</v>
@@ -4448,13 +4536,13 @@
       <c r="L52" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M52" s="51"/>
+      <c r="M52" s="50"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="47"/>
       <c r="F53" s="46" t="s">
         <v>455</v>
@@ -4477,21 +4565,21 @@
       <c r="L53" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M53" s="51"/>
+      <c r="M53" s="50"/>
     </row>
     <row r="54" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="52" t="s">
         <v>141</v>
       </c>
       <c r="E54" s="41"/>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="52" t="s">
         <v>175</v>
       </c>
       <c r="G54" s="9" t="s">
@@ -4512,7 +4600,7 @@
       <c r="L54" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="54" t="s">
+      <c r="M54" s="53" t="s">
         <v>221</v>
       </c>
       <c r="N54" s="9" t="s">
@@ -4520,12 +4608,12 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="53"/>
+      <c r="F55" s="52"/>
       <c r="G55" s="18" t="s">
         <v>112</v>
       </c>
@@ -4544,15 +4632,15 @@
       <c r="L55" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="54"/>
+      <c r="M55" s="53"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="53"/>
+      <c r="F56" s="52"/>
       <c r="G56" s="18" t="s">
         <v>111</v>
       </c>
@@ -4571,15 +4659,15 @@
       <c r="L56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="54"/>
+      <c r="M56" s="53"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="53"/>
+      <c r="F57" s="52"/>
       <c r="G57" s="9" t="s">
         <v>114</v>
       </c>
@@ -4598,15 +4686,15 @@
       <c r="L57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="54"/>
+      <c r="M57" s="53"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="53"/>
+      <c r="F58" s="52"/>
       <c r="G58" s="9" t="s">
         <v>113</v>
       </c>
@@ -4625,15 +4713,15 @@
       <c r="L58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="54"/>
+      <c r="M58" s="53"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="53"/>
+      <c r="F59" s="52"/>
       <c r="G59" s="9" t="s">
         <v>116</v>
       </c>
@@ -4652,15 +4740,15 @@
       <c r="L59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="54"/>
+      <c r="M59" s="53"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="53"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="9" t="s">
         <v>92</v>
       </c>
@@ -4679,15 +4767,15 @@
       <c r="L60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M60" s="54"/>
+      <c r="M60" s="53"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="53"/>
+      <c r="F61" s="52"/>
       <c r="G61" s="9" t="s">
         <v>195</v>
       </c>
@@ -4706,15 +4794,15 @@
       <c r="L61" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M61" s="54"/>
+      <c r="M61" s="53"/>
     </row>
     <row r="62" spans="1:14" ht="99.75">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="53"/>
+      <c r="F62" s="52"/>
       <c r="G62" s="9" t="s">
         <v>179</v>
       </c>
@@ -4733,18 +4821,18 @@
       <c r="L62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M62" s="54"/>
+      <c r="M62" s="53"/>
       <c r="N62" s="24" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="53"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="9" t="s">
         <v>395</v>
       </c>
@@ -4763,15 +4851,15 @@
       <c r="L63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M63" s="54"/>
+      <c r="M63" s="53"/>
     </row>
     <row r="64" spans="1:14" ht="45.75" customHeight="1">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="52" t="s">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="51" t="s">
         <v>200</v>
       </c>
       <c r="E64" s="42"/>
@@ -4790,7 +4878,7 @@
       <c r="J64" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M64" s="57" t="s">
+      <c r="M64" s="56" t="s">
         <v>220</v>
       </c>
       <c r="N64" s="24" t="s">
@@ -4798,12 +4886,12 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="56" t="s">
+      <c r="F65" s="55" t="s">
         <v>219</v>
       </c>
       <c r="G65" s="9" t="s">
@@ -4824,15 +4912,15 @@
       <c r="L65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M65" s="57"/>
+      <c r="M65" s="56"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="56"/>
+      <c r="F66" s="55"/>
       <c r="G66" s="9" t="s">
         <v>213</v>
       </c>
@@ -4851,15 +4939,15 @@
       <c r="L66" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M66" s="57"/>
+      <c r="M66" s="56"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="42"/>
-      <c r="F67" s="56"/>
+      <c r="F67" s="55"/>
       <c r="G67" s="9" t="s">
         <v>201</v>
       </c>
@@ -4878,15 +4966,15 @@
       <c r="L67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M67" s="57"/>
+      <c r="M67" s="56"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
       <c r="E68" s="42"/>
-      <c r="F68" s="56"/>
+      <c r="F68" s="55"/>
       <c r="G68" s="9" t="s">
         <v>217</v>
       </c>
@@ -4905,17 +4993,17 @@
       <c r="L68" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M68" s="57"/>
+      <c r="M68" s="56"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="52"/>
+      <c r="B69" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="51" t="s">
         <v>192</v>
       </c>
       <c r="E69" s="42"/>
@@ -4940,7 +5028,7 @@
       <c r="L69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="55" t="s">
+      <c r="M69" s="54" t="s">
         <v>451</v>
       </c>
       <c r="N69" s="9" t="s">
@@ -4948,12 +5036,12 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="53" t="s">
+      <c r="F70" s="52" t="s">
         <v>193</v>
       </c>
       <c r="G70" s="9" t="s">
@@ -4974,18 +5062,18 @@
       <c r="L70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="54"/>
+      <c r="M70" s="53"/>
       <c r="N70" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
       <c r="E71" s="42"/>
-      <c r="F71" s="53"/>
+      <c r="F71" s="52"/>
       <c r="G71" s="9" t="s">
         <v>155</v>
       </c>
@@ -5004,15 +5092,15 @@
       <c r="L71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M71" s="54"/>
+      <c r="M71" s="53"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
       <c r="E72" s="42"/>
-      <c r="F72" s="53"/>
+      <c r="F72" s="52"/>
       <c r="G72" s="9" t="s">
         <v>187</v>
       </c>
@@ -5031,15 +5119,15 @@
       <c r="L72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="54"/>
+      <c r="M72" s="53"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
       <c r="E73" s="42"/>
-      <c r="F73" s="53"/>
+      <c r="F73" s="52"/>
       <c r="G73" s="9" t="s">
         <v>189</v>
       </c>
@@ -5058,24 +5146,24 @@
       <c r="L73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M73" s="54"/>
+      <c r="M73" s="53"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="53" t="s">
+      <c r="D74" s="52" t="s">
         <v>223</v>
       </c>
       <c r="E74" s="41"/>
-      <c r="F74" s="52" t="s">
-        <v>478</v>
+      <c r="F74" s="51" t="s">
+        <v>476</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>224</v>
@@ -5095,17 +5183,17 @@
       <c r="L74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M74" s="55" t="s">
+      <c r="M74" s="54" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="53"/>
+      <c r="F75" s="52"/>
       <c r="G75" s="9" t="s">
         <v>229</v>
       </c>
@@ -5124,15 +5212,15 @@
       <c r="L75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M75" s="54"/>
+      <c r="M75" s="53"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="53"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="41"/>
-      <c r="F76" s="53"/>
+      <c r="F76" s="52"/>
       <c r="G76" s="9" t="s">
         <v>230</v>
       </c>
@@ -5151,15 +5239,15 @@
       <c r="L76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M76" s="54"/>
+      <c r="M76" s="53"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="41"/>
-      <c r="F77" s="53"/>
+      <c r="F77" s="52"/>
       <c r="G77" s="9" t="s">
         <v>231</v>
       </c>
@@ -5178,15 +5266,15 @@
       <c r="L77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M77" s="54"/>
+      <c r="M77" s="53"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="53"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
       <c r="E78" s="41"/>
-      <c r="F78" s="53"/>
+      <c r="F78" s="52"/>
       <c r="G78" s="9" t="s">
         <v>232</v>
       </c>
@@ -5205,15 +5293,15 @@
       <c r="L78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M78" s="54"/>
+      <c r="M78" s="53"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="41"/>
-      <c r="F79" s="53"/>
+      <c r="F79" s="52"/>
       <c r="G79" s="9" t="s">
         <v>242</v>
       </c>
@@ -5232,15 +5320,15 @@
       <c r="L79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M79" s="54"/>
+      <c r="M79" s="53"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="41"/>
-      <c r="F80" s="53"/>
+      <c r="F80" s="52"/>
       <c r="G80" s="9" t="s">
         <v>233</v>
       </c>
@@ -5259,15 +5347,15 @@
       <c r="L80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M80" s="54"/>
+      <c r="M80" s="53"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="41"/>
-      <c r="F81" s="53"/>
+      <c r="F81" s="52"/>
       <c r="G81" s="9" t="s">
         <v>234</v>
       </c>
@@ -5286,15 +5374,15 @@
       <c r="L81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M81" s="54"/>
+      <c r="M81" s="53"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
       <c r="E82" s="41"/>
-      <c r="F82" s="53"/>
+      <c r="F82" s="52"/>
       <c r="G82" s="9" t="s">
         <v>249</v>
       </c>
@@ -5313,15 +5401,15 @@
       <c r="L82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M82" s="54"/>
+      <c r="M82" s="53"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="41"/>
-      <c r="F83" s="53"/>
+      <c r="F83" s="52"/>
       <c r="G83" s="9" t="s">
         <v>263</v>
       </c>
@@ -5340,15 +5428,15 @@
       <c r="L83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M83" s="54"/>
+      <c r="M83" s="53"/>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="41"/>
-      <c r="F84" s="53"/>
+      <c r="F84" s="52"/>
       <c r="G84" s="26" t="s">
         <v>254</v>
       </c>
@@ -5367,16 +5455,16 @@
       <c r="L84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M84" s="54"/>
+      <c r="M84" s="53"/>
       <c r="N84" s="26"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="41"/>
-      <c r="F85" s="53"/>
+      <c r="F85" s="52"/>
       <c r="G85" s="9" t="s">
         <v>256</v>
       </c>
@@ -5395,15 +5483,15 @@
       <c r="L85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M85" s="54"/>
+      <c r="M85" s="53"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="41"/>
-      <c r="F86" s="53"/>
+      <c r="F86" s="52"/>
       <c r="G86" s="9" t="s">
         <v>258</v>
       </c>
@@ -5422,15 +5510,15 @@
       <c r="L86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M86" s="54"/>
+      <c r="M86" s="53"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="41"/>
-      <c r="F87" s="53"/>
+      <c r="F87" s="52"/>
       <c r="G87" s="9" t="s">
         <v>261</v>
       </c>
@@ -5449,15 +5537,15 @@
       <c r="L87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M87" s="54"/>
+      <c r="M87" s="53"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="53"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="41"/>
-      <c r="F88" s="53"/>
+      <c r="F88" s="52"/>
       <c r="G88" s="9" t="s">
         <v>264</v>
       </c>
@@ -5476,15 +5564,15 @@
       <c r="L88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="54"/>
+      <c r="M88" s="53"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="53"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="41"/>
-      <c r="F89" s="53"/>
+      <c r="F89" s="52"/>
       <c r="G89" s="9" t="s">
         <v>265</v>
       </c>
@@ -5503,15 +5591,15 @@
       <c r="L89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M89" s="54"/>
+      <c r="M89" s="53"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="41"/>
-      <c r="F90" s="53"/>
+      <c r="F90" s="52"/>
       <c r="G90" s="9" t="s">
         <v>266</v>
       </c>
@@ -5530,15 +5618,15 @@
       <c r="L90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M90" s="54"/>
+      <c r="M90" s="53"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="41"/>
-      <c r="F91" s="53"/>
+      <c r="F91" s="52"/>
       <c r="G91" s="9" t="s">
         <v>267</v>
       </c>
@@ -5557,15 +5645,15 @@
       <c r="L91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="54"/>
+      <c r="M91" s="53"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="53"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="41"/>
-      <c r="F92" s="53"/>
+      <c r="F92" s="52"/>
       <c r="G92" s="9" t="s">
         <v>268</v>
       </c>
@@ -5584,15 +5672,15 @@
       <c r="L92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M92" s="54"/>
+      <c r="M92" s="53"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="53"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
       <c r="E93" s="41"/>
-      <c r="F93" s="53"/>
+      <c r="F93" s="52"/>
       <c r="G93" s="9" t="s">
         <v>269</v>
       </c>
@@ -5611,15 +5699,15 @@
       <c r="L93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M93" s="54"/>
+      <c r="M93" s="53"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="53"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="41"/>
-      <c r="F94" s="53"/>
+      <c r="F94" s="52"/>
       <c r="G94" s="9" t="s">
         <v>270</v>
       </c>
@@ -5638,15 +5726,15 @@
       <c r="L94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M94" s="54"/>
+      <c r="M94" s="53"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="41"/>
-      <c r="F95" s="53"/>
+      <c r="F95" s="52"/>
       <c r="G95" s="9" t="s">
         <v>271</v>
       </c>
@@ -5665,15 +5753,15 @@
       <c r="L95" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="54"/>
+      <c r="M95" s="53"/>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="53"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="41"/>
-      <c r="F96" s="53"/>
+      <c r="F96" s="52"/>
       <c r="G96" s="9" t="s">
         <v>272</v>
       </c>
@@ -5692,15 +5780,15 @@
       <c r="L96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M96" s="54"/>
+      <c r="M96" s="53"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="41"/>
-      <c r="F97" s="53"/>
+      <c r="F97" s="52"/>
       <c r="G97" s="9" t="s">
         <v>273</v>
       </c>
@@ -5719,15 +5807,15 @@
       <c r="L97" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M97" s="54"/>
+      <c r="M97" s="53"/>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="41"/>
-      <c r="F98" s="53"/>
+      <c r="F98" s="52"/>
       <c r="G98" s="9" t="s">
         <v>274</v>
       </c>
@@ -5746,15 +5834,15 @@
       <c r="L98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M98" s="54"/>
+      <c r="M98" s="53"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="53"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="41"/>
-      <c r="F99" s="53"/>
+      <c r="F99" s="52"/>
       <c r="G99" s="9" t="s">
         <v>275</v>
       </c>
@@ -5773,15 +5861,15 @@
       <c r="L99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M99" s="54"/>
+      <c r="M99" s="53"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="53"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="41"/>
-      <c r="F100" s="53"/>
+      <c r="F100" s="52"/>
       <c r="G100" s="9" t="s">
         <v>276</v>
       </c>
@@ -5800,15 +5888,15 @@
       <c r="L100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="54"/>
+      <c r="M100" s="53"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="53"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="41"/>
-      <c r="F101" s="53"/>
+      <c r="F101" s="52"/>
       <c r="G101" s="9" t="s">
         <v>277</v>
       </c>
@@ -5827,15 +5915,15 @@
       <c r="L101" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M101" s="54"/>
+      <c r="M101" s="53"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="53"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="53"/>
+      <c r="F102" s="52"/>
       <c r="G102" s="9" t="s">
         <v>278</v>
       </c>
@@ -5854,15 +5942,15 @@
       <c r="L102" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M102" s="54"/>
+      <c r="M102" s="53"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="53"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
       <c r="E103" s="41"/>
-      <c r="F103" s="53"/>
+      <c r="F103" s="52"/>
       <c r="G103" s="9" t="s">
         <v>280</v>
       </c>
@@ -5881,15 +5969,15 @@
       <c r="L103" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M103" s="54"/>
+      <c r="M103" s="53"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="53"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="41"/>
-      <c r="F104" s="53"/>
+      <c r="F104" s="52"/>
       <c r="G104" s="9" t="s">
         <v>279</v>
       </c>
@@ -5908,15 +5996,15 @@
       <c r="L104" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M104" s="54"/>
+      <c r="M104" s="53"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="53"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="41"/>
-      <c r="F105" s="53"/>
+      <c r="F105" s="52"/>
       <c r="G105" s="9" t="s">
         <v>281</v>
       </c>
@@ -5935,23 +6023,23 @@
       <c r="L105" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M105" s="54"/>
+      <c r="M105" s="53"/>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="53"/>
-      <c r="B106" s="53" t="s">
+      <c r="A106" s="52"/>
+      <c r="B106" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="C106" s="53" t="s">
+      <c r="C106" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="D106" s="52" t="s">
+      <c r="D106" s="51" t="s">
         <v>424</v>
       </c>
       <c r="E106" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="F106" s="53" t="s">
+      <c r="F106" s="52" t="s">
         <v>404</v>
       </c>
       <c r="G106" s="9" t="s">
@@ -5972,19 +6060,19 @@
       <c r="L106" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M106" s="55" t="s">
+      <c r="M106" s="54" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="28.5">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="F107" s="53"/>
+      <c r="F107" s="52"/>
       <c r="G107" s="9" t="s">
         <v>405</v>
       </c>
@@ -6003,17 +6091,17 @@
       <c r="L107" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M107" s="54"/>
+      <c r="M107" s="53"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
       <c r="E108" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F108" s="53"/>
+      <c r="F108" s="52"/>
       <c r="G108" s="9" t="s">
         <v>409</v>
       </c>
@@ -6032,17 +6120,17 @@
       <c r="L108" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M108" s="54"/>
+      <c r="M108" s="53"/>
     </row>
     <row r="109" spans="1:14" ht="77.25" customHeight="1">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="F109" s="53"/>
+      <c r="F109" s="52"/>
       <c r="G109" s="9" t="s">
         <v>411</v>
       </c>
@@ -6061,20 +6149,20 @@
       <c r="L109" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M109" s="54"/>
+      <c r="M109" s="53"/>
       <c r="N109" s="40" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="38.25" customHeight="1">
-      <c r="A110" s="53"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="F110" s="53"/>
+      <c r="F110" s="52"/>
       <c r="G110" s="9" t="s">
         <v>415</v>
       </c>
@@ -6093,15 +6181,15 @@
       <c r="L110" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M110" s="54"/>
+      <c r="M110" s="53"/>
     </row>
     <row r="111" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A111" s="53"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="41"/>
-      <c r="F111" s="53"/>
+      <c r="F111" s="52"/>
       <c r="G111" s="9" t="s">
         <v>418</v>
       </c>
@@ -6120,97 +6208,223 @@
       <c r="L111" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M111" s="54"/>
+      <c r="M111" s="53"/>
     </row>
     <row r="112" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A112" s="53"/>
-      <c r="B112" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="C112" s="49" t="s">
+      <c r="A112" s="52"/>
+      <c r="B112" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="C112" s="52" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" s="52" t="s">
+        <v>498</v>
+      </c>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="G112" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="M112" s="50"/>
+      <c r="H112" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="M112" s="53"/>
+      <c r="N112" s="52" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="113" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A113" s="53"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
       <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
+      <c r="F113" s="49" t="s">
+        <v>484</v>
+      </c>
       <c r="G113" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="M113" s="50"/>
+        <v>481</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="M113" s="53"/>
+      <c r="N113" s="52"/>
     </row>
     <row r="114" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A114" s="53"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
       <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="M114" s="50"/>
+      <c r="F114" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="M114" s="53"/>
+      <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A115" s="53"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
       <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
-      <c r="M115" s="50"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="J115" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M115" s="53"/>
+      <c r="N115" s="52"/>
     </row>
     <row r="116" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A116" s="53"/>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52" t="s">
+        <v>497</v>
+      </c>
       <c r="E116" s="49"/>
-      <c r="F116" s="49"/>
-      <c r="M116" s="50"/>
-    </row>
-    <row r="117" spans="1:14" s="31" customFormat="1">
-      <c r="A117" s="53"/>
-      <c r="B117" s="28" t="s">
+      <c r="F116" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="M116" s="53"/>
+      <c r="N116" s="51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M117" s="53"/>
+      <c r="N117" s="51"/>
+    </row>
+    <row r="118" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="M118" s="53"/>
+      <c r="N118" s="51"/>
+    </row>
+    <row r="119" spans="1:14" s="31" customFormat="1">
+      <c r="A119" s="52"/>
+      <c r="B119" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C119" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D117" s="28" t="s">
+      <c r="D119" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E117" s="28"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="30"/>
-      <c r="K117" s="30"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="29" t="s">
+      <c r="E119" s="28"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
+      <c r="M119" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N117" s="30"/>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="L123" s="9" t="s">
+      <c r="N119" s="30"/>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="L125" s="9" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="84">
+    <mergeCell ref="N112:N115"/>
+    <mergeCell ref="N116:N118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="F114:F115"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C30:C39"/>
     <mergeCell ref="D38:D39"/>
+    <mergeCell ref="M112:M115"/>
+    <mergeCell ref="M116:M118"/>
     <mergeCell ref="M64:M68"/>
     <mergeCell ref="C69:C73"/>
     <mergeCell ref="N38:N39"/>
@@ -6234,7 +6448,7 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A74:A117"/>
+    <mergeCell ref="A74:A119"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="D13:D21"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BDEE84-672D-455B-8070-693F97A2175B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C69DC-3502-46A6-B14A-9C75CB4BE973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="501">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1942,10 +1942,6 @@
   </si>
   <si>
     <t>定价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2269,22 +2265,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyAlignment="1">
@@ -2295,6 +2282,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2937,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="B104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2998,13 +2994,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="51" t="s">
@@ -3032,16 +3028,16 @@
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="56" t="s">
         <v>125</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="41"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -3064,14 +3060,14 @@
       <c r="L3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="41"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
@@ -3094,14 +3090,14 @@
       <c r="L4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="41"/>
       <c r="F5" s="25" t="s">
         <v>12</v>
@@ -3124,17 +3120,17 @@
       <c r="L5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="51" t="s">
@@ -3162,16 +3158,16 @@
       <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="56" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="47"/>
       <c r="F7" s="25" t="s">
         <v>12</v>
@@ -3194,13 +3190,13 @@
       <c r="L7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="50"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -3232,7 +3228,7 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -3245,7 +3241,7 @@
         <v>117</v>
       </c>
       <c r="E9" s="42"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="50" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3266,18 +3262,18 @@
       <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="56" t="s">
         <v>128</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="52"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3296,16 +3292,16 @@
       <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="50"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="52"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="11" t="s">
         <v>93</v>
       </c>
@@ -3324,16 +3320,16 @@
       <c r="L11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="50"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="52"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3352,13 +3348,13 @@
       <c r="L12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="50"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="51" t="s">
         <v>70</v>
       </c>
@@ -3390,13 +3386,13 @@
       <c r="L13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="56" t="s">
         <v>463</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="52"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -3422,11 +3418,11 @@
       <c r="L14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="50"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="52"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -3448,16 +3444,16 @@
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="50"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="50" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3478,16 +3474,16 @@
       <c r="L16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="50"/>
+      <c r="M16" s="56"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="52"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="52"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3506,16 +3502,16 @@
       <c r="L17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="50"/>
+      <c r="M17" s="56"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="52"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="52"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3534,16 +3530,16 @@
       <c r="L18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="50"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="52"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="52"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3562,16 +3558,16 @@
       <c r="L19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="50"/>
+      <c r="M19" s="56"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="52"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="50" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3592,16 +3588,16 @@
       <c r="L20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="50"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="52"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="52"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3620,16 +3616,16 @@
       <c r="L21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="50"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="51" t="s">
@@ -3639,7 +3635,7 @@
         <v>131</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="50" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3660,18 +3656,18 @@
       <c r="L22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="50" t="s">
+      <c r="M22" s="56" t="s">
         <v>129</v>
       </c>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="52"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3690,16 +3686,16 @@
       <c r="L23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="50"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="52"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3718,16 +3714,16 @@
       <c r="L24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="50"/>
+      <c r="M24" s="56"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="52"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3746,16 +3742,16 @@
       <c r="L25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="50"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="52"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3774,18 +3770,18 @@
       <c r="L26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="50"/>
+      <c r="M26" s="56"/>
       <c r="N26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="52"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3804,15 +3800,15 @@
       <c r="L27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="50"/>
+      <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="52"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3831,15 +3827,15 @@
       <c r="L28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="50"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="52"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3858,11 +3854,11 @@
       <c r="L29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="50"/>
+      <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="51" t="s">
@@ -3893,13 +3889,13 @@
       <c r="L30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="50" t="s">
+      <c r="M30" s="56" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
       <c r="E31" s="42"/>
@@ -3924,15 +3920,15 @@
       <c r="L31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="50"/>
+      <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="50" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -3953,15 +3949,15 @@
       <c r="L32" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="50"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="52"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="9" t="s">
         <v>155</v>
       </c>
@@ -3980,15 +3976,15 @@
       <c r="L33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="50"/>
+      <c r="M33" s="56"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="52"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="9" t="s">
         <v>154</v>
       </c>
@@ -4007,10 +4003,10 @@
       <c r="L34" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="50"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:14" ht="57">
-      <c r="A35" s="52"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="23" t="s">
         <v>169</v>
       </c>
@@ -4039,7 +4035,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="57">
-      <c r="A36" s="52"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="23" t="s">
         <v>170</v>
       </c>
@@ -4071,7 +4067,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.5">
-      <c r="A37" s="52"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="13" t="s">
         <v>164</v>
       </c>
@@ -4101,7 +4097,7 @@
     </row>
     <row r="38" spans="1:14" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="50" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="51"/>
@@ -4130,16 +4126,16 @@
       <c r="L38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="50" t="s">
+      <c r="M38" s="56" t="s">
         <v>394</v>
       </c>
-      <c r="N38" s="57" t="s">
+      <c r="N38" s="54" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="34" customFormat="1" ht="42.75">
       <c r="A39" s="33"/>
-      <c r="B39" s="52"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="51"/>
       <c r="D39" s="51"/>
       <c r="E39" s="42"/>
@@ -4164,11 +4160,11 @@
       <c r="L39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="50"/>
-      <c r="N39" s="58"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" ht="28.5">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="50" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -4198,8 +4194,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="71.25" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50" t="s">
         <v>208</v>
       </c>
       <c r="C41" s="51" t="s">
@@ -4230,13 +4226,13 @@
       <c r="L41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="50" t="s">
+      <c r="M41" s="56" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
       <c r="E42" s="47"/>
@@ -4261,11 +4257,11 @@
       <c r="L42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M42" s="50"/>
+      <c r="M42" s="56"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="51" t="s">
@@ -4275,7 +4271,7 @@
         <v>458</v>
       </c>
       <c r="E43" s="42"/>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>462</v>
       </c>
       <c r="G43" s="9" t="s">
@@ -4294,17 +4290,17 @@
       <c r="L43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="50" t="s">
+      <c r="M43" s="56" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="51"/>
       <c r="D44" s="51"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="52"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="9" t="s">
         <v>435</v>
       </c>
@@ -4321,15 +4317,15 @@
       <c r="L44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="50"/>
+      <c r="M44" s="56"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="52"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="9" t="s">
         <v>432</v>
       </c>
@@ -4346,15 +4342,15 @@
       <c r="L45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="50"/>
+      <c r="M45" s="56"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="52"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="9" t="s">
         <v>437</v>
       </c>
@@ -4371,15 +4367,15 @@
       <c r="L46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="50"/>
+      <c r="M46" s="56"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
       <c r="E47" s="43"/>
-      <c r="F47" s="52"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="9" t="s">
         <v>439</v>
       </c>
@@ -4396,15 +4392,15 @@
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="50"/>
+      <c r="M47" s="56"/>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
       <c r="E48" s="43"/>
-      <c r="F48" s="52"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="9" t="s">
         <v>441</v>
       </c>
@@ -4421,11 +4417,11 @@
       <c r="L48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="50"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="51"/>
       <c r="D49" s="51"/>
       <c r="E49" s="43"/>
@@ -4448,11 +4444,11 @@
       <c r="L49" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M49" s="50"/>
+      <c r="M49" s="56"/>
     </row>
     <row r="50" spans="1:14" ht="28.5">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="51"/>
       <c r="D50" s="51"/>
       <c r="E50" s="43"/>
@@ -4472,11 +4468,11 @@
       <c r="K50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="50"/>
+      <c r="M50" s="56"/>
     </row>
     <row r="51" spans="1:14" ht="83.25" customHeight="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52" t="s">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50" t="s">
         <v>456</v>
       </c>
       <c r="C51" s="51"/>
@@ -4502,7 +4498,7 @@
       <c r="L51" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="M51" s="50" t="s">
+      <c r="M51" s="56" t="s">
         <v>472</v>
       </c>
       <c r="N51" s="24" t="s">
@@ -4510,8 +4506,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="51"/>
       <c r="D52" s="51"/>
       <c r="E52" s="47"/>
@@ -4536,11 +4532,11 @@
       <c r="L52" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M52" s="50"/>
+      <c r="M52" s="56"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
       <c r="E53" s="47"/>
@@ -4565,21 +4561,21 @@
       <c r="L53" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M53" s="50"/>
+      <c r="M53" s="56"/>
     </row>
     <row r="54" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52" t="s">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="50" t="s">
         <v>141</v>
       </c>
       <c r="E54" s="41"/>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="50" t="s">
         <v>175</v>
       </c>
       <c r="G54" s="9" t="s">
@@ -4600,7 +4596,7 @@
       <c r="L54" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="53" t="s">
+      <c r="M54" s="52" t="s">
         <v>221</v>
       </c>
       <c r="N54" s="9" t="s">
@@ -4608,12 +4604,12 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="52"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="18" t="s">
         <v>112</v>
       </c>
@@ -4632,15 +4628,15 @@
       <c r="L55" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="53"/>
+      <c r="M55" s="52"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="52"/>
+      <c r="F56" s="50"/>
       <c r="G56" s="18" t="s">
         <v>111</v>
       </c>
@@ -4659,15 +4655,15 @@
       <c r="L56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="53"/>
+      <c r="M56" s="52"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="52"/>
+      <c r="F57" s="50"/>
       <c r="G57" s="9" t="s">
         <v>114</v>
       </c>
@@ -4686,15 +4682,15 @@
       <c r="L57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="53"/>
+      <c r="M57" s="52"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="52"/>
+      <c r="F58" s="50"/>
       <c r="G58" s="9" t="s">
         <v>113</v>
       </c>
@@ -4713,15 +4709,15 @@
       <c r="L58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="53"/>
+      <c r="M58" s="52"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="52"/>
+      <c r="F59" s="50"/>
       <c r="G59" s="9" t="s">
         <v>116</v>
       </c>
@@ -4740,15 +4736,15 @@
       <c r="L59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="53"/>
+      <c r="M59" s="52"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="52"/>
+      <c r="F60" s="50"/>
       <c r="G60" s="9" t="s">
         <v>92</v>
       </c>
@@ -4767,15 +4763,15 @@
       <c r="L60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M60" s="53"/>
+      <c r="M60" s="52"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="52"/>
+      <c r="F61" s="50"/>
       <c r="G61" s="9" t="s">
         <v>195</v>
       </c>
@@ -4794,15 +4790,15 @@
       <c r="L61" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M61" s="53"/>
+      <c r="M61" s="52"/>
     </row>
     <row r="62" spans="1:14" ht="99.75">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="52"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="9" t="s">
         <v>179</v>
       </c>
@@ -4821,18 +4817,18 @@
       <c r="L62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M62" s="53"/>
+      <c r="M62" s="52"/>
       <c r="N62" s="24" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="52"/>
+      <c r="F63" s="50"/>
       <c r="G63" s="9" t="s">
         <v>395</v>
       </c>
@@ -4851,11 +4847,11 @@
       <c r="L63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M63" s="53"/>
+      <c r="M63" s="52"/>
     </row>
     <row r="64" spans="1:14" ht="45.75" customHeight="1">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="51" t="s">
         <v>206</v>
       </c>
@@ -4878,7 +4874,7 @@
       <c r="J64" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M64" s="56" t="s">
+      <c r="M64" s="53" t="s">
         <v>220</v>
       </c>
       <c r="N64" s="24" t="s">
@@ -4886,12 +4882,12 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="51"/>
       <c r="D65" s="51"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="55" t="s">
+      <c r="F65" s="58" t="s">
         <v>219</v>
       </c>
       <c r="G65" s="9" t="s">
@@ -4912,15 +4908,15 @@
       <c r="L65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M65" s="56"/>
+      <c r="M65" s="53"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="51"/>
       <c r="D66" s="51"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="55"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="9" t="s">
         <v>213</v>
       </c>
@@ -4939,15 +4935,15 @@
       <c r="L66" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M66" s="56"/>
+      <c r="M66" s="53"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
       <c r="E67" s="42"/>
-      <c r="F67" s="55"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="9" t="s">
         <v>201</v>
       </c>
@@ -4966,15 +4962,15 @@
       <c r="L67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M67" s="56"/>
+      <c r="M67" s="53"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="51"/>
       <c r="D68" s="51"/>
       <c r="E68" s="42"/>
-      <c r="F68" s="55"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="9" t="s">
         <v>217</v>
       </c>
@@ -4993,11 +4989,11 @@
       <c r="L68" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M68" s="56"/>
+      <c r="M68" s="53"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52" t="s">
+      <c r="A69" s="50"/>
+      <c r="B69" s="50" t="s">
         <v>182</v>
       </c>
       <c r="C69" s="51" t="s">
@@ -5028,7 +5024,7 @@
       <c r="L69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="54" t="s">
+      <c r="M69" s="57" t="s">
         <v>451</v>
       </c>
       <c r="N69" s="9" t="s">
@@ -5036,12 +5032,12 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="51"/>
       <c r="D70" s="51"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="52" t="s">
+      <c r="F70" s="50" t="s">
         <v>193</v>
       </c>
       <c r="G70" s="9" t="s">
@@ -5062,18 +5058,18 @@
       <c r="L70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="53"/>
+      <c r="M70" s="52"/>
       <c r="N70" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="51"/>
       <c r="D71" s="51"/>
       <c r="E71" s="42"/>
-      <c r="F71" s="52"/>
+      <c r="F71" s="50"/>
       <c r="G71" s="9" t="s">
         <v>155</v>
       </c>
@@ -5092,15 +5088,15 @@
       <c r="L71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M71" s="53"/>
+      <c r="M71" s="52"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="51"/>
       <c r="D72" s="51"/>
       <c r="E72" s="42"/>
-      <c r="F72" s="52"/>
+      <c r="F72" s="50"/>
       <c r="G72" s="9" t="s">
         <v>187</v>
       </c>
@@ -5119,15 +5115,15 @@
       <c r="L72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="53"/>
+      <c r="M72" s="52"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="51"/>
       <c r="D73" s="51"/>
       <c r="E73" s="42"/>
-      <c r="F73" s="52"/>
+      <c r="F73" s="50"/>
       <c r="G73" s="9" t="s">
         <v>189</v>
       </c>
@@ -5146,19 +5142,19 @@
       <c r="L73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M73" s="53"/>
+      <c r="M73" s="52"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="50" t="s">
         <v>223</v>
       </c>
       <c r="E74" s="41"/>
@@ -5183,17 +5179,17 @@
       <c r="L74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M74" s="54" t="s">
+      <c r="M74" s="57" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="52"/>
+      <c r="F75" s="50"/>
       <c r="G75" s="9" t="s">
         <v>229</v>
       </c>
@@ -5212,15 +5208,15 @@
       <c r="L75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M75" s="53"/>
+      <c r="M75" s="52"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
       <c r="E76" s="41"/>
-      <c r="F76" s="52"/>
+      <c r="F76" s="50"/>
       <c r="G76" s="9" t="s">
         <v>230</v>
       </c>
@@ -5239,15 +5235,15 @@
       <c r="L76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M76" s="53"/>
+      <c r="M76" s="52"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
       <c r="E77" s="41"/>
-      <c r="F77" s="52"/>
+      <c r="F77" s="50"/>
       <c r="G77" s="9" t="s">
         <v>231</v>
       </c>
@@ -5266,15 +5262,15 @@
       <c r="L77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M77" s="53"/>
+      <c r="M77" s="52"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
       <c r="E78" s="41"/>
-      <c r="F78" s="52"/>
+      <c r="F78" s="50"/>
       <c r="G78" s="9" t="s">
         <v>232</v>
       </c>
@@ -5293,15 +5289,15 @@
       <c r="L78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M78" s="53"/>
+      <c r="M78" s="52"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
       <c r="E79" s="41"/>
-      <c r="F79" s="52"/>
+      <c r="F79" s="50"/>
       <c r="G79" s="9" t="s">
         <v>242</v>
       </c>
@@ -5320,15 +5316,15 @@
       <c r="L79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M79" s="53"/>
+      <c r="M79" s="52"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
       <c r="E80" s="41"/>
-      <c r="F80" s="52"/>
+      <c r="F80" s="50"/>
       <c r="G80" s="9" t="s">
         <v>233</v>
       </c>
@@ -5347,15 +5343,15 @@
       <c r="L80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M80" s="53"/>
+      <c r="M80" s="52"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
       <c r="E81" s="41"/>
-      <c r="F81" s="52"/>
+      <c r="F81" s="50"/>
       <c r="G81" s="9" t="s">
         <v>234</v>
       </c>
@@ -5374,15 +5370,15 @@
       <c r="L81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M81" s="53"/>
+      <c r="M81" s="52"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
       <c r="E82" s="41"/>
-      <c r="F82" s="52"/>
+      <c r="F82" s="50"/>
       <c r="G82" s="9" t="s">
         <v>249</v>
       </c>
@@ -5401,15 +5397,15 @@
       <c r="L82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M82" s="53"/>
+      <c r="M82" s="52"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
       <c r="E83" s="41"/>
-      <c r="F83" s="52"/>
+      <c r="F83" s="50"/>
       <c r="G83" s="9" t="s">
         <v>263</v>
       </c>
@@ -5428,15 +5424,15 @@
       <c r="L83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M83" s="53"/>
+      <c r="M83" s="52"/>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
       <c r="E84" s="41"/>
-      <c r="F84" s="52"/>
+      <c r="F84" s="50"/>
       <c r="G84" s="26" t="s">
         <v>254</v>
       </c>
@@ -5455,16 +5451,16 @@
       <c r="L84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M84" s="53"/>
+      <c r="M84" s="52"/>
       <c r="N84" s="26"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
       <c r="E85" s="41"/>
-      <c r="F85" s="52"/>
+      <c r="F85" s="50"/>
       <c r="G85" s="9" t="s">
         <v>256</v>
       </c>
@@ -5483,15 +5479,15 @@
       <c r="L85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M85" s="53"/>
+      <c r="M85" s="52"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
       <c r="E86" s="41"/>
-      <c r="F86" s="52"/>
+      <c r="F86" s="50"/>
       <c r="G86" s="9" t="s">
         <v>258</v>
       </c>
@@ -5510,15 +5506,15 @@
       <c r="L86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M86" s="53"/>
+      <c r="M86" s="52"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
       <c r="E87" s="41"/>
-      <c r="F87" s="52"/>
+      <c r="F87" s="50"/>
       <c r="G87" s="9" t="s">
         <v>261</v>
       </c>
@@ -5537,15 +5533,15 @@
       <c r="L87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M87" s="53"/>
+      <c r="M87" s="52"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
       <c r="E88" s="41"/>
-      <c r="F88" s="52"/>
+      <c r="F88" s="50"/>
       <c r="G88" s="9" t="s">
         <v>264</v>
       </c>
@@ -5564,15 +5560,15 @@
       <c r="L88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="53"/>
+      <c r="M88" s="52"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
       <c r="E89" s="41"/>
-      <c r="F89" s="52"/>
+      <c r="F89" s="50"/>
       <c r="G89" s="9" t="s">
         <v>265</v>
       </c>
@@ -5591,15 +5587,15 @@
       <c r="L89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M89" s="53"/>
+      <c r="M89" s="52"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
       <c r="E90" s="41"/>
-      <c r="F90" s="52"/>
+      <c r="F90" s="50"/>
       <c r="G90" s="9" t="s">
         <v>266</v>
       </c>
@@ -5618,15 +5614,15 @@
       <c r="L90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M90" s="53"/>
+      <c r="M90" s="52"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
       <c r="E91" s="41"/>
-      <c r="F91" s="52"/>
+      <c r="F91" s="50"/>
       <c r="G91" s="9" t="s">
         <v>267</v>
       </c>
@@ -5645,15 +5641,15 @@
       <c r="L91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="53"/>
+      <c r="M91" s="52"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
+      <c r="A92" s="50"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="41"/>
-      <c r="F92" s="52"/>
+      <c r="F92" s="50"/>
       <c r="G92" s="9" t="s">
         <v>268</v>
       </c>
@@ -5672,15 +5668,15 @@
       <c r="L92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M92" s="53"/>
+      <c r="M92" s="52"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
       <c r="E93" s="41"/>
-      <c r="F93" s="52"/>
+      <c r="F93" s="50"/>
       <c r="G93" s="9" t="s">
         <v>269</v>
       </c>
@@ -5699,15 +5695,15 @@
       <c r="L93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M93" s="53"/>
+      <c r="M93" s="52"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
+      <c r="A94" s="50"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
       <c r="E94" s="41"/>
-      <c r="F94" s="52"/>
+      <c r="F94" s="50"/>
       <c r="G94" s="9" t="s">
         <v>270</v>
       </c>
@@ -5726,15 +5722,15 @@
       <c r="L94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M94" s="53"/>
+      <c r="M94" s="52"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
+      <c r="A95" s="50"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
       <c r="E95" s="41"/>
-      <c r="F95" s="52"/>
+      <c r="F95" s="50"/>
       <c r="G95" s="9" t="s">
         <v>271</v>
       </c>
@@ -5753,15 +5749,15 @@
       <c r="L95" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="53"/>
+      <c r="M95" s="52"/>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
       <c r="E96" s="41"/>
-      <c r="F96" s="52"/>
+      <c r="F96" s="50"/>
       <c r="G96" s="9" t="s">
         <v>272</v>
       </c>
@@ -5780,15 +5776,15 @@
       <c r="L96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M96" s="53"/>
+      <c r="M96" s="52"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
+      <c r="A97" s="50"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
       <c r="E97" s="41"/>
-      <c r="F97" s="52"/>
+      <c r="F97" s="50"/>
       <c r="G97" s="9" t="s">
         <v>273</v>
       </c>
@@ -5807,15 +5803,15 @@
       <c r="L97" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M97" s="53"/>
+      <c r="M97" s="52"/>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
       <c r="E98" s="41"/>
-      <c r="F98" s="52"/>
+      <c r="F98" s="50"/>
       <c r="G98" s="9" t="s">
         <v>274</v>
       </c>
@@ -5834,15 +5830,15 @@
       <c r="L98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M98" s="53"/>
+      <c r="M98" s="52"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
+      <c r="A99" s="50"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
       <c r="E99" s="41"/>
-      <c r="F99" s="52"/>
+      <c r="F99" s="50"/>
       <c r="G99" s="9" t="s">
         <v>275</v>
       </c>
@@ -5861,15 +5857,15 @@
       <c r="L99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M99" s="53"/>
+      <c r="M99" s="52"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="52"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
       <c r="E100" s="41"/>
-      <c r="F100" s="52"/>
+      <c r="F100" s="50"/>
       <c r="G100" s="9" t="s">
         <v>276</v>
       </c>
@@ -5888,15 +5884,15 @@
       <c r="L100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="53"/>
+      <c r="M100" s="52"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="52"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
       <c r="E101" s="41"/>
-      <c r="F101" s="52"/>
+      <c r="F101" s="50"/>
       <c r="G101" s="9" t="s">
         <v>277</v>
       </c>
@@ -5915,15 +5911,15 @@
       <c r="L101" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M101" s="53"/>
+      <c r="M101" s="52"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="52"/>
+      <c r="F102" s="50"/>
       <c r="G102" s="9" t="s">
         <v>278</v>
       </c>
@@ -5942,15 +5938,15 @@
       <c r="L102" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M102" s="53"/>
+      <c r="M102" s="52"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
+      <c r="A103" s="50"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
       <c r="E103" s="41"/>
-      <c r="F103" s="52"/>
+      <c r="F103" s="50"/>
       <c r="G103" s="9" t="s">
         <v>280</v>
       </c>
@@ -5969,15 +5965,15 @@
       <c r="L103" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M103" s="53"/>
+      <c r="M103" s="52"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="52"/>
+      <c r="A104" s="50"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
       <c r="E104" s="41"/>
-      <c r="F104" s="52"/>
+      <c r="F104" s="50"/>
       <c r="G104" s="9" t="s">
         <v>279</v>
       </c>
@@ -5996,15 +5992,15 @@
       <c r="L104" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M104" s="53"/>
+      <c r="M104" s="52"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
+      <c r="A105" s="50"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
       <c r="E105" s="41"/>
-      <c r="F105" s="52"/>
+      <c r="F105" s="50"/>
       <c r="G105" s="9" t="s">
         <v>281</v>
       </c>
@@ -6023,14 +6019,14 @@
       <c r="L105" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M105" s="53"/>
+      <c r="M105" s="52"/>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52" t="s">
+      <c r="A106" s="50"/>
+      <c r="B106" s="50" t="s">
         <v>402</v>
       </c>
-      <c r="C106" s="52" t="s">
+      <c r="C106" s="50" t="s">
         <v>403</v>
       </c>
       <c r="D106" s="51" t="s">
@@ -6039,7 +6035,7 @@
       <c r="E106" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="F106" s="52" t="s">
+      <c r="F106" s="50" t="s">
         <v>404</v>
       </c>
       <c r="G106" s="9" t="s">
@@ -6060,19 +6056,19 @@
       <c r="L106" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M106" s="54" t="s">
+      <c r="M106" s="57" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="28.5">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
+      <c r="A107" s="50"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
       <c r="E107" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="F107" s="52"/>
+      <c r="F107" s="50"/>
       <c r="G107" s="9" t="s">
         <v>405</v>
       </c>
@@ -6091,17 +6087,17 @@
       <c r="L107" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M107" s="53"/>
+      <c r="M107" s="52"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
+      <c r="A108" s="50"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
       <c r="E108" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F108" s="52"/>
+      <c r="F108" s="50"/>
       <c r="G108" s="9" t="s">
         <v>409</v>
       </c>
@@ -6120,17 +6116,17 @@
       <c r="L108" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M108" s="53"/>
+      <c r="M108" s="52"/>
     </row>
     <row r="109" spans="1:14" ht="77.25" customHeight="1">
-      <c r="A109" s="52"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="52"/>
+      <c r="A109" s="50"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
       <c r="E109" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="F109" s="52"/>
+      <c r="F109" s="50"/>
       <c r="G109" s="9" t="s">
         <v>411</v>
       </c>
@@ -6149,20 +6145,20 @@
       <c r="L109" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M109" s="53"/>
+      <c r="M109" s="52"/>
       <c r="N109" s="40" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="38.25" customHeight="1">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
+      <c r="A110" s="50"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
       <c r="E110" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="F110" s="52"/>
+      <c r="F110" s="50"/>
       <c r="G110" s="9" t="s">
         <v>415</v>
       </c>
@@ -6181,15 +6177,15 @@
       <c r="L110" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M110" s="53"/>
+      <c r="M110" s="52"/>
     </row>
     <row r="111" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
+      <c r="A111" s="50"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
       <c r="E111" s="41"/>
-      <c r="F111" s="52"/>
+      <c r="F111" s="50"/>
       <c r="G111" s="9" t="s">
         <v>418</v>
       </c>
@@ -6208,18 +6204,18 @@
       <c r="L111" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M111" s="53"/>
+      <c r="M111" s="52"/>
     </row>
     <row r="112" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52" t="s">
+      <c r="A112" s="50"/>
+      <c r="B112" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="C112" s="52" t="s">
+      <c r="C112" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="D112" s="52" t="s">
-        <v>498</v>
+      <c r="D112" s="50" t="s">
+        <v>497</v>
       </c>
       <c r="E112" s="49"/>
       <c r="F112" s="49" t="s">
@@ -6237,16 +6233,16 @@
       <c r="J112" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="M112" s="53"/>
-      <c r="N112" s="52" t="s">
-        <v>499</v>
+      <c r="M112" s="52"/>
+      <c r="N112" s="50" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="52"/>
+      <c r="A113" s="50"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
       <c r="E113" s="49"/>
       <c r="F113" s="49" t="s">
         <v>484</v>
@@ -6263,16 +6259,16 @@
       <c r="J113" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="M113" s="53"/>
-      <c r="N113" s="52"/>
+      <c r="M113" s="52"/>
+      <c r="N113" s="50"/>
     </row>
     <row r="114" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
+      <c r="A114" s="50"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
       <c r="E114" s="49"/>
-      <c r="F114" s="52" t="s">
+      <c r="F114" s="50" t="s">
         <v>485</v>
       </c>
       <c r="G114" s="9" t="s">
@@ -6287,16 +6283,16 @@
       <c r="J114" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="M114" s="53"/>
-      <c r="N114" s="52"/>
+      <c r="M114" s="52"/>
+      <c r="N114" s="50"/>
     </row>
     <row r="115" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
+      <c r="A115" s="50"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
       <c r="E115" s="49"/>
-      <c r="F115" s="52"/>
+      <c r="F115" s="50"/>
       <c r="G115" s="9" t="s">
         <v>489</v>
       </c>
@@ -6304,27 +6300,27 @@
         <v>490</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="J115" s="9">
         <v>1000</v>
       </c>
-      <c r="M115" s="53"/>
-      <c r="N115" s="52"/>
+      <c r="M115" s="52"/>
+      <c r="N115" s="50"/>
     </row>
     <row r="116" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A116" s="52"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52" t="s">
-        <v>497</v>
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50" t="s">
+        <v>496</v>
       </c>
       <c r="E116" s="49"/>
-      <c r="F116" s="52" t="s">
-        <v>492</v>
+      <c r="F116" s="50" t="s">
+        <v>491</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>433</v>
@@ -6333,25 +6329,25 @@
         <v>6</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="M116" s="53"/>
+        <v>495</v>
+      </c>
+      <c r="M116" s="52"/>
       <c r="N116" s="51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A117" s="52"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="52"/>
+      <c r="A117" s="50"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
       <c r="E117" s="49"/>
-      <c r="F117" s="52"/>
+      <c r="F117" s="50"/>
       <c r="G117" s="9" t="s">
         <v>486</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>479</v>
@@ -6359,30 +6355,30 @@
       <c r="J117" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M117" s="53"/>
+      <c r="M117" s="52"/>
       <c r="N117" s="51"/>
     </row>
     <row r="118" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A118" s="52"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="52"/>
+      <c r="A118" s="50"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="50"/>
       <c r="E118" s="49"/>
-      <c r="F118" s="52"/>
+      <c r="F118" s="50"/>
       <c r="G118" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="H118" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>493</v>
-      </c>
       <c r="I118" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="M118" s="53"/>
+        <v>500</v>
+      </c>
+      <c r="M118" s="52"/>
       <c r="N118" s="51"/>
     </row>
     <row r="119" spans="1:14" s="31" customFormat="1">
-      <c r="A119" s="52"/>
+      <c r="A119" s="50"/>
       <c r="B119" s="28" t="s">
         <v>105</v>
       </c>
@@ -6412,42 +6408,31 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="N112:N115"/>
-    <mergeCell ref="N116:N118"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="F116:F118"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="M112:M115"/>
-    <mergeCell ref="M116:M118"/>
-    <mergeCell ref="M64:M68"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="D54:D63"/>
-    <mergeCell ref="F54:F63"/>
-    <mergeCell ref="M69:M73"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="F43:F48"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="M74:M105"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="M54:M63"/>
+    <mergeCell ref="M43:M50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="F106:F111"/>
+    <mergeCell ref="B74:B105"/>
+    <mergeCell ref="D74:D105"/>
+    <mergeCell ref="F74:F105"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="M13:M21"/>
+    <mergeCell ref="M22:M29"/>
     <mergeCell ref="A74:A119"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="F20:F21"/>
@@ -6464,11 +6449,34 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C74:C105"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="M13:M21"/>
-    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="D54:D63"/>
+    <mergeCell ref="F54:F63"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="M112:M115"/>
+    <mergeCell ref="M116:M118"/>
+    <mergeCell ref="M64:M68"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="M69:M73"/>
+    <mergeCell ref="M30:M34"/>
     <mergeCell ref="M106:M111"/>
     <mergeCell ref="B69:B73"/>
     <mergeCell ref="D69:D73"/>
@@ -6476,26 +6484,14 @@
     <mergeCell ref="D64:D68"/>
     <mergeCell ref="C64:C68"/>
     <mergeCell ref="B54:B68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="F106:F111"/>
-    <mergeCell ref="B74:B105"/>
-    <mergeCell ref="D74:D105"/>
-    <mergeCell ref="F74:F105"/>
-    <mergeCell ref="M74:M105"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="M54:M63"/>
-    <mergeCell ref="M43:M50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="N112:N115"/>
+    <mergeCell ref="N116:N118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="F114:F115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C69DC-3502-46A6-B14A-9C75CB4BE973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1787C3-B6FC-4284-9E36-54586B7E8E60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2970" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1945,14 +1945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>imgList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片分支名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1981,6 +1973,14 @@
   </si>
   <si>
     <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2933,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView tabSelected="1" topLeftCell="B99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6215,7 +6215,7 @@
         <v>475</v>
       </c>
       <c r="D112" s="50" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E112" s="49"/>
       <c r="F112" s="49" t="s">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="M112" s="52"/>
       <c r="N112" s="50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="17.25" customHeight="1">
@@ -6313,14 +6313,14 @@
       <c r="B116" s="50"/>
       <c r="C116" s="50"/>
       <c r="D116" s="50" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E116" s="49"/>
       <c r="F116" s="50" t="s">
-        <v>491</v>
+        <v>12</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>433</v>
@@ -6329,11 +6329,11 @@
         <v>6</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M116" s="52"/>
       <c r="N116" s="51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="17.25" customHeight="1">
@@ -6347,7 +6347,7 @@
         <v>486</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>479</v>
@@ -6366,13 +6366,13 @@
       <c r="E118" s="49"/>
       <c r="F118" s="50"/>
       <c r="G118" s="9" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M118" s="52"/>
       <c r="N118" s="51"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\src\assets\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1787C3-B6FC-4284-9E36-54586B7E8E60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29136883-A3F8-4BED-80A9-603CA6EFB052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="521">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1880,10 +1880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UploadGood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dataForm
 (上传)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1981,6 +1977,90 @@
   </si>
   <si>
     <t>单个图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadGoodInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadGoodImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadGood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadNews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得新闻列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page(页数，6个一页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2122,7 +2202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2272,9 +2352,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2283,13 +2375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2317,13 +2403,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3055747</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2361,13 +2447,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1141805</xdr:colOff>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>17895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2405,13 +2491,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1141805</xdr:colOff>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>65522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2449,13 +2535,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>178614</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>75045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2493,13 +2579,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1141805</xdr:colOff>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2537,13 +2623,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3236722</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>151246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2581,13 +2667,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>313130</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1141805</xdr:colOff>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>141721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2625,13 +2711,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>73839</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2931,17 +3017,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="4" width="20.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" style="25" customWidth="1"/>
     <col min="7" max="10" width="15.625" style="9" customWidth="1"/>
     <col min="11" max="12" width="9" style="9"/>
@@ -2994,16 +3080,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="55" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="42"/>
@@ -3028,16 +3114,16 @@
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="54" t="s">
         <v>125</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="41"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -3060,14 +3146,14 @@
       <c r="L3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="56"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="41"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
@@ -3090,14 +3176,14 @@
       <c r="L4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="56"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="41"/>
       <c r="F5" s="25" t="s">
         <v>12</v>
@@ -3120,20 +3206,20 @@
       <c r="L5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="56"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="55" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="42"/>
@@ -3158,16 +3244,16 @@
       <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="54" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="47"/>
       <c r="F7" s="25" t="s">
         <v>12</v>
@@ -3190,13 +3276,13 @@
       <c r="L7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="56"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -3228,20 +3314,20 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="55" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="42"/>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="56" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3262,18 +3348,18 @@
       <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="56" t="s">
+      <c r="M9" s="54" t="s">
         <v>128</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="50"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3292,16 +3378,16 @@
       <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="56"/>
+      <c r="M10" s="54"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="50"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="11" t="s">
         <v>93</v>
       </c>
@@ -3320,16 +3406,16 @@
       <c r="L11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="56"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="50"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3348,20 +3434,20 @@
       <c r="L12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="56"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="55" t="s">
         <v>130</v>
       </c>
       <c r="E13" s="42"/>
@@ -3386,16 +3472,16 @@
       <c r="L13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="56" t="s">
+      <c r="M13" s="54" t="s">
         <v>463</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="42"/>
       <c r="F14" s="25" t="s">
         <v>12</v>
@@ -3418,14 +3504,14 @@
       <c r="L14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="56"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="42"/>
       <c r="F15" s="25" t="s">
         <v>12</v>
@@ -3444,16 +3530,16 @@
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="56"/>
+      <c r="M15" s="54"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="56" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3474,16 +3560,16 @@
       <c r="L16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="56"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3502,16 +3588,16 @@
       <c r="L17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="56"/>
+      <c r="M17" s="54"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="50"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3530,16 +3616,16 @@
       <c r="L18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="56"/>
+      <c r="M18" s="54"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3558,16 +3644,16 @@
       <c r="L19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="56"/>
+      <c r="M19" s="54"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="56" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3588,16 +3674,16 @@
       <c r="L20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="56"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="50"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3616,26 +3702,26 @@
       <c r="L21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="56"/>
+      <c r="M21" s="54"/>
       <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="55" t="s">
         <v>131</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="56" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3656,18 +3742,18 @@
       <c r="L22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="56" t="s">
+      <c r="M22" s="54" t="s">
         <v>129</v>
       </c>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="50"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3686,16 +3772,16 @@
       <c r="L23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="56"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="50"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3714,16 +3800,16 @@
       <c r="L24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="56"/>
+      <c r="M24" s="54"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="50"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3742,16 +3828,16 @@
       <c r="L25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="56"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="50"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3770,18 +3856,18 @@
       <c r="L26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="56"/>
+      <c r="M26" s="54"/>
       <c r="N26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="50"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3800,15 +3886,15 @@
       <c r="L27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="56"/>
+      <c r="M27" s="54"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="50"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3827,15 +3913,15 @@
       <c r="L28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="56"/>
+      <c r="M28" s="54"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="50"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3854,17 +3940,17 @@
       <c r="L29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="56"/>
+      <c r="M29" s="54"/>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="55" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="42"/>
@@ -3889,15 +3975,15 @@
       <c r="L30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="56" t="s">
+      <c r="M30" s="54" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="42"/>
       <c r="F31" s="25" t="s">
         <v>12</v>
@@ -3920,15 +4006,15 @@
       <c r="L31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="56"/>
+      <c r="M31" s="54"/>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="56" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -3949,15 +4035,15 @@
       <c r="L32" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="56"/>
+      <c r="M32" s="54"/>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="50"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="9" t="s">
         <v>155</v>
       </c>
@@ -3976,15 +4062,15 @@
       <c r="L33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="56"/>
+      <c r="M33" s="54"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="9" t="s">
         <v>154</v>
       </c>
@@ -4003,14 +4089,14 @@
       <c r="L34" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="56"/>
+      <c r="M34" s="54"/>
     </row>
     <row r="35" spans="1:14" ht="57">
-      <c r="A35" s="50"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="51"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="22" t="s">
         <v>168</v>
       </c>
@@ -4035,11 +4121,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="57">
-      <c r="A36" s="50"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="22" t="s">
         <v>171</v>
       </c>
@@ -4067,11 +4153,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.5">
-      <c r="A37" s="50"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="12" t="s">
         <v>141</v>
       </c>
@@ -4097,11 +4183,11 @@
     </row>
     <row r="38" spans="1:14" ht="57" customHeight="1">
       <c r="A38" s="23"/>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55" t="s">
         <v>314</v>
       </c>
       <c r="E38" s="42"/>
@@ -4126,18 +4212,18 @@
       <c r="L38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="56" t="s">
+      <c r="M38" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="N38" s="54" t="s">
+      <c r="N38" s="58" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="34" customFormat="1" ht="42.75">
       <c r="A39" s="33"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="42"/>
       <c r="F39" s="33" t="s">
         <v>315</v>
@@ -4160,11 +4246,11 @@
       <c r="L39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="56"/>
-      <c r="N39" s="55"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="59"/>
     </row>
     <row r="40" spans="1:14" ht="28.5">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="56" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -4194,14 +4280,14 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="71.25" customHeight="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="55" t="s">
         <v>121</v>
       </c>
       <c r="E41" s="42"/>
@@ -4226,15 +4312,15 @@
       <c r="L41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="56" t="s">
+      <c r="M41" s="54" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="47"/>
       <c r="F42" s="46" t="s">
         <v>455</v>
@@ -4257,21 +4343,21 @@
       <c r="L42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M42" s="56"/>
+      <c r="M42" s="54"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="55" t="s">
         <v>458</v>
       </c>
       <c r="E43" s="42"/>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="56" t="s">
         <v>462</v>
       </c>
       <c r="G43" s="9" t="s">
@@ -4290,17 +4376,17 @@
       <c r="L43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="56" t="s">
+      <c r="M43" s="54" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="50"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="9" t="s">
         <v>435</v>
       </c>
@@ -4317,15 +4403,15 @@
       <c r="L44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="56"/>
+      <c r="M44" s="54"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="50"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="9" t="s">
         <v>432</v>
       </c>
@@ -4342,15 +4428,15 @@
       <c r="L45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="56"/>
+      <c r="M45" s="54"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="50"/>
+      <c r="F46" s="56"/>
       <c r="G46" s="9" t="s">
         <v>437</v>
       </c>
@@ -4367,15 +4453,15 @@
       <c r="L46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="56"/>
+      <c r="M46" s="54"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="43"/>
-      <c r="F47" s="50"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="9" t="s">
         <v>439</v>
       </c>
@@ -4392,15 +4478,15 @@
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="56"/>
+      <c r="M47" s="54"/>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="43"/>
-      <c r="F48" s="50"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="9" t="s">
         <v>441</v>
       </c>
@@ -4417,13 +4503,13 @@
       <c r="L48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="56"/>
+      <c r="M48" s="54"/>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="43"/>
       <c r="F49" s="45" t="s">
         <v>444</v>
@@ -4444,13 +4530,13 @@
       <c r="L49" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M49" s="56"/>
+      <c r="M49" s="54"/>
     </row>
     <row r="50" spans="1:14" ht="28.5">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="43"/>
       <c r="F50" s="45" t="s">
         <v>444</v>
@@ -4468,15 +4554,18 @@
       <c r="K50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="56"/>
+      <c r="L50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" s="54"/>
     </row>
     <row r="51" spans="1:14" ht="83.25" customHeight="1">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56" t="s">
         <v>456</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51" t="s">
+      <c r="C51" s="55"/>
+      <c r="D51" s="55" t="s">
         <v>457</v>
       </c>
       <c r="E51" s="47"/>
@@ -4495,10 +4584,13 @@
       <c r="J51" s="48" t="s">
         <v>414</v>
       </c>
+      <c r="K51" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="L51" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="M51" s="56" t="s">
+      <c r="M51" s="54" t="s">
         <v>472</v>
       </c>
       <c r="N51" s="24" t="s">
@@ -4506,10 +4598,10 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="47"/>
       <c r="F52" s="46" t="s">
         <v>455</v>
@@ -4532,13 +4624,13 @@
       <c r="L52" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M52" s="56"/>
+      <c r="M52" s="54"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="47"/>
       <c r="F53" s="46" t="s">
         <v>455</v>
@@ -4561,21 +4653,21 @@
       <c r="L53" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="M53" s="56"/>
+      <c r="M53" s="54"/>
     </row>
     <row r="54" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50" t="s">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="56" t="s">
         <v>141</v>
       </c>
       <c r="E54" s="41"/>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="56" t="s">
         <v>175</v>
       </c>
       <c r="G54" s="9" t="s">
@@ -4596,7 +4688,7 @@
       <c r="L54" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="52" t="s">
+      <c r="M54" s="53" t="s">
         <v>221</v>
       </c>
       <c r="N54" s="9" t="s">
@@ -4604,12 +4696,12 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="50"/>
+      <c r="F55" s="56"/>
       <c r="G55" s="18" t="s">
         <v>112</v>
       </c>
@@ -4628,15 +4720,15 @@
       <c r="L55" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="52"/>
+      <c r="M55" s="53"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="50"/>
+      <c r="F56" s="56"/>
       <c r="G56" s="18" t="s">
         <v>111</v>
       </c>
@@ -4655,15 +4747,15 @@
       <c r="L56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="52"/>
+      <c r="M56" s="53"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="50"/>
+      <c r="F57" s="56"/>
       <c r="G57" s="9" t="s">
         <v>114</v>
       </c>
@@ -4682,15 +4774,15 @@
       <c r="L57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="52"/>
+      <c r="M57" s="53"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="50"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="9" t="s">
         <v>113</v>
       </c>
@@ -4709,15 +4801,15 @@
       <c r="L58" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="52"/>
+      <c r="M58" s="53"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="50"/>
+      <c r="F59" s="56"/>
       <c r="G59" s="9" t="s">
         <v>116</v>
       </c>
@@ -4736,15 +4828,15 @@
       <c r="L59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="52"/>
+      <c r="M59" s="53"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="50"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="9" t="s">
         <v>92</v>
       </c>
@@ -4763,15 +4855,15 @@
       <c r="L60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M60" s="52"/>
+      <c r="M60" s="53"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="50"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="9" t="s">
         <v>195</v>
       </c>
@@ -4790,15 +4882,15 @@
       <c r="L61" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M61" s="52"/>
+      <c r="M61" s="53"/>
     </row>
     <row r="62" spans="1:14" ht="99.75">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="50"/>
+      <c r="F62" s="56"/>
       <c r="G62" s="9" t="s">
         <v>179</v>
       </c>
@@ -4817,18 +4909,18 @@
       <c r="L62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M62" s="52"/>
+      <c r="M62" s="53"/>
       <c r="N62" s="24" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="50"/>
+      <c r="F63" s="56"/>
       <c r="G63" s="9" t="s">
         <v>395</v>
       </c>
@@ -4847,15 +4939,15 @@
       <c r="L63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M63" s="52"/>
+      <c r="M63" s="53"/>
     </row>
     <row r="64" spans="1:14" ht="45.75" customHeight="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="51" t="s">
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="55" t="s">
         <v>200</v>
       </c>
       <c r="E64" s="42"/>
@@ -4874,7 +4966,7 @@
       <c r="J64" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M64" s="53" t="s">
+      <c r="M64" s="60" t="s">
         <v>220</v>
       </c>
       <c r="N64" s="24" t="s">
@@ -4882,12 +4974,12 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="58" t="s">
+      <c r="F65" s="57" t="s">
         <v>219</v>
       </c>
       <c r="G65" s="9" t="s">
@@ -4908,15 +5000,15 @@
       <c r="L65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M65" s="53"/>
+      <c r="M65" s="60"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="58"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="9" t="s">
         <v>213</v>
       </c>
@@ -4935,15 +5027,15 @@
       <c r="L66" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M66" s="53"/>
+      <c r="M66" s="60"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="42"/>
-      <c r="F67" s="58"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="9" t="s">
         <v>201</v>
       </c>
@@ -4962,15 +5054,15 @@
       <c r="L67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M67" s="53"/>
+      <c r="M67" s="60"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="42"/>
-      <c r="F68" s="58"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="9" t="s">
         <v>217</v>
       </c>
@@ -4989,17 +5081,17 @@
       <c r="L68" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="M68" s="53"/>
+      <c r="M68" s="60"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50" t="s">
+      <c r="A69" s="56"/>
+      <c r="B69" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="55" t="s">
         <v>192</v>
       </c>
       <c r="E69" s="42"/>
@@ -5024,7 +5116,7 @@
       <c r="L69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="57" t="s">
+      <c r="M69" s="52" t="s">
         <v>451</v>
       </c>
       <c r="N69" s="9" t="s">
@@ -5032,12 +5124,12 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="50" t="s">
+      <c r="F70" s="56" t="s">
         <v>193</v>
       </c>
       <c r="G70" s="9" t="s">
@@ -5058,18 +5150,18 @@
       <c r="L70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="52"/>
+      <c r="M70" s="53"/>
       <c r="N70" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="42"/>
-      <c r="F71" s="50"/>
+      <c r="F71" s="56"/>
       <c r="G71" s="9" t="s">
         <v>155</v>
       </c>
@@ -5088,15 +5180,15 @@
       <c r="L71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M71" s="52"/>
+      <c r="M71" s="53"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="42"/>
-      <c r="F72" s="50"/>
+      <c r="F72" s="56"/>
       <c r="G72" s="9" t="s">
         <v>187</v>
       </c>
@@ -5115,15 +5207,15 @@
       <c r="L72" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="52"/>
+      <c r="M72" s="53"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="42"/>
-      <c r="F73" s="50"/>
+      <c r="F73" s="56"/>
       <c r="G73" s="9" t="s">
         <v>189</v>
       </c>
@@ -5142,24 +5234,24 @@
       <c r="L73" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M73" s="52"/>
+      <c r="M73" s="53"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="56" t="s">
         <v>223</v>
       </c>
       <c r="E74" s="41"/>
-      <c r="F74" s="51" t="s">
-        <v>476</v>
+      <c r="F74" s="55" t="s">
+        <v>475</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>224</v>
@@ -5179,17 +5271,17 @@
       <c r="L74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M74" s="57" t="s">
+      <c r="M74" s="52" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="50"/>
+      <c r="F75" s="56"/>
       <c r="G75" s="9" t="s">
         <v>229</v>
       </c>
@@ -5208,15 +5300,15 @@
       <c r="L75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M75" s="52"/>
+      <c r="M75" s="53"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
       <c r="E76" s="41"/>
-      <c r="F76" s="50"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="9" t="s">
         <v>230</v>
       </c>
@@ -5235,15 +5327,15 @@
       <c r="L76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M76" s="52"/>
+      <c r="M76" s="53"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
       <c r="E77" s="41"/>
-      <c r="F77" s="50"/>
+      <c r="F77" s="56"/>
       <c r="G77" s="9" t="s">
         <v>231</v>
       </c>
@@ -5262,15 +5354,15 @@
       <c r="L77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M77" s="52"/>
+      <c r="M77" s="53"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
       <c r="E78" s="41"/>
-      <c r="F78" s="50"/>
+      <c r="F78" s="56"/>
       <c r="G78" s="9" t="s">
         <v>232</v>
       </c>
@@ -5289,15 +5381,15 @@
       <c r="L78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M78" s="52"/>
+      <c r="M78" s="53"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
       <c r="E79" s="41"/>
-      <c r="F79" s="50"/>
+      <c r="F79" s="56"/>
       <c r="G79" s="9" t="s">
         <v>242</v>
       </c>
@@ -5316,15 +5408,15 @@
       <c r="L79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M79" s="52"/>
+      <c r="M79" s="53"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
       <c r="E80" s="41"/>
-      <c r="F80" s="50"/>
+      <c r="F80" s="56"/>
       <c r="G80" s="9" t="s">
         <v>233</v>
       </c>
@@ -5343,15 +5435,15 @@
       <c r="L80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M80" s="52"/>
+      <c r="M80" s="53"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
       <c r="E81" s="41"/>
-      <c r="F81" s="50"/>
+      <c r="F81" s="56"/>
       <c r="G81" s="9" t="s">
         <v>234</v>
       </c>
@@ -5370,15 +5462,15 @@
       <c r="L81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M81" s="52"/>
+      <c r="M81" s="53"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
       <c r="E82" s="41"/>
-      <c r="F82" s="50"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="9" t="s">
         <v>249</v>
       </c>
@@ -5397,15 +5489,15 @@
       <c r="L82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M82" s="52"/>
+      <c r="M82" s="53"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
       <c r="E83" s="41"/>
-      <c r="F83" s="50"/>
+      <c r="F83" s="56"/>
       <c r="G83" s="9" t="s">
         <v>263</v>
       </c>
@@ -5424,15 +5516,15 @@
       <c r="L83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M83" s="52"/>
+      <c r="M83" s="53"/>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
       <c r="E84" s="41"/>
-      <c r="F84" s="50"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="26" t="s">
         <v>254</v>
       </c>
@@ -5451,16 +5543,16 @@
       <c r="L84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M84" s="52"/>
+      <c r="M84" s="53"/>
       <c r="N84" s="26"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
       <c r="E85" s="41"/>
-      <c r="F85" s="50"/>
+      <c r="F85" s="56"/>
       <c r="G85" s="9" t="s">
         <v>256</v>
       </c>
@@ -5479,15 +5571,15 @@
       <c r="L85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M85" s="52"/>
+      <c r="M85" s="53"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
       <c r="E86" s="41"/>
-      <c r="F86" s="50"/>
+      <c r="F86" s="56"/>
       <c r="G86" s="9" t="s">
         <v>258</v>
       </c>
@@ -5506,15 +5598,15 @@
       <c r="L86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M86" s="52"/>
+      <c r="M86" s="53"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
       <c r="E87" s="41"/>
-      <c r="F87" s="50"/>
+      <c r="F87" s="56"/>
       <c r="G87" s="9" t="s">
         <v>261</v>
       </c>
@@ -5533,15 +5625,15 @@
       <c r="L87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M87" s="52"/>
+      <c r="M87" s="53"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
       <c r="E88" s="41"/>
-      <c r="F88" s="50"/>
+      <c r="F88" s="56"/>
       <c r="G88" s="9" t="s">
         <v>264</v>
       </c>
@@ -5560,15 +5652,15 @@
       <c r="L88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="52"/>
+      <c r="M88" s="53"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
       <c r="E89" s="41"/>
-      <c r="F89" s="50"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="9" t="s">
         <v>265</v>
       </c>
@@ -5587,15 +5679,15 @@
       <c r="L89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M89" s="52"/>
+      <c r="M89" s="53"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
       <c r="E90" s="41"/>
-      <c r="F90" s="50"/>
+      <c r="F90" s="56"/>
       <c r="G90" s="9" t="s">
         <v>266</v>
       </c>
@@ -5614,15 +5706,15 @@
       <c r="L90" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M90" s="52"/>
+      <c r="M90" s="53"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="50"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
       <c r="E91" s="41"/>
-      <c r="F91" s="50"/>
+      <c r="F91" s="56"/>
       <c r="G91" s="9" t="s">
         <v>267</v>
       </c>
@@ -5641,15 +5733,15 @@
       <c r="L91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="52"/>
+      <c r="M91" s="53"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="50"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
       <c r="E92" s="41"/>
-      <c r="F92" s="50"/>
+      <c r="F92" s="56"/>
       <c r="G92" s="9" t="s">
         <v>268</v>
       </c>
@@ -5668,15 +5760,15 @@
       <c r="L92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M92" s="52"/>
+      <c r="M92" s="53"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="50"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
       <c r="E93" s="41"/>
-      <c r="F93" s="50"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="9" t="s">
         <v>269</v>
       </c>
@@ -5695,15 +5787,15 @@
       <c r="L93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M93" s="52"/>
+      <c r="M93" s="53"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
       <c r="E94" s="41"/>
-      <c r="F94" s="50"/>
+      <c r="F94" s="56"/>
       <c r="G94" s="9" t="s">
         <v>270</v>
       </c>
@@ -5722,15 +5814,15 @@
       <c r="L94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M94" s="52"/>
+      <c r="M94" s="53"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
       <c r="E95" s="41"/>
-      <c r="F95" s="50"/>
+      <c r="F95" s="56"/>
       <c r="G95" s="9" t="s">
         <v>271</v>
       </c>
@@ -5749,15 +5841,15 @@
       <c r="L95" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="52"/>
+      <c r="M95" s="53"/>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="50"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
       <c r="E96" s="41"/>
-      <c r="F96" s="50"/>
+      <c r="F96" s="56"/>
       <c r="G96" s="9" t="s">
         <v>272</v>
       </c>
@@ -5776,15 +5868,15 @@
       <c r="L96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M96" s="52"/>
+      <c r="M96" s="53"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="50"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="56"/>
       <c r="E97" s="41"/>
-      <c r="F97" s="50"/>
+      <c r="F97" s="56"/>
       <c r="G97" s="9" t="s">
         <v>273</v>
       </c>
@@ -5803,15 +5895,15 @@
       <c r="L97" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M97" s="52"/>
+      <c r="M97" s="53"/>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
       <c r="E98" s="41"/>
-      <c r="F98" s="50"/>
+      <c r="F98" s="56"/>
       <c r="G98" s="9" t="s">
         <v>274</v>
       </c>
@@ -5830,15 +5922,15 @@
       <c r="L98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M98" s="52"/>
+      <c r="M98" s="53"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
       <c r="E99" s="41"/>
-      <c r="F99" s="50"/>
+      <c r="F99" s="56"/>
       <c r="G99" s="9" t="s">
         <v>275</v>
       </c>
@@ -5857,15 +5949,15 @@
       <c r="L99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M99" s="52"/>
+      <c r="M99" s="53"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="50"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="56"/>
       <c r="E100" s="41"/>
-      <c r="F100" s="50"/>
+      <c r="F100" s="56"/>
       <c r="G100" s="9" t="s">
         <v>276</v>
       </c>
@@ -5884,15 +5976,15 @@
       <c r="L100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="52"/>
+      <c r="M100" s="53"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="50"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="56"/>
       <c r="E101" s="41"/>
-      <c r="F101" s="50"/>
+      <c r="F101" s="56"/>
       <c r="G101" s="9" t="s">
         <v>277</v>
       </c>
@@ -5911,15 +6003,15 @@
       <c r="L101" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M101" s="52"/>
+      <c r="M101" s="53"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="50"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="50"/>
+      <c r="F102" s="56"/>
       <c r="G102" s="9" t="s">
         <v>278</v>
       </c>
@@ -5938,15 +6030,15 @@
       <c r="L102" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M102" s="52"/>
+      <c r="M102" s="53"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="50"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
       <c r="E103" s="41"/>
-      <c r="F103" s="50"/>
+      <c r="F103" s="56"/>
       <c r="G103" s="9" t="s">
         <v>280</v>
       </c>
@@ -5965,15 +6057,15 @@
       <c r="L103" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M103" s="52"/>
+      <c r="M103" s="53"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="50"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
       <c r="E104" s="41"/>
-      <c r="F104" s="50"/>
+      <c r="F104" s="56"/>
       <c r="G104" s="9" t="s">
         <v>279</v>
       </c>
@@ -5992,15 +6084,15 @@
       <c r="L104" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M104" s="52"/>
+      <c r="M104" s="53"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="50"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
       <c r="E105" s="41"/>
-      <c r="F105" s="50"/>
+      <c r="F105" s="56"/>
       <c r="G105" s="9" t="s">
         <v>281</v>
       </c>
@@ -6019,23 +6111,23 @@
       <c r="L105" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M105" s="52"/>
+      <c r="M105" s="53"/>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="50"/>
-      <c r="B106" s="50" t="s">
+      <c r="A106" s="56"/>
+      <c r="B106" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="C106" s="50" t="s">
+      <c r="C106" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="D106" s="51" t="s">
+      <c r="D106" s="55" t="s">
         <v>424</v>
       </c>
       <c r="E106" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="F106" s="50" t="s">
+      <c r="F106" s="56" t="s">
         <v>404</v>
       </c>
       <c r="G106" s="9" t="s">
@@ -6056,19 +6148,19 @@
       <c r="L106" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M106" s="57" t="s">
+      <c r="M106" s="52" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="28.5">
-      <c r="A107" s="50"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
       <c r="E107" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="F107" s="50"/>
+      <c r="F107" s="56"/>
       <c r="G107" s="9" t="s">
         <v>405</v>
       </c>
@@ -6087,17 +6179,17 @@
       <c r="L107" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M107" s="52"/>
+      <c r="M107" s="53"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="50"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
       <c r="E108" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F108" s="50"/>
+      <c r="F108" s="56"/>
       <c r="G108" s="9" t="s">
         <v>409</v>
       </c>
@@ -6116,17 +6208,17 @@
       <c r="L108" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M108" s="52"/>
+      <c r="M108" s="53"/>
     </row>
     <row r="109" spans="1:14" ht="77.25" customHeight="1">
-      <c r="A109" s="50"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="56"/>
       <c r="E109" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="F109" s="50"/>
+      <c r="F109" s="56"/>
       <c r="G109" s="9" t="s">
         <v>411</v>
       </c>
@@ -6145,20 +6237,20 @@
       <c r="L109" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M109" s="52"/>
+      <c r="M109" s="53"/>
       <c r="N109" s="40" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="38.25" customHeight="1">
-      <c r="A110" s="50"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="56"/>
       <c r="E110" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="F110" s="50"/>
+      <c r="F110" s="56"/>
       <c r="G110" s="9" t="s">
         <v>415</v>
       </c>
@@ -6177,15 +6269,15 @@
       <c r="L110" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M110" s="52"/>
+      <c r="M110" s="53"/>
     </row>
     <row r="111" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A111" s="50"/>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
       <c r="E111" s="41"/>
-      <c r="F111" s="50"/>
+      <c r="F111" s="56"/>
       <c r="G111" s="9" t="s">
         <v>418</v>
       </c>
@@ -6204,100 +6296,120 @@
       <c r="L111" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M111" s="52"/>
+      <c r="M111" s="53"/>
     </row>
     <row r="112" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A112" s="50"/>
-      <c r="B112" s="50" t="s">
+      <c r="A112" s="56"/>
+      <c r="B112" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="C112" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="D112" s="50" t="s">
-        <v>495</v>
+      <c r="C112" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="D112" s="56" t="s">
+        <v>494</v>
       </c>
       <c r="E112" s="49"/>
       <c r="F112" s="49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G112" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="H112" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="H112" s="9" t="s">
+      <c r="I112" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="I112" s="9" t="s">
+      <c r="J112" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="J112" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="M112" s="52"/>
-      <c r="N112" s="50" t="s">
-        <v>496</v>
+      <c r="K112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M112" s="53" t="s">
+        <v>500</v>
+      </c>
+      <c r="N112" s="56" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A113" s="50"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="56"/>
       <c r="E113" s="49"/>
       <c r="F113" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M113" s="53"/>
+      <c r="N113" s="56"/>
+    </row>
+    <row r="114" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A114" s="56"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="G113" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="M113" s="52"/>
-      <c r="N113" s="50"/>
-    </row>
-    <row r="114" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A114" s="50"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="50" t="s">
+      <c r="G114" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="H114" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="I114" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J114" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="I114" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="J114" s="9" t="s">
+      <c r="K114" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M114" s="53"/>
+      <c r="N114" s="56"/>
+    </row>
+    <row r="115" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A115" s="56"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="M114" s="52"/>
-      <c r="N114" s="50"/>
-    </row>
-    <row r="115" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A115" s="50"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="50"/>
-      <c r="G115" s="9" t="s">
+      <c r="H115" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>490</v>
       </c>
       <c r="I115" s="9" t="s">
         <v>6</v>
@@ -6305,22 +6417,28 @@
       <c r="J115" s="9">
         <v>1000</v>
       </c>
-      <c r="M115" s="52"/>
-      <c r="N115" s="50"/>
+      <c r="K115" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M115" s="53"/>
+      <c r="N115" s="56"/>
     </row>
     <row r="116" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50" t="s">
-        <v>494</v>
+      <c r="A116" s="56"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="56" t="s">
+        <v>493</v>
       </c>
       <c r="E116" s="49"/>
-      <c r="F116" s="50" t="s">
+      <c r="F116" s="56" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>433</v>
@@ -6329,145 +6447,352 @@
         <v>6</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="M116" s="52"/>
-      <c r="N116" s="51" t="s">
-        <v>497</v>
+        <v>492</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M116" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="N116" s="55" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A117" s="50"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="56"/>
       <c r="E117" s="49"/>
-      <c r="F117" s="50"/>
+      <c r="F117" s="56"/>
       <c r="G117" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M117" s="52"/>
-      <c r="N117" s="51"/>
+      <c r="K117" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M117" s="53"/>
+      <c r="N117" s="55"/>
     </row>
     <row r="118" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A118" s="50"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="56"/>
       <c r="E118" s="49"/>
-      <c r="F118" s="50"/>
+      <c r="F118" s="56"/>
       <c r="G118" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="H118" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>500</v>
-      </c>
       <c r="I118" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="M118" s="52"/>
-      <c r="N118" s="51"/>
-    </row>
-    <row r="119" spans="1:14" s="31" customFormat="1">
-      <c r="A119" s="50"/>
-      <c r="B119" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M118" s="53"/>
+      <c r="N118" s="55"/>
+    </row>
+    <row r="119" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A119" s="56"/>
+      <c r="B119" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="C119" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="D119" s="56"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M119" s="53"/>
+      <c r="N119" s="51"/>
+    </row>
+    <row r="120" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A120" s="56"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M120" s="53"/>
+      <c r="N120" s="51"/>
+    </row>
+    <row r="121" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A121" s="56"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M121" s="53"/>
+      <c r="N121" s="51"/>
+    </row>
+    <row r="122" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A122" s="56"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M122" s="53"/>
+      <c r="N122" s="51"/>
+    </row>
+    <row r="123" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A123" s="56"/>
+      <c r="B123" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>516</v>
+      </c>
+      <c r="D123" s="56"/>
+      <c r="E123" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F123" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M123" s="53"/>
+      <c r="N123" s="51"/>
+    </row>
+    <row r="124" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A124" s="56"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M124" s="53"/>
+      <c r="N124" s="51"/>
+    </row>
+    <row r="125" spans="1:14" s="3" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A125" s="56"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L125" s="26"/>
+      <c r="M125" s="53"/>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A126" s="56"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M126" s="53"/>
+      <c r="N126" s="51"/>
+    </row>
+    <row r="127" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A127" s="56"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M127" s="53"/>
+      <c r="N127" s="51"/>
+    </row>
+    <row r="128" spans="1:14" s="31" customFormat="1">
+      <c r="A128" s="56"/>
+      <c r="B128" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C128" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D119" s="28" t="s">
+      <c r="D128" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E119" s="28"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="30"/>
-      <c r="J119" s="30"/>
-      <c r="K119" s="30"/>
-      <c r="L119" s="30"/>
-      <c r="M119" s="29" t="s">
+      <c r="E128" s="28"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="30"/>
+      <c r="M128" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N119" s="30"/>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="L125" s="9" t="s">
+      <c r="N128" s="30"/>
+    </row>
+    <row r="134" spans="12:12">
+      <c r="L134" s="9" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="M74:M105"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="M54:M63"/>
-    <mergeCell ref="M43:M50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="F106:F111"/>
-    <mergeCell ref="B74:B105"/>
-    <mergeCell ref="D74:D105"/>
-    <mergeCell ref="F74:F105"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="M13:M21"/>
-    <mergeCell ref="M22:M29"/>
-    <mergeCell ref="A74:A119"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A40:A73"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C74:C105"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="D54:D63"/>
-    <mergeCell ref="F54:F63"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="F43:F48"/>
+  <mergeCells count="92">
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="M119:M122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="M123:M127"/>
+    <mergeCell ref="N112:N115"/>
+    <mergeCell ref="N116:N118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="F114:F115"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C30:C39"/>
     <mergeCell ref="D38:D39"/>
@@ -6484,14 +6809,66 @@
     <mergeCell ref="D64:D68"/>
     <mergeCell ref="C64:C68"/>
     <mergeCell ref="B54:B68"/>
-    <mergeCell ref="N112:N115"/>
-    <mergeCell ref="N116:N118"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="F116:F118"/>
-    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="D54:D63"/>
+    <mergeCell ref="F54:F63"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A74:A128"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A40:A73"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C74:C105"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="M13:M21"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="F106:F111"/>
+    <mergeCell ref="B74:B105"/>
+    <mergeCell ref="D74:D105"/>
+    <mergeCell ref="F74:F105"/>
+    <mergeCell ref="M74:M105"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="M54:M63"/>
+    <mergeCell ref="M43:M50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="F65:F68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
+++ b/fuying/src/assets/others/data_template(前端视角数据文档).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fuying\fuying\fuying\fuying\src\assets\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29136883-A3F8-4BED-80A9-603CA6EFB052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE5BBC-DF1A-4B54-9CF6-9A1C8B0FF853}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="2955" windowWidth="21600" windowHeight="11385" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="522">
   <si>
     <t>应用页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2056,11 +2056,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2351,22 +2355,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2375,7 +2379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3020,7 +3024,7 @@
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+      <selection activeCell="F123" sqref="F123:F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3080,16 +3084,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="42"/>
@@ -3114,16 +3118,16 @@
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="57" t="s">
         <v>125</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="41"/>
       <c r="F3" s="25" t="s">
         <v>12</v>
@@ -3146,14 +3150,14 @@
       <c r="L3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="41"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
@@ -3176,14 +3180,14 @@
       <c r="L4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="54"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="41"/>
       <c r="F5" s="25" t="s">
         <v>12</v>
@@ -3206,20 +3210,20 @@
       <c r="L5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="54"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="42"/>
@@ -3244,16 +3248,16 @@
       <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="57" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="47"/>
       <c r="F7" s="25" t="s">
         <v>12</v>
@@ -3276,13 +3280,13 @@
       <c r="L7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="54"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="28.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -3314,20 +3318,20 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="42"/>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="52" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3348,18 +3352,18 @@
       <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="57" t="s">
         <v>128</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="56"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3378,16 +3382,16 @@
       <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="54"/>
+      <c r="M10" s="57"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="56"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="11" t="s">
         <v>93</v>
       </c>
@@ -3406,16 +3410,16 @@
       <c r="L11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="54"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="56"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3434,20 +3438,20 @@
       <c r="L12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="54"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>130</v>
       </c>
       <c r="E13" s="42"/>
@@ -3472,16 +3476,16 @@
       <c r="L13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="57" t="s">
         <v>463</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="56"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="42"/>
       <c r="F14" s="25" t="s">
         <v>12</v>
@@ -3504,14 +3508,14 @@
       <c r="L14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="56"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="42"/>
       <c r="F15" s="25" t="s">
         <v>12</v>
@@ -3530,16 +3534,16 @@
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="54"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="56"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="52" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3560,16 +3564,16 @@
       <c r="L16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="54"/>
+      <c r="M16" s="57"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="56"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="56"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3588,16 +3592,16 @@
       <c r="L17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="54"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="56"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="56"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3616,16 +3620,16 @@
       <c r="L18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="54"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="56"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="56"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3644,16 +3648,16 @@
       <c r="L19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="54"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="56"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3674,16 +3678,16 @@
       <c r="L20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="54"/>
+      <c r="M20" s="57"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="56"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="56"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
@@ -3702,26 +3706,26 @@
       <c r="L21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="54"/>
+      <c r="M21" s="57"/>
       <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="54" t="s">
         <v>131</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="52" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3742,18 +3746,18 @@
       <c r="L22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="54" t="s">
+      <c r="M22" s="57" t="s">
         <v>129</v>
       </c>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="56"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3772,16 +3776,16 @@
       <c r="L23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="54"/>
+      <c r="M23" s="57"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="56"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3800,16 +3804,16 @@
       <c r="L24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="54"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="56"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
@@ -3828,16 +3832,16 @@
       <c r="L25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="54"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="56"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="9" t="s">
         <v>115</v>
       </c>
@@ -3856,18 +3860,18 @@
       <c r="L26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="54"/>
+      <c r="M26" s="57"/>
       <c r="N26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="56"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
@@ -3886,15 +3890,15 @@
       <c r="L27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="54"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="56"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
@@ -3913,15 +3917,15 @@
       <c r="L28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="54"/>
+      <c r="M28" s="57"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="56"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="9" t="s">
         <v>92</v>
       </c>
@@ -3940,17 +3944,17 @@
       <c r="L29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="54"/>
+      <c r="M29" s="57"/>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="54" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="42"/>
@@ -3975,15 +3979,15 @@
       <c r="L30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="54" t="s">
+      <c r="M30" s="57" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="42"/>
       <c r="F31" s="25" t="s">
         <v>12</v>
@@ -4006,15 +4010,15 @@
       <c r="L31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="54"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="52" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -4035,15 +4039,15 @@
       <c r="L32" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="54"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="56"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="9" t="s">
         <v>155</v>
       </c>
@@ -4062,15 +4066,15 @@
       <c r="L33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="54"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="54"/>
+     